--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\idea4rc\src-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DFDF55-5603-4AFE-984D-B2101CEBF401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEED45F-44C3-4A51-B887-AD5807FC9024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="15" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="886">
   <si>
     <t>Group Source</t>
   </si>
@@ -906,9 +906,6 @@
   <si>
     <t>Patient Follow Up
 Maturity Level: 0 Draft</t>
-  </si>
-  <si>
-    <t>ElementReference</t>
   </si>
   <si>
     <t>Patient element containing the data regarding the patient followed by the hospital 
@@ -2991,9 +2988,6 @@
     <t>Metastasis to lung - 36770283</t>
   </si>
   <si>
-    <t>systemictreatmentHospital</t>
-  </si>
-  <si>
     <t>SystemicTreatment Hospital (M)</t>
   </si>
   <si>
@@ -3678,9 +3672,6 @@
     <t>treatmentReference</t>
   </si>
   <si>
-    <t>Treatmen</t>
-  </si>
-  <si>
     <t>Treatment reference (M)</t>
   </si>
   <si>
@@ -3742,6 +3733,75 @@
   </si>
   <si>
     <t>rtTreatmentCompletedAsPlanned</t>
+  </si>
+  <si>
+    <t>SystemicTreatment</t>
+  </si>
+  <si>
+    <t>Radiotherapy</t>
+  </si>
+  <si>
+    <t>RegionalDeepHyperthemia</t>
+  </si>
+  <si>
+    <t>IsolatedLimbPerfusion</t>
+  </si>
+  <si>
+    <t>Systemic Treatment</t>
+  </si>
+  <si>
+    <t>Regional Deep Hyperthemia</t>
+  </si>
+  <si>
+    <t>Isolated Limb Perfusion</t>
+  </si>
+  <si>
+    <t>SystemicTreatmentI4RC</t>
+  </si>
+  <si>
+    <t>RadiotherapyI4RC</t>
+  </si>
+  <si>
+    <t>RegionalDeepHyperthemiaI4RC</t>
+  </si>
+  <si>
+    <t>IsolatedLimbPerfusionI4RC</t>
+  </si>
+  <si>
+    <t>systemicTreatmentHospital</t>
+  </si>
+  <si>
+    <t>DrugsForTreatments</t>
+  </si>
+  <si>
+    <t>OverallTreatmentResponse</t>
+  </si>
+  <si>
+    <t>AdverseEvent</t>
+  </si>
+  <si>
+    <t>Drugs for Treatments</t>
+  </si>
+  <si>
+    <t>Overall Treatment Response</t>
+  </si>
+  <si>
+    <t>Adverse Event</t>
+  </si>
+  <si>
+    <t>DrugsForTreatmentsI4RC</t>
+  </si>
+  <si>
+    <t>OverallTreatmentResponseI4RC</t>
+  </si>
+  <si>
+    <t>AdverseEventI4RC</t>
+  </si>
+  <si>
+    <t>ElementSystemicTreatmentReference</t>
+  </si>
+  <si>
+    <t>Treatment</t>
   </si>
 </sst>
 </file>
@@ -3913,7 +3973,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3971,7 +4031,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3979,20 +4038,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4002,7 +4051,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4587,19 +4635,19 @@
     </row>
     <row r="2" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>34</v>
@@ -4614,19 +4662,19 @@
     </row>
     <row r="3" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>34</v>
@@ -4641,7 +4689,7 @@
     </row>
     <row r="4" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -4650,10 +4698,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>34</v>
@@ -4668,7 +4716,7 @@
     </row>
     <row r="5" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A5" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -4677,19 +4725,19 @@
         <v>67</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="I5" s="6"/>
       <c r="K5" t="str">
@@ -4699,7 +4747,7 @@
     </row>
     <row r="6" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -4708,19 +4756,19 @@
         <v>67</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="I6" s="6"/>
       <c r="K6" t="str">
@@ -4730,7 +4778,7 @@
     </row>
     <row r="7" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -4739,19 +4787,19 @@
         <v>67</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="I7" s="6"/>
       <c r="K7" t="str">
@@ -4761,7 +4809,7 @@
     </row>
     <row r="8" spans="1:11" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A8" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -4770,19 +4818,19 @@
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="I8" s="6"/>
       <c r="K8" t="str">
@@ -4792,7 +4840,7 @@
     </row>
     <row r="9" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
@@ -4801,10 +4849,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>34</v>
@@ -4819,7 +4867,7 @@
     </row>
     <row r="10" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
@@ -4828,19 +4876,19 @@
         <v>67</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="I10" s="6"/>
       <c r="K10" t="str">
@@ -4850,7 +4898,7 @@
     </row>
     <row r="11" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A11" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -4859,19 +4907,19 @@
         <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="I11" s="6"/>
       <c r="K11" t="str">
@@ -4881,7 +4929,7 @@
     </row>
     <row r="12" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A12" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
@@ -4890,19 +4938,19 @@
         <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="I12" s="6"/>
       <c r="K12" t="str">
@@ -4912,7 +4960,7 @@
     </row>
     <row r="13" spans="1:11" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A13" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -4921,19 +4969,19 @@
         <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="I13" s="6"/>
       <c r="K13" t="str">
@@ -4943,7 +4991,7 @@
     </row>
     <row r="14" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>14</v>
@@ -4952,10 +5000,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>34</v>
@@ -4970,7 +5018,7 @@
     </row>
     <row r="15" spans="1:11" ht="59" x14ac:dyDescent="0.75">
       <c r="A15" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>13</v>
@@ -4979,19 +5027,19 @@
         <v>67</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="I15" s="6"/>
       <c r="K15" t="str">
@@ -5001,7 +5049,7 @@
     </row>
     <row r="16" spans="1:11" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A16" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>13</v>
@@ -5010,19 +5058,19 @@
         <v>67</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>380</v>
       </c>
       <c r="I16" s="6"/>
       <c r="K16" t="str">
@@ -5032,7 +5080,7 @@
     </row>
     <row r="17" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>13</v>
@@ -5041,19 +5089,19 @@
         <v>67</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="I17" s="6"/>
       <c r="K17" t="str">
@@ -5063,7 +5111,7 @@
     </row>
     <row r="18" spans="1:11" ht="118" x14ac:dyDescent="0.75">
       <c r="A18" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>13</v>
@@ -5072,19 +5120,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="I18" s="6"/>
       <c r="K18" t="str">
@@ -5094,7 +5142,7 @@
     </row>
     <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A19" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>14</v>
@@ -5103,25 +5151,25 @@
         <v>16</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A20" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>14</v>
@@ -5130,25 +5178,25 @@
         <v>16</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A21" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>14</v>
@@ -5157,25 +5205,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A22" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>14</v>
@@ -5184,25 +5232,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A23" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>14</v>
@@ -5211,25 +5259,25 @@
         <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A24" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>14</v>
@@ -5238,25 +5286,25 @@
         <v>67</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>13</v>
@@ -5265,25 +5313,25 @@
         <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:11" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A26" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>14</v>
@@ -5292,25 +5340,25 @@
         <v>67</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A27" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" ht="59" x14ac:dyDescent="0.75">
-      <c r="A27" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>14</v>
@@ -5319,25 +5367,25 @@
         <v>67</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A28" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" ht="59" x14ac:dyDescent="0.75">
-      <c r="A28" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>14</v>
@@ -5346,25 +5394,25 @@
         <v>67</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A29" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>14</v>
@@ -5373,37 +5421,37 @@
         <v>67</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>428</v>
-      </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="39" t="s">
+        <v>668</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="E30" s="40" t="s">
         <v>669</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>671</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>670</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>34</v>
@@ -5416,7 +5464,7 @@
     </row>
     <row r="31" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A31" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>13</v>
@@ -5425,19 +5473,19 @@
         <v>67</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="I31" s="6"/>
       <c r="K31" t="str">
@@ -5447,7 +5495,7 @@
     </row>
     <row r="32" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A32" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>13</v>
@@ -5456,19 +5504,19 @@
         <v>67</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="I32" s="6"/>
       <c r="K32" t="str">
@@ -5478,7 +5526,7 @@
     </row>
     <row r="33" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A33" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>13</v>
@@ -5487,19 +5535,19 @@
         <v>67</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="I33" s="6"/>
       <c r="K33" t="str">
@@ -5509,7 +5557,7 @@
     </row>
     <row r="34" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A34" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>13</v>
@@ -5518,19 +5566,19 @@
         <v>67</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="I34" s="6"/>
       <c r="K34" t="str">
@@ -5540,7 +5588,7 @@
     </row>
     <row r="35" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A35" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>13</v>
@@ -5549,19 +5597,19 @@
         <v>67</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="I35" s="6"/>
       <c r="K35" t="str">
@@ -5571,7 +5619,7 @@
     </row>
     <row r="36" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A36" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>13</v>
@@ -5580,19 +5628,19 @@
         <v>67</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="I36" s="6"/>
       <c r="K36" t="str">
@@ -5602,7 +5650,7 @@
     </row>
     <row r="37" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A37" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>13</v>
@@ -5611,19 +5659,19 @@
         <v>67</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>449</v>
       </c>
       <c r="I37" s="6"/>
       <c r="K37" t="str">
@@ -5633,7 +5681,7 @@
     </row>
     <row r="38" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A38" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>13</v>
@@ -5642,19 +5690,19 @@
         <v>67</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="I38" s="6"/>
       <c r="K38" t="str">
@@ -5664,7 +5712,7 @@
     </row>
     <row r="39" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A39" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>13</v>
@@ -5673,19 +5721,19 @@
         <v>67</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="I39" s="6"/>
       <c r="K39" t="str">
@@ -5695,7 +5743,7 @@
     </row>
     <row r="40" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A40" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>13</v>
@@ -5704,19 +5752,19 @@
         <v>67</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="I40" s="6"/>
       <c r="K40" t="str">
@@ -5775,19 +5823,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>463</v>
+      <c r="C2" s="37" t="s">
+        <v>462</v>
       </c>
       <c r="D2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" t="s">
         <v>337</v>
-      </c>
-      <c r="E2" t="s">
-        <v>338</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -5800,8 +5848,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" s="44" t="s">
-        <v>635</v>
+      <c r="A3" s="37" t="s">
+        <v>634</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -5810,10 +5858,10 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" t="s">
         <v>340</v>
-      </c>
-      <c r="E3" t="s">
-        <v>341</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -5827,7 +5875,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -5836,10 +5884,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" t="s">
         <v>343</v>
-      </c>
-      <c r="E4" t="s">
-        <v>344</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -5853,7 +5901,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -5862,24 +5910,24 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" t="s">
         <v>345</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>346</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -5888,24 +5936,24 @@
         <v>67</v>
       </c>
       <c r="D6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" t="s">
         <v>348</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>349</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -5914,24 +5962,24 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" t="s">
         <v>351</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>352</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -5940,24 +5988,24 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" t="s">
         <v>354</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
         <v>355</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -5966,10 +6014,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" t="s">
         <v>358</v>
-      </c>
-      <c r="E9" t="s">
-        <v>359</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -5983,7 +6031,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -5992,24 +6040,24 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" t="s">
         <v>360</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
         <v>361</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -6018,24 +6066,24 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" t="s">
         <v>363</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
         <v>364</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -6044,24 +6092,24 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" t="s">
         <v>366</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
         <v>367</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -6070,11 +6118,11 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" t="s">
         <v>369</v>
       </c>
-      <c r="E13" t="s">
-        <v>370</v>
-      </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
@@ -6082,12 +6130,12 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -6096,10 +6144,10 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" t="s">
         <v>373</v>
-      </c>
-      <c r="E14" t="s">
-        <v>374</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -6113,7 +6161,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -6122,24 +6170,24 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15" t="s">
         <v>375</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
         <v>376</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -6148,24 +6196,24 @@
         <v>67</v>
       </c>
       <c r="D16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" t="s">
         <v>378</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
         <v>379</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A17" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -6174,24 +6222,24 @@
         <v>67</v>
       </c>
       <c r="D17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" t="s">
         <v>381</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
         <v>382</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A18" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -6200,24 +6248,24 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" t="s">
         <v>384</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
         <v>385</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -6226,24 +6274,24 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
+        <v>473</v>
+      </c>
+      <c r="E19" t="s">
         <v>474</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
         <v>475</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -6252,24 +6300,24 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
+        <v>477</v>
+      </c>
+      <c r="E20" t="s">
         <v>478</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
         <v>479</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -6278,24 +6326,24 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
+        <v>481</v>
+      </c>
+      <c r="E21" t="s">
         <v>482</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
         <v>483</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -6304,24 +6352,24 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E22" t="s">
         <v>399</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
         <v>400</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -6330,24 +6378,24 @@
         <v>67</v>
       </c>
       <c r="D23" t="s">
+        <v>485</v>
+      </c>
+      <c r="E23" t="s">
         <v>486</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
         <v>487</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -6356,24 +6404,24 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
+        <v>489</v>
+      </c>
+      <c r="E24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
         <v>490</v>
-      </c>
-      <c r="E24" t="s">
-        <v>404</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -6382,24 +6430,24 @@
         <v>67</v>
       </c>
       <c r="D25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E25" t="s">
         <v>407</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
         <v>408</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -6408,24 +6456,24 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
+        <v>410</v>
+      </c>
+      <c r="E26" t="s">
         <v>411</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
         <v>412</v>
       </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" t="s">
-        <v>413</v>
-      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A27" s="44" t="s">
-        <v>638</v>
+      <c r="A27" s="37" t="s">
+        <v>637</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -6434,24 +6482,24 @@
         <v>67</v>
       </c>
       <c r="D27" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" t="s">
         <v>414</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
         <v>415</v>
-      </c>
-      <c r="F27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -6460,24 +6508,24 @@
         <v>67</v>
       </c>
       <c r="D28" t="s">
+        <v>417</v>
+      </c>
+      <c r="E28" t="s">
         <v>418</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
         <v>419</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -6486,24 +6534,24 @@
         <v>67</v>
       </c>
       <c r="D29" t="s">
+        <v>421</v>
+      </c>
+      <c r="E29" t="s">
         <v>422</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
         <v>423</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -6512,36 +6560,36 @@
         <v>67</v>
       </c>
       <c r="D30" t="s">
+        <v>425</v>
+      </c>
+      <c r="E30" t="s">
         <v>426</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
         <v>427</v>
       </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" t="s">
-        <v>428</v>
-      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="39" t="s">
+        <v>668</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="E31" s="40" t="s">
         <v>669</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>671</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>670</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>34</v>
@@ -6554,7 +6602,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A32" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -6563,24 +6611,24 @@
         <v>67</v>
       </c>
       <c r="D32" t="s">
+        <v>428</v>
+      </c>
+      <c r="E32" t="s">
         <v>429</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
         <v>430</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A33" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -6589,24 +6637,24 @@
         <v>67</v>
       </c>
       <c r="D33" t="s">
+        <v>431</v>
+      </c>
+      <c r="E33" t="s">
         <v>432</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
         <v>433</v>
-      </c>
-      <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -6615,10 +6663,10 @@
         <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -6627,12 +6675,12 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -6641,24 +6689,24 @@
         <v>67</v>
       </c>
       <c r="D35" t="s">
+        <v>437</v>
+      </c>
+      <c r="E35" t="s">
         <v>438</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
         <v>439</v>
-      </c>
-      <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A36" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -6667,24 +6715,24 @@
         <v>67</v>
       </c>
       <c r="D36" t="s">
+        <v>440</v>
+      </c>
+      <c r="E36" t="s">
         <v>441</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" t="s">
         <v>442</v>
-      </c>
-      <c r="F36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A37" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -6693,24 +6741,24 @@
         <v>67</v>
       </c>
       <c r="D37" t="s">
+        <v>443</v>
+      </c>
+      <c r="E37" t="s">
         <v>444</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s">
         <v>445</v>
-      </c>
-      <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A38" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -6719,24 +6767,24 @@
         <v>67</v>
       </c>
       <c r="D38" t="s">
+        <v>446</v>
+      </c>
+      <c r="E38" t="s">
         <v>447</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s">
         <v>448</v>
-      </c>
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A39" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -6745,24 +6793,24 @@
         <v>67</v>
       </c>
       <c r="D39" t="s">
+        <v>449</v>
+      </c>
+      <c r="E39" t="s">
         <v>450</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
         <v>451</v>
-      </c>
-      <c r="F39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A40" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -6771,24 +6819,24 @@
         <v>67</v>
       </c>
       <c r="D40" t="s">
+        <v>452</v>
+      </c>
+      <c r="E40" t="s">
         <v>453</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s">
         <v>454</v>
-      </c>
-      <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A41" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -6797,19 +6845,19 @@
         <v>67</v>
       </c>
       <c r="D41" t="s">
+        <v>455</v>
+      </c>
+      <c r="E41" t="s">
         <v>456</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s">
         <v>457</v>
-      </c>
-      <c r="F41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" t="s">
-        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -6863,19 +6911,19 @@
     </row>
     <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" t="s">
         <v>493</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>459</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -6889,7 +6937,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -6898,24 +6946,24 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E3" t="s">
         <v>497</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>498</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -6924,10 +6972,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E4" t="s">
         <v>501</v>
-      </c>
-      <c r="E4" t="s">
-        <v>502</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -6941,7 +6989,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -6950,10 +6998,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E5" t="s">
         <v>504</v>
-      </c>
-      <c r="E5" t="s">
-        <v>505</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -7016,19 +7064,19 @@
     </row>
     <row r="2" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
         <v>506</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -7042,7 +7090,7 @@
     </row>
     <row r="3" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -7051,24 +7099,24 @@
         <v>67</v>
       </c>
       <c r="D3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>408</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -7077,24 +7125,24 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>412</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -7103,24 +7151,24 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>415</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -7129,24 +7177,24 @@
         <v>67</v>
       </c>
       <c r="D6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>419</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="59" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -7155,24 +7203,24 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>423</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -7181,36 +7229,36 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
         <v>427</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9" s="47" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="39" t="s">
+        <v>668</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>669</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>671</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>670</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>34</v>
@@ -7223,7 +7271,7 @@
     </row>
     <row r="10" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -7232,24 +7280,24 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
         <v>430</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A11" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -7258,24 +7306,24 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
         <v>433</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A12" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -7284,10 +7332,10 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -7296,12 +7344,12 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A13" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -7310,24 +7358,24 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
         <v>439</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -7336,24 +7384,24 @@
         <v>67</v>
       </c>
       <c r="D14" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
         <v>442</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -7362,24 +7410,24 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
+        <v>443</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
         <v>445</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -7388,24 +7436,24 @@
         <v>67</v>
       </c>
       <c r="D16" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
         <v>448</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -7414,24 +7462,24 @@
         <v>67</v>
       </c>
       <c r="D17" t="s">
+        <v>449</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
         <v>451</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -7440,19 +7488,19 @@
         <v>67</v>
       </c>
       <c r="D18" t="s">
+        <v>452</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
         <v>454</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -7506,19 +7554,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>463</v>
+      <c r="C2" s="37" t="s">
+        <v>462</v>
       </c>
       <c r="D2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" t="s">
         <v>509</v>
-      </c>
-      <c r="E2" t="s">
-        <v>510</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -7532,19 +7580,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
         <v>506</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>507</v>
-      </c>
-      <c r="E3" t="s">
-        <v>508</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -7558,7 +7606,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -7567,24 +7615,24 @@
         <v>67</v>
       </c>
       <c r="D4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" t="s">
         <v>512</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
         <v>513</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -7593,10 +7641,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E5" t="s">
         <v>516</v>
-      </c>
-      <c r="E5" t="s">
-        <v>517</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -7610,7 +7658,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -7619,24 +7667,24 @@
         <v>67</v>
       </c>
       <c r="D6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E6" t="s">
         <v>519</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
         <v>520</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -7645,10 +7693,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E7" t="s">
         <v>523</v>
-      </c>
-      <c r="E7" t="s">
-        <v>524</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -7662,7 +7710,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -7671,24 +7719,24 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E8" t="s">
         <v>526</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
         <v>527</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -7697,10 +7745,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E9" t="s">
         <v>530</v>
-      </c>
-      <c r="E9" t="s">
-        <v>531</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -7713,8 +7761,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" s="44" t="s">
-        <v>652</v>
+      <c r="A10" s="37" t="s">
+        <v>651</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -7723,24 +7771,24 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
+        <v>531</v>
+      </c>
+      <c r="E10" t="s">
         <v>532</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
         <v>533</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -7749,10 +7797,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E11" t="s">
         <v>536</v>
-      </c>
-      <c r="E11" t="s">
-        <v>537</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -7765,8 +7813,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" s="44" t="s">
-        <v>653</v>
+      <c r="A12" s="37" t="s">
+        <v>652</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -7775,24 +7823,24 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
+        <v>537</v>
+      </c>
+      <c r="E12" t="s">
         <v>538</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
         <v>539</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -7801,10 +7849,10 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
+        <v>541</v>
+      </c>
+      <c r="E13" t="s">
         <v>542</v>
-      </c>
-      <c r="E13" t="s">
-        <v>543</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -7818,7 +7866,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -7827,24 +7875,24 @@
         <v>67</v>
       </c>
       <c r="D14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E14" t="s">
         <v>545</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
         <v>546</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -7853,10 +7901,10 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>548</v>
+      </c>
+      <c r="E15" t="s">
         <v>549</v>
-      </c>
-      <c r="E15" t="s">
-        <v>550</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -7869,8 +7917,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="44" t="s">
-        <v>654</v>
+      <c r="A16" s="37" t="s">
+        <v>653</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -7879,24 +7927,24 @@
         <v>67</v>
       </c>
       <c r="D16" t="s">
+        <v>550</v>
+      </c>
+      <c r="E16" t="s">
         <v>551</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
         <v>552</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -7905,10 +7953,10 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
+        <v>554</v>
+      </c>
+      <c r="E17" t="s">
         <v>555</v>
-      </c>
-      <c r="E17" t="s">
-        <v>556</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -7971,19 +8019,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>463</v>
+      <c r="C2" s="37" t="s">
+        <v>462</v>
       </c>
       <c r="D2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" t="s">
         <v>509</v>
-      </c>
-      <c r="E2" t="s">
-        <v>510</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -7997,19 +8045,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="37" t="s">
         <v>222</v>
       </c>
       <c r="D3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E3" t="s">
         <v>557</v>
-      </c>
-      <c r="E3" t="s">
-        <v>558</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -8023,7 +8071,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -8032,24 +8080,24 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E4" t="s">
         <v>560</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>561</v>
-      </c>
-      <c r="F4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -8058,10 +8106,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" t="s">
         <v>564</v>
-      </c>
-      <c r="E5" t="s">
-        <v>565</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -8075,7 +8123,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -8084,10 +8132,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" t="s">
         <v>567</v>
-      </c>
-      <c r="E6" t="s">
-        <v>568</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -8101,7 +8149,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -8110,24 +8158,24 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>569</v>
+      </c>
+      <c r="E7" t="s">
         <v>570</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>571</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -8136,24 +8184,24 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" t="s">
         <v>574</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
         <v>575</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -8162,24 +8210,24 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>577</v>
+      </c>
+      <c r="E9" t="s">
         <v>578</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
         <v>579</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -8188,24 +8236,24 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
+        <v>581</v>
+      </c>
+      <c r="E10" t="s">
         <v>582</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
         <v>583</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -8214,10 +8262,10 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -8226,38 +8274,38 @@
         <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="s">
         <v>586</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>587</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
         <v>588</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -8266,11 +8314,11 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>590</v>
+      </c>
+      <c r="E13" t="s">
         <v>591</v>
       </c>
-      <c r="E13" t="s">
-        <v>592</v>
-      </c>
       <c r="F13" t="s">
         <v>70</v>
       </c>
@@ -8278,12 +8326,12 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -8292,10 +8340,10 @@
         <v>67</v>
       </c>
       <c r="D14" t="s">
+        <v>593</v>
+      </c>
+      <c r="E14" t="s">
         <v>594</v>
-      </c>
-      <c r="E14" t="s">
-        <v>595</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -8309,7 +8357,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -8318,10 +8366,10 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
+        <v>596</v>
+      </c>
+      <c r="E15" t="s">
         <v>597</v>
-      </c>
-      <c r="E15" t="s">
-        <v>598</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -8335,7 +8383,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -8344,10 +8392,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
+        <v>599</v>
+      </c>
+      <c r="E16" t="s">
         <v>600</v>
-      </c>
-      <c r="E16" t="s">
-        <v>601</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -8361,7 +8409,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -8370,24 +8418,24 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>602</v>
+      </c>
+      <c r="E17" t="s">
         <v>603</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
         <v>604</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -8396,10 +8444,10 @@
         <v>67</v>
       </c>
       <c r="D18" t="s">
+        <v>606</v>
+      </c>
+      <c r="E18" t="s">
         <v>607</v>
-      </c>
-      <c r="E18" t="s">
-        <v>608</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -8413,7 +8461,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -8422,10 +8470,10 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
+        <v>609</v>
+      </c>
+      <c r="E19" t="s">
         <v>610</v>
-      </c>
-      <c r="E19" t="s">
-        <v>611</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -8438,32 +8486,32 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="41" t="s">
+        <v>681</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>611</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>612</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A21" s="37" t="s">
         <v>682</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>612</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>613</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="49"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A21" s="44" t="s">
-        <v>683</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -8472,11 +8520,11 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
+        <v>611</v>
+      </c>
+      <c r="E21" t="s">
         <v>612</v>
       </c>
-      <c r="E21" t="s">
-        <v>613</v>
-      </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
@@ -8484,12 +8532,12 @@
         <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A22" s="44" t="s">
-        <v>684</v>
+      <c r="A22" s="37" t="s">
+        <v>683</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -8498,11 +8546,11 @@
         <v>67</v>
       </c>
       <c r="D22" t="s">
+        <v>613</v>
+      </c>
+      <c r="E22" t="s">
         <v>614</v>
       </c>
-      <c r="E22" t="s">
-        <v>615</v>
-      </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
@@ -8510,12 +8558,12 @@
         <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A23" s="44" t="s">
-        <v>685</v>
+      <c r="A23" s="37" t="s">
+        <v>684</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -8524,11 +8572,11 @@
         <v>67</v>
       </c>
       <c r="D23" t="s">
+        <v>615</v>
+      </c>
+      <c r="E23" t="s">
         <v>616</v>
       </c>
-      <c r="E23" t="s">
-        <v>617</v>
-      </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
@@ -8536,12 +8584,12 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A24" s="44" t="s">
-        <v>686</v>
+      <c r="A24" s="37" t="s">
+        <v>685</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -8550,11 +8598,11 @@
         <v>67</v>
       </c>
       <c r="D24" t="s">
+        <v>617</v>
+      </c>
+      <c r="E24" t="s">
         <v>618</v>
       </c>
-      <c r="E24" t="s">
-        <v>619</v>
-      </c>
       <c r="F24" t="s">
         <v>34</v>
       </c>
@@ -8562,12 +8610,12 @@
         <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A25" s="44" t="s">
-        <v>687</v>
+      <c r="A25" s="37" t="s">
+        <v>686</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -8576,11 +8624,11 @@
         <v>67</v>
       </c>
       <c r="D25" t="s">
+        <v>619</v>
+      </c>
+      <c r="E25" t="s">
         <v>620</v>
       </c>
-      <c r="E25" t="s">
-        <v>621</v>
-      </c>
       <c r="F25" t="s">
         <v>34</v>
       </c>
@@ -8588,12 +8636,12 @@
         <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A26" s="44" t="s">
-        <v>688</v>
+      <c r="A26" s="37" t="s">
+        <v>687</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -8602,11 +8650,11 @@
         <v>67</v>
       </c>
       <c r="D26" t="s">
+        <v>621</v>
+      </c>
+      <c r="E26" t="s">
         <v>622</v>
       </c>
-      <c r="E26" t="s">
-        <v>623</v>
-      </c>
       <c r="F26" t="s">
         <v>34</v>
       </c>
@@ -8614,12 +8662,12 @@
         <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A27" s="44" t="s">
-        <v>689</v>
+      <c r="A27" s="37" t="s">
+        <v>688</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -8628,11 +8676,11 @@
         <v>67</v>
       </c>
       <c r="D27" t="s">
+        <v>623</v>
+      </c>
+      <c r="E27" t="s">
         <v>624</v>
       </c>
-      <c r="E27" t="s">
-        <v>625</v>
-      </c>
       <c r="F27" t="s">
         <v>34</v>
       </c>
@@ -8640,12 +8688,12 @@
         <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A28" s="44" t="s">
-        <v>690</v>
+      <c r="A28" s="37" t="s">
+        <v>689</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -8654,11 +8702,11 @@
         <v>67</v>
       </c>
       <c r="D28" t="s">
+        <v>625</v>
+      </c>
+      <c r="E28" t="s">
         <v>626</v>
       </c>
-      <c r="E28" t="s">
-        <v>627</v>
-      </c>
       <c r="F28" t="s">
         <v>34</v>
       </c>
@@ -8666,12 +8714,12 @@
         <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A29" s="44" t="s">
-        <v>691</v>
+      <c r="A29" s="37" t="s">
+        <v>690</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -8680,11 +8728,11 @@
         <v>67</v>
       </c>
       <c r="D29" t="s">
+        <v>627</v>
+      </c>
+      <c r="E29" t="s">
         <v>628</v>
       </c>
-      <c r="E29" t="s">
-        <v>629</v>
-      </c>
       <c r="F29" t="s">
         <v>34</v>
       </c>
@@ -8692,12 +8740,12 @@
         <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A30" s="44" t="s">
-        <v>692</v>
+      <c r="A30" s="37" t="s">
+        <v>691</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -8706,11 +8754,11 @@
         <v>67</v>
       </c>
       <c r="D30" t="s">
+        <v>629</v>
+      </c>
+      <c r="E30" t="s">
         <v>630</v>
       </c>
-      <c r="E30" t="s">
-        <v>631</v>
-      </c>
       <c r="F30" t="s">
         <v>34</v>
       </c>
@@ -8718,12 +8766,12 @@
         <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -8732,19 +8780,19 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
+        <v>631</v>
+      </c>
+      <c r="E31" t="s">
         <v>632</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
         <v>633</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" t="s">
-        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -8754,15 +8802,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E5F22B-FC87-4122-82A5-9C44081B26A5}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="58.58984375" customWidth="1"/>
+    <col min="1" max="1" width="49.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
     <col min="3" max="3" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8794,19 +8846,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>463</v>
+      <c r="C2" s="37" t="s">
+        <v>462</v>
       </c>
       <c r="D2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" t="s">
         <v>509</v>
-      </c>
-      <c r="E2" t="s">
-        <v>510</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -8820,19 +8872,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="37" t="s">
         <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -8845,8 +8897,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>695</v>
+      <c r="A4" s="37" t="s">
+        <v>874</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -8855,10 +8907,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -8872,7 +8924,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -8881,24 +8933,24 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>697</v>
+      </c>
+      <c r="E5" t="s">
+        <v>698</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>699</v>
-      </c>
-      <c r="E5" t="s">
-        <v>700</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -8907,10 +8959,10 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -8919,12 +8971,12 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -8933,24 +8985,24 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>704</v>
+      </c>
+      <c r="E7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
         <v>706</v>
-      </c>
-      <c r="E7" t="s">
-        <v>707</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -8959,24 +9011,24 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>708</v>
+      </c>
+      <c r="E8" t="s">
+        <v>709</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
         <v>710</v>
-      </c>
-      <c r="E8" t="s">
-        <v>711</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -8985,10 +9037,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -9002,7 +9054,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -9011,10 +9063,10 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -9028,7 +9080,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -9037,10 +9089,10 @@
         <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -9054,7 +9106,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -9063,24 +9115,24 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>721</v>
+      </c>
+      <c r="E12" t="s">
+        <v>722</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
         <v>723</v>
-      </c>
-      <c r="E12" t="s">
-        <v>724</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -9089,10 +9141,10 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E13" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -9106,7 +9158,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -9115,10 +9167,10 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E14" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -9132,7 +9184,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -9141,24 +9193,24 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
+        <v>731</v>
+      </c>
+      <c r="E15" t="s">
+        <v>732</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
         <v>733</v>
       </c>
-      <c r="E15" t="s">
-        <v>734</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>735</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="44" t="s">
-        <v>813</v>
+      <c r="A16" s="37" t="s">
+        <v>811</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -9167,19 +9219,19 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
+        <v>734</v>
+      </c>
+      <c r="E16" t="s">
+        <v>735</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
         <v>736</v>
-      </c>
-      <c r="E16" t="s">
-        <v>737</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -9189,6 +9241,9 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5326D29F-69FA-442D-B5AB-DDD6753BF7E7}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9230,19 +9285,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>463</v>
+      <c r="C2" s="37" t="s">
+        <v>462</v>
       </c>
       <c r="D2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" t="s">
         <v>509</v>
-      </c>
-      <c r="E2" t="s">
-        <v>510</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -9256,19 +9311,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="37" t="s">
         <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -9282,7 +9337,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -9291,10 +9346,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -9308,7 +9363,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -9317,10 +9372,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -9329,38 +9384,38 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>705</v>
-      </c>
-      <c r="B6" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>742</v>
+      </c>
+      <c r="E6" t="s">
+        <v>743</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>744</v>
-      </c>
-      <c r="E6" t="s">
-        <v>745</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -9369,24 +9424,24 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>746</v>
+      </c>
+      <c r="E7" t="s">
+        <v>747</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
         <v>748</v>
       </c>
-      <c r="E7" t="s">
-        <v>749</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>750</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A8" s="44" t="s">
-        <v>656</v>
+      <c r="A8" s="37" t="s">
+        <v>655</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -9395,10 +9450,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -9412,7 +9467,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -9421,24 +9476,24 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>752</v>
+      </c>
+      <c r="E9" t="s">
+        <v>753</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
         <v>754</v>
-      </c>
-      <c r="E9" t="s">
-        <v>755</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -9447,10 +9502,10 @@
         <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -9464,7 +9519,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -9473,24 +9528,24 @@
         <v>215</v>
       </c>
       <c r="D11" t="s">
+        <v>759</v>
+      </c>
+      <c r="E11" t="s">
+        <v>760</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
         <v>761</v>
-      </c>
-      <c r="E11" t="s">
-        <v>762</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -9499,10 +9554,10 @@
         <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -9516,7 +9571,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -9525,24 +9580,24 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
+        <v>766</v>
+      </c>
+      <c r="E13" t="s">
+        <v>767</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
         <v>768</v>
       </c>
-      <c r="E13" t="s">
-        <v>769</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>770</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A14" s="44" t="s">
-        <v>862</v>
+      <c r="A14" s="37" t="s">
+        <v>859</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -9551,36 +9606,36 @@
         <v>67</v>
       </c>
       <c r="D14" t="s">
+        <v>769</v>
+      </c>
+      <c r="E14" t="s">
+        <v>770</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
         <v>771</v>
       </c>
-      <c r="E14" t="s">
-        <v>772</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>773</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15" s="44" t="s">
-        <v>863</v>
-      </c>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="37" t="s">
+        <v>860</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>860</v>
+      <c r="D15" s="42" t="s">
+        <v>857</v>
       </c>
       <c r="E15" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -9589,24 +9644,24 @@
         <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="44" t="s">
-        <v>864</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="37" t="s">
+        <v>861</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>861</v>
+      <c r="D16" s="42" t="s">
+        <v>858</v>
       </c>
       <c r="E16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -9615,12 +9670,12 @@
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -9629,10 +9684,10 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E17" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -9655,10 +9710,10 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E18" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -9672,19 +9727,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>783</v>
-      </c>
-      <c r="B19" s="44" t="s">
+        <v>781</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -9698,19 +9753,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>785</v>
-      </c>
-      <c r="B20" s="44" t="s">
+        <v>783</v>
+      </c>
+      <c r="B20" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E20" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -9724,7 +9779,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -9733,10 +9788,10 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E21" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
@@ -9750,7 +9805,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -9759,10 +9814,10 @@
         <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E22" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -9776,7 +9831,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -9785,24 +9840,24 @@
         <v>67</v>
       </c>
       <c r="D23" t="s">
+        <v>791</v>
+      </c>
+      <c r="E23" t="s">
+        <v>792</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
         <v>793</v>
-      </c>
-      <c r="E23" t="s">
-        <v>794</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -9811,10 +9866,10 @@
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E24" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -9823,12 +9878,12 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -9837,10 +9892,10 @@
         <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E25" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
@@ -9849,12 +9904,12 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -9863,10 +9918,10 @@
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E26" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -9875,12 +9930,12 @@
         <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -9889,10 +9944,10 @@
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
@@ -9901,12 +9956,12 @@
         <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -9915,10 +9970,10 @@
         <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E28" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -9927,12 +9982,12 @@
         <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A29" s="44" t="s">
-        <v>865</v>
+      <c r="A29" s="37" t="s">
+        <v>862</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -9941,24 +9996,24 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
+        <v>805</v>
+      </c>
+      <c r="E29" t="s">
+        <v>806</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
         <v>807</v>
-      </c>
-      <c r="E29" t="s">
-        <v>808</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -9967,10 +10022,10 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F30" t="s">
         <v>70</v>
@@ -9984,7 +10039,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -9993,10 +10048,10 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E31" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F31" t="s">
         <v>70</v>
@@ -10005,7 +10060,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -10015,15 +10070,19 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD9707F-8031-429A-9C78-1432E8AC7758}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="35.76953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
@@ -10054,19 +10113,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>463</v>
+      <c r="C2" s="37" t="s">
+        <v>462</v>
       </c>
       <c r="D2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" t="s">
         <v>509</v>
-      </c>
-      <c r="E2" t="s">
-        <v>510</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
@@ -10080,19 +10139,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="37" t="s">
         <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F3" t="s">
         <v>70</v>
@@ -10106,7 +10165,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -10115,10 +10174,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F4" t="s">
         <v>70</v>
@@ -10132,7 +10191,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -10141,10 +10200,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F5" t="s">
         <v>70</v>
@@ -10167,10 +10226,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -10184,7 +10243,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -10193,10 +10252,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -10205,7 +10264,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -10215,13 +10274,21 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C247EAD-6F40-421C-8635-EFED5E389832}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="26.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -10251,19 +10318,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>246</v>
+      <c r="C2" s="37" t="s">
+        <v>462</v>
       </c>
       <c r="D2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
@@ -10277,19 +10344,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>246</v>
+      <c r="C3" s="37" t="s">
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F3" t="s">
         <v>70</v>
@@ -10303,7 +10370,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -10312,10 +10379,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F4" t="s">
         <v>70</v>
@@ -10329,7 +10396,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -10338,10 +10405,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F5" t="s">
         <v>70</v>
@@ -10364,10 +10431,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -10381,7 +10448,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -10390,10 +10457,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -10402,7 +10469,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -10413,10 +10480,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Foglio2"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10471,69 +10538,69 @@
     </row>
     <row r="4" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A5" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A8" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D8" s="6" t="str">
         <f>C8&amp;"
@@ -10547,13 +10614,13 @@
         <v>222</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f t="shared" ref="D9:D12" si="0">C9&amp;"
+        <f t="shared" ref="D9:D19" si="0">C9&amp;"
 Maturity Level: 0 Draft"</f>
         <v>Episode Event
 Maturity Level: 0 Draft</v>
@@ -10561,13 +10628,13 @@
     </row>
     <row r="10" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -10577,13 +10644,13 @@
     </row>
     <row r="11" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A11" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -10593,13 +10660,13 @@
     </row>
     <row r="12" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A12" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -10607,11 +10674,117 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+    <row r="13" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A13" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Systemic Treatment
+Maturity Level: 0 Draft</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>864</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C14" t="s">
+        <v>864</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Radiotherapy
+Maturity Level: 0 Draft</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>865</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C15" t="s">
+        <v>868</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Regional Deep Hyperthemia
+Maturity Level: 0 Draft</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>866</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C16" t="s">
+        <v>869</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Isolated Limb Perfusion
+Maturity Level: 0 Draft</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>875</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C17" t="s">
+        <v>878</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Drugs for Treatments
+Maturity Level: 0 Draft</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>876</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C18" t="s">
+        <v>879</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Overall Treatment Response
+Maturity Level: 0 Draft</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>877</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C19" t="s">
+        <v>880</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Adverse Event
+Maturity Level: 0 Draft</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10626,6 +10799,13 @@
     <hyperlink ref="B10" location="DiseaseExtentI4RC!A1" display="#DiseaseExtentI4RC!A1" xr:uid="{3907F9F0-ED56-43DF-9064-9E35D69EC4E9}"/>
     <hyperlink ref="B11" location="GeneticTestExpressionI4RC!A1" display="#GeneticTestExpressionI4RC!A1" xr:uid="{FE6A9743-9AC5-4D47-BD71-F0051D0736D9}"/>
     <hyperlink ref="B12" location="SurgeryI4RC!A1" display="#SurgeryI4RC!A1" xr:uid="{07E67199-CC75-47DF-9EBB-1EEA03DA5258}"/>
+    <hyperlink ref="B13" location="SystemicTreatment!A1" display="#SystemicTreatment!A1" xr:uid="{BED40BA9-972F-4A65-961B-E0E5E5D2185F}"/>
+    <hyperlink ref="B14" location="Radiotherapy!A1" display="#Radiotherapy!A1" xr:uid="{0DBFAED1-4DB4-450A-A04B-50046AA1ED1B}"/>
+    <hyperlink ref="B15" location="RegionalDeepHyperthemia!A1" display="#RegionalDeepHyperthemia!A1" xr:uid="{D31F9476-361D-472F-8EAF-9E20B3921E6F}"/>
+    <hyperlink ref="B16" location="IsolatedLimbPerfusion!A1" display="#IsolatedLimbPerfusion!A1" xr:uid="{FA219134-09B6-4DA1-BEEC-A6FF53939663}"/>
+    <hyperlink ref="B17" location="DrugsForTreatments!A1" display="#DrugsForTreatments!A1" xr:uid="{0305B171-10ED-4109-8BC3-C611DB9FED34}"/>
+    <hyperlink ref="B18" location="OverallTreatmentResponse!A1" display="#OverallTreatmentResponse!A1" xr:uid="{5DDD2D80-2477-438B-9454-FEB2F63FC604}"/>
+    <hyperlink ref="B19" location="AdverseEvent!A1" display="#AdverseEvent!A1" xr:uid="{7ADFDEC9-2090-4121-928D-CFACE0856D9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10633,13 +10813,21 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B602B1A2-A390-4061-8B84-B5602670418C}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="19.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.31640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -10669,19 +10857,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>884</v>
+      </c>
+      <c r="D2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E2" t="s">
         <v>826</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" t="s">
-        <v>827</v>
-      </c>
-      <c r="E2" t="s">
-        <v>828</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -10695,19 +10883,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>865</v>
+      </c>
+      <c r="D3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E3" t="s">
         <v>829</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" t="s">
-        <v>830</v>
-      </c>
-      <c r="E3" t="s">
-        <v>831</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -10721,19 +10909,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>866</v>
+      </c>
+      <c r="D4" t="s">
+        <v>831</v>
+      </c>
+      <c r="E4" t="s">
         <v>832</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" t="s">
-        <v>833</v>
-      </c>
-      <c r="E4" t="s">
-        <v>834</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -10747,7 +10935,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -10756,19 +10944,19 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>834</v>
+      </c>
+      <c r="E5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>836</v>
-      </c>
-      <c r="E5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -10778,13 +10966,20 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB41D0F0-ED8B-4030-97F0-A5C72BB39D83}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="3" width="16.04296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.76953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -10814,19 +11009,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>246</v>
+      <c r="C2" s="37" t="s">
+        <v>462</v>
       </c>
       <c r="D2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" t="s">
         <v>509</v>
-      </c>
-      <c r="E2" t="s">
-        <v>510</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -10840,19 +11035,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
         <v>506</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>507</v>
-      </c>
-      <c r="E3" t="s">
-        <v>508</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -10866,7 +11061,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -10875,24 +11070,24 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>838</v>
+      </c>
+      <c r="E4" t="s">
+        <v>839</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>840</v>
-      </c>
-      <c r="E4" t="s">
-        <v>841</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -10901,10 +11096,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -10923,13 +11118,21 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F09303-7F5B-43EA-B558-6C4DA179EB1B}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="26.2265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -10959,19 +11162,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E2" t="s">
         <v>846</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>847</v>
-      </c>
-      <c r="D2" t="s">
-        <v>848</v>
-      </c>
-      <c r="E2" t="s">
-        <v>849</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -10985,7 +11188,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -10994,10 +11197,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -11011,7 +11214,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -11020,10 +11223,10 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -11037,7 +11240,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -11046,10 +11249,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -11058,7 +11261,7 @@
         <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -11130,7 +11333,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="str">
         <f>"http://hl7.eu/fhir/eps/StructureDefinition/"&amp;LogicalModels!$A$13</f>
-        <v>http://hl7.eu/fhir/eps/StructureDefinition/</v>
+        <v>http://hl7.eu/fhir/eps/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>33</v>
@@ -11155,7 +11358,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="str">
         <f>"http://hl7.eu/fhir/eps/StructureDefinition/"&amp;LogicalModels!$A$13</f>
-        <v>http://hl7.eu/fhir/eps/StructureDefinition/</v>
+        <v>http://hl7.eu/fhir/eps/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>38</v>
@@ -11309,8 +11512,8 @@
     <col min="3" max="3" width="19.90625" style="18" customWidth="1"/>
     <col min="4" max="4" width="66.04296875" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.81640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="29"/>
+    <col min="6" max="6" width="13.08984375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="18"/>
     <col min="8" max="8" width="15.453125" style="18" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="18"/>
   </cols>
@@ -11357,10 +11560,10 @@
       <c r="E2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="18" t="s">
@@ -11383,10 +11586,10 @@
       <c r="E3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -11409,10 +11612,10 @@
       <c r="E4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -11435,10 +11638,10 @@
       <c r="E5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -11461,10 +11664,10 @@
       <c r="E6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="18" t="s">
@@ -11487,10 +11690,10 @@
       <c r="E7" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -11513,10 +11716,10 @@
       <c r="E8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="29" t="s">
+      <c r="F8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="18" t="s">
@@ -11524,13 +11727,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="54.25" x14ac:dyDescent="0.75">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>181</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>215</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -11539,10 +11742,10 @@
       <c r="E9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="29" t="s">
+      <c r="F9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -11565,10 +11768,10 @@
       <c r="E10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="29" t="s">
+      <c r="F10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="18" t="s">
@@ -11591,10 +11794,10 @@
       <c r="E11" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="29" t="s">
+      <c r="F11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -11617,10 +11820,10 @@
       <c r="E12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="29" t="s">
+      <c r="F12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H12" s="18" t="s">
@@ -11643,10 +11846,10 @@
       <c r="E13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="29" t="s">
+      <c r="F13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="18" t="s">
@@ -11669,10 +11872,10 @@
       <c r="E14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="29" t="s">
+      <c r="F14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="18" t="s">
@@ -11695,10 +11898,10 @@
       <c r="E15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="29" t="s">
+      <c r="F15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="18" t="s">
@@ -11721,10 +11924,10 @@
       <c r="E16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="29" t="s">
+      <c r="F16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H16" s="18" t="s">
@@ -11747,10 +11950,10 @@
       <c r="E17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="29" t="s">
+      <c r="F17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="18" t="s">
@@ -11773,10 +11976,10 @@
       <c r="E18" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H18" s="18" t="s">
@@ -11799,10 +12002,10 @@
       <c r="E19" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="29" t="s">
+      <c r="F19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H19" s="18" t="s">
@@ -11825,10 +12028,10 @@
       <c r="E20" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="29" t="s">
+      <c r="F20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H20" s="18" t="s">
@@ -11851,10 +12054,10 @@
       <c r="E21" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="29" t="s">
+      <c r="F21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H21" s="18" t="s">
@@ -11862,7 +12065,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>193</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -11877,10 +12080,10 @@
       <c r="E22" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="29" t="s">
+      <c r="F22" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H22" s="18" t="s">
@@ -11903,10 +12106,10 @@
       <c r="E23" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="29" t="s">
+      <c r="F23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="18" t="s">
@@ -11929,10 +12132,10 @@
       <c r="E24" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="29" t="s">
+      <c r="F24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="18" t="s">
@@ -11955,10 +12158,10 @@
       <c r="E25" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="29" t="s">
+      <c r="F25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H25" s="18" t="s">
@@ -11966,7 +12169,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="81" x14ac:dyDescent="0.7">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -11981,10 +12184,10 @@
       <c r="E26" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="29" t="s">
+      <c r="F26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H26" s="18" t="s">
@@ -12007,10 +12210,10 @@
       <c r="E27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="29" t="s">
+      <c r="F27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H27" s="18" t="s">
@@ -12033,10 +12236,10 @@
       <c r="E28" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="18" t="s">
@@ -12059,10 +12262,10 @@
       <c r="E29" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="29" t="s">
+      <c r="F29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H29" s="18" t="s">
@@ -12085,10 +12288,10 @@
       <c r="E30" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="29" t="s">
+      <c r="F30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H30" s="18" t="s">
@@ -12111,10 +12314,10 @@
       <c r="E31" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="29" t="s">
+      <c r="F31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H31" s="18" t="s">
@@ -12122,7 +12325,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -12137,10 +12340,10 @@
       <c r="E32" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="29" t="s">
+      <c r="F32" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H32" s="18" t="s">
@@ -12163,10 +12366,10 @@
       <c r="E33" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="29" t="s">
+      <c r="F33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H33" s="18" t="s">
@@ -12189,10 +12392,10 @@
       <c r="E34" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="29" t="s">
+      <c r="F34" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H34" s="18" t="s">
@@ -12215,17 +12418,17 @@
       <c r="E35" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="29" t="s">
+      <c r="F35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.7">
       <c r="A36" s="18" t="s">
         <v>203</v>
       </c>
@@ -12241,10 +12444,10 @@
       <c r="E36" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="29" t="s">
+      <c r="F36" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="18" t="s">
@@ -12267,10 +12470,10 @@
       <c r="E37" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="29" t="s">
+      <c r="F37" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="18" t="s">
@@ -12293,10 +12496,10 @@
       <c r="E38" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H38" s="18" t="s">
@@ -12319,10 +12522,10 @@
       <c r="E39" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="29" t="s">
+      <c r="F39" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H39" s="18" t="s">
@@ -12345,10 +12548,10 @@
       <c r="E40" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="29" t="s">
+      <c r="F40" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H40" s="18" t="s">
@@ -12371,10 +12574,10 @@
       <c r="E41" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="29" t="s">
+      <c r="F41" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H41" s="18" t="s">
@@ -12397,10 +12600,10 @@
       <c r="E42" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="29" t="s">
+      <c r="F42" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="18" t="s">
@@ -12423,10 +12626,10 @@
       <c r="E43" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="29" t="s">
+      <c r="F43" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H43" s="18" t="s">
@@ -12449,10 +12652,10 @@
       <c r="E44" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="29" t="s">
+      <c r="F44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="18" t="s">
@@ -12475,10 +12678,10 @@
       <c r="E45" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="29" t="s">
+      <c r="F45" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="18" t="s">
@@ -12501,10 +12704,10 @@
       <c r="E46" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="29" t="s">
+      <c r="F46" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H46" s="18" t="s">
@@ -12527,10 +12730,10 @@
       <c r="E47" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="29" t="s">
+      <c r="F47" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="18" t="s">
@@ -12553,10 +12756,10 @@
       <c r="E48" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="29" t="s">
+      <c r="F48" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H48" s="18" t="s">
@@ -12579,10 +12782,10 @@
       <c r="E49" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="29" t="s">
+      <c r="F49" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="18" t="s">
@@ -12599,7 +12802,7 @@
   <sheetPr codeName="Foglio36">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -12612,8 +12815,8 @@
     <col min="3" max="3" width="19.90625" style="18" customWidth="1"/>
     <col min="4" max="4" width="66.04296875" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.81640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="29"/>
+    <col min="6" max="6" width="13.08984375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="18"/>
     <col min="8" max="8" width="15.453125" style="18" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="18"/>
   </cols>
@@ -12645,437 +12848,218 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="40" t="s">
+      <c r="F2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="108" x14ac:dyDescent="0.7">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="81.25" x14ac:dyDescent="0.75">
+      <c r="A4" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="B4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.7">
+      <c r="A5" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.7">
+      <c r="A6" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.7">
+      <c r="A7" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
+      <c r="A8" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="81.25" x14ac:dyDescent="0.75">
-      <c r="A4" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A5" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="37" t="s">
+      <c r="D8" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27.25" x14ac:dyDescent="0.75">
+      <c r="A9" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="40" t="s">
+      <c r="D9" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="32" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A6" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A7" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27.25" x14ac:dyDescent="0.75">
-      <c r="A9" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-    </row>
     <row r="11" spans="1:8" ht="14.75" x14ac:dyDescent="0.75">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.7">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.7">
+      <c r="C24" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13139,28 +13123,28 @@
       <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>217</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>247</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.75" x14ac:dyDescent="0.75">
       <c r="A3" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>14</v>
@@ -13169,11 +13153,11 @@
         <v>15</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>251</v>
-      </c>
       <c r="F3" s="18" t="s">
         <v>34</v>
       </c>
@@ -13181,38 +13165,38 @@
         <v>70</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="31" t="s">
+      <c r="F4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.7">
       <c r="A5" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>14</v>
@@ -13221,11 +13205,11 @@
         <v>19</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>254</v>
-      </c>
       <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
@@ -13233,7 +13217,7 @@
         <v>70</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -13286,21 +13270,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>216</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>217</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -13312,9 +13296,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -13323,10 +13307,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -13389,19 +13373,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" t="s">
         <v>269</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>270</v>
-      </c>
-      <c r="E2" t="s">
-        <v>271</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -13414,8 +13398,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" s="44" t="s">
-        <v>470</v>
+      <c r="A3" s="37" t="s">
+        <v>469</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -13424,10 +13408,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" t="s">
         <v>272</v>
-      </c>
-      <c r="E3" t="s">
-        <v>273</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -13441,7 +13425,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -13450,24 +13434,24 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" t="s">
         <v>275</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>276</v>
-      </c>
-      <c r="F4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -13476,10 +13460,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" t="s">
         <v>279</v>
-      </c>
-      <c r="E5" t="s">
-        <v>280</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -13493,19 +13477,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
         <v>281</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>282</v>
-      </c>
-      <c r="E6" t="s">
-        <v>283</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -13519,7 +13503,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -13528,24 +13512,24 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" t="s">
         <v>285</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>286</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -13554,24 +13538,24 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" t="s">
         <v>289</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
         <v>290</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -13580,24 +13564,24 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" t="s">
         <v>293</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
         <v>294</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -13606,24 +13590,24 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" t="s">
         <v>297</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
         <v>298</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -13632,24 +13616,24 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" t="s">
         <v>301</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
         <v>302</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -13658,24 +13642,24 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" t="s">
         <v>305</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
         <v>306</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -13684,24 +13668,24 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" t="s">
         <v>309</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
         <v>310</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -13710,10 +13694,10 @@
         <v>215</v>
       </c>
       <c r="D14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" t="s">
         <v>313</v>
-      </c>
-      <c r="E14" t="s">
-        <v>314</v>
       </c>
       <c r="F14" t="s">
         <v>70</v>
@@ -13727,7 +13711,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -13736,10 +13720,10 @@
         <v>215</v>
       </c>
       <c r="D15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" t="s">
         <v>316</v>
-      </c>
-      <c r="E15" t="s">
-        <v>317</v>
       </c>
       <c r="F15" t="s">
         <v>70</v>
@@ -13753,7 +13737,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -13762,10 +13746,10 @@
         <v>215</v>
       </c>
       <c r="D16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" t="s">
         <v>319</v>
-      </c>
-      <c r="E16" t="s">
-        <v>320</v>
       </c>
       <c r="F16" t="s">
         <v>70</v>
@@ -13779,7 +13763,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -13788,10 +13772,10 @@
         <v>215</v>
       </c>
       <c r="D17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" t="s">
         <v>322</v>
-      </c>
-      <c r="E17" t="s">
-        <v>323</v>
       </c>
       <c r="F17" t="s">
         <v>70</v>
@@ -13805,33 +13789,33 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="E18" t="s">
         <v>324</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
         <v>325</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -13840,37 +13824,37 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" t="s">
         <v>328</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
         <v>329</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>331</v>
-      </c>
-      <c r="B20" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
+        <v>331</v>
+      </c>
+      <c r="E20" t="s">
         <v>332</v>
       </c>
-      <c r="E20" t="s">
-        <v>333</v>
-      </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
@@ -13878,12 +13862,12 @@
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A21" s="44" t="s">
-        <v>655</v>
+      <c r="A21" s="37" t="s">
+        <v>654</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -13892,11 +13876,11 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21" t="s">
         <v>334</v>
       </c>
-      <c r="E21" t="s">
-        <v>335</v>
-      </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
@@ -13904,7 +13888,7 @@
         <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\idea4rc\src-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BC1C86-7EF4-446C-AE6A-CEAAAC3C9333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEBF5A-84FF-4154-85BB-C74A8103501F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="15" r:id="rId1"/>
@@ -27,13 +27,13 @@
     <sheet name="DiseaseExtentI4RC" sheetId="26" r:id="rId12"/>
     <sheet name="GeneticTestExpressionI4RC" sheetId="28" r:id="rId13"/>
     <sheet name="SurgeryI4RC" sheetId="29" r:id="rId14"/>
-    <sheet name="SystemicTreatment" sheetId="31" r:id="rId15"/>
-    <sheet name="Radiotherapy" sheetId="32" r:id="rId16"/>
-    <sheet name="RegionalDeepHyperthemia" sheetId="33" r:id="rId17"/>
-    <sheet name="IsolatedLimbPerfusion" sheetId="34" r:id="rId18"/>
-    <sheet name="DrugsForTreatments" sheetId="35" r:id="rId19"/>
-    <sheet name="OverallTreatmentResponse" sheetId="36" r:id="rId20"/>
-    <sheet name="AdverseEvent" sheetId="37" r:id="rId21"/>
+    <sheet name="SystemicTreatmentI4RC" sheetId="31" r:id="rId15"/>
+    <sheet name="RadiotherapyI4RC" sheetId="32" r:id="rId16"/>
+    <sheet name="RegionalDeepHyperthemiaI4RC" sheetId="33" r:id="rId17"/>
+    <sheet name="IsolatedLimbPerfusionI4RC" sheetId="34" r:id="rId18"/>
+    <sheet name="DrugsForTreatmentsI4RC" sheetId="35" r:id="rId19"/>
+    <sheet name="OverallTreatmentResponseI4RC" sheetId="36" r:id="rId20"/>
+    <sheet name="AdverseEventI4RC" sheetId="37" r:id="rId21"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId22"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="908">
   <si>
     <t>Group Source</t>
   </si>
@@ -3104,9 +3104,6 @@
 </t>
   </si>
   <si>
-    <t>numberOfCycles/Administrations</t>
-  </si>
-  <si>
     <t>Number of cycles/ administrations (O)</t>
   </si>
   <si>
@@ -3258,9 +3255,6 @@
 </t>
   </si>
   <si>
-    <t>Setting (M (only if "Intent=Curative OR Unknown"))</t>
-  </si>
-  <si>
     <t>Whether radiotherapy is delivered as the main treatment modality (definitive) or if it is delivered before or after another treatment such as surgery 
 THIS INFO CAN BE DERIVED AT QUERY TIME (OMOP)
 Preoperative: Refers to radiotherapy given before surgery.
@@ -3286,28 +3280,6 @@
     <t>Beam quality (M)</t>
   </si>
   <si>
-    <t>Describes the type of radiation therapy given. If external beam, please specify if delivered with Photons (most common), electrons, carbon, or protons. 
-"External beam RT Photons - 607996
- External beam RT Electrons - 4165039
-External beam radiation therapy using carbon ions - 607995
-External Beam RT Protons - 4024005
-Brachytherapy interstitial endocavitary contact - 4012485
-Radionuclide therapy - 4161415
-Boron neutron capture Therapy - 4058601
-other -  4077953"
-"2D - 603132
-Three dimensional external beam radiation therapy - 37156151
-IMRT CONVENTIONAL - 40480519
-VMAT - 603135
-Tomotherapy - 3662120
-SBRT - 4215577
-Ultra high dose rate radiotherapy - 37156211
-PASSIVE SCATTERING - 
-SINGLE BEAM OPTIMIZATION - CUSTOM CODE
-Intensity Modulated Proton Therapy (IMPT) - CUSTOM CODE 
-Other -  4077990"</t>
-  </si>
-  <si>
     <t>External beam RT Photons - 607996
  External beam RT Electrons - 4165039
 External beam radiation therapy using carbon ions - 607995
@@ -3329,28 +3301,6 @@
   </si>
   <si>
     <t>Treatment technique (M)</t>
-  </si>
-  <si>
-    <t>Refers to the type of radiotherapy treatment delivered 
-"External beam RT Photons - 607996
- External beam RT Electrons - 4165039
-External beam radiation therapy using carbon ions - 607995
-External Beam RT Protons - 4024005
-Brachytherapy interstitial endocavitary contact - 4012485
-Radionuclide therapy - 4161415
-Boron neutron capture Therapy - 4058601
-other -  4077953"
-"2D - 603132
-Three dimensional external beam radiation therapy - 37156151
-IMRT CONVENTIONAL - 40480519
-VMAT - 603135
-Tomotherapy - 3662120
-SBRT - 4215577
-Ultra high dose rate radiotherapy - 37156211
-PASSIVE SCATTERING - 
-SINGLE BEAM OPTIMIZATION - CUSTOM CODE
-Intensity Modulated Proton Therapy (IMPT) - CUSTOM CODE 
-Other -  4077990"</t>
   </si>
   <si>
     <t>Two dimensional (2D) radiotherapy - 2000100035
@@ -3365,17 +3315,11 @@
 Intensity modulated proton therapy (IMPT) - 2000100044</t>
   </si>
   <si>
-    <t>totalDose(td)Gy</t>
-  </si>
-  <si>
     <t>Total Dose (TD) Gy (M)</t>
   </si>
   <si>
     <t xml:space="preserve">Refers to the total dose delivered to the patient in Gy 
 </t>
-  </si>
-  <si>
-    <t>totalHighDose(gy)</t>
   </si>
   <si>
     <t>Total High Dose (Gy) (R)</t>
@@ -3457,13 +3401,7 @@
     <t>treatmentSitePrimaryOnly</t>
   </si>
   <si>
-    <t>Treatment site primary only (M (suggest to modify the label into "Primary only"))</t>
-  </si>
-  <si>
     <t>treatmentSiteNeckOnly</t>
-  </si>
-  <si>
-    <t>Treatment site neck only (M (suggest to modify the label into "Neck only"))</t>
   </si>
   <si>
     <t>treatmentSitePrimaryAndIpsilateralNeck</t>
@@ -3558,19 +3496,6 @@
   </si>
   <si>
     <t>Treatment response (R)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical treatment response for the radiotherapy 
-OLD
-Complete response - 4163135
-Partial response -  4161302
-Stable disease - 32948
-Progression - 4168352
-Unknown - 4129922
-"A treatment response is a record of the EPISODE table;
-episode_start_date is end date of regimen;
-episode_object_concept_id is the overarching sarcoma"
-</t>
   </si>
   <si>
     <t>regionaldeephyperthemiaDoneAthospital</t>
@@ -3665,9 +3590,6 @@
 https://athena.ohdsi.org/search-terms/terms?domain=Drug&amp;standardConcept=Standard&amp;vocabulary=RxNorm&amp;vocabulary=RxNorm+Extension&amp;page=1&amp;pageSize=15&amp;query=</t>
   </si>
   <si>
-    <t>overallTreatmentResponse(basedOnImagingAlone;NoRecistOrOtherCriteria)</t>
-  </si>
-  <si>
     <t>Overall Treatment response (based on imaging alone; no recist or other criteria) (M)</t>
   </si>
   <si>
@@ -3682,9 +3604,6 @@
 </t>
   </si>
   <si>
-    <t>overallTreatmentResponseDefined/done</t>
-  </si>
-  <si>
     <t>Overall Treatment response defined/done (M)</t>
   </si>
   <si>
@@ -3700,9 +3619,6 @@
   <si>
     <t>Treatment element containing the data regarding the specific treatment. It can be SystemicTreatment, Surgery, Radiotherapy, Isolated Limb Perfusion or Regional Deep Hyperthemia 
 OBSERVATION or CONDITION</t>
-  </si>
-  <si>
-    <t>adverseEventType(ctcaeTerm)</t>
   </si>
   <si>
     <t>Adverse event type (CTCAE Term) (M)</t>
@@ -3821,12 +3737,6 @@
     <t>AdverseEventI4RC</t>
   </si>
   <si>
-    <t>ElementSystemicTreatmentReference</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
     <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/patient-eu-i4rc</t>
   </si>
   <si>
@@ -3909,13 +3819,100 @@
   </si>
   <si>
     <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/observation-karnofsky-performance-status-eu-i4rc</t>
+  </si>
+  <si>
+    <t>TO BE CHECKED</t>
+  </si>
+  <si>
+    <t>adverseEventType</t>
+  </si>
+  <si>
+    <t>overallTreatmentResponse</t>
+  </si>
+  <si>
+    <t>overallTreatmentResponseDefined</t>
+  </si>
+  <si>
+    <t>totalDoseGy</t>
+  </si>
+  <si>
+    <t>totalHighDose</t>
+  </si>
+  <si>
+    <t>Setting (M (only if Intent is Curative OR Unknown))</t>
+  </si>
+  <si>
+    <t>Treatment site primary only (M (suggest to modify the label into Primary only))</t>
+  </si>
+  <si>
+    <t>Treatment site neck only (M (suggest to modify the label into Neck only))</t>
+  </si>
+  <si>
+    <t>Describes the type of radiation therapy given. If external beam, please specify if delivered with Photons (most common), electrons, carbon, or protons. 
+'External beam RT Photons - 607996
+ External beam RT Electrons - 4165039
+External beam radiation therapy using carbon ions - 607995
+External Beam RT Protons - 4024005
+Brachytherapy interstitial endocavitary contact - 4012485
+Radionuclide therapy - 4161415
+Boron neutron capture Therapy - 4058601
+other -  4077953'
+'2D - 603132
+Three dimensional external beam radiation therapy - 37156151
+IMRT CONVENTIONAL - 40480519
+VMAT - 603135
+Tomotherapy - 3662120
+SBRT - 4215577
+Ultra high dose rate radiotherapy - 37156211
+PASSIVE SCATTERING - 
+SINGLE BEAM OPTIMIZATION - CUSTOM CODE
+Intensity Modulated Proton Therapy (IMPT) - CUSTOM CODE 
+Other -  4077990'</t>
+  </si>
+  <si>
+    <t>Refers to the type of radiotherapy treatment delivered 
+'External beam RT Photons - 607996
+ External beam RT Electrons - 4165039
+External beam radiation therapy using carbon ions - 607995
+External Beam RT Protons - 4024005
+Brachytherapy interstitial endocavitary contact - 4012485
+Radionuclide therapy - 4161415
+Boron neutron capture Therapy - 4058601
+other -  4077953'
+'2D - 603132
+Three dimensional external beam radiation therapy - 37156151
+IMRT CONVENTIONAL - 40480519
+VMAT - 603135
+Tomotherapy - 3662120
+SBRT - 4215577
+Ultra high dose rate radiotherapy - 37156211
+PASSIVE SCATTERING - 
+SINGLE BEAM OPTIMIZATION - CUSTOM CODE
+Intensity Modulated Proton Therapy (IMPT) - CUSTOM CODE 
+Other -  4077990'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical treatment response for the radiotherapy 
+OLD
+Complete response - 4163135
+Partial response -  4161302
+Stable disease - 32948
+Progression - 4168352
+Unknown - 4129922
+'A treatment response is a record of the EPISODE table;
+episode_start_date is end date of regimen;
+episode_object_concept_id is the overarching sarcoma'
+</t>
+  </si>
+  <si>
+    <t>numberOfCycles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3965,12 +3962,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4098,7 +4089,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4169,8 +4160,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4184,6 +4173,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -7762,8 +7752,8 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7853,7 +7843,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" s="30" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -8034,8 +8024,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>713</v>
+      <c r="A11" s="30" t="s">
+        <v>907</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -8044,10 +8034,10 @@
         <v>211</v>
       </c>
       <c r="D11" t="s">
+        <v>713</v>
+      </c>
+      <c r="E11" t="s">
         <v>714</v>
-      </c>
-      <c r="E11" t="s">
-        <v>715</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
@@ -8061,7 +8051,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -8070,24 +8060,24 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>716</v>
+      </c>
+      <c r="E12" t="s">
         <v>717</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
         <v>718</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -8096,10 +8086,10 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
+        <v>720</v>
+      </c>
+      <c r="E13" t="s">
         <v>721</v>
-      </c>
-      <c r="E13" t="s">
-        <v>722</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
@@ -8113,7 +8103,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -8122,10 +8112,10 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
+        <v>723</v>
+      </c>
+      <c r="E14" t="s">
         <v>724</v>
-      </c>
-      <c r="E14" t="s">
-        <v>725</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -8139,7 +8129,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -8148,24 +8138,24 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
+        <v>726</v>
+      </c>
+      <c r="E15" t="s">
         <v>727</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
         <v>728</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="30" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -8174,19 +8164,19 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
+        <v>729</v>
+      </c>
+      <c r="E16" t="s">
         <v>730</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
         <v>731</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -8201,15 +8191,16 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="34.6796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1328125" customWidth="1"/>
     <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" customWidth="1"/>
+    <col min="4" max="4" width="68.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.58984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
@@ -8292,7 +8283,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -8301,10 +8292,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>733</v>
+      </c>
+      <c r="E4" t="s">
         <v>734</v>
-      </c>
-      <c r="E4" t="s">
-        <v>735</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -8327,10 +8318,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E5" t="s">
         <v>736</v>
-      </c>
-      <c r="E5" t="s">
-        <v>737</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -8352,25 +8343,25 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="30" t="s">
+        <v>901</v>
+      </c>
+      <c r="E6" t="s">
+        <v>737</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>738</v>
-      </c>
-      <c r="E6" t="s">
-        <v>739</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -8379,10 +8370,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>742</v>
-      </c>
-      <c r="E7" t="s">
-        <v>743</v>
+        <v>740</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>904</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -8391,7 +8382,7 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -8405,10 +8396,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E8" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
@@ -8422,7 +8413,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -8431,10 +8422,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>748</v>
-      </c>
-      <c r="E9" t="s">
-        <v>749</v>
+        <v>745</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>905</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -8443,12 +8434,12 @@
         <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>751</v>
+      <c r="A10" s="30" t="s">
+        <v>899</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -8457,10 +8448,10 @@
         <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E10" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
@@ -8473,8 +8464,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>754</v>
+      <c r="A11" s="30" t="s">
+        <v>900</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -8483,10 +8474,10 @@
         <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E11" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
@@ -8495,12 +8486,12 @@
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -8509,10 +8500,10 @@
         <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E12" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
@@ -8526,7 +8517,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -8535,10 +8526,10 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E13" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
@@ -8547,12 +8538,12 @@
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" s="30" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -8561,10 +8552,10 @@
         <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E14" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -8573,12 +8564,12 @@
         <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" s="30" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>13</v>
@@ -8587,10 +8578,10 @@
         <v>63</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="E15" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
@@ -8599,12 +8590,12 @@
         <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" s="30" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>13</v>
@@ -8613,10 +8604,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="E16" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F16" t="s">
         <v>33</v>
@@ -8625,12 +8616,12 @@
         <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -8639,10 +8630,10 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E17" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F17" t="s">
         <v>33</v>
@@ -8665,10 +8656,10 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E18" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
@@ -8682,7 +8673,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>13</v>
@@ -8690,11 +8681,11 @@
       <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
-        <v>778</v>
+      <c r="D19" s="30" t="s">
+        <v>902</v>
       </c>
       <c r="E19" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
@@ -8708,7 +8699,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>13</v>
@@ -8716,11 +8707,11 @@
       <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
-        <v>780</v>
+      <c r="D20" s="30" t="s">
+        <v>903</v>
       </c>
       <c r="E20" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F20" t="s">
         <v>33</v>
@@ -8734,7 +8725,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -8743,10 +8734,10 @@
         <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E21" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F21" t="s">
         <v>33</v>
@@ -8760,7 +8751,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -8769,10 +8760,10 @@
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="E22" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F22" t="s">
         <v>33</v>
@@ -8786,7 +8777,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -8795,10 +8786,10 @@
         <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E23" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F23" t="s">
         <v>33</v>
@@ -8807,12 +8798,12 @@
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -8821,10 +8812,10 @@
         <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="E24" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F24" t="s">
         <v>33</v>
@@ -8838,7 +8829,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -8847,10 +8838,10 @@
         <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="E25" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
@@ -8859,12 +8850,12 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -8873,10 +8864,10 @@
         <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E26" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F26" t="s">
         <v>33</v>
@@ -8890,7 +8881,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -8899,10 +8890,10 @@
         <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E27" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
@@ -8916,7 +8907,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -8925,10 +8916,10 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E28" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F28" t="s">
         <v>33</v>
@@ -8942,7 +8933,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" s="30" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -8951,10 +8942,10 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E29" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="F29" t="s">
         <v>33</v>
@@ -8963,12 +8954,12 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -8977,10 +8968,10 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E30" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F30" t="s">
         <v>66</v>
@@ -8994,7 +8985,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -9003,10 +8994,10 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>808</v>
-      </c>
-      <c r="E31" t="s">
-        <v>809</v>
+        <v>800</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>906</v>
       </c>
       <c r="F31" t="s">
         <v>66</v>
@@ -9015,7 +9006,7 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -9120,7 +9111,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -9129,10 +9120,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="E4" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
@@ -9146,7 +9137,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -9155,10 +9146,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E5" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -9181,10 +9172,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E6" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F6" t="s">
         <v>66</v>
@@ -9198,7 +9189,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -9207,10 +9198,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E7" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -9219,7 +9210,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -9285,7 +9276,7 @@
         <v>504</v>
       </c>
       <c r="E2" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
@@ -9325,7 +9316,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -9334,10 +9325,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="E4" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
@@ -9351,7 +9342,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -9360,10 +9351,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E5" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -9386,10 +9377,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E6" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F6" t="s">
         <v>66</v>
@@ -9403,7 +9394,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -9412,10 +9403,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E7" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -9424,7 +9415,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -9440,7 +9431,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9478,19 +9469,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="D2" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="E2" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -9504,19 +9495,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="D3" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E3" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -9530,19 +9521,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="D4" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="E4" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -9556,7 +9547,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -9565,10 +9556,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="E5" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -9577,7 +9568,7 @@
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -9591,12 +9582,12 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A25" activeCellId="1" sqref="A13 A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.04296875" customWidth="1"/>
     <col min="2" max="2" width="24.953125" customWidth="1"/>
     <col min="3" max="3" width="39.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="139.6796875" style="4" customWidth="1"/>
@@ -9784,13 +9775,13 @@
     </row>
     <row r="13" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A13" s="5" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -9800,13 +9791,13 @@
     </row>
     <row r="14" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="C14" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -9816,13 +9807,13 @@
     </row>
     <row r="15" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="C15" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -9832,13 +9823,13 @@
     </row>
     <row r="16" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="C16" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -9848,13 +9839,13 @@
     </row>
     <row r="17" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="C17" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -9864,13 +9855,13 @@
     </row>
     <row r="18" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="C18" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -9880,13 +9871,13 @@
     </row>
     <row r="19" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="C19" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -9927,11 +9918,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
+    <col min="1" max="1" width="65.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.04296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.76953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -10015,8 +10007,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>833</v>
+      <c r="A4" s="30" t="s">
+        <v>897</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -10025,10 +10017,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="E4" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -10037,12 +10029,12 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>837</v>
+      <c r="A5" s="30" t="s">
+        <v>898</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -10051,10 +10043,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="E5" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -10085,7 +10077,7 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="26.2265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.76953125" customWidth="1"/>
     <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10117,19 +10109,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>881</v>
+        <v>847</v>
       </c>
       <c r="D2" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="E2" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -10142,8 +10134,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>843</v>
+      <c r="A3" s="30" t="s">
+        <v>896</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -10152,10 +10144,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="E3" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -10169,7 +10161,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -10178,10 +10170,10 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="E4" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -10195,7 +10187,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -10204,10 +10196,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="E5" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -10216,7 +10208,7 @@
         <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -10231,8 +10223,8 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10278,8 +10270,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>882</v>
+      <c r="B2" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>SubjectI4rc!A2</f>
@@ -10290,14 +10282,14 @@
         <v>Sex (M)</v>
       </c>
       <c r="E2" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
@@ -10305,8 +10297,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>882</v>
+      <c r="B3" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>SubjectI4rc!A3</f>
@@ -10317,7 +10309,7 @@
         <v>Race (M)</v>
       </c>
       <c r="E3" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" t="s">
@@ -10329,8 +10321,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>882</v>
+      <c r="B4" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>SubjectI4rc!A4</f>
@@ -10341,14 +10333,14 @@
         <v>Birth year (M)</v>
       </c>
       <c r="E4" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
@@ -10356,8 +10348,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>882</v>
+      <c r="B5" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>SubjectI4rc!A5</f>
@@ -10368,7 +10360,7 @@
         <v>Country of Residence (M)</v>
       </c>
       <c r="E5" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" t="s">
@@ -10382,7 +10374,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B6" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="C6" s="5" t="str">
         <f>SubjectI4rc!A6</f>
@@ -10393,7 +10385,7 @@
         <v>Smoking (M)</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21" t="s">
@@ -10406,7 +10398,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B7" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>SubjectI4rc!A7</f>
@@ -10417,7 +10409,7 @@
         <v>Cigarettes pack years smoked during life (R)</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21" t="s">
@@ -10430,7 +10422,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="C8" s="5" t="str">
         <f>SubjectI4rc!A8</f>
@@ -10441,7 +10433,7 @@
         <v>Alcohol (M)</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21" t="s">
@@ -10454,7 +10446,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="C9" s="5" t="str">
         <f>SubjectI4rc!A9</f>
@@ -10467,11 +10459,11 @@
  (R)</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
@@ -10479,8 +10471,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>901</v>
+      <c r="B10" t="s">
+        <v>887</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>SubjectI4rc!A10</f>
@@ -10491,14 +10483,14 @@
         <v>Charlson Comorbidity index (R)</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
@@ -10507,7 +10499,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>SubjectI4rc!A11</f>
@@ -10518,14 +10510,14 @@
         <v>Comorbidity (M)</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
@@ -10534,7 +10526,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C12" s="5" t="str">
         <f>SubjectI4rc!A12</f>
@@ -10545,7 +10537,7 @@
         <v>Myocardial infarction (O)</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20" t="s">
@@ -10559,7 +10551,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C13" s="5" t="str">
         <f>SubjectI4rc!A13</f>
@@ -10570,7 +10562,7 @@
         <v>Congestive heart failure (O)</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20" t="s">
@@ -10584,7 +10576,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C14" s="5" t="str">
         <f>SubjectI4rc!A14</f>
@@ -10595,7 +10587,7 @@
         <v>Peripheral vascular disease (O)</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20" t="s">
@@ -10609,7 +10601,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C15" s="5" t="str">
         <f>SubjectI4rc!A15</f>
@@ -10620,7 +10612,7 @@
         <v>Cerebrovascular accident  (except hemiplegia) (O)</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20" t="s">
@@ -10634,7 +10626,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C16" s="5" t="str">
         <f>SubjectI4rc!A16</f>
@@ -10645,7 +10637,7 @@
         <v>Dementia (O)</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20" t="s">
@@ -10659,7 +10651,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C17" s="5" t="str">
         <f>SubjectI4rc!A17</f>
@@ -10670,7 +10662,7 @@
         <v>Chronic pulmonary disease (O)</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
@@ -10684,7 +10676,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C18" s="5" t="str">
         <f>SubjectI4rc!A18</f>
@@ -10695,7 +10687,7 @@
         <v>Connective tissue disease (O)</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
@@ -10709,7 +10701,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>SubjectI4rc!A19</f>
@@ -10720,7 +10712,7 @@
         <v>Ulcer (O)</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
@@ -10734,7 +10726,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C20" s="5" t="str">
         <f>SubjectI4rc!A20</f>
@@ -10745,7 +10737,7 @@
         <v>Mild liver disease (O)</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
@@ -10759,7 +10751,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C21" s="5" t="str">
         <f>SubjectI4rc!A21</f>
@@ -10770,7 +10762,7 @@
         <v>Moderate to severe liver disease (O)</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
@@ -10784,7 +10776,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>SubjectI4rc!A22</f>
@@ -10795,7 +10787,7 @@
         <v>Diabetes (without complications) (O)</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
@@ -10809,7 +10801,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C23" s="5" t="str">
         <f>SubjectI4rc!A23</f>
@@ -10820,7 +10812,7 @@
         <v>Diabetes with end organ damage (O)</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
@@ -10834,7 +10826,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C24" s="5" t="str">
         <f>SubjectI4rc!A24</f>
@@ -10845,7 +10837,7 @@
         <v>Hemiplegia (O)</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
@@ -10859,7 +10851,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>SubjectI4rc!A25</f>
@@ -10870,7 +10862,7 @@
         <v>Moderate to severe renal disease (O)</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
@@ -10884,7 +10876,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C26" s="5" t="str">
         <f>SubjectI4rc!A26</f>
@@ -10895,7 +10887,7 @@
         <v>Solid tumor (non metastatic) (O)</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
@@ -10909,7 +10901,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>SubjectI4rc!A27</f>
@@ -10920,7 +10912,7 @@
         <v>Metastatic solid tumor (O)</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
@@ -10934,7 +10926,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C28" s="5" t="str">
         <f>SubjectI4rc!A28</f>
@@ -10945,7 +10937,7 @@
         <v>Leukemia (O)</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
@@ -10959,7 +10951,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C29" s="5" t="str">
         <f>SubjectI4rc!A29</f>
@@ -10970,7 +10962,7 @@
         <v>Lymphoma (O)</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
@@ -10984,7 +10976,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>SubjectI4rc!A30</f>
@@ -10995,7 +10987,7 @@
         <v>Multiple myeloma (O)</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
@@ -11009,7 +11001,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C31" s="5" t="str">
         <f>SubjectI4rc!A31</f>
@@ -11020,7 +11012,7 @@
         <v>AIDS (O)</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
@@ -11033,8 +11025,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>898</v>
+      <c r="B32" s="42" t="s">
+        <v>884</v>
       </c>
       <c r="C32" s="5" t="str">
         <f>SubjectI4rc!A32</f>
@@ -11045,14 +11037,14 @@
         <v>Eastern Cooperative Oncology Group performance status (ECOG PS)  at diagnosis (R)</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" t="s">
-        <v>896</v>
-      </c>
-      <c r="H32" t="s">
-        <v>897</v>
+      <c r="G32" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
@@ -11060,8 +11052,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B33" s="44" t="s">
-        <v>898</v>
+      <c r="B33" s="42" t="s">
+        <v>884</v>
       </c>
       <c r="C33" s="5" t="str">
         <f>SubjectI4rc!A33</f>
@@ -11072,20 +11064,21 @@
         <v>ECOG PS label (R)</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>908</v>
+      <c r="B34" t="s">
+        <v>894</v>
       </c>
       <c r="C34" s="5" t="str">
         <f>SubjectI4rc!A34</f>
@@ -11096,20 +11089,21 @@
         <v>Karnofsy index at diagnosis (R)</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" t="s">
-        <v>896</v>
-      </c>
+      <c r="G34" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>908</v>
+      <c r="B35" t="s">
+        <v>894</v>
       </c>
       <c r="C35" s="5" t="str">
         <f>SubjectI4rc!A35</f>
@@ -11120,12 +11114,13 @@
         <v>Karnofsy index label (R)</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" t="s">
+      <c r="G35" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="118" x14ac:dyDescent="0.75">
       <c r="A36" s="8" t="str">
@@ -11133,7 +11128,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C36" s="5" t="str">
         <f>SubjectI4rc!A36</f>
@@ -11144,14 +11139,14 @@
         <v>No Genetic syndrome (M)</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="38" t="s">
-        <v>886</v>
+      <c r="H36" s="36" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
@@ -11160,7 +11155,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C37" s="5" t="str">
         <f>SubjectI4rc!A37</f>
@@ -11171,7 +11166,7 @@
         <v>Olliers disease (M)</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
@@ -11185,7 +11180,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C38" s="5" t="str">
         <f>SubjectI4rc!A38</f>
@@ -11196,7 +11191,7 @@
         <v>Maffuci syndrome (M)</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
@@ -11210,7 +11205,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C39" s="5" t="str">
         <f>SubjectI4rc!A39</f>
@@ -11221,7 +11216,7 @@
         <v>Li-Fraumeni syndrome (M)</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
@@ -11235,7 +11230,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C40" s="5" t="str">
         <f>SubjectI4rc!A40</f>
@@ -11246,7 +11241,7 @@
         <v>McCune-Albright syndrome (M)</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
@@ -11260,7 +11255,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C41" s="5" t="str">
         <f>SubjectI4rc!A41</f>
@@ -11271,7 +11266,7 @@
         <v>Multiple osteochondromas (M)</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
@@ -11285,7 +11280,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C42" s="5" t="str">
         <f>SubjectI4rc!A42</f>
@@ -11296,7 +11291,7 @@
         <v>Neurofibromatosis type 1 (M)</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
@@ -11310,7 +11305,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C43" s="5" t="str">
         <f>SubjectI4rc!A43</f>
@@ -11321,7 +11316,7 @@
         <v>Rothmund-Thomson syndrome (M)</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
@@ -11335,7 +11330,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C44" s="5" t="str">
         <f>SubjectI4rc!A44</f>
@@ -11346,7 +11341,7 @@
         <v>Werner syndrome (M)</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
@@ -11360,7 +11355,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C45" s="5" t="str">
         <f>SubjectI4rc!A45</f>
@@ -11371,7 +11366,7 @@
         <v>Retinoblastoma (M)</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
@@ -11385,7 +11380,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C46" s="5" t="str">
         <f>SubjectI4rc!A46</f>
@@ -11396,7 +11391,7 @@
         <v>Paget disease (M)</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
@@ -11410,7 +11405,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="C47" s="5" t="str">
         <f>SubjectI4rc!A47</f>
@@ -11421,7 +11416,7 @@
         <v>Other Genetic syndrome (M)</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
@@ -11434,8 +11429,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B48" s="43" t="s">
-        <v>903</v>
+      <c r="B48" s="41" t="s">
+        <v>889</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>SubjectI4rc!A48</f>
@@ -11446,11 +11441,14 @@
         <v>Previous malignant cancer site (R)</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" t="s">
-        <v>896</v>
+      <c r="G48" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.75">
@@ -11459,7 +11457,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>SubjectI4rc!A49</f>
@@ -11470,12 +11468,13 @@
         <v>Previous cancer treatment (M)</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" t="s">
-        <v>896</v>
-      </c>
+      <c r="G49" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A50" s="5"/>
@@ -11488,8 +11487,8 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="38"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.75">
       <c r="D52"/>
@@ -12268,7 +12267,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="67.5" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:8" ht="54" x14ac:dyDescent="0.7">
       <c r="A28" s="17" t="s">
         <v>195</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="67.5" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:8" ht="54" x14ac:dyDescent="0.7">
       <c r="A29" s="17" t="s">
         <v>196</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="67.5" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:8" ht="54" x14ac:dyDescent="0.7">
       <c r="A30" s="17" t="s">
         <v>197</v>
       </c>
@@ -12789,19 +12788,19 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="81" x14ac:dyDescent="0.7">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="40" t="s">
         <v>104</v>
       </c>
       <c r="F48" s="17" t="s">

--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -8,35 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\idea4rc\src-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEBF5A-84FF-4154-85BB-C74A8103501F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912E1AD9-E7DD-4C4E-A954-F666852DA802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="15" r:id="rId1"/>
     <sheet name="LogicalModels" sheetId="16" r:id="rId2"/>
     <sheet name="Subject2FHIR" sheetId="18" r:id="rId3"/>
     <sheet name="SubjectI4rc" sheetId="19" r:id="rId4"/>
-    <sheet name="PatientFollowUpI4rc" sheetId="20" r:id="rId5"/>
-    <sheet name="HospitalPatientRecordsI4RC" sheetId="21" r:id="rId6"/>
-    <sheet name="CancerEpisodeI4RC" sheetId="22" r:id="rId7"/>
-    <sheet name="DiagnosisI4RC" sheetId="23" r:id="rId8"/>
-    <sheet name="ClinicalStageI4RC" sheetId="24" r:id="rId9"/>
-    <sheet name="PathologicalStageI4RC" sheetId="27" r:id="rId10"/>
-    <sheet name="EpisodeEventI4RC" sheetId="25" r:id="rId11"/>
-    <sheet name="DiseaseExtentI4RC" sheetId="26" r:id="rId12"/>
-    <sheet name="GeneticTestExpressionI4RC" sheetId="28" r:id="rId13"/>
-    <sheet name="SurgeryI4RC" sheetId="29" r:id="rId14"/>
-    <sheet name="SystemicTreatmentI4RC" sheetId="31" r:id="rId15"/>
-    <sheet name="RadiotherapyI4RC" sheetId="32" r:id="rId16"/>
-    <sheet name="RegionalDeepHyperthemiaI4RC" sheetId="33" r:id="rId17"/>
-    <sheet name="IsolatedLimbPerfusionI4RC" sheetId="34" r:id="rId18"/>
-    <sheet name="DrugsForTreatmentsI4RC" sheetId="35" r:id="rId19"/>
-    <sheet name="OverallTreatmentResponseI4RC" sheetId="36" r:id="rId20"/>
-    <sheet name="AdverseEventI4RC" sheetId="37" r:id="rId21"/>
+    <sheet name="Followup2FHIR" sheetId="38" r:id="rId5"/>
+    <sheet name="PatientFollowUpI4rc" sheetId="20" r:id="rId6"/>
+    <sheet name="HospitalPatientRecords2FHIR" sheetId="39" r:id="rId7"/>
+    <sheet name="HospitalPatientRecordsI4RC" sheetId="21" r:id="rId8"/>
+    <sheet name="CancerEpisodeI4RC" sheetId="22" r:id="rId9"/>
+    <sheet name="DiagnosisI4RC" sheetId="23" r:id="rId10"/>
+    <sheet name="ClinicalStageI4RC" sheetId="24" r:id="rId11"/>
+    <sheet name="PathologicalStageI4RC" sheetId="27" r:id="rId12"/>
+    <sheet name="EpisodeEventI4RC" sheetId="25" r:id="rId13"/>
+    <sheet name="DiseaseExtentI4RC" sheetId="26" r:id="rId14"/>
+    <sheet name="GeneticTestExpressionI4RC" sheetId="28" r:id="rId15"/>
+    <sheet name="SurgeryI4RC" sheetId="29" r:id="rId16"/>
+    <sheet name="SystemicTreatmentI4RC" sheetId="31" r:id="rId17"/>
+    <sheet name="RadiotherapyI4RC" sheetId="32" r:id="rId18"/>
+    <sheet name="RegionalDeepHyperthemiaI4RC" sheetId="33" r:id="rId19"/>
+    <sheet name="IsolatedLimbPerfusionI4RC" sheetId="34" r:id="rId20"/>
+    <sheet name="DrugsForTreatmentsI4RC" sheetId="35" r:id="rId21"/>
+    <sheet name="OverallTreatmentResponseI4RC" sheetId="36" r:id="rId22"/>
+    <sheet name="AdverseEventI4RC" sheetId="37" r:id="rId23"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
     <definedName name="CENEN13606Lekarska_prepustacia_sprava">'[1]Hospital Discharge Report '!#REF!</definedName>
@@ -95,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="939">
   <si>
     <t>Group Source</t>
   </si>
@@ -3907,12 +3909,106 @@
   <si>
     <t>numberOfCycles</t>
   </si>
+  <si>
+    <t>Followup2FHIR</t>
+  </si>
+  <si>
+    <t>followup2FHIR</t>
+  </si>
+  <si>
+    <t>Patient Follow up Model to this guide Map</t>
+  </si>
+  <si>
+    <t>It shows how the Patient Follow up model is mapped into this guide</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Encounter-eu-i4rc</t>
+  </si>
+  <si>
+    <t>relatedto</t>
+  </si>
+  <si>
+    <t>Where use = $diagnosis-role#DD (Discharge Diagnosis)
+Details in the referred Condition</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Condition-primaryCancer-eu-i4rc</t>
+  </si>
+  <si>
+    <t>Parent Encounter.diagnosis with use = $diagnosis-role#DD (Discharge Diagnosis)</t>
+  </si>
+  <si>
+    <t>Parent Encounter.diagnosis with use = $diagnosis-role#DD (Discharge Diagnosis). See the CancerEpisode map for further details about the representation of the date of diagnosis</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/observation-lastFollowupStatus-eu-i4rc</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/observation-dateLastContact-eu-i4rc</t>
+  </si>
+  <si>
+    <t>Encounter.subject</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.condition</t>
+  </si>
+  <si>
+    <t>Encounter.period.start</t>
+  </si>
+  <si>
+    <t>Condition.subject</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus</t>
+  </si>
+  <si>
+    <t>Condition.code</t>
+  </si>
+  <si>
+    <t>Condition.onSetDateTime</t>
+  </si>
+  <si>
+    <t>Condition.bodySite</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t>Observation.valueDateTime</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/episodeOfCare-eu-i4rc</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.patient</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.managingOrganization</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.managingOrganization.display</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.period.start</t>
+  </si>
+  <si>
+    <t>HospitalPatientRecords2FHIR</t>
+  </si>
+  <si>
+    <t>hospitalPatientRecords2FHIR</t>
+  </si>
+  <si>
+    <t>Hospital Patient Records Model to this guide Map</t>
+  </si>
+  <si>
+    <t>It shows how the Hospital Patient Records model is mapped into this guide</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3934,12 +4030,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -4087,7 +4177,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4107,8 +4197,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4125,33 +4214,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4167,13 +4256,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4589,8 +4681,8 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4639,12 +4731,12 @@
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="8" t="str">
-        <f>"http://hl7.eu/fhir/eps/ConceptMap/"&amp;A2</f>
-        <v>http://hl7.eu/fhir/eps/ConceptMap/subject2FHIR</v>
+        <f>"http://hl7.eu/fhir/ig/idea4rc/ConceptMap/"&amp;A2</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/subject2FHIR</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>40</v>
@@ -4667,33 +4759,77 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="13"/>
+      <c r="A3" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/ConceptMap/"&amp;A3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/followup2FHIR</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!A3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A4" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/ConceptMap/"&amp;A4</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/hospitalPatientRecords2FHIR</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!A4</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" s="5"/>
@@ -4717,12 +4853,1784 @@
     <hyperlink ref="C2" r:id="rId1" display="http://hl7.eu/fhir/eps/ConceptMap/patientSummary2FHIR" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{94DAEA62-303F-4C3E-B8E4-42ABC58F255D}"/>
     <hyperlink ref="G2" r:id="rId3" display="http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject" xr:uid="{9BFB22A1-168C-4580-8414-5CBF18954F2C}"/>
+    <hyperlink ref="C3" r:id="rId4" display="http://hl7.eu/fhir/eps/ConceptMap/patientSummary2FHIR" xr:uid="{A2302C4B-0359-452B-8026-4FA433829D1E}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{A2CEC7CB-4E94-461D-9399-3AA703C1B11E}"/>
+    <hyperlink ref="G3" r:id="rId6" display="http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject" xr:uid="{8CCED8C4-E45F-43DE-B8B2-8AE8858DEBBE}"/>
+    <hyperlink ref="B3" location="Followup2FHIR!A1" display="Followup2FHIR" xr:uid="{1560DC3F-F01A-44AB-B0A4-856F389A0B53}"/>
+    <hyperlink ref="B2" location="Subject2FHIR!A1" display="Subject2FHIR" xr:uid="{1A4DDF07-9661-48A7-B67E-21461123B70E}"/>
+    <hyperlink ref="C4" r:id="rId7" display="http://hl7.eu/fhir/eps/ConceptMap/patientSummary2FHIR" xr:uid="{48BA210E-8A43-4E27-8F34-08BECADF5D92}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{C6148E4B-72EC-48E3-BF21-A52F75BA33CA}"/>
+    <hyperlink ref="G4" r:id="rId9" display="http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject" xr:uid="{AE2408C2-E7B9-4EC6-AA54-774EDC6342A6}"/>
+    <hyperlink ref="B4" location="HospitalPatientRecords2FHIR!A1" display="HospitalPatientRecords2FHIR" xr:uid="{665124BA-D3C2-4151-93A8-687290516153}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A720DEE-B8F0-44A5-A3A6-5C40C1250139}">
+  <sheetPr codeName="Foglio6">
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="34.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.04296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.6796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A3" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="E18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A21" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E21" t="s">
+        <v>330</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6E020F-E97D-4577-BA46-C008722E7349}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="38.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.76953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.04296875" customWidth="1"/>
+    <col min="4" max="4" width="43.04296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="107.58984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.76953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.6796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A3" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A4" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A5" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="K5" t="str">
+        <f>$A$4&amp;"."&amp;A5</f>
+        <v>imagingForPrimarySite.imagingForPrimarySite.ct</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A6" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" t="str">
+        <f t="shared" ref="K6:K8" si="0">$A$4&amp;"."&amp;A6</f>
+        <v>imagingForPrimarySite.imagingForPrimarySite.mri</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A7" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>imagingForPrimarySite.imagingForPrimarySite.us</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A8" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>imagingForPrimarySite.imagingForPrimarySite.other</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="K10" t="str">
+        <f>$A$9&amp;"."&amp;A10</f>
+        <v>imagingForNeck.imagingForNeck.ct</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="K11" t="str">
+        <f>$A$9&amp;"."&amp;A11</f>
+        <v>imagingForNeck.imagingForNeck.mri</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A12" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="K12" t="str">
+        <f t="shared" ref="K12:K13" si="1">$A$9&amp;"."&amp;A12</f>
+        <v>imagingForNeck.imagingForNeck.us</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A13" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>imagingForNeck.imagingForNeck.other</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="59" x14ac:dyDescent="0.75">
+      <c r="A15" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="K15" t="str">
+        <f>$A$14&amp;"."&amp;A15</f>
+        <v>imagingForMetastasis.imagingForMetastasis.ct</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A16" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16:K18" si="2">$A$14&amp;"."&amp;A16</f>
+        <v>imagingForMetastasis.imagingForMetastasis.mri</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A17" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="K17" t="str">
+        <f t="shared" si="2"/>
+        <v>imagingForMetastasis.imagingForMetastasis.us</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="118" x14ac:dyDescent="0.75">
+      <c r="A18" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>imagingForMetastasis.imagingForMetastasis.other</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A19" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A20" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A21" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A22" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A23" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A24" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A25" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A26" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A27" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A28" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A29" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A30" s="31" t="s">
+        <v>664</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A31" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="K31" t="str">
+        <f>$A$30&amp;"."&amp;A31</f>
+        <v>sites.sites.softTissue</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A32" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="K32" t="str">
+        <f t="shared" ref="K32:K40" si="3">$A$30&amp;"."&amp;A32</f>
+        <v>sites.sites.distantLymphNode</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A33" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="K33" t="str">
+        <f t="shared" si="3"/>
+        <v>sites.sites.lung</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A34" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="K34" t="str">
+        <f t="shared" si="3"/>
+        <v>sites.sites.metastasisatbone</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A35" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="K35" t="str">
+        <f t="shared" si="3"/>
+        <v>sites.sites.liver</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A36" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="K36" t="str">
+        <f t="shared" si="3"/>
+        <v>sites.sites.pleura</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A37" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="K37" t="str">
+        <f t="shared" si="3"/>
+        <v>sites.sites.peritoneum</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A38" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="K38" t="str">
+        <f t="shared" si="3"/>
+        <v>sites.sites.brain</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A39" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v>sites.sites.otherViscera</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A40" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="K40" t="str">
+        <f t="shared" si="3"/>
+        <v>sites.sites.unknown</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED39A7D-18C7-428B-AD73-C51113FEC263}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -4773,7 +6681,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>458</v>
       </c>
       <c r="D2" t="s">
@@ -4793,7 +6701,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>630</v>
       </c>
       <c r="B3" t="s">
@@ -4825,7 +6733,7 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
@@ -4845,7 +6753,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>652</v>
       </c>
       <c r="B5" t="s">
@@ -4871,7 +6779,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>653</v>
       </c>
       <c r="B6" t="s">
@@ -4897,7 +6805,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>654</v>
       </c>
       <c r="B7" t="s">
@@ -4923,7 +6831,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>655</v>
       </c>
       <c r="B8" t="s">
@@ -4955,7 +6863,7 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
@@ -4975,7 +6883,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>659</v>
       </c>
       <c r="B10" t="s">
@@ -5001,7 +6909,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>656</v>
       </c>
       <c r="B11" t="s">
@@ -5027,7 +6935,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>657</v>
       </c>
       <c r="B12" t="s">
@@ -5053,7 +6961,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>658</v>
       </c>
       <c r="B13" t="s">
@@ -5085,7 +6993,7 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
@@ -5105,7 +7013,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>660</v>
       </c>
       <c r="B15" t="s">
@@ -5131,7 +7039,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>661</v>
       </c>
       <c r="B16" t="s">
@@ -5157,7 +7065,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>662</v>
       </c>
       <c r="B17" t="s">
@@ -5183,7 +7091,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>663</v>
       </c>
       <c r="B18" t="s">
@@ -5417,7 +7325,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B27" t="s">
@@ -5521,19 +7429,19 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>664</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="32" t="s">
         <v>666</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="32" t="s">
         <v>665</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -5546,7 +7454,7 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>667</v>
       </c>
       <c r="B32" t="s">
@@ -5572,7 +7480,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>668</v>
       </c>
       <c r="B33" t="s">
@@ -5598,7 +7506,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>669</v>
       </c>
       <c r="B34" t="s">
@@ -5624,7 +7532,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>670</v>
       </c>
       <c r="B35" t="s">
@@ -5650,7 +7558,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>671</v>
       </c>
       <c r="B36" t="s">
@@ -5676,7 +7584,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>672</v>
       </c>
       <c r="B37" t="s">
@@ -5702,7 +7610,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>673</v>
       </c>
       <c r="B38" t="s">
@@ -5728,7 +7636,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>674</v>
       </c>
       <c r="B39" t="s">
@@ -5754,7 +7662,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>675</v>
       </c>
       <c r="B40" t="s">
@@ -5780,7 +7688,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>676</v>
       </c>
       <c r="B41" t="s">
@@ -5810,7 +7718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA510BF-38D1-4175-8B9E-AA1276338C3D}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -5861,7 +7769,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>454</v>
       </c>
       <c r="D2" t="s">
@@ -5963,7 +7871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DF96C4-DABA-4AEF-AE92-3BDB628601EF}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -6014,7 +7922,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>218</v>
       </c>
       <c r="D2" t="s">
@@ -6190,19 +8098,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>664</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>666</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>665</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -6215,7 +8123,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>667</v>
       </c>
       <c r="B10" t="s">
@@ -6241,7 +8149,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>668</v>
       </c>
       <c r="B11" t="s">
@@ -6267,7 +8175,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>669</v>
       </c>
       <c r="B12" t="s">
@@ -6293,7 +8201,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>670</v>
       </c>
       <c r="B13" t="s">
@@ -6319,7 +8227,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>671</v>
       </c>
       <c r="B14" t="s">
@@ -6345,7 +8253,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>672</v>
       </c>
       <c r="B15" t="s">
@@ -6371,7 +8279,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>673</v>
       </c>
       <c r="B16" t="s">
@@ -6397,7 +8305,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>674</v>
       </c>
       <c r="B17" t="s">
@@ -6423,7 +8331,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>675</v>
       </c>
       <c r="B18" t="s">
@@ -6453,7 +8361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA514E6-D5BB-4483-BEC0-71AC0A3E7129}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -6504,7 +8412,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>458</v>
       </c>
       <c r="D2" t="s">
@@ -6530,7 +8438,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>218</v>
       </c>
       <c r="D3" t="s">
@@ -6706,7 +8614,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>647</v>
       </c>
       <c r="B10" t="s">
@@ -6758,7 +8666,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>648</v>
       </c>
       <c r="B12" t="s">
@@ -6862,7 +8770,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>649</v>
       </c>
       <c r="B16" t="s">
@@ -6918,7 +8826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6C35F2-E025-4FEF-A1E3-5E20D824B7AC}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -6969,7 +8877,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>458</v>
       </c>
       <c r="D2" t="s">
@@ -6995,7 +8903,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>218</v>
       </c>
       <c r="D3" t="s">
@@ -7229,7 +9137,7 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>211</v>
       </c>
       <c r="D12" t="s">
@@ -7431,31 +9339,31 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="34"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>678</v>
       </c>
       <c r="B21" t="s">
@@ -7481,7 +9389,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>679</v>
       </c>
       <c r="B22" t="s">
@@ -7507,7 +9415,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>680</v>
       </c>
       <c r="B23" t="s">
@@ -7533,7 +9441,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>681</v>
       </c>
       <c r="B24" t="s">
@@ -7559,7 +9467,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>682</v>
       </c>
       <c r="B25" t="s">
@@ -7585,7 +9493,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>683</v>
       </c>
       <c r="B26" t="s">
@@ -7611,7 +9519,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>684</v>
       </c>
       <c r="B27" t="s">
@@ -7637,7 +9545,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>685</v>
       </c>
       <c r="B28" t="s">
@@ -7663,7 +9571,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>686</v>
       </c>
       <c r="B29" t="s">
@@ -7689,7 +9597,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>687</v>
       </c>
       <c r="B30" t="s">
@@ -7745,14 +9653,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E5F22B-FC87-4122-82A5-9C44081B26A5}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -7796,7 +9704,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>458</v>
       </c>
       <c r="D2" t="s">
@@ -7822,7 +9730,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>218</v>
       </c>
       <c r="D3" t="s">
@@ -7842,7 +9750,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>858</v>
       </c>
       <c r="B4" t="s">
@@ -8024,7 +9932,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>907</v>
       </c>
       <c r="B11" t="s">
@@ -8154,7 +10062,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>799</v>
       </c>
       <c r="B16" t="s">
@@ -8184,7 +10092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5326D29F-69FA-442D-B5AB-DDD6753BF7E7}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -8236,7 +10144,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>458</v>
       </c>
       <c r="D2" t="s">
@@ -8262,7 +10170,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>218</v>
       </c>
       <c r="D3" t="s">
@@ -8337,13 +10245,13 @@
       <c r="A6" t="s">
         <v>699</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>901</v>
       </c>
       <c r="E6" t="s">
@@ -8359,7 +10267,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" ht="295" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>739</v>
       </c>
@@ -8386,7 +10294,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>651</v>
       </c>
       <c r="B8" t="s">
@@ -8411,7 +10319,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" ht="295" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>744</v>
       </c>
@@ -8438,7 +10346,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>899</v>
       </c>
       <c r="B10" t="s">
@@ -8464,7 +10372,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>900</v>
       </c>
       <c r="B11" t="s">
@@ -8542,7 +10450,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>843</v>
       </c>
       <c r="B14" t="s">
@@ -8568,16 +10476,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>844</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>841</v>
       </c>
       <c r="E15" t="s">
@@ -8594,16 +10502,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>845</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>842</v>
       </c>
       <c r="E16" t="s">
@@ -8675,13 +10583,13 @@
       <c r="A19" t="s">
         <v>771</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>902</v>
       </c>
       <c r="E19" t="s">
@@ -8701,13 +10609,13 @@
       <c r="A20" t="s">
         <v>772</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>903</v>
       </c>
       <c r="E20" t="s">
@@ -8932,7 +10840,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>846</v>
       </c>
       <c r="B29" t="s">
@@ -8983,7 +10891,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:8" ht="250.75" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>799</v>
       </c>
@@ -9014,7 +10922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD9707F-8031-429A-9C78-1432E8AC7758}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -9064,7 +10972,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>458</v>
       </c>
       <c r="D2" t="s">
@@ -9090,7 +10998,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>218</v>
       </c>
       <c r="D3" t="s">
@@ -9211,364 +11119,6 @@
       </c>
       <c r="H7" t="s">
         <v>731</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C247EAD-6F40-421C-8635-EFED5E389832}">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="26.40625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="D2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E2" t="s">
-        <v>807</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E3" t="s">
-        <v>503</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>808</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>809</v>
-      </c>
-      <c r="E4" t="s">
-        <v>810</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>766</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>767</v>
-      </c>
-      <c r="E5" t="s">
-        <v>804</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>769</v>
-      </c>
-      <c r="E6" t="s">
-        <v>805</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>799</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>800</v>
-      </c>
-      <c r="E7" t="s">
-        <v>806</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B602B1A2-A390-4061-8B84-B5602670418C}">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="19.40625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.31640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>811</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>847</v>
-      </c>
-      <c r="D2" t="s">
-        <v>812</v>
-      </c>
-      <c r="E2" t="s">
-        <v>813</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>814</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>849</v>
-      </c>
-      <c r="D3" t="s">
-        <v>815</v>
-      </c>
-      <c r="E3" t="s">
-        <v>816</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>817</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="D4" t="s">
-        <v>818</v>
-      </c>
-      <c r="E4" t="s">
-        <v>819</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>820</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>821</v>
-      </c>
-      <c r="E5" t="s">
-        <v>822</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -9911,6 +11461,364 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C247EAD-6F40-421C-8635-EFED5E389832}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="26.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E2" t="s">
+        <v>807</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>767</v>
+      </c>
+      <c r="E5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>769</v>
+      </c>
+      <c r="E6" t="s">
+        <v>805</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>799</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>800</v>
+      </c>
+      <c r="E7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B602B1A2-A390-4061-8B84-B5602670418C}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="19.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.31640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="D2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E2" t="s">
+        <v>813</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="D3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="D4" t="s">
+        <v>818</v>
+      </c>
+      <c r="E4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>820</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>821</v>
+      </c>
+      <c r="E5" t="s">
+        <v>822</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB41D0F0-ED8B-4030-97F0-A5C72BB39D83}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -9961,7 +11869,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>458</v>
       </c>
       <c r="D2" t="s">
@@ -9987,7 +11895,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>218</v>
       </c>
       <c r="D3" t="s">
@@ -10007,7 +11915,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>897</v>
       </c>
       <c r="B4" t="s">
@@ -10033,7 +11941,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>898</v>
       </c>
       <c r="B5" t="s">
@@ -10063,7 +11971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F09303-7F5B-43EA-B558-6C4DA179EB1B}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -10114,7 +12022,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>847</v>
       </c>
       <c r="D2" t="s">
@@ -10134,7 +12042,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>896</v>
       </c>
       <c r="B3" t="s">
@@ -10316,7 +12224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10343,7 +12251,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10368,7 +12276,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10387,12 +12295,12 @@
       <c r="E6" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10411,17 +12319,17 @@
       <c r="E7" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>875</v>
       </c>
       <c r="C8" s="5" t="str">
@@ -10435,17 +12343,17 @@
       <c r="E8" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" s="20" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>886</v>
       </c>
       <c r="C9" s="5" t="str">
@@ -10458,15 +12366,15 @@
         <v>Height/weight (BMI)
  (R)</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>890</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A10" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10482,18 +12390,18 @@
         <f>SubjectI4rc!D10</f>
         <v>Charlson Comorbidity index (R)</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="20" t="s">
         <v>882</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="20" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A11" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10509,18 +12417,18 @@
         <f>SubjectI4rc!D11</f>
         <v>Comorbidity (M)</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A12" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10536,16 +12444,16 @@
         <f>SubjectI4rc!D12</f>
         <v>Myocardial infarction (O)</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A13" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10561,16 +12469,16 @@
         <f>SubjectI4rc!D13</f>
         <v>Congestive heart failure (O)</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A14" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10586,16 +12494,16 @@
         <f>SubjectI4rc!D14</f>
         <v>Peripheral vascular disease (O)</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A15" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10611,16 +12519,16 @@
         <f>SubjectI4rc!D15</f>
         <v>Cerebrovascular accident  (except hemiplegia) (O)</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A16" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -10636,14 +12544,14 @@
         <f>SubjectI4rc!D16</f>
         <v>Dementia (O)</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" s="8" t="str">
@@ -10661,7 +12569,7 @@
         <f>SubjectI4rc!D17</f>
         <v>Chronic pulmonary disease (O)</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F17" s="5"/>
@@ -10686,7 +12594,7 @@
         <f>SubjectI4rc!D18</f>
         <v>Connective tissue disease (O)</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F18" s="5"/>
@@ -10711,7 +12619,7 @@
         <f>SubjectI4rc!D19</f>
         <v>Ulcer (O)</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F19" s="5"/>
@@ -10736,7 +12644,7 @@
         <f>SubjectI4rc!D20</f>
         <v>Mild liver disease (O)</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F20" s="5"/>
@@ -10761,7 +12669,7 @@
         <f>SubjectI4rc!D21</f>
         <v>Moderate to severe liver disease (O)</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F21" s="5"/>
@@ -10786,7 +12694,7 @@
         <f>SubjectI4rc!D22</f>
         <v>Diabetes (without complications) (O)</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F22" s="5"/>
@@ -10811,7 +12719,7 @@
         <f>SubjectI4rc!D23</f>
         <v>Diabetes with end organ damage (O)</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F23" s="5"/>
@@ -10836,7 +12744,7 @@
         <f>SubjectI4rc!D24</f>
         <v>Hemiplegia (O)</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F24" s="5"/>
@@ -10861,7 +12769,7 @@
         <f>SubjectI4rc!D25</f>
         <v>Moderate to severe renal disease (O)</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F25" s="5"/>
@@ -10886,7 +12794,7 @@
         <f>SubjectI4rc!D26</f>
         <v>Solid tumor (non metastatic) (O)</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F26" s="5"/>
@@ -10911,7 +12819,7 @@
         <f>SubjectI4rc!D27</f>
         <v>Metastatic solid tumor (O)</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F27" s="5"/>
@@ -10936,7 +12844,7 @@
         <f>SubjectI4rc!D28</f>
         <v>Leukemia (O)</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F28" s="5"/>
@@ -10961,7 +12869,7 @@
         <f>SubjectI4rc!D29</f>
         <v>Lymphoma (O)</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F29" s="5"/>
@@ -10986,7 +12894,7 @@
         <f>SubjectI4rc!D30</f>
         <v>Multiple myeloma (O)</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F30" s="5"/>
@@ -11011,7 +12919,7 @@
         <f>SubjectI4rc!D31</f>
         <v>AIDS (O)</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F31" s="5"/>
@@ -11025,7 +12933,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="41" t="s">
         <v>884</v>
       </c>
       <c r="C32" s="5" t="str">
@@ -11052,7 +12960,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>884</v>
       </c>
       <c r="C33" s="5" t="str">
@@ -11138,14 +13046,14 @@
         <f>SubjectI4rc!D36</f>
         <v>No Genetic syndrome (M)</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="35" t="s">
         <v>872</v>
       </c>
     </row>
@@ -11165,7 +13073,7 @@
         <f>SubjectI4rc!D37</f>
         <v>Olliers disease (M)</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F37" s="5"/>
@@ -11190,7 +13098,7 @@
         <f>SubjectI4rc!D38</f>
         <v>Maffuci syndrome (M)</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F38" s="5"/>
@@ -11215,7 +13123,7 @@
         <f>SubjectI4rc!D39</f>
         <v>Li-Fraumeni syndrome (M)</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F39" s="5"/>
@@ -11240,7 +13148,7 @@
         <f>SubjectI4rc!D40</f>
         <v>McCune-Albright syndrome (M)</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F40" s="5"/>
@@ -11265,7 +13173,7 @@
         <f>SubjectI4rc!D41</f>
         <v>Multiple osteochondromas (M)</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F41" s="5"/>
@@ -11290,7 +13198,7 @@
         <f>SubjectI4rc!D42</f>
         <v>Neurofibromatosis type 1 (M)</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F42" s="5"/>
@@ -11315,7 +13223,7 @@
         <f>SubjectI4rc!D43</f>
         <v>Rothmund-Thomson syndrome (M)</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F43" s="5"/>
@@ -11340,7 +13248,7 @@
         <f>SubjectI4rc!D44</f>
         <v>Werner syndrome (M)</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F44" s="5"/>
@@ -11365,7 +13273,7 @@
         <f>SubjectI4rc!D45</f>
         <v>Retinoblastoma (M)</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F45" s="5"/>
@@ -11390,7 +13298,7 @@
         <f>SubjectI4rc!D46</f>
         <v>Paget disease (M)</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F46" s="5"/>
@@ -11415,7 +13323,7 @@
         <f>SubjectI4rc!D47</f>
         <v>Other Genetic syndrome (M)</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="19" t="s">
         <v>893</v>
       </c>
       <c r="F47" s="5"/>
@@ -11429,14 +13337,14 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="40" t="s">
         <v>889</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>SubjectI4rc!A48</f>
         <v>previousMalignantCancerSite</v>
       </c>
-      <c r="D48" s="12" t="str">
+      <c r="D48" s="11" t="str">
         <f>SubjectI4rc!D48</f>
         <v>Previous malignant cancer site (R)</v>
       </c>
@@ -11447,7 +13355,7 @@
       <c r="G48" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="H48" s="43" t="s">
+      <c r="H48" s="42" t="s">
         <v>895</v>
       </c>
     </row>
@@ -11487,8 +13395,8 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="C51" s="37"/>
-      <c r="D51" s="38"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.75">
       <c r="D52"/>
@@ -11554,1288 +13462,1288 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="59.04296875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="66.04296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.81640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="17"/>
-    <col min="8" max="8" width="15.453125" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="59.04296875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="66.04296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.81640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="16"/>
+    <col min="8" max="8" width="15.453125" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.75" x14ac:dyDescent="0.7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.7">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.7">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="F3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="F8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="54.25" x14ac:dyDescent="0.75">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.75" x14ac:dyDescent="0.75">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.7">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="F14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="17" t="s">
+      <c r="F25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="81" x14ac:dyDescent="0.7">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="17" t="s">
+      <c r="F26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="54" x14ac:dyDescent="0.7">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="F28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="54" x14ac:dyDescent="0.7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="17" t="s">
+      <c r="F29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="54" x14ac:dyDescent="0.7">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="17" t="s">
+      <c r="F30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="17" t="s">
+      <c r="F31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="17" t="s">
+      <c r="F32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="17" t="s">
+      <c r="F33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="17" t="s">
+      <c r="F34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="17" t="s">
+      <c r="G36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="17" t="s">
+      <c r="G37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="17" t="s">
+      <c r="G38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="17" t="s">
+      <c r="G39" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="17" t="s">
+      <c r="G40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="17" t="s">
+      <c r="G41" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="17" t="s">
+      <c r="G42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="17" t="s">
+      <c r="G43" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="17" t="s">
+      <c r="G44" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="16" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G45" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="17" t="s">
+      <c r="G45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="17" t="s">
+      <c r="G46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="54" x14ac:dyDescent="0.7">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G47" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="17" t="s">
+      <c r="G47" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="81" x14ac:dyDescent="0.7">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="17" t="s">
+      <c r="F48" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="54" x14ac:dyDescent="0.7">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="17" t="s">
+      <c r="G49" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>176</v>
       </c>
     </row>
@@ -12846,6 +14754,524 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90036F27-9DA6-429D-900F-6FE6B773821B}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="57.76953125" customWidth="1"/>
+    <col min="2" max="2" width="58.953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.58984375" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" customWidth="1"/>
+    <col min="8" max="8" width="64.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>PatientFollowUpI4rc!A2</f>
+        <v>patient</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>PatientFollowUpI4rc!D2</f>
+        <v>Patient (M)</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f>PatientFollowUpI4rc!A4</f>
+        <v>statusOfDiseaseAtLastFollowUp</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>PatientFollowUpI4rc!D4</f>
+        <v>Status of disease at last follow-up (M) type EpisodeEvent</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f>PatientFollowUpI4rc!A5</f>
+        <v>patientFollowUpDate</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>PatientFollowUpI4rc!D5</f>
+        <v>Patient Follow Up date (M)</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>PatientFollowUpI4rc!A6</f>
+        <v>newCancerDiagnosis</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>PatientFollowUpI4rc!D6</f>
+        <v>New cancer diagnosis (M)</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f>PatientFollowUpI4rc!A7</f>
+        <v>dateOfNewCancerDiagnosis</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f>PatientFollowUpI4rc!D7</f>
+        <v>Date of new cancer diagnosis (M)</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>913</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>912</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f>PatientFollowUpI4rc!A8</f>
+        <v>newCancerTopography</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>PatientFollowUpI4rc!D8</f>
+        <v>New cancer topography (M)</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>913</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B8" t="s">
+        <v>915</v>
+      </c>
+      <c r="C8" s="19" t="str">
+        <f>PatientFollowUpI4rc!A2</f>
+        <v>patient</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>PatientFollowUpI4rc!D2</f>
+        <v>Patient (M)</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>923</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="20" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A9" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="C9" s="19" t="str">
+        <f>PatientFollowUpI4rc!A4</f>
+        <v>statusOfDiseaseAtLastFollowUp</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f>PatientFollowUpI4rc!D4</f>
+        <v>Status of disease at last follow-up (M) type EpisodeEvent</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="20" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="C10" s="19" t="str">
+        <f>PatientFollowUpI4rc!A6</f>
+        <v>newCancerDiagnosis</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f>PatientFollowUpI4rc!D6</f>
+        <v>New cancer diagnosis (M)</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>925</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="C11" s="19" t="str">
+        <f>PatientFollowUpI4rc!A7</f>
+        <v>dateOfNewCancerDiagnosis</v>
+      </c>
+      <c r="D11" s="19" t="str">
+        <f>PatientFollowUpI4rc!D7</f>
+        <v>Date of new cancer diagnosis (M)</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A12" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>PatientFollowUpI4rc!A8</f>
+        <v>newCancerTopography</v>
+      </c>
+      <c r="D12" s="19" t="str">
+        <f>PatientFollowUpI4rc!D8</f>
+        <v>New cancer topography (M)</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A13" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>PatientFollowUpI4rc!A2</f>
+        <v>patient</v>
+      </c>
+      <c r="D13" s="19" t="str">
+        <f>PatientFollowUpI4rc!D2</f>
+        <v>Patient (M)</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="C14" s="19" t="str">
+        <f>PatientFollowUpI4rc!A3</f>
+        <v>statusOfPatientAtLastFollowUp</v>
+      </c>
+      <c r="D14" s="19" t="str">
+        <f>PatientFollowUpI4rc!D3</f>
+        <v>Status of patient at last follow-up (M)</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A15" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="C15" s="19" t="str">
+        <f>PatientFollowUpI4rc!A2</f>
+        <v>patient</v>
+      </c>
+      <c r="D15" s="19" t="str">
+        <f>PatientFollowUpI4rc!D2</f>
+        <v>Patient (M)</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A16" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="C16" s="19" t="str">
+        <f>PatientFollowUpI4rc!A9</f>
+        <v>lastContact</v>
+      </c>
+      <c r="D16" s="19" t="str">
+        <f>PatientFollowUpI4rc!D9</f>
+        <v>Last Contact (M)</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D37"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{A3DC7073-1A64-441F-A19E-D41E443C67A0}"/>
+    <hyperlink ref="A3:A7" r:id="rId2" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{BED2DEBD-E76C-4ACD-8A9E-B9F1F1A96B07}"/>
+    <hyperlink ref="A8:A12" r:id="rId3" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{DABEEC7E-4FB8-47D9-8133-42A12A7D700C}"/>
+    <hyperlink ref="A13:A14" r:id="rId4" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{9F9D8898-8401-43AA-8894-63EB4DF43006}"/>
+    <hyperlink ref="A15:A16" r:id="rId5" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{DC4F4B64-EC88-48DF-BA6D-A8F61CABEC0B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1FABC-F66C-4AA7-8997-DFDC886E091A}">
   <sheetPr codeName="Foglio36">
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -12858,248 +15284,248 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="59.04296875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="66.04296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.81640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="17"/>
-    <col min="8" max="8" width="15.453125" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="59.04296875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="66.04296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.81640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="16"/>
+    <col min="8" max="8" width="15.453125" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.75" x14ac:dyDescent="0.7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="F2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="108" x14ac:dyDescent="0.7">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="F3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="81.25" x14ac:dyDescent="0.75">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="25" t="s">
+      <c r="F4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27.25" x14ac:dyDescent="0.75">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="25" t="s">
+      <c r="G9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>157</v>
       </c>
     </row>
@@ -13107,14 +15533,175 @@
       <c r="C11" s="6"/>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C24" s="25"/>
+      <c r="C24" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A37656-C8B3-465E-BFCD-403CF15BC6A8}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="57.76953125" customWidth="1"/>
+    <col min="2" max="2" width="58.953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.58984375" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" customWidth="1"/>
+    <col min="8" max="8" width="64.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>HospitalPatientRecordsI4RC!A2</f>
+        <v>patient</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>HospitalPatientRecordsI4RC!D2</f>
+        <v>Patient (M)</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="20" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A3" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f>HospitalPatientRecordsI4RC!A3</f>
+        <v>hospital</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>HospitalPatientRecordsI4RC!D3</f>
+        <v>Hospital (M)</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>932</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="20" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A4" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f>HospitalPatientRecordsI4RC!A4</f>
+        <v>hospital.name</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>HospitalPatientRecordsI4RC!D4</f>
+        <v>Hospital name (M)</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="20" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A5" s="8" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>HospitalPatientRecordsI4RC!A5</f>
+        <v>dateOfFirstContactWithTheHospital</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>HospitalPatientRecordsI4RC!D5</f>
+        <v>Date of first contact with the hospital (M)</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="19" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="D7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{F26B19E2-A338-4F21-A360-B0023B25E0B9}"/>
+    <hyperlink ref="A3:A5" r:id="rId2" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{74A7DC81-AEAB-4919-A9F9-77826BFD7C00}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C7F4F7-313E-415D-909D-338D8C7F5BA5}">
   <sheetPr codeName="Foglio37">
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -13127,144 +15714,144 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="59.04296875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="59.81640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="17"/>
-    <col min="8" max="8" width="15.90625" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="59.04296875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="59.81640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="16"/>
+    <col min="8" max="8" width="15.90625" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.75" x14ac:dyDescent="0.7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.7">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.75" x14ac:dyDescent="0.75">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.7">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.7">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>243</v>
       </c>
     </row>
@@ -13273,7 +15860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60125623-8006-4856-8E8D-6201CD38B29D}">
   <sheetPr codeName="Foglio5">
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -13314,7 +15901,7 @@
       <c r="G1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13325,7 +15912,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
@@ -13368,1769 +15955,6 @@
       </c>
       <c r="H3" t="s">
         <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A720DEE-B8F0-44A5-A3A6-5C40C1250139}">
-  <sheetPr codeName="Foglio6">
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="34.40625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.04296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.6796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" t="s">
-        <v>289</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" t="s">
-        <v>293</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>304</v>
-      </c>
-      <c r="E13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" t="s">
-        <v>308</v>
-      </c>
-      <c r="E14" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" t="s">
-        <v>312</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" t="s">
-        <v>314</v>
-      </c>
-      <c r="E16" t="s">
-        <v>315</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>316</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" t="s">
-        <v>317</v>
-      </c>
-      <c r="E17" t="s">
-        <v>318</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>319</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="E18" t="s">
-        <v>320</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>322</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E19" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>327</v>
-      </c>
-      <c r="E20" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A21" s="30" t="s">
-        <v>650</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E21" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6E020F-E97D-4577-BA46-C008722E7349}">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:K40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="1"/>
-    <col min="2" max="2" width="9.76953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.04296875" customWidth="1"/>
-    <col min="4" max="4" width="43.04296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="107.58984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.76953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.6796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A2" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A3" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A4" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A5" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="K5" t="str">
-        <f>$A$4&amp;"."&amp;A5</f>
-        <v>imagingForPrimarySite.imagingForPrimarySite.ct</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A6" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="K6" t="str">
-        <f t="shared" ref="K6:K8" si="0">$A$4&amp;"."&amp;A6</f>
-        <v>imagingForPrimarySite.imagingForPrimarySite.mri</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A7" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v>imagingForPrimarySite.imagingForPrimarySite.us</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A8" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>imagingForPrimarySite.imagingForPrimarySite.other</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A9" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A10" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="K10" t="str">
-        <f>$A$9&amp;"."&amp;A10</f>
-        <v>imagingForNeck.imagingForNeck.ct</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A11" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="K11" t="str">
-        <f>$A$9&amp;"."&amp;A11</f>
-        <v>imagingForNeck.imagingForNeck.mri</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A12" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="K12" t="str">
-        <f t="shared" ref="K12:K13" si="1">$A$9&amp;"."&amp;A12</f>
-        <v>imagingForNeck.imagingForNeck.us</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A13" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>imagingForNeck.imagingForNeck.other</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A14" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="59" x14ac:dyDescent="0.75">
-      <c r="A15" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="K15" t="str">
-        <f>$A$14&amp;"."&amp;A15</f>
-        <v>imagingForMetastasis.imagingForMetastasis.ct</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A16" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="K16" t="str">
-        <f t="shared" ref="K16:K18" si="2">$A$14&amp;"."&amp;A16</f>
-        <v>imagingForMetastasis.imagingForMetastasis.mri</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A17" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="K17" t="str">
-        <f t="shared" si="2"/>
-        <v>imagingForMetastasis.imagingForMetastasis.us</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="118" x14ac:dyDescent="0.75">
-      <c r="A18" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="K18" t="str">
-        <f t="shared" si="2"/>
-        <v>imagingForMetastasis.imagingForMetastasis.other</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
-      <c r="A19" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
-      <c r="A20" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="103.25" x14ac:dyDescent="0.75">
-      <c r="A21" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A22" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
-      <c r="A23" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A24" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A25" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="88.5" x14ac:dyDescent="0.75">
-      <c r="A26" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A27" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A28" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A29" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A30" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>666</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>665</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A31" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="K31" t="str">
-        <f>$A$30&amp;"."&amp;A31</f>
-        <v>sites.sites.softTissue</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A32" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="K32" t="str">
-        <f t="shared" ref="K32:K40" si="3">$A$30&amp;"."&amp;A32</f>
-        <v>sites.sites.distantLymphNode</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A33" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="K33" t="str">
-        <f t="shared" si="3"/>
-        <v>sites.sites.lung</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A34" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="K34" t="str">
-        <f t="shared" si="3"/>
-        <v>sites.sites.metastasisatbone</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A35" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="K35" t="str">
-        <f t="shared" si="3"/>
-        <v>sites.sites.liver</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A36" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="K36" t="str">
-        <f t="shared" si="3"/>
-        <v>sites.sites.pleura</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A37" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="K37" t="str">
-        <f t="shared" si="3"/>
-        <v>sites.sites.peritoneum</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A38" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="K38" t="str">
-        <f t="shared" si="3"/>
-        <v>sites.sites.brain</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A39" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I39" s="6"/>
-      <c r="K39" t="str">
-        <f t="shared" si="3"/>
-        <v>sites.sites.otherViscera</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A40" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="I40" s="6"/>
-      <c r="K40" t="str">
-        <f t="shared" si="3"/>
-        <v>sites.sites.unknown</v>
       </c>
     </row>
   </sheetData>

--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\idea4rc\src-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912E1AD9-E7DD-4C4E-A954-F666852DA802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A23A13-91DB-4D79-9CD3-BB61D3C49263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="15" r:id="rId1"/>
@@ -4681,8 +4681,8 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11131,7 +11131,7 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A25" activeCellId="1" sqref="A13 A25"/>
     </sheetView>
   </sheetViews>
@@ -12131,14 +12131,14 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="52.86328125" customWidth="1"/>
-    <col min="2" max="2" width="58.953125" customWidth="1"/>
+    <col min="2" max="2" width="76.1328125" customWidth="1"/>
     <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.54296875" style="4" customWidth="1"/>
     <col min="5" max="5" width="42.90625" customWidth="1"/>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20" t="s">
-        <v>882</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="20" t="s">
-        <v>882</v>
+        <v>34</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>885</v>
@@ -12948,8 +12948,8 @@
         <v>874</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>882</v>
+      <c r="G32" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>883</v>
@@ -13000,8 +13000,8 @@
         <v>891</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
-        <v>882</v>
+      <c r="G34" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="H34" s="5"/>
     </row>
@@ -13456,8 +13456,8 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A42" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.7"/>
@@ -15547,14 +15547,14 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="57.76953125" customWidth="1"/>
-    <col min="2" max="2" width="58.953125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="79.76953125" customWidth="1"/>
+    <col min="2" max="2" width="67.86328125" style="4" customWidth="1"/>
     <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49" style="4" customWidth="1"/>
     <col min="5" max="5" width="42.90625" customWidth="1"/>
@@ -15589,7 +15589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
@@ -15613,7 +15613,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="20" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
@@ -15637,7 +15637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="20" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
@@ -15661,7 +15661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="20" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
@@ -15867,8 +15867,8 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roberta\HL7EU\IDEA4RC\idea4rc2025\idea4rc\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wylem\workspace\hl7\wylem\idea4rc\src-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB32178-22A1-4B52-9783-432027BC16F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D9E721-F7DD-4E06-8CD0-A8131519DDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="654" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="654" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="15" r:id="rId1"/>
@@ -76,10 +76,10 @@
   <commentList>
     <comment ref="B48" authorId="0" shapeId="0" xr:uid="{BCDCC929-C1AA-46D9-A1CE-2F2A9F418401}">
       <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-Check if this profile fits for purpose</t>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Check if this profile fits for purpose</t>
       </text>
     </comment>
   </commentList>
@@ -94,10 +94,10 @@
   <commentList>
     <comment ref="A48" authorId="0" shapeId="0" xr:uid="{7F78229B-0024-4E7E-B76B-4A79CA7364DD}">
       <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-Check if only the site is captured or also the kind of cancer</t>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Check if only the site is captured or also the kind of cancer</t>
       </text>
     </comment>
   </commentList>
@@ -4431,7 +4431,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4596,15 +4596,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Collegamento ipertestuale 2" xfId="3" xr:uid="{89608739-F8AF-4CD6-B282-118C4E57D255}"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="2" xr:uid="{CFD04C6F-70BE-4734-8E9F-B4BC2A2491AF}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5020,20 +5016,20 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -5062,7 +5058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>9</v>
       </c>
@@ -5093,7 +5089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>16</v>
       </c>
@@ -5124,7 +5120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
@@ -5156,7 +5152,7 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="72" t="s">
         <v>24</v>
       </c>
@@ -5187,7 +5183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>28</v>
       </c>
@@ -5218,10 +5214,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
   </sheetData>
@@ -5259,19 +5255,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
     <col min="2" max="2" width="59" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="64.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
@@ -5297,7 +5293,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5322,7 +5318,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5349,7 +5345,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5374,7 +5370,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5401,7 +5397,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5428,7 +5424,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5455,7 +5451,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5482,7 +5478,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5509,7 +5505,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5536,7 +5532,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5563,7 +5559,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5590,7 +5586,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5615,7 +5611,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5640,7 +5636,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5665,7 +5661,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
@@ -5690,67 +5686,67 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37"/>
     </row>
   </sheetData>
@@ -5775,20 +5771,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="14" customWidth="1"/>
     <col min="4" max="4" width="66" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="14"/>
-    <col min="8" max="8" width="15.42578125" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="14"/>
+    <col min="5" max="5" width="59.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="14"/>
+    <col min="8" max="8" width="15.44140625" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>90</v>
       </c>
@@ -5814,7 +5810,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>98</v>
       </c>
@@ -5840,7 +5836,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>441</v>
       </c>
@@ -5866,7 +5862,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>445</v>
       </c>
@@ -5892,7 +5888,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>449</v>
       </c>
@@ -5918,7 +5914,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>452</v>
       </c>
@@ -5944,7 +5940,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>456</v>
       </c>
@@ -5970,7 +5966,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>459</v>
       </c>
@@ -5996,7 +5992,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>463</v>
       </c>
@@ -6022,10 +6018,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C11" s="6"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="21"/>
     </row>
   </sheetData>
@@ -6039,19 +6035,19 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="64.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
@@ -6077,7 +6073,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
@@ -6101,7 +6097,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
@@ -6125,7 +6121,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
@@ -6149,7 +6145,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$4</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
@@ -6173,10 +6169,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7"/>
     </row>
   </sheetData>
@@ -6198,20 +6194,20 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="14"/>
-    <col min="8" max="8" width="15.85546875" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="14"/>
+    <col min="2" max="2" width="14.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="14"/>
+    <col min="8" max="8" width="15.88671875" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>90</v>
       </c>
@@ -6237,7 +6233,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>98</v>
       </c>
@@ -6263,7 +6259,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>473</v>
       </c>
@@ -6289,7 +6285,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>476</v>
       </c>
@@ -6315,7 +6311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>479</v>
       </c>
@@ -6357,16 +6353,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.5703125" customWidth="1"/>
-    <col min="8" max="8" width="116.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.5546875" customWidth="1"/>
+    <col min="8" max="8" width="116.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>90</v>
       </c>
@@ -6392,7 +6388,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>222</v>
       </c>
@@ -6418,7 +6414,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>227</v>
       </c>
@@ -6444,7 +6440,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>230</v>
       </c>
@@ -6470,7 +6466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>232</v>
       </c>
@@ -6512,20 +6508,20 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" style="76" customWidth="1"/>
-    <col min="2" max="2" width="90.5703125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="90.5546875" style="76" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="76" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="78" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="76" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="76" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="76" customWidth="1"/>
-    <col min="8" max="8" width="64.7109375" style="78" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="76"/>
+    <col min="5" max="5" width="49.33203125" style="76" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="76" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="76" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" style="78" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
         <v>107</v>
       </c>
@@ -6551,7 +6547,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
         <v>491</v>
       </c>
@@ -6575,7 +6571,7 @@
       </c>
       <c r="H2" s="75"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
         <v>491</v>
       </c>
@@ -6599,7 +6595,7 @@
       </c>
       <c r="H3" s="75"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="80" t="s">
         <v>491</v>
       </c>
@@ -6623,7 +6619,7 @@
       </c>
       <c r="H4" s="74"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
         <v>491</v>
       </c>
@@ -6649,7 +6645,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="80"/>
       <c r="B6" s="81" t="s">
         <v>492</v>
@@ -6671,7 +6667,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="80" t="s">
         <v>491</v>
       </c>
@@ -6695,7 +6691,7 @@
       </c>
       <c r="H7" s="75"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
         <v>491</v>
       </c>
@@ -6714,7 +6710,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="80" t="s">
         <v>491</v>
       </c>
@@ -6728,7 +6724,7 @@
         <v>Type of surgical approach on Tumour (M)</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
         <v>491</v>
       </c>
@@ -6742,7 +6738,7 @@
         <v>Margins after surgery (M)</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="80" t="s">
         <v>491</v>
       </c>
@@ -6756,7 +6752,7 @@
         <v>Tumor rupture (M)</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
         <v>491</v>
       </c>
@@ -6770,7 +6766,7 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="80" t="s">
         <v>491</v>
       </c>
@@ -6784,7 +6780,7 @@
         <v>Surgical specimen Mitotic count (M)</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="80" t="s">
         <v>491</v>
       </c>
@@ -6798,7 +6794,7 @@
         <v>Surgical specimen grading only in untreated tumours (M)</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="80" t="s">
         <v>491</v>
       </c>
@@ -6813,7 +6809,7 @@
       </c>
       <c r="E15" s="79"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="80" t="s">
         <v>491</v>
       </c>
@@ -6827,7 +6823,7 @@
         <v>Neck surgery (M)</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="80" t="s">
         <v>491</v>
       </c>
@@ -6842,7 +6838,7 @@
       </c>
       <c r="E17" s="79"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="80" t="s">
         <v>491</v>
       </c>
@@ -6857,7 +6853,7 @@
       </c>
       <c r="E18" s="79"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="80" t="s">
         <v>491</v>
       </c>
@@ -6872,7 +6868,7 @@
       </c>
       <c r="E19" s="79"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="80" t="s">
         <v>491</v>
       </c>
@@ -6886,7 +6882,7 @@
         <v>Date of surgery on M (M)</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="80" t="s">
         <v>491</v>
       </c>
@@ -6901,7 +6897,7 @@
       </c>
       <c r="E21" s="78"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="80" t="s">
         <v>491</v>
       </c>
@@ -6916,7 +6912,7 @@
       </c>
       <c r="E22" s="78"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="80" t="s">
         <v>491</v>
       </c>
@@ -6930,7 +6926,7 @@
         <v>Site of surgery on metastasis_distant lymph nodes (O)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="80" t="s">
         <v>491</v>
       </c>
@@ -6944,7 +6940,7 @@
         <v>Site of surgery on metastasis_lung (O)</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="80" t="s">
         <v>491</v>
       </c>
@@ -6958,7 +6954,7 @@
         <v>Site of surgery on metastasis_bone (O)</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="80" t="s">
         <v>491</v>
       </c>
@@ -6972,7 +6968,7 @@
         <v>Site of surgery on metastasis_liver (O)</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="80" t="s">
         <v>491</v>
       </c>
@@ -6986,7 +6982,7 @@
         <v>Site of surgery on metastasis_pleura (O)</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="80" t="s">
         <v>491</v>
       </c>
@@ -6999,7 +6995,7 @@
         <v>Site of surgery on metastasis_peritoneum (O)</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="80" t="s">
         <v>491</v>
       </c>
@@ -7012,7 +7008,7 @@
         <v>Site of surgery on metastasis_brain (O)</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="80" t="s">
         <v>491</v>
       </c>
@@ -7025,7 +7021,7 @@
         <v>Site of surgery on metastasis_other viscera (O)</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="80" t="s">
         <v>491</v>
       </c>
@@ -7038,7 +7034,7 @@
         <v>Site of surgery on metastasis_unknown (O)</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="80" t="s">
         <v>491</v>
       </c>
@@ -7051,15 +7047,15 @@
         <v>Surgical complications (Clavien-Dindo Classification) (M)</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33"/>
       <c r="D33"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34"/>
       <c r="D34"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35"/>
       <c r="D35"/>
     </row>
@@ -7090,14 +7086,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -7123,7 +7119,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>501</v>
       </c>
@@ -7149,7 +7145,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>504</v>
       </c>
@@ -7175,7 +7171,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>507</v>
       </c>
@@ -7201,7 +7197,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>511</v>
       </c>
@@ -7227,7 +7223,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>514</v>
       </c>
@@ -7253,7 +7249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>517</v>
       </c>
@@ -7279,7 +7275,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>521</v>
       </c>
@@ -7305,7 +7301,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>525</v>
       </c>
@@ -7331,7 +7327,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>529</v>
       </c>
@@ -7357,7 +7353,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>533</v>
       </c>
@@ -7383,7 +7379,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>537</v>
       </c>
@@ -7409,7 +7405,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>541</v>
       </c>
@@ -7435,7 +7431,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>544</v>
       </c>
@@ -7461,7 +7457,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>547</v>
       </c>
@@ -7487,7 +7483,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>550</v>
       </c>
@@ -7513,7 +7509,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>553</v>
       </c>
@@ -7539,7 +7535,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>557</v>
       </c>
@@ -7565,7 +7561,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>560</v>
       </c>
@@ -7591,7 +7587,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>563</v>
       </c>
@@ -7615,7 +7611,7 @@
       </c>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>566</v>
       </c>
@@ -7641,7 +7637,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>568</v>
       </c>
@@ -7667,7 +7663,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>572</v>
       </c>
@@ -7693,7 +7689,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>576</v>
       </c>
@@ -7719,7 +7715,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>580</v>
       </c>
@@ -7745,7 +7741,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>584</v>
       </c>
@@ -7771,7 +7767,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>588</v>
       </c>
@@ -7797,7 +7793,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>592</v>
       </c>
@@ -7823,7 +7819,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>596</v>
       </c>
@@ -7849,7 +7845,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>600</v>
       </c>
@@ -7875,7 +7871,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>604</v>
       </c>
@@ -7917,21 +7913,21 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="90.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.5546875" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="64.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="118.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="118.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>107</v>
       </c>
@@ -7963,7 +7959,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$7</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
@@ -7979,7 +7975,7 @@
       <c r="H2" s="42"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="41"/>
@@ -7992,7 +7988,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="41"/>
@@ -8005,7 +8001,7 @@
       <c r="H4" s="47"/>
       <c r="I4" s="43"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="55"/>
       <c r="B5" s="55"/>
       <c r="C5" s="41"/>
@@ -8018,7 +8014,7 @@
       <c r="H5" s="42"/>
       <c r="I5" s="43"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="55"/>
       <c r="B6" s="55"/>
       <c r="C6" s="41"/>
@@ -8031,7 +8027,7 @@
       <c r="H6" s="47"/>
       <c r="I6" s="43"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
       <c r="B7" s="55"/>
       <c r="C7" s="41"/>
@@ -8044,7 +8040,7 @@
       <c r="H7" s="42"/>
       <c r="I7" s="57"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
       <c r="C8" s="41"/>
@@ -8057,7 +8053,7 @@
       <c r="H8" s="47"/>
       <c r="I8" s="43"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="41"/>
@@ -8070,7 +8066,7 @@
       <c r="H9" s="42"/>
       <c r="I9" s="43"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="61"/>
@@ -8083,7 +8079,7 @@
       <c r="H10" s="58"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="41"/>
@@ -8096,7 +8092,7 @@
       <c r="H11" s="47"/>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="41"/>
@@ -8109,7 +8105,7 @@
       <c r="H12" s="42"/>
       <c r="I12" s="57"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="63"/>
       <c r="B13" s="55"/>
       <c r="D13" s="32"/>
@@ -8119,7 +8115,7 @@
       </c>
       <c r="I13" s="51"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="55"/>
       <c r="D14" s="6"/>
@@ -8128,7 +8124,7 @@
       </c>
       <c r="I14" s="51"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="55"/>
       <c r="D15" s="6"/>
@@ -8138,7 +8134,7 @@
       </c>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="55"/>
       <c r="D16" s="6"/>
@@ -8148,7 +8144,7 @@
       </c>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="55"/>
       <c r="D17" s="6"/>
@@ -8158,7 +8154,7 @@
       </c>
       <c r="I17" s="51"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
       <c r="B18" s="55"/>
       <c r="D18" s="6"/>
@@ -8168,7 +8164,7 @@
       </c>
       <c r="I18" s="51"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="55"/>
       <c r="D19" s="6"/>
@@ -8179,7 +8175,7 @@
       <c r="H19" s="52"/>
       <c r="I19" s="51"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
       <c r="B20" s="55"/>
       <c r="D20" s="6"/>
@@ -8190,7 +8186,7 @@
       <c r="H20" s="53"/>
       <c r="I20" s="51"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="55"/>
       <c r="D21" s="6"/>
@@ -8201,7 +8197,7 @@
       <c r="H21" s="54"/>
       <c r="I21" s="51"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="55"/>
       <c r="D22" s="6"/>
@@ -8212,7 +8208,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
       <c r="B23" s="55"/>
       <c r="D23" s="6"/>
@@ -8223,7 +8219,7 @@
       <c r="H23" s="47"/>
       <c r="I23" s="51"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="65"/>
       <c r="B24" s="55"/>
       <c r="D24" s="6"/>
@@ -8234,7 +8230,7 @@
       <c r="H24" s="47"/>
       <c r="I24" s="51"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
       <c r="B25" s="55"/>
       <c r="D25" s="6"/>
@@ -8265,18 +8261,18 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="107.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="107.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>90</v>
       </c>
@@ -8303,7 +8299,7 @@
       </c>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>501</v>
       </c>
@@ -8330,7 +8326,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>610</v>
       </c>
@@ -8357,7 +8353,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>613</v>
       </c>
@@ -8384,7 +8380,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>616</v>
       </c>
@@ -8415,7 +8411,7 @@
         <v>imagingForPrimarySite.imagingForPrimarySite.ct</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>620</v>
       </c>
@@ -8446,7 +8442,7 @@
         <v>imagingForPrimarySite.imagingForPrimarySite.mri</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>624</v>
       </c>
@@ -8477,7 +8473,7 @@
         <v>imagingForPrimarySite.imagingForPrimarySite.us</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>628</v>
       </c>
@@ -8508,7 +8504,7 @@
         <v>imagingForPrimarySite.imagingForPrimarySite.other</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>632</v>
       </c>
@@ -8535,7 +8531,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>635</v>
       </c>
@@ -8566,7 +8562,7 @@
         <v>imagingForNeck.imagingForNeck.ct</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>639</v>
       </c>
@@ -8597,7 +8593,7 @@
         <v>imagingForNeck.imagingForNeck.mri</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>643</v>
       </c>
@@ -8628,7 +8624,7 @@
         <v>imagingForNeck.imagingForNeck.us</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>647</v>
       </c>
@@ -8659,7 +8655,7 @@
         <v>imagingForNeck.imagingForNeck.other</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>651</v>
       </c>
@@ -8686,7 +8682,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>654</v>
       </c>
@@ -8717,7 +8713,7 @@
         <v>imagingForMetastasis.imagingForMetastasis.ct</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>658</v>
       </c>
@@ -8748,7 +8744,7 @@
         <v>imagingForMetastasis.imagingForMetastasis.mri</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>662</v>
       </c>
@@ -8779,7 +8775,7 @@
         <v>imagingForMetastasis.imagingForMetastasis.us</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>666</v>
       </c>
@@ -8810,7 +8806,7 @@
         <v>imagingForMetastasis.imagingForMetastasis.other</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>670</v>
       </c>
@@ -8837,7 +8833,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>674</v>
       </c>
@@ -8864,7 +8860,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>678</v>
       </c>
@@ -8891,7 +8887,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>533</v>
       </c>
@@ -8918,7 +8914,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>683</v>
       </c>
@@ -8945,7 +8941,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>687</v>
       </c>
@@ -8972,7 +8968,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>691</v>
       </c>
@@ -8999,7 +8995,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>695</v>
       </c>
@@ -9026,7 +9022,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>699</v>
       </c>
@@ -9053,7 +9049,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>703</v>
       </c>
@@ -9080,7 +9076,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>707</v>
       </c>
@@ -9107,7 +9103,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>711</v>
       </c>
@@ -9132,7 +9128,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>714</v>
       </c>
@@ -9163,7 +9159,7 @@
         <v>sites.sites.softTissue</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
         <v>717</v>
       </c>
@@ -9194,7 +9190,7 @@
         <v>sites.sites.distantLymphNode</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
         <v>720</v>
       </c>
@@ -9225,7 +9221,7 @@
         <v>sites.sites.lung</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>724</v>
       </c>
@@ -9256,7 +9252,7 @@
         <v>sites.sites.metastasisatbone</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>727</v>
       </c>
@@ -9287,7 +9283,7 @@
         <v>sites.sites.liver</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
         <v>730</v>
       </c>
@@ -9318,7 +9314,7 @@
         <v>sites.sites.pleura</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>733</v>
       </c>
@@ -9349,7 +9345,7 @@
         <v>sites.sites.peritoneum</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>737</v>
       </c>
@@ -9380,7 +9376,7 @@
         <v>sites.sites.brain</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>740</v>
       </c>
@@ -9411,7 +9407,7 @@
         <v>sites.sites.otherViscera</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>743</v>
       </c>
@@ -9458,14 +9454,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -9491,7 +9487,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>746</v>
       </c>
@@ -9517,7 +9513,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>747</v>
       </c>
@@ -9543,7 +9539,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>613</v>
       </c>
@@ -9569,7 +9565,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>616</v>
       </c>
@@ -9595,7 +9591,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>620</v>
       </c>
@@ -9621,7 +9617,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>624</v>
       </c>
@@ -9647,7 +9643,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>628</v>
       </c>
@@ -9673,7 +9669,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>632</v>
       </c>
@@ -9699,7 +9695,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>635</v>
       </c>
@@ -9725,7 +9721,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>639</v>
       </c>
@@ -9751,7 +9747,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>643</v>
       </c>
@@ -9777,7 +9773,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>647</v>
       </c>
@@ -9803,7 +9799,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>651</v>
       </c>
@@ -9829,7 +9825,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>654</v>
       </c>
@@ -9855,7 +9851,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>658</v>
       </c>
@@ -9881,7 +9877,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>662</v>
       </c>
@@ -9907,7 +9903,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>666</v>
       </c>
@@ -9933,7 +9929,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>748</v>
       </c>
@@ -9959,7 +9955,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>752</v>
       </c>
@@ -9985,7 +9981,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>756</v>
       </c>
@@ -10011,7 +10007,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>533</v>
       </c>
@@ -10037,7 +10033,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>760</v>
       </c>
@@ -10063,7 +10059,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>764</v>
       </c>
@@ -10089,7 +10085,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>687</v>
       </c>
@@ -10115,7 +10111,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>691</v>
       </c>
@@ -10141,7 +10137,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>695</v>
       </c>
@@ -10167,7 +10163,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>699</v>
       </c>
@@ -10193,7 +10189,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>703</v>
       </c>
@@ -10219,7 +10215,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>707</v>
       </c>
@@ -10245,7 +10241,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>711</v>
       </c>
@@ -10270,7 +10266,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>714</v>
       </c>
@@ -10296,7 +10292,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>717</v>
       </c>
@@ -10322,7 +10318,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>720</v>
       </c>
@@ -10348,7 +10344,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>724</v>
       </c>
@@ -10374,7 +10370,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>727</v>
       </c>
@@ -10400,7 +10396,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>730</v>
       </c>
@@ -10426,7 +10422,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>733</v>
       </c>
@@ -10452,7 +10448,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>737</v>
       </c>
@@ -10478,7 +10474,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>740</v>
       </c>
@@ -10504,7 +10500,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>743</v>
       </c>
@@ -10544,15 +10540,15 @@
       <selection activeCell="A2" sqref="A2:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="139.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="139.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -10566,7 +10562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -10580,7 +10576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -10594,7 +10590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -10608,7 +10604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -10622,7 +10618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -10636,7 +10632,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -10650,7 +10646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -10667,7 +10663,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
@@ -10684,7 +10680,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
@@ -10700,7 +10696,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -10716,7 +10712,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -10732,7 +10728,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
@@ -10748,7 +10744,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -10764,7 +10760,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
@@ -10780,7 +10776,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -10796,7 +10792,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
@@ -10812,7 +10808,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
@@ -10828,7 +10824,7 @@
 Maturity Level: 0 Draft</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>87</v>
       </c>
@@ -10880,14 +10876,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="95.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -10913,7 +10909,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>504</v>
       </c>
@@ -10939,7 +10935,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>687</v>
       </c>
@@ -10965,7 +10961,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>691</v>
       </c>
@@ -10991,7 +10987,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>695</v>
       </c>
@@ -11017,7 +11013,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>699</v>
       </c>
@@ -11043,7 +11039,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>703</v>
       </c>
@@ -11069,7 +11065,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>707</v>
       </c>
@@ -11095,7 +11091,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>711</v>
       </c>
@@ -11120,7 +11116,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>714</v>
       </c>
@@ -11146,7 +11142,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>717</v>
       </c>
@@ -11172,7 +11168,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>720</v>
       </c>
@@ -11198,7 +11194,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>724</v>
       </c>
@@ -11224,7 +11220,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>727</v>
       </c>
@@ -11250,7 +11246,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>730</v>
       </c>
@@ -11276,7 +11272,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>733</v>
       </c>
@@ -11302,7 +11298,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>737</v>
       </c>
@@ -11328,7 +11324,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>740</v>
       </c>
@@ -11370,14 +11366,14 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -11403,7 +11399,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>501</v>
       </c>
@@ -11429,7 +11425,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>504</v>
       </c>
@@ -11455,7 +11451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>770</v>
       </c>
@@ -11481,7 +11477,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>774</v>
       </c>
@@ -11507,7 +11503,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>777</v>
       </c>
@@ -11533,7 +11529,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>781</v>
       </c>
@@ -11559,7 +11555,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>784</v>
       </c>
@@ -11585,7 +11581,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>788</v>
       </c>
@@ -11611,7 +11607,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>791</v>
       </c>
@@ -11637,7 +11633,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>795</v>
       </c>
@@ -11663,7 +11659,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>798</v>
       </c>
@@ -11689,7 +11685,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>802</v>
       </c>
@@ -11715,7 +11711,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>805</v>
       </c>
@@ -11741,7 +11737,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>809</v>
       </c>
@@ -11767,7 +11763,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>812</v>
       </c>
@@ -11793,7 +11789,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>816</v>
       </c>
@@ -11835,14 +11831,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -11868,7 +11864,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>501</v>
       </c>
@@ -11894,7 +11890,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>504</v>
       </c>
@@ -11920,7 +11916,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>819</v>
       </c>
@@ -11946,7 +11942,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>822</v>
       </c>
@@ -11972,7 +11968,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>826</v>
       </c>
@@ -11998,7 +11994,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>829</v>
       </c>
@@ -12024,7 +12020,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>833</v>
       </c>
@@ -12050,7 +12046,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>837</v>
       </c>
@@ -12076,7 +12072,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>840</v>
       </c>
@@ -12102,7 +12098,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>843</v>
       </c>
@@ -12128,7 +12124,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>846</v>
       </c>
@@ -12154,7 +12150,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>850</v>
       </c>
@@ -12180,7 +12176,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>853</v>
       </c>
@@ -12206,7 +12202,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>856</v>
       </c>
@@ -12232,7 +12228,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>860</v>
       </c>
@@ -12274,15 +12270,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -12308,7 +12304,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>501</v>
       </c>
@@ -12334,7 +12330,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>504</v>
       </c>
@@ -12360,7 +12356,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>864</v>
       </c>
@@ -12386,7 +12382,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>826</v>
       </c>
@@ -12412,7 +12408,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>829</v>
       </c>
@@ -12438,7 +12434,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>872</v>
       </c>
@@ -12464,7 +12460,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>876</v>
       </c>
@@ -12490,7 +12486,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>879</v>
       </c>
@@ -12516,7 +12512,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>883</v>
       </c>
@@ -12542,7 +12538,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>886</v>
       </c>
@@ -12568,7 +12564,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>890</v>
       </c>
@@ -12594,7 +12590,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>893</v>
       </c>
@@ -12620,7 +12616,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>897</v>
       </c>
@@ -12646,7 +12642,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>901</v>
       </c>
@@ -12672,7 +12668,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>905</v>
       </c>
@@ -12698,7 +12694,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>909</v>
       </c>
@@ -12724,7 +12720,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>912</v>
       </c>
@@ -12750,7 +12746,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>915</v>
       </c>
@@ -12776,7 +12772,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>917</v>
       </c>
@@ -12802,7 +12798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>919</v>
       </c>
@@ -12828,7 +12824,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>922</v>
       </c>
@@ -12854,7 +12850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>924</v>
       </c>
@@ -12880,7 +12876,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>928</v>
       </c>
@@ -12906,7 +12902,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>930</v>
       </c>
@@ -12932,7 +12928,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>933</v>
       </c>
@@ -12958,7 +12954,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>935</v>
       </c>
@@ -12984,7 +12980,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>937</v>
       </c>
@@ -13010,7 +13006,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>939</v>
       </c>
@@ -13036,7 +13032,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>943</v>
       </c>
@@ -13062,7 +13058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>860</v>
       </c>
@@ -13104,13 +13100,13 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -13136,7 +13132,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>501</v>
       </c>
@@ -13162,7 +13158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>504</v>
       </c>
@@ -13188,7 +13184,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>948</v>
       </c>
@@ -13214,7 +13210,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>909</v>
       </c>
@@ -13240,7 +13236,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>912</v>
       </c>
@@ -13266,7 +13262,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>860</v>
       </c>
@@ -13308,14 +13304,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -13341,7 +13337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>501</v>
       </c>
@@ -13367,7 +13363,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>504</v>
       </c>
@@ -13393,7 +13389,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>955</v>
       </c>
@@ -13419,7 +13415,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>909</v>
       </c>
@@ -13445,7 +13441,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>912</v>
       </c>
@@ -13471,7 +13467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>860</v>
       </c>
@@ -13513,14 +13509,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -13546,7 +13542,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>958</v>
       </c>
@@ -13572,7 +13568,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>961</v>
       </c>
@@ -13598,7 +13594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>964</v>
       </c>
@@ -13624,7 +13620,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>967</v>
       </c>
@@ -13666,14 +13662,14 @@
       <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -13699,7 +13695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>501</v>
       </c>
@@ -13725,7 +13721,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>504</v>
       </c>
@@ -13751,7 +13747,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>971</v>
       </c>
@@ -13777,7 +13773,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>975</v>
       </c>
@@ -13819,14 +13815,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -13852,7 +13848,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>978</v>
       </c>
@@ -13878,7 +13874,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>981</v>
       </c>
@@ -13904,7 +13900,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>984</v>
       </c>
@@ -13930,7 +13926,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>987</v>
       </c>
@@ -13972,19 +13968,19 @@
       <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="108.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>90</v>
       </c>
@@ -14010,7 +14006,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>98</v>
       </c>
@@ -14036,7 +14032,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
@@ -14078,19 +14074,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="97.42578125" customWidth="1"/>
-    <col min="2" max="2" width="90.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.44140625" customWidth="1"/>
+    <col min="2" max="2" width="90.5546875" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="64.7109375" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
@@ -14116,7 +14112,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$5</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/CancerEpisode</v>
@@ -14140,7 +14136,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$5</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/CancerEpisode</v>
@@ -14166,7 +14162,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$5</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/CancerEpisode</v>
@@ -14192,7 +14188,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$5</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/CancerEpisode</v>
@@ -14216,10 +14212,10 @@
       </c>
       <c r="H5" s="42"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7"/>
     </row>
   </sheetData>
@@ -14248,19 +14244,19 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="90.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.5546875" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="4" customWidth="1"/>
-    <col min="5" max="5" width="63.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="8" max="8" width="55" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
@@ -14286,7 +14282,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14310,7 +14306,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14336,7 +14332,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14362,7 +14358,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14386,7 +14382,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14412,7 +14408,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14436,7 +14432,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14462,7 +14458,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14486,7 +14482,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14512,7 +14508,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14538,7 +14534,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14562,7 +14558,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14588,7 +14584,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14614,7 +14610,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14640,7 +14636,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14666,7 +14662,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14692,7 +14688,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
       <c r="B18" s="65" t="s">
         <v>114</v>
@@ -14715,7 +14711,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14740,7 +14736,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14766,7 +14762,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14781,18 +14777,18 @@
         <f>DiagnosisI4RC!D15</f>
         <v>Superficial depth (M)</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="84" t="s">
+      <c r="H21" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14807,18 +14803,18 @@
         <f>DiagnosisI4RC!D15</f>
         <v>Superficial depth (M)</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="84" t="s">
+      <c r="H22" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14833,18 +14829,18 @@
         <f>DiagnosisI4RC!D16</f>
         <v>Deep depth (M)</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="84" t="s">
+      <c r="H23" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14859,18 +14855,18 @@
         <f>DiagnosisI4RC!D16</f>
         <v>Deep depth (M)</v>
       </c>
-      <c r="E24" s="85" t="s">
+      <c r="E24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14896,7 +14892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14922,7 +14918,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14948,7 +14944,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -14974,7 +14970,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
@@ -15064,21 +15060,21 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>90</v>
       </c>
@@ -15104,7 +15100,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>126</v>
       </c>
@@ -15130,7 +15126,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>128</v>
       </c>
@@ -15156,7 +15152,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>129</v>
       </c>
@@ -15182,7 +15178,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>131</v>
       </c>
@@ -15208,7 +15204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -15234,7 +15230,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>136</v>
       </c>
@@ -15260,7 +15256,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>139</v>
       </c>
@@ -15286,7 +15282,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>141</v>
       </c>
@@ -15312,7 +15308,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>143</v>
       </c>
@@ -15338,7 +15334,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>145</v>
       </c>
@@ -15364,7 +15360,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>146</v>
       </c>
@@ -15390,7 +15386,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>147</v>
       </c>
@@ -15416,7 +15412,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>150</v>
       </c>
@@ -15442,7 +15438,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>153</v>
       </c>
@@ -15468,7 +15464,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>157</v>
       </c>
@@ -15494,7 +15490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>159</v>
       </c>
@@ -15520,7 +15516,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>161</v>
       </c>
@@ -15546,7 +15542,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>164</v>
       </c>
@@ -15572,7 +15568,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>166</v>
       </c>
@@ -15598,7 +15594,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>168</v>
       </c>
@@ -15640,20 +15636,20 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" style="76" customWidth="1"/>
-    <col min="2" max="2" width="90.5703125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="90.5546875" style="76" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="76" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="78" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="76" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="76" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="76" customWidth="1"/>
-    <col min="8" max="8" width="64.7109375" style="78" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="76"/>
+    <col min="5" max="5" width="49.33203125" style="76" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="76" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="76" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" style="78" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
         <v>107</v>
       </c>
@@ -15679,7 +15675,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$9</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/EpisodeEvent</v>
@@ -15705,7 +15701,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$9</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/EpisodeEvent</v>
@@ -15731,7 +15727,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$9</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/EpisodeEvent</v>
@@ -15757,7 +15753,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$9</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/EpisodeEvent</v>
@@ -15781,7 +15777,7 @@
       </c>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$9</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/EpisodeEvent</v>
@@ -15807,89 +15803,89 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="69"/>
       <c r="B7" s="69"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="69"/>
       <c r="B8" s="69"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="69"/>
       <c r="B9" s="69"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="69"/>
       <c r="B10" s="69"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="69"/>
       <c r="B11" s="69"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="69"/>
       <c r="B12" s="69"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="69"/>
       <c r="B13" s="69"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="69"/>
       <c r="B14" s="69"/>
       <c r="E14" s="79"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="69"/>
       <c r="B15" s="69"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="69"/>
       <c r="B16" s="69"/>
       <c r="E16" s="79"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="69"/>
       <c r="B17" s="69"/>
       <c r="E17" s="79"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="69"/>
       <c r="B18" s="69"/>
       <c r="E18" s="79"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="69"/>
       <c r="B19" s="69"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="69"/>
       <c r="B20" s="69"/>
       <c r="E20" s="78"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="69"/>
       <c r="B21" s="69"/>
       <c r="E21" s="78"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="69"/>
       <c r="B22" s="69"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="69"/>
       <c r="B23" s="69"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="69"/>
       <c r="B24" s="69"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="69"/>
       <c r="B25" s="69"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="69"/>
       <c r="B26" s="69"/>
     </row>
@@ -15916,19 +15912,19 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1"/>
-    <col min="2" max="2" width="76.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="64.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.88671875" customWidth="1"/>
+    <col min="2" max="2" width="76.109375" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
@@ -15954,7 +15950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -15981,7 +15977,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16005,7 +16001,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16032,7 +16028,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16057,7 +16053,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16081,7 +16077,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16105,7 +16101,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16129,7 +16125,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16155,7 +16151,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16182,7 +16178,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16209,7 +16205,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16234,7 +16230,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16259,7 +16255,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16284,7 +16280,7 @@
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16309,7 +16305,7 @@
       </c>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16334,7 +16330,7 @@
       </c>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16359,7 +16355,7 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16384,7 +16380,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16409,7 +16405,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16434,7 +16430,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16459,7 +16455,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16484,7 +16480,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16509,7 +16505,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16534,7 +16530,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16559,7 +16555,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16584,7 +16580,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16609,7 +16605,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16634,7 +16630,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16659,7 +16655,7 @@
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16684,7 +16680,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16709,7 +16705,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16736,7 +16732,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16761,7 +16757,7 @@
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16786,7 +16782,7 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16811,7 +16807,7 @@
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16838,7 +16834,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16863,7 +16859,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16888,7 +16884,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16913,7 +16909,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16938,7 +16934,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16963,7 +16959,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -16988,7 +16984,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -17013,7 +17009,7 @@
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -17038,7 +17034,7 @@
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -17063,7 +17059,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -17088,7 +17084,7 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -17113,7 +17109,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -17140,7 +17136,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
@@ -17165,7 +17161,7 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -17175,47 +17171,47 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C51" s="31"/>
       <c r="D51" s="32"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D52"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D53"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D54"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D55"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D56"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D57"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D58"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D59"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D60"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D61"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D62"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D63"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D64"/>
     </row>
   </sheetData>
@@ -17237,24 +17233,24 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="14" customWidth="1"/>
     <col min="4" max="4" width="66" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="14"/>
-    <col min="8" max="8" width="80.7109375" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="14"/>
+    <col min="5" max="5" width="59.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="14"/>
+    <col min="8" max="8" width="80.6640625" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>90</v>
       </c>
@@ -17280,7 +17276,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>262</v>
       </c>
@@ -17306,7 +17302,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>266</v>
       </c>
@@ -17332,7 +17328,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>270</v>
       </c>
@@ -17358,7 +17354,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>274</v>
       </c>
@@ -17384,7 +17380,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>278</v>
       </c>
@@ -17410,7 +17406,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>282</v>
       </c>
@@ -17436,7 +17432,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>285</v>
       </c>
@@ -17462,7 +17458,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>289</v>
       </c>
@@ -17488,7 +17484,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>292</v>
       </c>
@@ -17514,7 +17510,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>295</v>
       </c>
@@ -17540,7 +17536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>299</v>
       </c>
@@ -17566,7 +17562,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>302</v>
       </c>
@@ -17592,7 +17588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>305</v>
       </c>
@@ -17618,7 +17614,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>308</v>
       </c>
@@ -17644,7 +17640,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>311</v>
       </c>
@@ -17670,7 +17666,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>314</v>
       </c>
@@ -17696,7 +17692,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>317</v>
       </c>
@@ -17722,7 +17718,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>320</v>
       </c>
@@ -17748,7 +17744,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>323</v>
       </c>
@@ -17774,7 +17770,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>326</v>
       </c>
@@ -17800,7 +17796,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>329</v>
       </c>
@@ -17826,7 +17822,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>332</v>
       </c>
@@ -17852,7 +17848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>335</v>
       </c>
@@ -17878,7 +17874,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>338</v>
       </c>
@@ -17904,7 +17900,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>341</v>
       </c>
@@ -17930,7 +17926,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>344</v>
       </c>
@@ -17956,7 +17952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>347</v>
       </c>
@@ -17982,7 +17978,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>350</v>
       </c>
@@ -18008,7 +18004,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>353</v>
       </c>
@@ -18034,7 +18030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>356</v>
       </c>
@@ -18060,7 +18056,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>359</v>
       </c>
@@ -18086,7 +18082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>362</v>
       </c>
@@ -18112,7 +18108,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>365</v>
       </c>
@@ -18138,7 +18134,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>368</v>
       </c>
@@ -18164,7 +18160,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>371</v>
       </c>
@@ -18190,7 +18186,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>375</v>
       </c>
@@ -18216,7 +18212,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>379</v>
       </c>
@@ -18242,7 +18238,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>383</v>
       </c>
@@ -18268,7 +18264,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>387</v>
       </c>
@@ -18294,7 +18290,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>391</v>
       </c>
@@ -18320,7 +18316,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>395</v>
       </c>
@@ -18346,7 +18342,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>399</v>
       </c>
@@ -18372,7 +18368,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>403</v>
       </c>
@@ -18398,7 +18394,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>407</v>
       </c>
@@ -18424,7 +18420,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>411</v>
       </c>
@@ -18450,7 +18446,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>415</v>
       </c>
@@ -18476,7 +18472,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>419</v>
       </c>
@@ -18496,13 +18492,13 @@
         <v>15</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>423</v>
       </c>

--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wylem\workspace\hl7\wylem\idea4rc\src-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D9E721-F7DD-4E06-8CD0-A8131519DDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED47B77-7E0D-4875-8A67-0C5F9C8E328F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="654" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1837,9 +1837,6 @@
     <t>previousCancerTreatment</t>
   </si>
   <si>
-    <t>Previous cancer treatment (M)</t>
-  </si>
-  <si>
     <t>Describes the type of treatment performed for the previous cancer 
 History of event + 
 Other treatment (find the corresponding standard concept)
@@ -4162,6 +4159,9 @@
   </si>
   <si>
     <t>If HNC, the value must be one of the ones in ValueSet: HNC ConditionList: Athen. If Sarc, the value must be one of the ones in ValueSet: Sarcome List: Athena</t>
+  </si>
+  <si>
+    <t>Previous cancer treatment (R)</t>
   </si>
 </sst>
 </file>
@@ -5299,7 +5299,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>PatientFollowUpI4rc!A2</f>
@@ -5310,7 +5310,7 @@
         <v>Patient (M)</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -5324,7 +5324,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>PatientFollowUpI4rc!A4</f>
@@ -5335,14 +5335,14 @@
         <v>Status of disease at last follow-up (M) type EpisodeEvent</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16" t="s">
         <v>116</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5351,7 +5351,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>PatientFollowUpI4rc!A5</f>
@@ -5362,7 +5362,7 @@
         <v>Patient Follow Up date (M)</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
@@ -5376,7 +5376,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>PatientFollowUpI4rc!A6</f>
@@ -5387,14 +5387,14 @@
         <v>New cancer diagnosis (M)</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>120</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5403,7 +5403,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C6" s="5" t="str">
         <f>PatientFollowUpI4rc!A7</f>
@@ -5414,14 +5414,14 @@
         <v>Date of new cancer diagnosis (M)</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
         <v>120</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5430,7 +5430,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>PatientFollowUpI4rc!A8</f>
@@ -5441,14 +5441,14 @@
         <v>New cancer topography (M)</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
         <v>120</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5475,7 +5475,7 @@
         <v>116</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5495,14 +5495,14 @@
         <v>Status of disease at last follow-up (M) type EpisodeEvent</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5529,7 +5529,7 @@
         <v>116</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5549,14 +5549,14 @@
         <v>Date of new cancer diagnosis (M)</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
         <v>116</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5583,7 +5583,7 @@
         <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5592,7 +5592,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C13" s="16" t="str">
         <f>PatientFollowUpI4rc!A2</f>
@@ -5603,7 +5603,7 @@
         <v>Patient (M)</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
@@ -5617,7 +5617,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C14" s="16" t="str">
         <f>PatientFollowUpI4rc!A3</f>
@@ -5642,7 +5642,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C15" s="16" t="str">
         <f>PatientFollowUpI4rc!A2</f>
@@ -5653,7 +5653,7 @@
         <v>Patient (M)</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
@@ -5667,7 +5667,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C16" s="16" t="str">
         <f>PatientFollowUpI4rc!A9</f>
@@ -5678,7 +5678,7 @@
         <v>Last Contact (M)</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
@@ -5824,7 +5824,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>15</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="3" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>99</v>
@@ -5847,24 +5847,24 @@
         <v>174</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>443</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>99</v>
@@ -5873,24 +5873,24 @@
         <v>296</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>447</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>99</v>
@@ -5899,10 +5899,10 @@
         <v>104</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>450</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>451</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>15</v>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>99</v>
@@ -5925,10 +5925,10 @@
         <v>185</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>453</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>454</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>15</v>
@@ -5937,12 +5937,12 @@
         <v>177</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>99</v>
@@ -5951,10 +5951,10 @@
         <v>104</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>457</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>458</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>99</v>
@@ -5977,10 +5977,10 @@
         <v>174</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>460</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>461</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>15</v>
@@ -5989,12 +5989,12 @@
         <v>177</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>99</v>
@@ -6003,10 +6003,10 @@
         <v>104</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>464</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>465</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>177</v>
@@ -6079,7 +6079,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>HospitalPatientRecordsI4RC!A2</f>
@@ -6090,7 +6090,7 @@
         <v>Patient (M)</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -6103,7 +6103,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>HospitalPatientRecordsI4RC!A3</f>
@@ -6114,7 +6114,7 @@
         <v>Hospital (M)</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16" t="s">
@@ -6127,7 +6127,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>HospitalPatientRecordsI4RC!A4</f>
@@ -6138,7 +6138,7 @@
         <v>Hospital name (M)</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="16" t="s">
@@ -6151,7 +6151,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>HospitalPatientRecordsI4RC!A5</f>
@@ -6162,7 +6162,7 @@
         <v>Date of first contact with the hospital (M)</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="16" t="s">
@@ -6247,7 +6247,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>15</v>
@@ -6256,12 +6256,12 @@
         <v>177</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>99</v>
@@ -6270,10 +6270,10 @@
         <v>296</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>15</v>
@@ -6282,12 +6282,12 @@
         <v>177</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>99</v>
@@ -6296,10 +6296,10 @@
         <v>179</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>477</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>478</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>15</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="5" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>99</v>
@@ -6322,10 +6322,10 @@
         <v>104</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>480</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>481</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>15</v>
@@ -6334,7 +6334,7 @@
         <v>177</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -6399,10 +6399,10 @@
         <v>45</v>
       </c>
       <c r="D2" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>482</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>483</v>
       </c>
       <c r="F2" s="39" t="s">
         <v>15</v>
@@ -6425,19 +6425,19 @@
         <v>174</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>485</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6451,10 +6451,10 @@
         <v>179</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>487</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>488</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>15</v>
@@ -6477,10 +6477,10 @@
         <v>104</v>
       </c>
       <c r="D5" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>489</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>490</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>15</v>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="81" t="s">
         <v>491</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>492</v>
       </c>
       <c r="C2" t="str">
         <f>SurgeryI4RC!A2</f>
@@ -6563,7 +6563,7 @@
         <v>Diagnosis reference (M)</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F2" s="74"/>
       <c r="G2" s="41" t="s">
@@ -6573,10 +6573,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="81" t="s">
         <v>491</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>492</v>
       </c>
       <c r="C3" t="str">
         <f>SurgeryI4RC!A3</f>
@@ -6587,7 +6587,7 @@
         <v>Episode Event reference (M)</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F3" s="74"/>
       <c r="G3" s="41" t="s">
@@ -6597,10 +6597,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="80" t="s">
+        <v>490</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>491</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>492</v>
       </c>
       <c r="C4" t="str">
         <f>SurgeryI4RC!A4</f>
@@ -6611,7 +6611,7 @@
         <v>Surgery type (M)</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F4" s="74"/>
       <c r="G4" s="74" t="s">
@@ -6621,10 +6621,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5" s="81" t="s">
         <v>491</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>492</v>
       </c>
       <c r="C5" t="str">
         <f>SurgeryI4RC!A5</f>
@@ -6635,20 +6635,20 @@
         <v>Surgery Hospital (M)</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F5" s="74"/>
       <c r="G5" s="74" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="74" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="80"/>
       <c r="B6" s="81" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C6" t="str">
         <f>SurgeryI4RC!A5</f>
@@ -6659,20 +6659,20 @@
         <v>Surgery Hospital (M)</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="80" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="81" t="s">
         <v>491</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>492</v>
       </c>
       <c r="C7" t="str">
         <f>SurgeryI4RC!A6</f>
@@ -6683,7 +6683,7 @@
         <v>Date of surgery (M)</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F7" s="74"/>
       <c r="G7" s="74" t="s">
@@ -6693,10 +6693,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="81" t="s">
         <v>491</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>492</v>
       </c>
       <c r="C8" t="str">
         <f>SurgeryI4RC!A7</f>
@@ -6707,12 +6707,12 @@
         <v>Surgery intention (O)</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B9" s="69"/>
       <c r="C9" t="str">
@@ -6726,7 +6726,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B10" s="69"/>
       <c r="C10" t="str">
@@ -6740,7 +6740,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" t="str">
@@ -6754,7 +6754,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B12" s="69"/>
       <c r="C12" t="str">
@@ -6768,7 +6768,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B13" s="69"/>
       <c r="C13" t="str">
@@ -6782,7 +6782,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B14" s="69"/>
       <c r="C14" t="str">
@@ -6796,7 +6796,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B15" s="69"/>
       <c r="C15" t="str">
@@ -6811,7 +6811,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B16" s="69"/>
       <c r="C16" t="str">
@@ -6825,7 +6825,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B17" s="69"/>
       <c r="C17" t="str">
@@ -6840,7 +6840,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" t="str">
@@ -6855,7 +6855,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B19" s="69"/>
       <c r="C19" t="str">
@@ -6870,7 +6870,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B20" s="69"/>
       <c r="C20" t="str">
@@ -6884,7 +6884,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" t="str">
@@ -6899,7 +6899,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B22" s="69"/>
       <c r="C22" t="str">
@@ -6914,7 +6914,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" t="str">
@@ -6928,7 +6928,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B24" s="69"/>
       <c r="C24" t="str">
@@ -6942,7 +6942,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B25" s="69"/>
       <c r="C25" t="str">
@@ -6956,7 +6956,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B26" s="69"/>
       <c r="C26" t="str">
@@ -6970,7 +6970,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B27" s="69"/>
       <c r="C27" t="str">
@@ -6984,7 +6984,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C28" t="str">
         <f>SurgeryI4RC!A27</f>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C29" t="str">
         <f>SurgeryI4RC!A28</f>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C30" t="str">
         <f>SurgeryI4RC!A29</f>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C31" t="str">
         <f>SurgeryI4RC!A30</f>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C32" t="str">
         <f>SurgeryI4RC!A31</f>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>99</v>
@@ -7130,10 +7130,10 @@
         <v>49</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>502</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>503</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>15</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>99</v>
@@ -7156,10 +7156,10 @@
         <v>59</v>
       </c>
       <c r="D3" s="49" t="s">
+        <v>504</v>
+      </c>
+      <c r="E3" s="49" t="s">
         <v>505</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>506</v>
       </c>
       <c r="F3" s="49" t="s">
         <v>15</v>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>99</v>
@@ -7182,10 +7182,10 @@
         <v>174</v>
       </c>
       <c r="D4" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>508</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>509</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>177</v>
@@ -7194,12 +7194,12 @@
         <v>15</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>99</v>
@@ -7208,10 +7208,10 @@
         <v>179</v>
       </c>
       <c r="D5" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>512</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>513</v>
       </c>
       <c r="F5" s="49" t="s">
         <v>15</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>99</v>
@@ -7234,10 +7234,10 @@
         <v>104</v>
       </c>
       <c r="D6" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="E6" s="49" t="s">
         <v>515</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>516</v>
       </c>
       <c r="F6" s="49" t="s">
         <v>15</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>189</v>
@@ -7260,24 +7260,24 @@
         <v>174</v>
       </c>
       <c r="D7" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="F7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>519</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>99</v>
@@ -7286,10 +7286,10 @@
         <v>174</v>
       </c>
       <c r="D8" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="E8" s="49" t="s">
         <v>522</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>523</v>
       </c>
       <c r="F8" s="49" t="s">
         <v>15</v>
@@ -7298,12 +7298,12 @@
         <v>177</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -7312,24 +7312,24 @@
         <v>174</v>
       </c>
       <c r="D9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E9" t="s">
         <v>526</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>527</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -7338,10 +7338,10 @@
         <v>185</v>
       </c>
       <c r="D10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E10" t="s">
         <v>530</v>
-      </c>
-      <c r="E10" t="s">
-        <v>531</v>
       </c>
       <c r="F10" t="s">
         <v>177</v>
@@ -7350,12 +7350,12 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B11" t="s">
         <v>99</v>
@@ -7364,10 +7364,10 @@
         <v>174</v>
       </c>
       <c r="D11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E11" t="s">
         <v>534</v>
-      </c>
-      <c r="E11" t="s">
-        <v>535</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -7376,12 +7376,12 @@
         <v>177</v>
       </c>
       <c r="H11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
@@ -7390,10 +7390,10 @@
         <v>182</v>
       </c>
       <c r="D12" t="s">
+        <v>537</v>
+      </c>
+      <c r="E12" t="s">
         <v>538</v>
-      </c>
-      <c r="E12" t="s">
-        <v>539</v>
       </c>
       <c r="F12" t="s">
         <v>177</v>
@@ -7402,12 +7402,12 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B13" t="s">
         <v>99</v>
@@ -7416,10 +7416,10 @@
         <v>174</v>
       </c>
       <c r="D13" t="s">
+        <v>541</v>
+      </c>
+      <c r="E13" t="s">
         <v>542</v>
-      </c>
-      <c r="E13" t="s">
-        <v>543</v>
       </c>
       <c r="F13" t="s">
         <v>177</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -7442,10 +7442,10 @@
         <v>185</v>
       </c>
       <c r="D14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E14" t="s">
         <v>545</v>
-      </c>
-      <c r="E14" t="s">
-        <v>546</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -7454,12 +7454,12 @@
         <v>177</v>
       </c>
       <c r="H14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
@@ -7468,10 +7468,10 @@
         <v>185</v>
       </c>
       <c r="D15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" t="s">
         <v>548</v>
-      </c>
-      <c r="E15" t="s">
-        <v>549</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -7480,12 +7480,12 @@
         <v>177</v>
       </c>
       <c r="H15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B16" t="s">
         <v>99</v>
@@ -7494,10 +7494,10 @@
         <v>104</v>
       </c>
       <c r="D16" t="s">
+        <v>550</v>
+      </c>
+      <c r="E16" t="s">
         <v>551</v>
-      </c>
-      <c r="E16" t="s">
-        <v>552</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
@@ -7520,10 +7520,10 @@
         <v>174</v>
       </c>
       <c r="D17" t="s">
+        <v>553</v>
+      </c>
+      <c r="E17" t="s">
         <v>554</v>
-      </c>
-      <c r="E17" t="s">
-        <v>555</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -7532,12 +7532,12 @@
         <v>177</v>
       </c>
       <c r="H17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -7546,10 +7546,10 @@
         <v>185</v>
       </c>
       <c r="D18" t="s">
+        <v>557</v>
+      </c>
+      <c r="E18" t="s">
         <v>558</v>
-      </c>
-      <c r="E18" t="s">
-        <v>559</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -7558,12 +7558,12 @@
         <v>177</v>
       </c>
       <c r="H18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -7572,10 +7572,10 @@
         <v>104</v>
       </c>
       <c r="D19" t="s">
+        <v>560</v>
+      </c>
+      <c r="E19" t="s">
         <v>561</v>
-      </c>
-      <c r="E19" t="s">
-        <v>562</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>189</v>
@@ -7598,10 +7598,10 @@
         <v>296</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>564</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>565</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>15</v>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B21" t="s">
         <v>189</v>
@@ -7622,10 +7622,10 @@
         <v>185</v>
       </c>
       <c r="D21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E21" t="s">
         <v>564</v>
-      </c>
-      <c r="E21" t="s">
-        <v>565</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -7634,12 +7634,12 @@
         <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B22" t="s">
         <v>189</v>
@@ -7648,10 +7648,10 @@
         <v>185</v>
       </c>
       <c r="D22" t="s">
+        <v>568</v>
+      </c>
+      <c r="E22" t="s">
         <v>569</v>
-      </c>
-      <c r="E22" t="s">
-        <v>570</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -7660,12 +7660,12 @@
         <v>177</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B23" t="s">
         <v>189</v>
@@ -7674,10 +7674,10 @@
         <v>185</v>
       </c>
       <c r="D23" t="s">
+        <v>572</v>
+      </c>
+      <c r="E23" t="s">
         <v>573</v>
-      </c>
-      <c r="E23" t="s">
-        <v>574</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -7686,12 +7686,12 @@
         <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B24" t="s">
         <v>189</v>
@@ -7700,10 +7700,10 @@
         <v>185</v>
       </c>
       <c r="D24" t="s">
+        <v>576</v>
+      </c>
+      <c r="E24" t="s">
         <v>577</v>
-      </c>
-      <c r="E24" t="s">
-        <v>578</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -7712,12 +7712,12 @@
         <v>177</v>
       </c>
       <c r="H24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B25" t="s">
         <v>189</v>
@@ -7726,10 +7726,10 @@
         <v>185</v>
       </c>
       <c r="D25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E25" t="s">
         <v>581</v>
-      </c>
-      <c r="E25" t="s">
-        <v>582</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -7738,12 +7738,12 @@
         <v>177</v>
       </c>
       <c r="H25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B26" t="s">
         <v>189</v>
@@ -7752,10 +7752,10 @@
         <v>185</v>
       </c>
       <c r="D26" t="s">
+        <v>584</v>
+      </c>
+      <c r="E26" t="s">
         <v>585</v>
-      </c>
-      <c r="E26" t="s">
-        <v>586</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -7764,12 +7764,12 @@
         <v>177</v>
       </c>
       <c r="H26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B27" t="s">
         <v>189</v>
@@ -7778,10 +7778,10 @@
         <v>185</v>
       </c>
       <c r="D27" t="s">
+        <v>588</v>
+      </c>
+      <c r="E27" t="s">
         <v>589</v>
-      </c>
-      <c r="E27" t="s">
-        <v>590</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -7790,12 +7790,12 @@
         <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B28" t="s">
         <v>189</v>
@@ -7804,10 +7804,10 @@
         <v>185</v>
       </c>
       <c r="D28" t="s">
+        <v>592</v>
+      </c>
+      <c r="E28" t="s">
         <v>593</v>
-      </c>
-      <c r="E28" t="s">
-        <v>594</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
@@ -7816,12 +7816,12 @@
         <v>177</v>
       </c>
       <c r="H28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B29" t="s">
         <v>189</v>
@@ -7830,10 +7830,10 @@
         <v>185</v>
       </c>
       <c r="D29" t="s">
+        <v>596</v>
+      </c>
+      <c r="E29" t="s">
         <v>597</v>
-      </c>
-      <c r="E29" t="s">
-        <v>598</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -7842,12 +7842,12 @@
         <v>177</v>
       </c>
       <c r="H29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B30" t="s">
         <v>189</v>
@@ -7856,10 +7856,10 @@
         <v>185</v>
       </c>
       <c r="D30" t="s">
+        <v>600</v>
+      </c>
+      <c r="E30" t="s">
         <v>601</v>
-      </c>
-      <c r="E30" t="s">
-        <v>602</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -7868,12 +7868,12 @@
         <v>177</v>
       </c>
       <c r="H30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B31" t="s">
         <v>99</v>
@@ -7882,10 +7882,10 @@
         <v>174</v>
       </c>
       <c r="D31" t="s">
+        <v>604</v>
+      </c>
+      <c r="E31" t="s">
         <v>605</v>
-      </c>
-      <c r="E31" t="s">
-        <v>606</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -7894,7 +7894,7 @@
         <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>99</v>
@@ -8310,10 +8310,10 @@
         <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>609</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>99</v>
@@ -8337,10 +8337,10 @@
         <v>179</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>99</v>
@@ -8364,10 +8364,10 @@
         <v>296</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>189</v>
@@ -8391,19 +8391,19 @@
         <v>185</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>619</v>
       </c>
       <c r="I5" s="5"/>
       <c r="K5" t="str">
@@ -8413,7 +8413,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>189</v>
@@ -8422,19 +8422,19 @@
         <v>185</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>623</v>
       </c>
       <c r="I6" s="5"/>
       <c r="K6" t="str">
@@ -8444,7 +8444,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>189</v>
@@ -8453,19 +8453,19 @@
         <v>185</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" t="str">
@@ -8475,7 +8475,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>189</v>
@@ -8484,19 +8484,19 @@
         <v>174</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="I8" s="5"/>
       <c r="K8" t="str">
@@ -8506,7 +8506,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>99</v>
@@ -8515,10 +8515,10 @@
         <v>296</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>634</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>15</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>189</v>
@@ -8542,19 +8542,19 @@
         <v>185</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="I10" s="5"/>
       <c r="K10" t="str">
@@ -8564,7 +8564,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>189</v>
@@ -8573,19 +8573,19 @@
         <v>185</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="I11" s="5"/>
       <c r="K11" t="str">
@@ -8595,7 +8595,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>189</v>
@@ -8604,19 +8604,19 @@
         <v>185</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="I12" s="5"/>
       <c r="K12" t="str">
@@ -8626,7 +8626,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>189</v>
@@ -8635,19 +8635,19 @@
         <v>174</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="I13" s="5"/>
       <c r="K13" t="str">
@@ -8657,7 +8657,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>99</v>
@@ -8666,10 +8666,10 @@
         <v>296</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>652</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>653</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>15</v>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>189</v>
@@ -8693,19 +8693,19 @@
         <v>185</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="I15" s="5"/>
       <c r="K15" t="str">
@@ -8715,7 +8715,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>189</v>
@@ -8724,19 +8724,19 @@
         <v>185</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>661</v>
       </c>
       <c r="I16" s="5"/>
       <c r="K16" t="str">
@@ -8746,7 +8746,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>189</v>
@@ -8755,19 +8755,19 @@
         <v>185</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="I17" s="5"/>
       <c r="K17" t="str">
@@ -8777,7 +8777,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>189</v>
@@ -8786,19 +8786,19 @@
         <v>174</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>668</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>669</v>
       </c>
       <c r="I18" s="5"/>
       <c r="K18" t="str">
@@ -8808,7 +8808,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>99</v>
@@ -8817,10 +8817,10 @@
         <v>174</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>15</v>
@@ -8829,13 +8829,13 @@
         <v>177</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>99</v>
@@ -8844,10 +8844,10 @@
         <v>174</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>676</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>15</v>
@@ -8856,13 +8856,13 @@
         <v>177</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>99</v>
@@ -8871,10 +8871,10 @@
         <v>174</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>680</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>15</v>
@@ -8883,13 +8883,13 @@
         <v>177</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>99</v>
@@ -8898,10 +8898,10 @@
         <v>174</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
@@ -8910,13 +8910,13 @@
         <v>177</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>99</v>
@@ -8925,10 +8925,10 @@
         <v>174</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>684</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>685</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
@@ -8937,13 +8937,13 @@
         <v>177</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>99</v>
@@ -8952,10 +8952,10 @@
         <v>185</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>688</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>689</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>177</v>
@@ -8964,13 +8964,13 @@
         <v>15</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>189</v>
@@ -8979,10 +8979,10 @@
         <v>271</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>692</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>693</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>177</v>
@@ -8991,13 +8991,13 @@
         <v>15</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>99</v>
@@ -9006,10 +9006,10 @@
         <v>185</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>696</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>697</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>177</v>
@@ -9018,13 +9018,13 @@
         <v>15</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>99</v>
@@ -9033,25 +9033,25 @@
         <v>185</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>701</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>702</v>
       </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>99</v>
@@ -9060,25 +9060,25 @@
         <v>185</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>705</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>706</v>
       </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>99</v>
@@ -9087,25 +9087,25 @@
         <v>185</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>709</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>710</v>
       </c>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>189</v>
@@ -9114,10 +9114,10 @@
         <v>296</v>
       </c>
       <c r="D30" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>712</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>713</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>15</v>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>189</v>
@@ -9139,11 +9139,11 @@
         <v>185</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>716</v>
-      </c>
       <c r="F31" s="5" t="s">
         <v>15</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I31" s="5"/>
       <c r="K31" t="str">
@@ -9161,7 +9161,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>189</v>
@@ -9170,11 +9170,11 @@
         <v>185</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>719</v>
-      </c>
       <c r="F32" s="5" t="s">
         <v>15</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I32" s="5"/>
       <c r="K32" t="str">
@@ -9192,7 +9192,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>189</v>
@@ -9201,19 +9201,19 @@
         <v>185</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>722</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>723</v>
       </c>
       <c r="I33" s="5"/>
       <c r="K33" t="str">
@@ -9223,7 +9223,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>189</v>
@@ -9232,11 +9232,11 @@
         <v>185</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>726</v>
-      </c>
       <c r="F34" s="5" t="s">
         <v>15</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I34" s="5"/>
       <c r="K34" t="str">
@@ -9254,7 +9254,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>189</v>
@@ -9263,11 +9263,11 @@
         <v>185</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>729</v>
-      </c>
       <c r="F35" s="5" t="s">
         <v>15</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I35" s="5"/>
       <c r="K35" t="str">
@@ -9285,7 +9285,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>189</v>
@@ -9294,11 +9294,11 @@
         <v>185</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>732</v>
-      </c>
       <c r="F36" s="5" t="s">
         <v>15</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I36" s="5"/>
       <c r="K36" t="str">
@@ -9316,7 +9316,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>189</v>
@@ -9325,19 +9325,19 @@
         <v>185</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>735</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>736</v>
       </c>
       <c r="I37" s="5"/>
       <c r="K37" t="str">
@@ -9347,7 +9347,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>189</v>
@@ -9356,11 +9356,11 @@
         <v>185</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>739</v>
-      </c>
       <c r="F38" s="5" t="s">
         <v>15</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>15</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I38" s="5"/>
       <c r="K38" t="str">
@@ -9378,7 +9378,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>189</v>
@@ -9387,11 +9387,11 @@
         <v>185</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>742</v>
-      </c>
       <c r="F39" s="5" t="s">
         <v>15</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I39" s="5"/>
       <c r="K39" t="str">
@@ -9409,7 +9409,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>189</v>
@@ -9418,11 +9418,11 @@
         <v>185</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>745</v>
-      </c>
       <c r="F40" s="5" t="s">
         <v>15</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>15</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I40" s="5"/>
       <c r="K40" t="str">
@@ -9489,7 +9489,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -9498,10 +9498,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E2" t="s">
         <v>608</v>
-      </c>
-      <c r="E2" t="s">
-        <v>609</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -9524,10 +9524,10 @@
         <v>179</v>
       </c>
       <c r="D3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E3" t="s">
         <v>611</v>
-      </c>
-      <c r="E3" t="s">
-        <v>612</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -9550,10 +9550,10 @@
         <v>296</v>
       </c>
       <c r="D4" t="s">
+        <v>613</v>
+      </c>
+      <c r="E4" t="s">
         <v>614</v>
-      </c>
-      <c r="E4" t="s">
-        <v>615</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B5" t="s">
         <v>189</v>
@@ -9576,24 +9576,24 @@
         <v>185</v>
       </c>
       <c r="D5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E5" t="s">
         <v>617</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>618</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B6" t="s">
         <v>189</v>
@@ -9602,24 +9602,24 @@
         <v>185</v>
       </c>
       <c r="D6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" t="s">
         <v>621</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>622</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B7" t="s">
         <v>189</v>
@@ -9628,24 +9628,24 @@
         <v>185</v>
       </c>
       <c r="D7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E7" t="s">
         <v>625</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>626</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B8" t="s">
         <v>189</v>
@@ -9654,24 +9654,24 @@
         <v>174</v>
       </c>
       <c r="D8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E8" t="s">
         <v>629</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>630</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -9680,10 +9680,10 @@
         <v>296</v>
       </c>
       <c r="D9" t="s">
+        <v>632</v>
+      </c>
+      <c r="E9" t="s">
         <v>633</v>
-      </c>
-      <c r="E9" t="s">
-        <v>634</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B10" t="s">
         <v>189</v>
@@ -9706,24 +9706,24 @@
         <v>185</v>
       </c>
       <c r="D10" t="s">
+        <v>635</v>
+      </c>
+      <c r="E10" t="s">
         <v>636</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>637</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B11" t="s">
         <v>189</v>
@@ -9732,24 +9732,24 @@
         <v>185</v>
       </c>
       <c r="D11" t="s">
+        <v>639</v>
+      </c>
+      <c r="E11" t="s">
         <v>640</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
         <v>641</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B12" t="s">
         <v>189</v>
@@ -9758,24 +9758,24 @@
         <v>185</v>
       </c>
       <c r="D12" t="s">
+        <v>643</v>
+      </c>
+      <c r="E12" t="s">
         <v>644</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>645</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B13" t="s">
         <v>189</v>
@@ -9784,11 +9784,11 @@
         <v>174</v>
       </c>
       <c r="D13" t="s">
+        <v>647</v>
+      </c>
+      <c r="E13" t="s">
         <v>648</v>
       </c>
-      <c r="E13" t="s">
-        <v>649</v>
-      </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
@@ -9796,12 +9796,12 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -9810,10 +9810,10 @@
         <v>296</v>
       </c>
       <c r="D14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E14" t="s">
         <v>652</v>
-      </c>
-      <c r="E14" t="s">
-        <v>653</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B15" t="s">
         <v>189</v>
@@ -9836,24 +9836,24 @@
         <v>185</v>
       </c>
       <c r="D15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E15" t="s">
         <v>655</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
         <v>656</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B16" t="s">
         <v>189</v>
@@ -9862,24 +9862,24 @@
         <v>185</v>
       </c>
       <c r="D16" t="s">
+        <v>658</v>
+      </c>
+      <c r="E16" t="s">
         <v>659</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
         <v>660</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B17" t="s">
         <v>189</v>
@@ -9888,24 +9888,24 @@
         <v>185</v>
       </c>
       <c r="D17" t="s">
+        <v>662</v>
+      </c>
+      <c r="E17" t="s">
         <v>663</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
         <v>664</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B18" t="s">
         <v>189</v>
@@ -9914,24 +9914,24 @@
         <v>174</v>
       </c>
       <c r="D18" t="s">
+        <v>666</v>
+      </c>
+      <c r="E18" t="s">
         <v>667</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
         <v>668</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -9940,10 +9940,10 @@
         <v>174</v>
       </c>
       <c r="D19" t="s">
+        <v>748</v>
+      </c>
+      <c r="E19" t="s">
         <v>749</v>
-      </c>
-      <c r="E19" t="s">
-        <v>750</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -9952,12 +9952,12 @@
         <v>177</v>
       </c>
       <c r="H19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B20" t="s">
         <v>99</v>
@@ -9966,10 +9966,10 @@
         <v>174</v>
       </c>
       <c r="D20" t="s">
+        <v>752</v>
+      </c>
+      <c r="E20" t="s">
         <v>753</v>
-      </c>
-      <c r="E20" t="s">
-        <v>754</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9978,12 +9978,12 @@
         <v>177</v>
       </c>
       <c r="H20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
@@ -9992,10 +9992,10 @@
         <v>174</v>
       </c>
       <c r="D21" t="s">
+        <v>756</v>
+      </c>
+      <c r="E21" t="s">
         <v>757</v>
-      </c>
-      <c r="E21" t="s">
-        <v>758</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -10004,12 +10004,12 @@
         <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B22" t="s">
         <v>99</v>
@@ -10018,10 +10018,10 @@
         <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -10030,12 +10030,12 @@
         <v>177</v>
       </c>
       <c r="H22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
@@ -10044,10 +10044,10 @@
         <v>185</v>
       </c>
       <c r="D23" t="s">
+        <v>760</v>
+      </c>
+      <c r="E23" t="s">
         <v>761</v>
-      </c>
-      <c r="E23" t="s">
-        <v>762</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -10056,12 +10056,12 @@
         <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B24" t="s">
         <v>99</v>
@@ -10070,10 +10070,10 @@
         <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -10082,12 +10082,12 @@
         <v>177</v>
       </c>
       <c r="H24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B25" t="s">
         <v>99</v>
@@ -10096,10 +10096,10 @@
         <v>185</v>
       </c>
       <c r="D25" t="s">
+        <v>687</v>
+      </c>
+      <c r="E25" t="s">
         <v>688</v>
-      </c>
-      <c r="E25" t="s">
-        <v>689</v>
       </c>
       <c r="F25" t="s">
         <v>177</v>
@@ -10108,12 +10108,12 @@
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B26" t="s">
         <v>189</v>
@@ -10122,10 +10122,10 @@
         <v>271</v>
       </c>
       <c r="D26" t="s">
+        <v>691</v>
+      </c>
+      <c r="E26" t="s">
         <v>692</v>
-      </c>
-      <c r="E26" t="s">
-        <v>693</v>
       </c>
       <c r="F26" t="s">
         <v>177</v>
@@ -10134,12 +10134,12 @@
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B27" t="s">
         <v>99</v>
@@ -10148,10 +10148,10 @@
         <v>185</v>
       </c>
       <c r="D27" t="s">
+        <v>695</v>
+      </c>
+      <c r="E27" t="s">
         <v>696</v>
-      </c>
-      <c r="E27" t="s">
-        <v>697</v>
       </c>
       <c r="F27" t="s">
         <v>177</v>
@@ -10160,12 +10160,12 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B28" t="s">
         <v>99</v>
@@ -10174,24 +10174,24 @@
         <v>185</v>
       </c>
       <c r="D28" t="s">
+        <v>699</v>
+      </c>
+      <c r="E28" t="s">
         <v>700</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
         <v>701</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B29" t="s">
         <v>99</v>
@@ -10200,24 +10200,24 @@
         <v>185</v>
       </c>
       <c r="D29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E29" t="s">
         <v>704</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
         <v>705</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B30" t="s">
         <v>99</v>
@@ -10226,24 +10226,24 @@
         <v>185</v>
       </c>
       <c r="D30" t="s">
+        <v>707</v>
+      </c>
+      <c r="E30" t="s">
         <v>708</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
         <v>709</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>189</v>
@@ -10252,10 +10252,10 @@
         <v>296</v>
       </c>
       <c r="D31" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>712</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>713</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>15</v>
@@ -10268,7 +10268,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B32" t="s">
         <v>189</v>
@@ -10277,11 +10277,11 @@
         <v>185</v>
       </c>
       <c r="D32" t="s">
+        <v>714</v>
+      </c>
+      <c r="E32" t="s">
         <v>715</v>
       </c>
-      <c r="E32" t="s">
-        <v>716</v>
-      </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
@@ -10289,12 +10289,12 @@
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B33" t="s">
         <v>189</v>
@@ -10303,11 +10303,11 @@
         <v>185</v>
       </c>
       <c r="D33" t="s">
+        <v>717</v>
+      </c>
+      <c r="E33" t="s">
         <v>718</v>
       </c>
-      <c r="E33" t="s">
-        <v>719</v>
-      </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
@@ -10315,12 +10315,12 @@
         <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B34" t="s">
         <v>189</v>
@@ -10329,10 +10329,10 @@
         <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E34" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
@@ -10341,12 +10341,12 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B35" t="s">
         <v>189</v>
@@ -10355,11 +10355,11 @@
         <v>185</v>
       </c>
       <c r="D35" t="s">
+        <v>724</v>
+      </c>
+      <c r="E35" t="s">
         <v>725</v>
       </c>
-      <c r="E35" t="s">
-        <v>726</v>
-      </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
@@ -10367,12 +10367,12 @@
         <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B36" t="s">
         <v>189</v>
@@ -10381,11 +10381,11 @@
         <v>185</v>
       </c>
       <c r="D36" t="s">
+        <v>727</v>
+      </c>
+      <c r="E36" t="s">
         <v>728</v>
       </c>
-      <c r="E36" t="s">
-        <v>729</v>
-      </c>
       <c r="F36" t="s">
         <v>15</v>
       </c>
@@ -10393,12 +10393,12 @@
         <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B37" t="s">
         <v>189</v>
@@ -10407,11 +10407,11 @@
         <v>185</v>
       </c>
       <c r="D37" t="s">
+        <v>730</v>
+      </c>
+      <c r="E37" t="s">
         <v>731</v>
       </c>
-      <c r="E37" t="s">
-        <v>732</v>
-      </c>
       <c r="F37" t="s">
         <v>15</v>
       </c>
@@ -10419,12 +10419,12 @@
         <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B38" t="s">
         <v>189</v>
@@ -10433,24 +10433,24 @@
         <v>185</v>
       </c>
       <c r="D38" t="s">
+        <v>733</v>
+      </c>
+      <c r="E38" t="s">
         <v>734</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
         <v>735</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B39" t="s">
         <v>189</v>
@@ -10459,11 +10459,11 @@
         <v>185</v>
       </c>
       <c r="D39" t="s">
+        <v>737</v>
+      </c>
+      <c r="E39" t="s">
         <v>738</v>
       </c>
-      <c r="E39" t="s">
-        <v>739</v>
-      </c>
       <c r="F39" t="s">
         <v>15</v>
       </c>
@@ -10471,12 +10471,12 @@
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B40" t="s">
         <v>189</v>
@@ -10485,11 +10485,11 @@
         <v>185</v>
       </c>
       <c r="D40" t="s">
+        <v>740</v>
+      </c>
+      <c r="E40" t="s">
         <v>741</v>
       </c>
-      <c r="E40" t="s">
-        <v>742</v>
-      </c>
       <c r="F40" t="s">
         <v>15</v>
       </c>
@@ -10497,12 +10497,12 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B41" t="s">
         <v>189</v>
@@ -10511,11 +10511,11 @@
         <v>185</v>
       </c>
       <c r="D41" t="s">
+        <v>743</v>
+      </c>
+      <c r="E41" t="s">
         <v>744</v>
       </c>
-      <c r="E41" t="s">
-        <v>745</v>
-      </c>
       <c r="F41" t="s">
         <v>15</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -10920,10 +10920,10 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>768</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>769</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -10937,7 +10937,7 @@
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -10946,24 +10946,24 @@
         <v>185</v>
       </c>
       <c r="D3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>689</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B4" t="s">
         <v>189</v>
@@ -10972,24 +10972,24 @@
         <v>271</v>
       </c>
       <c r="D4" t="s">
+        <v>691</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>693</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -10998,24 +10998,24 @@
         <v>185</v>
       </c>
       <c r="D5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>697</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
@@ -11024,24 +11024,24 @@
         <v>185</v>
       </c>
       <c r="D6" t="s">
+        <v>699</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>701</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B7" t="s">
         <v>99</v>
@@ -11050,24 +11050,24 @@
         <v>185</v>
       </c>
       <c r="D7" t="s">
+        <v>703</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>705</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B8" t="s">
         <v>99</v>
@@ -11076,24 +11076,24 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>709</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>189</v>
@@ -11102,10 +11102,10 @@
         <v>296</v>
       </c>
       <c r="D9" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>712</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>713</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>15</v>
@@ -11118,7 +11118,7 @@
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B10" t="s">
         <v>189</v>
@@ -11127,11 +11127,11 @@
         <v>185</v>
       </c>
       <c r="D10" t="s">
+        <v>714</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>716</v>
-      </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
@@ -11139,12 +11139,12 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B11" t="s">
         <v>189</v>
@@ -11153,11 +11153,11 @@
         <v>185</v>
       </c>
       <c r="D11" t="s">
+        <v>717</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>719</v>
-      </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
@@ -11165,12 +11165,12 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B12" t="s">
         <v>189</v>
@@ -11179,10 +11179,10 @@
         <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -11191,12 +11191,12 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B13" t="s">
         <v>189</v>
@@ -11205,11 +11205,11 @@
         <v>185</v>
       </c>
       <c r="D13" t="s">
+        <v>724</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>726</v>
-      </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
@@ -11217,12 +11217,12 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B14" t="s">
         <v>189</v>
@@ -11231,11 +11231,11 @@
         <v>185</v>
       </c>
       <c r="D14" t="s">
+        <v>727</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>729</v>
-      </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
@@ -11243,12 +11243,12 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B15" t="s">
         <v>189</v>
@@ -11257,11 +11257,11 @@
         <v>185</v>
       </c>
       <c r="D15" t="s">
+        <v>730</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>732</v>
-      </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
@@ -11269,12 +11269,12 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B16" t="s">
         <v>189</v>
@@ -11283,24 +11283,24 @@
         <v>185</v>
       </c>
       <c r="D16" t="s">
+        <v>733</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
         <v>735</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B17" t="s">
         <v>189</v>
@@ -11309,11 +11309,11 @@
         <v>185</v>
       </c>
       <c r="D17" t="s">
+        <v>737</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>739</v>
-      </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
@@ -11321,12 +11321,12 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B18" t="s">
         <v>189</v>
@@ -11335,11 +11335,11 @@
         <v>185</v>
       </c>
       <c r="D18" t="s">
+        <v>740</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>742</v>
-      </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -11410,10 +11410,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" t="s">
         <v>502</v>
-      </c>
-      <c r="E2" t="s">
-        <v>503</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -11427,7 +11427,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -11436,10 +11436,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
+        <v>767</v>
+      </c>
+      <c r="E3" t="s">
         <v>768</v>
-      </c>
-      <c r="E3" t="s">
-        <v>769</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B4" t="s">
         <v>189</v>
@@ -11462,10 +11462,10 @@
         <v>185</v>
       </c>
       <c r="D4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" t="s">
         <v>771</v>
-      </c>
-      <c r="E4" t="s">
-        <v>772</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -11474,12 +11474,12 @@
         <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B5" t="s">
         <v>189</v>
@@ -11488,10 +11488,10 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E5" t="s">
         <v>775</v>
-      </c>
-      <c r="E5" t="s">
-        <v>776</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -11505,7 +11505,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B6" t="s">
         <v>189</v>
@@ -11514,10 +11514,10 @@
         <v>185</v>
       </c>
       <c r="D6" t="s">
+        <v>777</v>
+      </c>
+      <c r="E6" t="s">
         <v>778</v>
-      </c>
-      <c r="E6" t="s">
-        <v>779</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -11526,12 +11526,12 @@
         <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B7" t="s">
         <v>189</v>
@@ -11540,10 +11540,10 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
+        <v>781</v>
+      </c>
+      <c r="E7" t="s">
         <v>782</v>
-      </c>
-      <c r="E7" t="s">
-        <v>783</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B8" t="s">
         <v>189</v>
@@ -11566,10 +11566,10 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
+        <v>784</v>
+      </c>
+      <c r="E8" t="s">
         <v>785</v>
-      </c>
-      <c r="E8" t="s">
-        <v>786</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -11578,12 +11578,12 @@
         <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B9" t="s">
         <v>189</v>
@@ -11592,10 +11592,10 @@
         <v>104</v>
       </c>
       <c r="D9" t="s">
+        <v>788</v>
+      </c>
+      <c r="E9" t="s">
         <v>789</v>
-      </c>
-      <c r="E9" t="s">
-        <v>790</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -11609,7 +11609,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B10" t="s">
         <v>189</v>
@@ -11618,10 +11618,10 @@
         <v>185</v>
       </c>
       <c r="D10" t="s">
+        <v>791</v>
+      </c>
+      <c r="E10" t="s">
         <v>792</v>
-      </c>
-      <c r="E10" t="s">
-        <v>793</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -11630,12 +11630,12 @@
         <v>177</v>
       </c>
       <c r="H10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B11" t="s">
         <v>189</v>
@@ -11644,10 +11644,10 @@
         <v>104</v>
       </c>
       <c r="D11" t="s">
+        <v>795</v>
+      </c>
+      <c r="E11" t="s">
         <v>796</v>
-      </c>
-      <c r="E11" t="s">
-        <v>797</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B12" t="s">
         <v>189</v>
@@ -11670,10 +11670,10 @@
         <v>185</v>
       </c>
       <c r="D12" t="s">
+        <v>798</v>
+      </c>
+      <c r="E12" t="s">
         <v>799</v>
-      </c>
-      <c r="E12" t="s">
-        <v>800</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -11682,12 +11682,12 @@
         <v>177</v>
       </c>
       <c r="H12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B13" t="s">
         <v>189</v>
@@ -11696,10 +11696,10 @@
         <v>104</v>
       </c>
       <c r="D13" t="s">
+        <v>802</v>
+      </c>
+      <c r="E13" t="s">
         <v>803</v>
-      </c>
-      <c r="E13" t="s">
-        <v>804</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -11713,7 +11713,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B14" t="s">
         <v>189</v>
@@ -11722,10 +11722,10 @@
         <v>185</v>
       </c>
       <c r="D14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E14" t="s">
         <v>806</v>
-      </c>
-      <c r="E14" t="s">
-        <v>807</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -11734,12 +11734,12 @@
         <v>177</v>
       </c>
       <c r="H14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B15" t="s">
         <v>189</v>
@@ -11748,10 +11748,10 @@
         <v>104</v>
       </c>
       <c r="D15" t="s">
+        <v>809</v>
+      </c>
+      <c r="E15" t="s">
         <v>810</v>
-      </c>
-      <c r="E15" t="s">
-        <v>811</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B16" t="s">
         <v>189</v>
@@ -11774,10 +11774,10 @@
         <v>185</v>
       </c>
       <c r="D16" t="s">
+        <v>812</v>
+      </c>
+      <c r="E16" t="s">
         <v>813</v>
-      </c>
-      <c r="E16" t="s">
-        <v>814</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -11786,12 +11786,12 @@
         <v>177</v>
       </c>
       <c r="H16" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B17" t="s">
         <v>189</v>
@@ -11800,10 +11800,10 @@
         <v>104</v>
       </c>
       <c r="D17" t="s">
+        <v>816</v>
+      </c>
+      <c r="E17" t="s">
         <v>817</v>
-      </c>
-      <c r="E17" t="s">
-        <v>818</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -11875,10 +11875,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" t="s">
         <v>502</v>
-      </c>
-      <c r="E2" t="s">
-        <v>503</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -11901,10 +11901,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -11918,7 +11918,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -11927,10 +11927,10 @@
         <v>179</v>
       </c>
       <c r="D4" t="s">
+        <v>819</v>
+      </c>
+      <c r="E4" t="s">
         <v>820</v>
-      </c>
-      <c r="E4" t="s">
-        <v>821</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -11944,7 +11944,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -11953,24 +11953,24 @@
         <v>174</v>
       </c>
       <c r="D5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E5" t="s">
         <v>823</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>824</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B6" t="s">
         <v>189</v>
@@ -11979,10 +11979,10 @@
         <v>174</v>
       </c>
       <c r="D6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E6" t="s">
         <v>827</v>
-      </c>
-      <c r="E6" t="s">
-        <v>828</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -11991,12 +11991,12 @@
         <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B7" t="s">
         <v>189</v>
@@ -12005,10 +12005,10 @@
         <v>174</v>
       </c>
       <c r="D7" t="s">
+        <v>829</v>
+      </c>
+      <c r="E7" t="s">
         <v>830</v>
-      </c>
-      <c r="E7" t="s">
-        <v>831</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -12017,12 +12017,12 @@
         <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B8" t="s">
         <v>189</v>
@@ -12031,10 +12031,10 @@
         <v>174</v>
       </c>
       <c r="D8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E8" t="s">
         <v>834</v>
-      </c>
-      <c r="E8" t="s">
-        <v>835</v>
       </c>
       <c r="F8" t="s">
         <v>177</v>
@@ -12043,12 +12043,12 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -12057,10 +12057,10 @@
         <v>104</v>
       </c>
       <c r="D9" t="s">
+        <v>837</v>
+      </c>
+      <c r="E9" t="s">
         <v>838</v>
-      </c>
-      <c r="E9" t="s">
-        <v>839</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -12083,10 +12083,10 @@
         <v>104</v>
       </c>
       <c r="D10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E10" t="s">
         <v>841</v>
-      </c>
-      <c r="E10" t="s">
-        <v>842</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -12100,7 +12100,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B11" t="s">
         <v>189</v>
@@ -12109,10 +12109,10 @@
         <v>182</v>
       </c>
       <c r="D11" t="s">
+        <v>843</v>
+      </c>
+      <c r="E11" t="s">
         <v>844</v>
-      </c>
-      <c r="E11" t="s">
-        <v>845</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -12126,7 +12126,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B12" t="s">
         <v>189</v>
@@ -12135,24 +12135,24 @@
         <v>174</v>
       </c>
       <c r="D12" t="s">
+        <v>846</v>
+      </c>
+      <c r="E12" t="s">
         <v>847</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>848</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B13" t="s">
         <v>99</v>
@@ -12161,10 +12161,10 @@
         <v>104</v>
       </c>
       <c r="D13" t="s">
+        <v>850</v>
+      </c>
+      <c r="E13" t="s">
         <v>851</v>
-      </c>
-      <c r="E13" t="s">
-        <v>852</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -12178,7 +12178,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -12187,10 +12187,10 @@
         <v>104</v>
       </c>
       <c r="D14" t="s">
+        <v>853</v>
+      </c>
+      <c r="E14" t="s">
         <v>854</v>
-      </c>
-      <c r="E14" t="s">
-        <v>855</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -12204,7 +12204,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
@@ -12213,24 +12213,24 @@
         <v>174</v>
       </c>
       <c r="D15" t="s">
+        <v>856</v>
+      </c>
+      <c r="E15" t="s">
         <v>857</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
         <v>858</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B16" t="s">
         <v>99</v>
@@ -12239,19 +12239,19 @@
         <v>174</v>
       </c>
       <c r="D16" t="s">
+        <v>860</v>
+      </c>
+      <c r="E16" t="s">
         <v>861</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
         <v>862</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -12306,7 +12306,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -12315,10 +12315,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" t="s">
         <v>502</v>
-      </c>
-      <c r="E2" t="s">
-        <v>503</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -12332,7 +12332,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -12341,10 +12341,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -12358,7 +12358,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -12367,10 +12367,10 @@
         <v>179</v>
       </c>
       <c r="D4" t="s">
+        <v>864</v>
+      </c>
+      <c r="E4" t="s">
         <v>865</v>
-      </c>
-      <c r="E4" t="s">
-        <v>866</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -12393,11 +12393,11 @@
         <v>174</v>
       </c>
       <c r="D5" t="s">
+        <v>866</v>
+      </c>
+      <c r="E5" t="s">
         <v>867</v>
       </c>
-      <c r="E5" t="s">
-        <v>868</v>
-      </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
@@ -12405,12 +12405,12 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>189</v>
@@ -12419,24 +12419,24 @@
         <v>174</v>
       </c>
       <c r="D6" s="26" t="s">
+        <v>868</v>
+      </c>
+      <c r="E6" t="s">
         <v>869</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>870</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B7" t="s">
         <v>99</v>
@@ -12445,10 +12445,10 @@
         <v>174</v>
       </c>
       <c r="D7" t="s">
+        <v>872</v>
+      </c>
+      <c r="E7" t="s">
         <v>873</v>
-      </c>
-      <c r="E7" t="s">
-        <v>874</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -12457,12 +12457,12 @@
         <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B8" t="s">
         <v>189</v>
@@ -12471,10 +12471,10 @@
         <v>179</v>
       </c>
       <c r="D8" t="s">
+        <v>876</v>
+      </c>
+      <c r="E8" t="s">
         <v>877</v>
-      </c>
-      <c r="E8" t="s">
-        <v>878</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -12497,10 +12497,10 @@
         <v>174</v>
       </c>
       <c r="D9" t="s">
+        <v>879</v>
+      </c>
+      <c r="E9" t="s">
         <v>880</v>
-      </c>
-      <c r="E9" t="s">
-        <v>881</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -12509,12 +12509,12 @@
         <v>177</v>
       </c>
       <c r="H9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -12523,10 +12523,10 @@
         <v>182</v>
       </c>
       <c r="D10" t="s">
+        <v>883</v>
+      </c>
+      <c r="E10" t="s">
         <v>884</v>
-      </c>
-      <c r="E10" t="s">
-        <v>885</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -12540,7 +12540,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B11" t="s">
         <v>189</v>
@@ -12549,10 +12549,10 @@
         <v>182</v>
       </c>
       <c r="D11" t="s">
+        <v>886</v>
+      </c>
+      <c r="E11" t="s">
         <v>887</v>
-      </c>
-      <c r="E11" t="s">
-        <v>888</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -12561,12 +12561,12 @@
         <v>177</v>
       </c>
       <c r="H11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
@@ -12575,10 +12575,10 @@
         <v>182</v>
       </c>
       <c r="D12" t="s">
+        <v>890</v>
+      </c>
+      <c r="E12" t="s">
         <v>891</v>
-      </c>
-      <c r="E12" t="s">
-        <v>892</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -12592,7 +12592,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B13" t="s">
         <v>189</v>
@@ -12601,10 +12601,10 @@
         <v>185</v>
       </c>
       <c r="D13" t="s">
+        <v>893</v>
+      </c>
+      <c r="E13" t="s">
         <v>894</v>
-      </c>
-      <c r="E13" t="s">
-        <v>895</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -12613,12 +12613,12 @@
         <v>177</v>
       </c>
       <c r="H13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B14" t="s">
         <v>189</v>
@@ -12627,10 +12627,10 @@
         <v>185</v>
       </c>
       <c r="D14" t="s">
+        <v>897</v>
+      </c>
+      <c r="E14" t="s">
         <v>898</v>
-      </c>
-      <c r="E14" t="s">
-        <v>899</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -12639,12 +12639,12 @@
         <v>177</v>
       </c>
       <c r="H14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B15" s="68" t="s">
         <v>189</v>
@@ -12653,10 +12653,10 @@
         <v>185</v>
       </c>
       <c r="D15" s="68" t="s">
+        <v>901</v>
+      </c>
+      <c r="E15" t="s">
         <v>902</v>
-      </c>
-      <c r="E15" t="s">
-        <v>903</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -12665,12 +12665,12 @@
         <v>177</v>
       </c>
       <c r="H15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B16" s="68" t="s">
         <v>189</v>
@@ -12679,10 +12679,10 @@
         <v>174</v>
       </c>
       <c r="D16" s="68" t="s">
+        <v>905</v>
+      </c>
+      <c r="E16" t="s">
         <v>906</v>
-      </c>
-      <c r="E16" t="s">
-        <v>907</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -12691,12 +12691,12 @@
         <v>177</v>
       </c>
       <c r="H16" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
@@ -12705,10 +12705,10 @@
         <v>104</v>
       </c>
       <c r="D17" t="s">
+        <v>909</v>
+      </c>
+      <c r="E17" t="s">
         <v>910</v>
-      </c>
-      <c r="E17" t="s">
-        <v>911</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -12731,10 +12731,10 @@
         <v>104</v>
       </c>
       <c r="D18" t="s">
+        <v>912</v>
+      </c>
+      <c r="E18" t="s">
         <v>913</v>
-      </c>
-      <c r="E18" t="s">
-        <v>914</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -12748,7 +12748,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>189</v>
@@ -12757,10 +12757,10 @@
         <v>185</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -12774,7 +12774,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>189</v>
@@ -12783,10 +12783,10 @@
         <v>185</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -12800,7 +12800,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
@@ -12809,10 +12809,10 @@
         <v>185</v>
       </c>
       <c r="D21" t="s">
+        <v>919</v>
+      </c>
+      <c r="E21" t="s">
         <v>920</v>
-      </c>
-      <c r="E21" t="s">
-        <v>921</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B22" t="s">
         <v>99</v>
@@ -12835,10 +12835,10 @@
         <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -12852,7 +12852,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
@@ -12861,10 +12861,10 @@
         <v>185</v>
       </c>
       <c r="D23" t="s">
+        <v>924</v>
+      </c>
+      <c r="E23" t="s">
         <v>925</v>
-      </c>
-      <c r="E23" t="s">
-        <v>926</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -12873,12 +12873,12 @@
         <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B24" t="s">
         <v>189</v>
@@ -12887,10 +12887,10 @@
         <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E24" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -12899,12 +12899,12 @@
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B25" t="s">
         <v>189</v>
@@ -12913,24 +12913,24 @@
         <v>185</v>
       </c>
       <c r="D25" t="s">
+        <v>930</v>
+      </c>
+      <c r="E25" t="s">
+        <v>925</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
         <v>931</v>
-      </c>
-      <c r="E25" t="s">
-        <v>926</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B26" t="s">
         <v>189</v>
@@ -12939,10 +12939,10 @@
         <v>185</v>
       </c>
       <c r="D26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -12951,12 +12951,12 @@
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B27" t="s">
         <v>189</v>
@@ -12965,10 +12965,10 @@
         <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E27" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -12977,12 +12977,12 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B28" t="s">
         <v>189</v>
@@ -12991,10 +12991,10 @@
         <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
@@ -13003,12 +13003,12 @@
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B29" t="s">
         <v>99</v>
@@ -13017,24 +13017,24 @@
         <v>174</v>
       </c>
       <c r="D29" t="s">
+        <v>939</v>
+      </c>
+      <c r="E29" t="s">
         <v>940</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
         <v>941</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B30" t="s">
         <v>99</v>
@@ -13043,10 +13043,10 @@
         <v>174</v>
       </c>
       <c r="D30" t="s">
+        <v>943</v>
+      </c>
+      <c r="E30" t="s">
         <v>944</v>
-      </c>
-      <c r="E30" t="s">
-        <v>945</v>
       </c>
       <c r="F30" t="s">
         <v>177</v>
@@ -13060,7 +13060,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B31" t="s">
         <v>189</v>
@@ -13069,10 +13069,10 @@
         <v>174</v>
       </c>
       <c r="D31" t="s">
+        <v>945</v>
+      </c>
+      <c r="E31" t="s">
         <v>946</v>
-      </c>
-      <c r="E31" t="s">
-        <v>947</v>
       </c>
       <c r="F31" t="s">
         <v>177</v>
@@ -13081,7 +13081,7 @@
         <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -13134,7 +13134,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -13143,10 +13143,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" t="s">
         <v>502</v>
-      </c>
-      <c r="E2" t="s">
-        <v>503</v>
       </c>
       <c r="F2" t="s">
         <v>177</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -13169,10 +13169,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F3" t="s">
         <v>177</v>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -13195,10 +13195,10 @@
         <v>179</v>
       </c>
       <c r="D4" t="s">
+        <v>948</v>
+      </c>
+      <c r="E4" t="s">
         <v>949</v>
-      </c>
-      <c r="E4" t="s">
-        <v>950</v>
       </c>
       <c r="F4" t="s">
         <v>177</v>
@@ -13212,7 +13212,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -13221,10 +13221,10 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F5" t="s">
         <v>177</v>
@@ -13238,7 +13238,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
@@ -13247,10 +13247,10 @@
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F6" t="s">
         <v>177</v>
@@ -13264,7 +13264,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B7" t="s">
         <v>189</v>
@@ -13273,10 +13273,10 @@
         <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F7" t="s">
         <v>177</v>
@@ -13285,7 +13285,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -13339,7 +13339,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -13348,10 +13348,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F2" t="s">
         <v>177</v>
@@ -13365,7 +13365,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -13374,10 +13374,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F3" t="s">
         <v>177</v>
@@ -13391,7 +13391,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -13400,10 +13400,10 @@
         <v>179</v>
       </c>
       <c r="D4" t="s">
+        <v>955</v>
+      </c>
+      <c r="E4" t="s">
         <v>956</v>
-      </c>
-      <c r="E4" t="s">
-        <v>957</v>
       </c>
       <c r="F4" t="s">
         <v>177</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -13426,10 +13426,10 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F5" t="s">
         <v>177</v>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
@@ -13452,10 +13452,10 @@
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F6" t="s">
         <v>177</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B7" t="s">
         <v>189</v>
@@ -13478,10 +13478,10 @@
         <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F7" t="s">
         <v>177</v>
@@ -13490,7 +13490,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -13553,10 +13553,10 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
+        <v>958</v>
+      </c>
+      <c r="E2" t="s">
         <v>959</v>
-      </c>
-      <c r="E2" t="s">
-        <v>960</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -13570,7 +13570,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -13579,10 +13579,10 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E3" t="s">
         <v>962</v>
-      </c>
-      <c r="E3" t="s">
-        <v>963</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -13596,7 +13596,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -13605,10 +13605,10 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
+        <v>964</v>
+      </c>
+      <c r="E4" t="s">
         <v>965</v>
-      </c>
-      <c r="E4" t="s">
-        <v>966</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -13622,7 +13622,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -13631,19 +13631,19 @@
         <v>174</v>
       </c>
       <c r="D5" t="s">
+        <v>967</v>
+      </c>
+      <c r="E5" t="s">
         <v>968</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>969</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>970</v>
       </c>
     </row>
   </sheetData>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -13706,10 +13706,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" t="s">
         <v>502</v>
-      </c>
-      <c r="E2" t="s">
-        <v>503</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -13723,7 +13723,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -13732,10 +13732,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
+        <v>767</v>
+      </c>
+      <c r="E3" t="s">
         <v>768</v>
-      </c>
-      <c r="E3" t="s">
-        <v>769</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -13749,7 +13749,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -13758,24 +13758,24 @@
         <v>174</v>
       </c>
       <c r="D4" t="s">
+        <v>971</v>
+      </c>
+      <c r="E4" t="s">
         <v>972</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>973</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -13784,10 +13784,10 @@
         <v>179</v>
       </c>
       <c r="D5" t="s">
+        <v>975</v>
+      </c>
+      <c r="E5" t="s">
         <v>976</v>
-      </c>
-      <c r="E5" t="s">
-        <v>977</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -13850,7 +13850,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -13859,10 +13859,10 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
+        <v>978</v>
+      </c>
+      <c r="E2" t="s">
         <v>979</v>
-      </c>
-      <c r="E2" t="s">
-        <v>980</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -13876,7 +13876,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -13885,10 +13885,10 @@
         <v>174</v>
       </c>
       <c r="D3" t="s">
+        <v>981</v>
+      </c>
+      <c r="E3" t="s">
         <v>982</v>
-      </c>
-      <c r="E3" t="s">
-        <v>983</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -13902,7 +13902,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -13911,10 +13911,10 @@
         <v>104</v>
       </c>
       <c r="D4" t="s">
+        <v>984</v>
+      </c>
+      <c r="E4" t="s">
         <v>985</v>
-      </c>
-      <c r="E4" t="s">
-        <v>986</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -13928,7 +13928,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -13937,10 +13937,10 @@
         <v>174</v>
       </c>
       <c r="D5" t="s">
+        <v>987</v>
+      </c>
+      <c r="E5" t="s">
         <v>988</v>
-      </c>
-      <c r="E5" t="s">
-        <v>989</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -13949,7 +13949,7 @@
         <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -14355,7 +14355,7 @@
         <v>120</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -14405,7 +14405,7 @@
         <v>120</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -14455,7 +14455,7 @@
         <v>120</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -14581,7 +14581,7 @@
         <v>116</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -14607,7 +14607,7 @@
         <v>116</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -14633,7 +14633,7 @@
         <v>116</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -14659,7 +14659,7 @@
         <v>116</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -14685,7 +14685,7 @@
         <v>116</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -14708,7 +14708,7 @@
         <v>120</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -14733,7 +14733,7 @@
         <v>116</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -15293,7 +15293,7 @@
         <v>174</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>193</v>
@@ -15319,7 +15319,7 @@
         <v>174</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>195</v>
@@ -15345,7 +15345,7 @@
         <v>174</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>197</v>
@@ -15371,7 +15371,7 @@
         <v>174</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>199</v>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="D49" s="6" t="str">
         <f>SubjectI4rc!D49</f>
-        <v>Previous cancer treatment (M)</v>
+        <v>Previous cancer treatment (R)</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>149</v>
@@ -17233,8 +17233,8 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18503,16 +18503,16 @@
         <v>423</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>174</v>
       </c>
       <c r="D49" s="14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>424</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>425</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>177</v>
@@ -18521,7 +18521,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wylem\workspace\hl7\wylem\idea4rc\src-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roberta\HL7EU\IDEA4RC\idea4rc-master\idea4rc\src-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AAF1FF-A383-401A-A80C-B7FEAD47AB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B1C107-D009-490E-B062-9E4C86865CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="654" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="654" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="15" r:id="rId1"/>
@@ -76,10 +76,10 @@
   <commentList>
     <comment ref="B48" authorId="0" shapeId="0" xr:uid="{BCDCC929-C1AA-46D9-A1CE-2F2A9F418401}">
       <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Check if this profile fits for purpose</t>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+Check if this profile fits for purpose</t>
       </text>
     </comment>
   </commentList>
@@ -94,10 +94,10 @@
   <commentList>
     <comment ref="A48" authorId="0" shapeId="0" xr:uid="{7F78229B-0024-4E7E-B76B-4A79CA7364DD}">
       <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Check if only the site is captured or also the kind of cancer</t>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+Check if only the site is captured or also the kind of cancer</t>
       </text>
     </comment>
   </commentList>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="1001">
   <si>
     <t>Instance</t>
   </si>
@@ -1264,9 +1264,6 @@
   </si>
   <si>
     <t>equal</t>
-  </si>
-  <si>
-    <t>TO BE CHECKED</t>
   </si>
   <si>
     <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/observation-treatment-eu-i4rc</t>
@@ -4445,7 +4442,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4610,11 +4607,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Collegamento ipertestuale 2" xfId="3" xr:uid="{89608739-F8AF-4CD6-B282-118C4E57D255}"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="2" xr:uid="{CFD04C6F-70BE-4734-8E9F-B4BC2A2491AF}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5030,7 +5028,7 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -5269,7 +5267,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.6640625" customWidth="1"/>
     <col min="2" max="2" width="59" style="4" customWidth="1"/>
@@ -5313,7 +5311,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>PatientFollowUpI4rc!A2</f>
@@ -5324,7 +5322,7 @@
         <v>Patient (M)</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -5338,7 +5336,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>PatientFollowUpI4rc!A4</f>
@@ -5349,14 +5347,14 @@
         <v>Status of disease at last follow-up (M) type EpisodeEvent</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16" t="s">
         <v>116</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5365,7 +5363,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>PatientFollowUpI4rc!A5</f>
@@ -5376,7 +5374,7 @@
         <v>Patient Follow Up date (M)</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
@@ -5390,7 +5388,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>PatientFollowUpI4rc!A6</f>
@@ -5401,14 +5399,14 @@
         <v>New cancer diagnosis (M)</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>120</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5417,7 +5415,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C6" s="5" t="str">
         <f>PatientFollowUpI4rc!A7</f>
@@ -5428,14 +5426,14 @@
         <v>Date of new cancer diagnosis (M)</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
         <v>120</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5444,7 +5442,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>PatientFollowUpI4rc!A8</f>
@@ -5455,14 +5453,14 @@
         <v>New cancer topography (M)</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
         <v>120</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5489,7 +5487,7 @@
         <v>116</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5509,14 +5507,14 @@
         <v>Status of disease at last follow-up (M) type EpisodeEvent</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5543,7 +5541,7 @@
         <v>116</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5563,14 +5561,14 @@
         <v>Date of new cancer diagnosis (M)</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
         <v>116</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5597,7 +5595,7 @@
         <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5606,7 +5604,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C13" s="16" t="str">
         <f>PatientFollowUpI4rc!A2</f>
@@ -5617,7 +5615,7 @@
         <v>Patient (M)</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
@@ -5631,7 +5629,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C14" s="16" t="str">
         <f>PatientFollowUpI4rc!A3</f>
@@ -5656,7 +5654,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C15" s="16" t="str">
         <f>PatientFollowUpI4rc!A2</f>
@@ -5667,7 +5665,7 @@
         <v>Patient (M)</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
@@ -5681,7 +5679,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C16" s="16" t="str">
         <f>PatientFollowUpI4rc!A9</f>
@@ -5692,7 +5690,7 @@
         <v>Last Contact (M)</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
@@ -5785,7 +5783,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" style="14" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" style="14" customWidth="1"/>
@@ -5838,7 +5836,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>15</v>
@@ -5852,7 +5850,7 @@
     </row>
     <row r="3" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>99</v>
@@ -5861,50 +5859,50 @@
         <v>173</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>441</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>445</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>99</v>
@@ -5913,10 +5911,10 @@
         <v>104</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>448</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>449</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>15</v>
@@ -5930,7 +5928,7 @@
     </row>
     <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>99</v>
@@ -5939,10 +5937,10 @@
         <v>184</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>451</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>452</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>15</v>
@@ -5951,12 +5949,12 @@
         <v>176</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>99</v>
@@ -5965,10 +5963,10 @@
         <v>104</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>455</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>456</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>15</v>
@@ -5982,7 +5980,7 @@
     </row>
     <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>99</v>
@@ -5991,10 +5989,10 @@
         <v>173</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>458</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>459</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>15</v>
@@ -6003,12 +6001,12 @@
         <v>176</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>99</v>
@@ -6017,10 +6015,10 @@
         <v>104</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>462</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>463</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>176</v>
@@ -6049,7 +6047,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="67.88671875" style="4" customWidth="1"/>
@@ -6093,7 +6091,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>HospitalPatientRecordsI4RC!A2</f>
@@ -6104,7 +6102,7 @@
         <v>Patient (M)</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -6117,7 +6115,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>HospitalPatientRecordsI4RC!A3</f>
@@ -6128,7 +6126,7 @@
         <v>Hospital (M)</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16" t="s">
@@ -6141,7 +6139,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>HospitalPatientRecordsI4RC!A4</f>
@@ -6152,7 +6150,7 @@
         <v>Hospital name (M)</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="16" t="s">
@@ -6165,7 +6163,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>HospitalPatientRecordsI4RC!A5</f>
@@ -6176,7 +6174,7 @@
         <v>Date of first contact with the hospital (M)</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="16" t="s">
@@ -6208,7 +6206,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" style="14" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" style="14" customWidth="1"/>
@@ -6261,7 +6259,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>15</v>
@@ -6270,24 +6268,24 @@
         <v>176</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>472</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>473</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>15</v>
@@ -6296,12 +6294,12 @@
         <v>176</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>99</v>
@@ -6310,10 +6308,10 @@
         <v>178</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>475</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>476</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>15</v>
@@ -6327,7 +6325,7 @@
     </row>
     <row r="5" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>99</v>
@@ -6336,10 +6334,10 @@
         <v>104</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>478</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>479</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>15</v>
@@ -6348,7 +6346,7 @@
         <v>176</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -6367,7 +6365,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
@@ -6413,10 +6411,10 @@
         <v>45</v>
       </c>
       <c r="D2" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>480</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>481</v>
       </c>
       <c r="F2" s="39" t="s">
         <v>15</v>
@@ -6439,19 +6437,19 @@
         <v>173</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>483</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6465,10 +6463,10 @@
         <v>178</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>485</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>486</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>15</v>
@@ -6491,10 +6489,10 @@
         <v>104</v>
       </c>
       <c r="D5" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>487</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>488</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>15</v>
@@ -6522,7 +6520,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71.6640625" style="76" customWidth="1"/>
     <col min="2" max="2" width="90.5546875" style="76" customWidth="1"/>
@@ -6563,10 +6561,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="81" t="s">
         <v>489</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>490</v>
       </c>
       <c r="C2" t="str">
         <f>SurgeryI4RC!A2</f>
@@ -6577,7 +6575,7 @@
         <v>Diagnosis reference (M)</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F2" s="74"/>
       <c r="G2" s="41" t="s">
@@ -6587,10 +6585,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3" s="81" t="s">
         <v>489</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>490</v>
       </c>
       <c r="C3" t="str">
         <f>SurgeryI4RC!A3</f>
@@ -6601,7 +6599,7 @@
         <v>Episode Event reference (M)</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F3" s="74"/>
       <c r="G3" s="41" t="s">
@@ -6611,10 +6609,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>489</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>490</v>
       </c>
       <c r="C4" t="str">
         <f>SurgeryI4RC!A4</f>
@@ -6625,7 +6623,7 @@
         <v>Surgery type (M)</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F4" s="74"/>
       <c r="G4" s="74" t="s">
@@ -6635,10 +6633,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="81" t="s">
         <v>489</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>490</v>
       </c>
       <c r="C5" t="str">
         <f>SurgeryI4RC!A5</f>
@@ -6649,20 +6647,20 @@
         <v>Surgery Hospital (M)</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F5" s="74"/>
       <c r="G5" s="74" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="74" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="80"/>
       <c r="B6" s="81" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C6" t="str">
         <f>SurgeryI4RC!A5</f>
@@ -6673,20 +6671,20 @@
         <v>Surgery Hospital (M)</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="81" t="s">
         <v>489</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>490</v>
       </c>
       <c r="C7" t="str">
         <f>SurgeryI4RC!A6</f>
@@ -6697,7 +6695,7 @@
         <v>Date of surgery (M)</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F7" s="74"/>
       <c r="G7" s="74" t="s">
@@ -6707,10 +6705,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="B8" s="81" t="s">
         <v>489</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>490</v>
       </c>
       <c r="C8" t="str">
         <f>SurgeryI4RC!A7</f>
@@ -6721,12 +6719,12 @@
         <v>Surgery intention (O)</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B9" s="69"/>
       <c r="C9" t="str">
@@ -6740,7 +6738,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B10" s="69"/>
       <c r="C10" t="str">
@@ -6754,7 +6752,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" t="str">
@@ -6768,7 +6766,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B12" s="69"/>
       <c r="C12" t="str">
@@ -6782,7 +6780,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B13" s="69"/>
       <c r="C13" t="str">
@@ -6796,7 +6794,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B14" s="69"/>
       <c r="C14" t="str">
@@ -6810,7 +6808,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B15" s="69"/>
       <c r="C15" t="str">
@@ -6825,7 +6823,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B16" s="69"/>
       <c r="C16" t="str">
@@ -6839,7 +6837,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B17" s="69"/>
       <c r="C17" t="str">
@@ -6854,7 +6852,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" t="str">
@@ -6869,7 +6867,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B19" s="69"/>
       <c r="C19" t="str">
@@ -6884,7 +6882,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B20" s="69"/>
       <c r="C20" t="str">
@@ -6898,7 +6896,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" t="str">
@@ -6913,7 +6911,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B22" s="69"/>
       <c r="C22" t="str">
@@ -6928,7 +6926,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" t="str">
@@ -6942,7 +6940,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B24" s="69"/>
       <c r="C24" t="str">
@@ -6956,7 +6954,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B25" s="69"/>
       <c r="C25" t="str">
@@ -6970,7 +6968,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B26" s="69"/>
       <c r="C26" t="str">
@@ -6984,7 +6982,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B27" s="69"/>
       <c r="C27" t="str">
@@ -6998,7 +6996,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C28" t="str">
         <f>SurgeryI4RC!A27</f>
@@ -7011,7 +7009,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C29" t="str">
         <f>SurgeryI4RC!A28</f>
@@ -7024,7 +7022,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C30" t="str">
         <f>SurgeryI4RC!A29</f>
@@ -7037,7 +7035,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C31" t="str">
         <f>SurgeryI4RC!A30</f>
@@ -7050,7 +7048,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C32" t="str">
         <f>SurgeryI4RC!A31</f>
@@ -7096,11 +7094,11 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
@@ -7136,7 +7134,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>99</v>
@@ -7145,10 +7143,10 @@
         <v>49</v>
       </c>
       <c r="D2" s="49" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>500</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>501</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>15</v>
@@ -7162,7 +7160,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>99</v>
@@ -7171,10 +7169,10 @@
         <v>59</v>
       </c>
       <c r="D3" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3" s="49" t="s">
         <v>503</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>504</v>
       </c>
       <c r="F3" s="49" t="s">
         <v>15</v>
@@ -7188,7 +7186,7 @@
     </row>
     <row r="4" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>99</v>
@@ -7197,10 +7195,10 @@
         <v>173</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>176</v>
@@ -7209,12 +7207,12 @@
         <v>15</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>99</v>
@@ -7223,10 +7221,10 @@
         <v>178</v>
       </c>
       <c r="D5" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>509</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>510</v>
       </c>
       <c r="F5" s="49" t="s">
         <v>15</v>
@@ -7240,7 +7238,7 @@
     </row>
     <row r="6" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>99</v>
@@ -7249,10 +7247,10 @@
         <v>104</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F6" s="49" t="s">
         <v>15</v>
@@ -7266,7 +7264,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>188</v>
@@ -7275,24 +7273,24 @@
         <v>173</v>
       </c>
       <c r="D7" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="F7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>515</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>99</v>
@@ -7301,10 +7299,10 @@
         <v>173</v>
       </c>
       <c r="D8" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="E8" s="49" t="s">
         <v>518</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>519</v>
       </c>
       <c r="F8" s="49" t="s">
         <v>15</v>
@@ -7313,12 +7311,12 @@
         <v>176</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -7327,24 +7325,24 @@
         <v>173</v>
       </c>
       <c r="D9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" t="s">
         <v>521</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>522</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -7353,10 +7351,10 @@
         <v>184</v>
       </c>
       <c r="D10" t="s">
+        <v>524</v>
+      </c>
+      <c r="E10" t="s">
         <v>525</v>
-      </c>
-      <c r="E10" t="s">
-        <v>526</v>
       </c>
       <c r="F10" t="s">
         <v>176</v>
@@ -7365,12 +7363,12 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B11" t="s">
         <v>99</v>
@@ -7379,10 +7377,10 @@
         <v>173</v>
       </c>
       <c r="D11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E11" t="s">
         <v>529</v>
-      </c>
-      <c r="E11" t="s">
-        <v>530</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -7391,12 +7389,12 @@
         <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
@@ -7405,10 +7403,10 @@
         <v>181</v>
       </c>
       <c r="D12" t="s">
+        <v>532</v>
+      </c>
+      <c r="E12" t="s">
         <v>533</v>
-      </c>
-      <c r="E12" t="s">
-        <v>534</v>
       </c>
       <c r="F12" t="s">
         <v>176</v>
@@ -7417,12 +7415,12 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B13" t="s">
         <v>99</v>
@@ -7431,10 +7429,10 @@
         <v>173</v>
       </c>
       <c r="D13" t="s">
+        <v>536</v>
+      </c>
+      <c r="E13" t="s">
         <v>537</v>
-      </c>
-      <c r="E13" t="s">
-        <v>538</v>
       </c>
       <c r="F13" t="s">
         <v>176</v>
@@ -7448,7 +7446,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -7457,10 +7455,10 @@
         <v>184</v>
       </c>
       <c r="D14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E14" t="s">
         <v>540</v>
-      </c>
-      <c r="E14" t="s">
-        <v>541</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -7469,12 +7467,12 @@
         <v>176</v>
       </c>
       <c r="H14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
@@ -7483,10 +7481,10 @@
         <v>184</v>
       </c>
       <c r="D15" t="s">
+        <v>542</v>
+      </c>
+      <c r="E15" t="s">
         <v>543</v>
-      </c>
-      <c r="E15" t="s">
-        <v>544</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -7495,12 +7493,12 @@
         <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B16" t="s">
         <v>99</v>
@@ -7509,10 +7507,10 @@
         <v>104</v>
       </c>
       <c r="D16" t="s">
+        <v>545</v>
+      </c>
+      <c r="E16" t="s">
         <v>546</v>
-      </c>
-      <c r="E16" t="s">
-        <v>547</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -7526,7 +7524,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
@@ -7535,10 +7533,10 @@
         <v>173</v>
       </c>
       <c r="D17" t="s">
+        <v>548</v>
+      </c>
+      <c r="E17" t="s">
         <v>549</v>
-      </c>
-      <c r="E17" t="s">
-        <v>550</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -7547,12 +7545,12 @@
         <v>176</v>
       </c>
       <c r="H17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -7561,10 +7559,10 @@
         <v>184</v>
       </c>
       <c r="D18" t="s">
+        <v>552</v>
+      </c>
+      <c r="E18" t="s">
         <v>553</v>
-      </c>
-      <c r="E18" t="s">
-        <v>554</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -7573,12 +7571,12 @@
         <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -7587,10 +7585,10 @@
         <v>104</v>
       </c>
       <c r="D19" t="s">
+        <v>555</v>
+      </c>
+      <c r="E19" t="s">
         <v>556</v>
-      </c>
-      <c r="E19" t="s">
-        <v>557</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -7604,19 +7602,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>188</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>559</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>560</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>15</v>
@@ -7628,7 +7626,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B21" t="s">
         <v>188</v>
@@ -7637,10 +7635,10 @@
         <v>184</v>
       </c>
       <c r="D21" t="s">
+        <v>558</v>
+      </c>
+      <c r="E21" t="s">
         <v>559</v>
-      </c>
-      <c r="E21" t="s">
-        <v>560</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -7649,12 +7647,12 @@
         <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B22" t="s">
         <v>188</v>
@@ -7663,10 +7661,10 @@
         <v>184</v>
       </c>
       <c r="D22" t="s">
+        <v>563</v>
+      </c>
+      <c r="E22" t="s">
         <v>564</v>
-      </c>
-      <c r="E22" t="s">
-        <v>565</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -7675,12 +7673,12 @@
         <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B23" t="s">
         <v>188</v>
@@ -7689,10 +7687,10 @@
         <v>184</v>
       </c>
       <c r="D23" t="s">
+        <v>567</v>
+      </c>
+      <c r="E23" t="s">
         <v>568</v>
-      </c>
-      <c r="E23" t="s">
-        <v>569</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -7701,12 +7699,12 @@
         <v>176</v>
       </c>
       <c r="H23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B24" t="s">
         <v>188</v>
@@ -7715,10 +7713,10 @@
         <v>184</v>
       </c>
       <c r="D24" t="s">
+        <v>571</v>
+      </c>
+      <c r="E24" t="s">
         <v>572</v>
-      </c>
-      <c r="E24" t="s">
-        <v>573</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -7727,12 +7725,12 @@
         <v>176</v>
       </c>
       <c r="H24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B25" t="s">
         <v>188</v>
@@ -7741,10 +7739,10 @@
         <v>184</v>
       </c>
       <c r="D25" t="s">
+        <v>575</v>
+      </c>
+      <c r="E25" t="s">
         <v>576</v>
-      </c>
-      <c r="E25" t="s">
-        <v>577</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -7753,12 +7751,12 @@
         <v>176</v>
       </c>
       <c r="H25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B26" t="s">
         <v>188</v>
@@ -7767,10 +7765,10 @@
         <v>184</v>
       </c>
       <c r="D26" t="s">
+        <v>579</v>
+      </c>
+      <c r="E26" t="s">
         <v>580</v>
-      </c>
-      <c r="E26" t="s">
-        <v>581</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -7779,12 +7777,12 @@
         <v>176</v>
       </c>
       <c r="H26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B27" t="s">
         <v>188</v>
@@ -7793,10 +7791,10 @@
         <v>184</v>
       </c>
       <c r="D27" t="s">
+        <v>583</v>
+      </c>
+      <c r="E27" t="s">
         <v>584</v>
-      </c>
-      <c r="E27" t="s">
-        <v>585</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -7805,12 +7803,12 @@
         <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B28" t="s">
         <v>188</v>
@@ -7819,10 +7817,10 @@
         <v>184</v>
       </c>
       <c r="D28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E28" t="s">
         <v>588</v>
-      </c>
-      <c r="E28" t="s">
-        <v>589</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
@@ -7831,12 +7829,12 @@
         <v>176</v>
       </c>
       <c r="H28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B29" t="s">
         <v>188</v>
@@ -7845,10 +7843,10 @@
         <v>184</v>
       </c>
       <c r="D29" t="s">
+        <v>591</v>
+      </c>
+      <c r="E29" t="s">
         <v>592</v>
-      </c>
-      <c r="E29" t="s">
-        <v>593</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -7857,12 +7855,12 @@
         <v>176</v>
       </c>
       <c r="H29" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B30" t="s">
         <v>188</v>
@@ -7871,10 +7869,10 @@
         <v>184</v>
       </c>
       <c r="D30" t="s">
+        <v>595</v>
+      </c>
+      <c r="E30" t="s">
         <v>596</v>
-      </c>
-      <c r="E30" t="s">
-        <v>597</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -7883,12 +7881,12 @@
         <v>176</v>
       </c>
       <c r="H30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B31" t="s">
         <v>99</v>
@@ -7897,10 +7895,10 @@
         <v>173</v>
       </c>
       <c r="D31" t="s">
+        <v>599</v>
+      </c>
+      <c r="E31" t="s">
         <v>600</v>
-      </c>
-      <c r="E31" t="s">
-        <v>601</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -7909,7 +7907,7 @@
         <v>176</v>
       </c>
       <c r="H31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -7928,7 +7926,7 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71.6640625" customWidth="1"/>
     <col min="2" max="2" width="90.5546875" customWidth="1"/>
@@ -8276,7 +8274,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
@@ -8316,7 +8314,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>99</v>
@@ -8325,10 +8323,10 @@
         <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>603</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>604</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -8343,7 +8341,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>99</v>
@@ -8352,10 +8350,10 @@
         <v>178</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>607</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -8370,19 +8368,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
@@ -8397,7 +8395,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>188</v>
@@ -8406,19 +8404,19 @@
         <v>184</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="I5" s="5"/>
       <c r="K5" t="str">
@@ -8428,7 +8426,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>188</v>
@@ -8437,19 +8435,19 @@
         <v>184</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>618</v>
       </c>
       <c r="I6" s="5"/>
       <c r="K6" t="str">
@@ -8459,7 +8457,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>188</v>
@@ -8468,19 +8466,19 @@
         <v>184</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>622</v>
       </c>
       <c r="I7" s="5"/>
       <c r="K7" t="str">
@@ -8490,7 +8488,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>188</v>
@@ -8499,19 +8497,19 @@
         <v>173</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>625</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>626</v>
       </c>
       <c r="I8" s="5"/>
       <c r="K8" t="str">
@@ -8521,19 +8519,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>629</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>15</v>
@@ -8548,7 +8546,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>188</v>
@@ -8557,19 +8555,19 @@
         <v>184</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="I10" s="5"/>
       <c r="K10" t="str">
@@ -8579,7 +8577,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>188</v>
@@ -8588,19 +8586,19 @@
         <v>184</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>637</v>
       </c>
       <c r="I11" s="5"/>
       <c r="K11" t="str">
@@ -8610,7 +8608,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>188</v>
@@ -8619,19 +8617,19 @@
         <v>184</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="I12" s="5"/>
       <c r="K12" t="str">
@@ -8641,7 +8639,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>188</v>
@@ -8650,19 +8648,19 @@
         <v>173</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>645</v>
       </c>
       <c r="I13" s="5"/>
       <c r="K13" t="str">
@@ -8672,19 +8670,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>648</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>15</v>
@@ -8699,7 +8697,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>188</v>
@@ -8708,19 +8706,19 @@
         <v>184</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="I15" s="5"/>
       <c r="K15" t="str">
@@ -8730,7 +8728,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>188</v>
@@ -8739,19 +8737,19 @@
         <v>184</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>656</v>
       </c>
       <c r="I16" s="5"/>
       <c r="K16" t="str">
@@ -8761,7 +8759,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>188</v>
@@ -8770,19 +8768,19 @@
         <v>184</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>660</v>
       </c>
       <c r="I17" s="5"/>
       <c r="K17" t="str">
@@ -8792,7 +8790,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>188</v>
@@ -8801,19 +8799,19 @@
         <v>173</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="I18" s="5"/>
       <c r="K18" t="str">
@@ -8823,7 +8821,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>99</v>
@@ -8832,10 +8830,10 @@
         <v>173</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>667</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>15</v>
@@ -8844,13 +8842,13 @@
         <v>176</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>99</v>
@@ -8859,10 +8857,10 @@
         <v>173</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>671</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>15</v>
@@ -8871,13 +8869,13 @@
         <v>176</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>99</v>
@@ -8886,10 +8884,10 @@
         <v>173</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>675</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>15</v>
@@ -8898,13 +8896,13 @@
         <v>176</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>99</v>
@@ -8913,10 +8911,10 @@
         <v>173</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
@@ -8925,13 +8923,13 @@
         <v>176</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>99</v>
@@ -8940,10 +8938,10 @@
         <v>173</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>680</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
@@ -8952,13 +8950,13 @@
         <v>176</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>99</v>
@@ -8967,10 +8965,10 @@
         <v>184</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>684</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>176</v>
@@ -8979,25 +8977,25 @@
         <v>15</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>188</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>687</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>688</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>176</v>
@@ -9006,13 +9004,13 @@
         <v>15</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>99</v>
@@ -9021,10 +9019,10 @@
         <v>184</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>692</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>176</v>
@@ -9033,13 +9031,13 @@
         <v>15</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>99</v>
@@ -9048,25 +9046,25 @@
         <v>184</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>696</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>697</v>
       </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>99</v>
@@ -9075,25 +9073,25 @@
         <v>184</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>700</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>701</v>
       </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>99</v>
@@ -9102,37 +9100,37 @@
         <v>184</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>705</v>
       </c>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>188</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>707</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>708</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>15</v>
@@ -9145,7 +9143,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>188</v>
@@ -9154,11 +9152,11 @@
         <v>184</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>711</v>
-      </c>
       <c r="F31" s="5" t="s">
         <v>15</v>
       </c>
@@ -9166,7 +9164,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I31" s="5"/>
       <c r="K31" t="str">
@@ -9176,7 +9174,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>188</v>
@@ -9185,11 +9183,11 @@
         <v>184</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>714</v>
-      </c>
       <c r="F32" s="5" t="s">
         <v>15</v>
       </c>
@@ -9197,7 +9195,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I32" s="5"/>
       <c r="K32" t="str">
@@ -9207,7 +9205,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>188</v>
@@ -9216,19 +9214,19 @@
         <v>184</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>717</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>718</v>
       </c>
       <c r="I33" s="5"/>
       <c r="K33" t="str">
@@ -9238,7 +9236,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>188</v>
@@ -9247,11 +9245,11 @@
         <v>184</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>721</v>
-      </c>
       <c r="F34" s="5" t="s">
         <v>15</v>
       </c>
@@ -9259,7 +9257,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I34" s="5"/>
       <c r="K34" t="str">
@@ -9269,7 +9267,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>188</v>
@@ -9278,11 +9276,11 @@
         <v>184</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>724</v>
-      </c>
       <c r="F35" s="5" t="s">
         <v>15</v>
       </c>
@@ -9290,7 +9288,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I35" s="5"/>
       <c r="K35" t="str">
@@ -9300,7 +9298,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>188</v>
@@ -9309,11 +9307,11 @@
         <v>184</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>727</v>
-      </c>
       <c r="F36" s="5" t="s">
         <v>15</v>
       </c>
@@ -9321,7 +9319,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I36" s="5"/>
       <c r="K36" t="str">
@@ -9331,7 +9329,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>188</v>
@@ -9340,19 +9338,19 @@
         <v>184</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>730</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>731</v>
       </c>
       <c r="I37" s="5"/>
       <c r="K37" t="str">
@@ -9362,7 +9360,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>188</v>
@@ -9371,11 +9369,11 @@
         <v>184</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>734</v>
-      </c>
       <c r="F38" s="5" t="s">
         <v>15</v>
       </c>
@@ -9383,7 +9381,7 @@
         <v>15</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I38" s="5"/>
       <c r="K38" t="str">
@@ -9393,7 +9391,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>188</v>
@@ -9402,11 +9400,11 @@
         <v>184</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>737</v>
-      </c>
       <c r="F39" s="5" t="s">
         <v>15</v>
       </c>
@@ -9414,7 +9412,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I39" s="5"/>
       <c r="K39" t="str">
@@ -9424,7 +9422,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>188</v>
@@ -9433,11 +9431,11 @@
         <v>184</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>740</v>
-      </c>
       <c r="F40" s="5" t="s">
         <v>15</v>
       </c>
@@ -9445,7 +9443,7 @@
         <v>15</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I40" s="5"/>
       <c r="K40" t="str">
@@ -9469,7 +9467,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
@@ -9504,7 +9502,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -9513,10 +9511,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E2" t="s">
         <v>603</v>
-      </c>
-      <c r="E2" t="s">
-        <v>604</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -9530,7 +9528,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -9539,10 +9537,10 @@
         <v>178</v>
       </c>
       <c r="D3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E3" t="s">
         <v>606</v>
-      </c>
-      <c r="E3" t="s">
-        <v>607</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -9556,19 +9554,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E4" t="s">
         <v>609</v>
-      </c>
-      <c r="E4" t="s">
-        <v>610</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -9582,7 +9580,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B5" t="s">
         <v>188</v>
@@ -9591,24 +9589,24 @@
         <v>184</v>
       </c>
       <c r="D5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" t="s">
         <v>612</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>613</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B6" t="s">
         <v>188</v>
@@ -9617,24 +9615,24 @@
         <v>184</v>
       </c>
       <c r="D6" t="s">
+        <v>615</v>
+      </c>
+      <c r="E6" t="s">
         <v>616</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>617</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B7" t="s">
         <v>188</v>
@@ -9643,24 +9641,24 @@
         <v>184</v>
       </c>
       <c r="D7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E7" t="s">
         <v>620</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>621</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B8" t="s">
         <v>188</v>
@@ -9669,36 +9667,36 @@
         <v>173</v>
       </c>
       <c r="D8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E8" t="s">
         <v>624</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>625</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
+        <v>627</v>
+      </c>
+      <c r="E9" t="s">
         <v>628</v>
-      </c>
-      <c r="E9" t="s">
-        <v>629</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -9712,7 +9710,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B10" t="s">
         <v>188</v>
@@ -9721,24 +9719,24 @@
         <v>184</v>
       </c>
       <c r="D10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E10" t="s">
         <v>631</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>632</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B11" t="s">
         <v>188</v>
@@ -9747,24 +9745,24 @@
         <v>184</v>
       </c>
       <c r="D11" t="s">
+        <v>634</v>
+      </c>
+      <c r="E11" t="s">
         <v>635</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
         <v>636</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B12" t="s">
         <v>188</v>
@@ -9773,24 +9771,24 @@
         <v>184</v>
       </c>
       <c r="D12" t="s">
+        <v>638</v>
+      </c>
+      <c r="E12" t="s">
         <v>639</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>640</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B13" t="s">
         <v>188</v>
@@ -9799,11 +9797,11 @@
         <v>173</v>
       </c>
       <c r="D13" t="s">
+        <v>642</v>
+      </c>
+      <c r="E13" t="s">
         <v>643</v>
       </c>
-      <c r="E13" t="s">
-        <v>644</v>
-      </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
@@ -9811,24 +9809,24 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" t="s">
+        <v>646</v>
+      </c>
+      <c r="E14" t="s">
         <v>647</v>
-      </c>
-      <c r="E14" t="s">
-        <v>648</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -9842,7 +9840,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B15" t="s">
         <v>188</v>
@@ -9851,24 +9849,24 @@
         <v>184</v>
       </c>
       <c r="D15" t="s">
+        <v>649</v>
+      </c>
+      <c r="E15" t="s">
         <v>650</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
         <v>651</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B16" t="s">
         <v>188</v>
@@ -9877,24 +9875,24 @@
         <v>184</v>
       </c>
       <c r="D16" t="s">
+        <v>653</v>
+      </c>
+      <c r="E16" t="s">
         <v>654</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
         <v>655</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B17" t="s">
         <v>188</v>
@@ -9903,24 +9901,24 @@
         <v>184</v>
       </c>
       <c r="D17" t="s">
+        <v>657</v>
+      </c>
+      <c r="E17" t="s">
         <v>658</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
         <v>659</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B18" t="s">
         <v>188</v>
@@ -9929,24 +9927,24 @@
         <v>173</v>
       </c>
       <c r="D18" t="s">
+        <v>661</v>
+      </c>
+      <c r="E18" t="s">
         <v>662</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
         <v>663</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B19" t="s">
         <v>99</v>
@@ -9955,10 +9953,10 @@
         <v>173</v>
       </c>
       <c r="D19" t="s">
+        <v>743</v>
+      </c>
+      <c r="E19" t="s">
         <v>744</v>
-      </c>
-      <c r="E19" t="s">
-        <v>745</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -9967,12 +9965,12 @@
         <v>176</v>
       </c>
       <c r="H19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B20" t="s">
         <v>99</v>
@@ -9981,10 +9979,10 @@
         <v>173</v>
       </c>
       <c r="D20" t="s">
+        <v>747</v>
+      </c>
+      <c r="E20" t="s">
         <v>748</v>
-      </c>
-      <c r="E20" t="s">
-        <v>749</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9993,12 +9991,12 @@
         <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
@@ -10007,10 +10005,10 @@
         <v>173</v>
       </c>
       <c r="D21" t="s">
+        <v>751</v>
+      </c>
+      <c r="E21" t="s">
         <v>752</v>
-      </c>
-      <c r="E21" t="s">
-        <v>753</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -10019,12 +10017,12 @@
         <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B22" t="s">
         <v>99</v>
@@ -10033,10 +10031,10 @@
         <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -10045,12 +10043,12 @@
         <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
@@ -10059,10 +10057,10 @@
         <v>184</v>
       </c>
       <c r="D23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E23" t="s">
         <v>756</v>
-      </c>
-      <c r="E23" t="s">
-        <v>757</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -10071,12 +10069,12 @@
         <v>176</v>
       </c>
       <c r="H23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B24" t="s">
         <v>99</v>
@@ -10085,10 +10083,10 @@
         <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E24" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -10097,12 +10095,12 @@
         <v>176</v>
       </c>
       <c r="H24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B25" t="s">
         <v>99</v>
@@ -10111,10 +10109,10 @@
         <v>184</v>
       </c>
       <c r="D25" t="s">
+        <v>682</v>
+      </c>
+      <c r="E25" t="s">
         <v>683</v>
-      </c>
-      <c r="E25" t="s">
-        <v>684</v>
       </c>
       <c r="F25" t="s">
         <v>176</v>
@@ -10123,24 +10121,24 @@
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B26" t="s">
         <v>188</v>
       </c>
       <c r="C26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D26" t="s">
+        <v>686</v>
+      </c>
+      <c r="E26" t="s">
         <v>687</v>
-      </c>
-      <c r="E26" t="s">
-        <v>688</v>
       </c>
       <c r="F26" t="s">
         <v>176</v>
@@ -10149,12 +10147,12 @@
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B27" t="s">
         <v>99</v>
@@ -10163,10 +10161,10 @@
         <v>184</v>
       </c>
       <c r="D27" t="s">
+        <v>690</v>
+      </c>
+      <c r="E27" t="s">
         <v>691</v>
-      </c>
-      <c r="E27" t="s">
-        <v>692</v>
       </c>
       <c r="F27" t="s">
         <v>176</v>
@@ -10175,12 +10173,12 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B28" t="s">
         <v>99</v>
@@ -10189,24 +10187,24 @@
         <v>184</v>
       </c>
       <c r="D28" t="s">
+        <v>694</v>
+      </c>
+      <c r="E28" t="s">
         <v>695</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
         <v>696</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B29" t="s">
         <v>99</v>
@@ -10215,24 +10213,24 @@
         <v>184</v>
       </c>
       <c r="D29" t="s">
+        <v>698</v>
+      </c>
+      <c r="E29" t="s">
         <v>699</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
         <v>700</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B30" t="s">
         <v>99</v>
@@ -10241,36 +10239,36 @@
         <v>184</v>
       </c>
       <c r="D30" t="s">
+        <v>702</v>
+      </c>
+      <c r="E30" t="s">
         <v>703</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
         <v>704</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>188</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D31" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>707</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>708</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>15</v>
@@ -10283,7 +10281,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B32" t="s">
         <v>188</v>
@@ -10292,11 +10290,11 @@
         <v>184</v>
       </c>
       <c r="D32" t="s">
+        <v>709</v>
+      </c>
+      <c r="E32" t="s">
         <v>710</v>
       </c>
-      <c r="E32" t="s">
-        <v>711</v>
-      </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
@@ -10304,12 +10302,12 @@
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B33" t="s">
         <v>188</v>
@@ -10318,11 +10316,11 @@
         <v>184</v>
       </c>
       <c r="D33" t="s">
+        <v>712</v>
+      </c>
+      <c r="E33" t="s">
         <v>713</v>
       </c>
-      <c r="E33" t="s">
-        <v>714</v>
-      </c>
       <c r="F33" t="s">
         <v>15</v>
       </c>
@@ -10330,12 +10328,12 @@
         <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B34" t="s">
         <v>188</v>
@@ -10344,10 +10342,10 @@
         <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
@@ -10356,12 +10354,12 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B35" t="s">
         <v>188</v>
@@ -10370,11 +10368,11 @@
         <v>184</v>
       </c>
       <c r="D35" t="s">
+        <v>719</v>
+      </c>
+      <c r="E35" t="s">
         <v>720</v>
       </c>
-      <c r="E35" t="s">
-        <v>721</v>
-      </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
@@ -10382,12 +10380,12 @@
         <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B36" t="s">
         <v>188</v>
@@ -10396,11 +10394,11 @@
         <v>184</v>
       </c>
       <c r="D36" t="s">
+        <v>722</v>
+      </c>
+      <c r="E36" t="s">
         <v>723</v>
       </c>
-      <c r="E36" t="s">
-        <v>724</v>
-      </c>
       <c r="F36" t="s">
         <v>15</v>
       </c>
@@ -10408,12 +10406,12 @@
         <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B37" t="s">
         <v>188</v>
@@ -10422,11 +10420,11 @@
         <v>184</v>
       </c>
       <c r="D37" t="s">
+        <v>725</v>
+      </c>
+      <c r="E37" t="s">
         <v>726</v>
       </c>
-      <c r="E37" t="s">
-        <v>727</v>
-      </c>
       <c r="F37" t="s">
         <v>15</v>
       </c>
@@ -10434,12 +10432,12 @@
         <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B38" t="s">
         <v>188</v>
@@ -10448,24 +10446,24 @@
         <v>184</v>
       </c>
       <c r="D38" t="s">
+        <v>728</v>
+      </c>
+      <c r="E38" t="s">
         <v>729</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
         <v>730</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B39" t="s">
         <v>188</v>
@@ -10474,11 +10472,11 @@
         <v>184</v>
       </c>
       <c r="D39" t="s">
+        <v>732</v>
+      </c>
+      <c r="E39" t="s">
         <v>733</v>
       </c>
-      <c r="E39" t="s">
-        <v>734</v>
-      </c>
       <c r="F39" t="s">
         <v>15</v>
       </c>
@@ -10486,12 +10484,12 @@
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B40" t="s">
         <v>188</v>
@@ -10500,11 +10498,11 @@
         <v>184</v>
       </c>
       <c r="D40" t="s">
+        <v>735</v>
+      </c>
+      <c r="E40" t="s">
         <v>736</v>
       </c>
-      <c r="E40" t="s">
-        <v>737</v>
-      </c>
       <c r="F40" t="s">
         <v>15</v>
       </c>
@@ -10512,12 +10510,12 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B41" t="s">
         <v>188</v>
@@ -10526,11 +10524,11 @@
         <v>184</v>
       </c>
       <c r="D41" t="s">
+        <v>738</v>
+      </c>
+      <c r="E41" t="s">
         <v>739</v>
       </c>
-      <c r="E41" t="s">
-        <v>740</v>
-      </c>
       <c r="F41" t="s">
         <v>15</v>
       </c>
@@ -10538,7 +10536,7 @@
         <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -10555,7 +10553,7 @@
       <selection activeCell="A2" sqref="A2:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -10891,7 +10889,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
@@ -10926,7 +10924,7 @@
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -10935,10 +10933,10 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
+        <v>762</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>764</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -10952,7 +10950,7 @@
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -10961,50 +10959,50 @@
         <v>184</v>
       </c>
       <c r="D3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>684</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B4" t="s">
         <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
+        <v>686</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>688</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -11013,24 +11011,24 @@
         <v>184</v>
       </c>
       <c r="D5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>692</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
@@ -11039,24 +11037,24 @@
         <v>184</v>
       </c>
       <c r="D6" t="s">
+        <v>694</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>696</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B7" t="s">
         <v>99</v>
@@ -11065,24 +11063,24 @@
         <v>184</v>
       </c>
       <c r="D7" t="s">
+        <v>698</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>700</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B8" t="s">
         <v>99</v>
@@ -11091,36 +11089,36 @@
         <v>184</v>
       </c>
       <c r="D8" t="s">
+        <v>702</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>704</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>188</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D9" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>707</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>708</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>15</v>
@@ -11133,7 +11131,7 @@
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B10" t="s">
         <v>188</v>
@@ -11142,11 +11140,11 @@
         <v>184</v>
       </c>
       <c r="D10" t="s">
+        <v>709</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>711</v>
-      </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
@@ -11154,12 +11152,12 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B11" t="s">
         <v>188</v>
@@ -11168,11 +11166,11 @@
         <v>184</v>
       </c>
       <c r="D11" t="s">
+        <v>712</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>714</v>
-      </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
@@ -11180,12 +11178,12 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B12" t="s">
         <v>188</v>
@@ -11194,10 +11192,10 @@
         <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -11206,12 +11204,12 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B13" t="s">
         <v>188</v>
@@ -11220,11 +11218,11 @@
         <v>184</v>
       </c>
       <c r="D13" t="s">
+        <v>719</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>721</v>
-      </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
@@ -11232,12 +11230,12 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B14" t="s">
         <v>188</v>
@@ -11246,11 +11244,11 @@
         <v>184</v>
       </c>
       <c r="D14" t="s">
+        <v>722</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>724</v>
-      </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
@@ -11258,12 +11256,12 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B15" t="s">
         <v>188</v>
@@ -11272,11 +11270,11 @@
         <v>184</v>
       </c>
       <c r="D15" t="s">
+        <v>725</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>727</v>
-      </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
@@ -11284,12 +11282,12 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B16" t="s">
         <v>188</v>
@@ -11298,24 +11296,24 @@
         <v>184</v>
       </c>
       <c r="D16" t="s">
+        <v>728</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
         <v>730</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B17" t="s">
         <v>188</v>
@@ -11324,11 +11322,11 @@
         <v>184</v>
       </c>
       <c r="D17" t="s">
+        <v>732</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>734</v>
-      </c>
       <c r="F17" t="s">
         <v>15</v>
       </c>
@@ -11336,12 +11334,12 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B18" t="s">
         <v>188</v>
@@ -11350,11 +11348,11 @@
         <v>184</v>
       </c>
       <c r="D18" t="s">
+        <v>735</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>737</v>
-      </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
@@ -11362,7 +11360,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -11381,7 +11379,7 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
@@ -11416,7 +11414,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -11425,10 +11423,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
         <v>500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>501</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -11442,7 +11440,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -11451,10 +11449,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E3" t="s">
         <v>763</v>
-      </c>
-      <c r="E3" t="s">
-        <v>764</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -11468,7 +11466,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B4" t="s">
         <v>188</v>
@@ -11477,10 +11475,10 @@
         <v>184</v>
       </c>
       <c r="D4" t="s">
+        <v>765</v>
+      </c>
+      <c r="E4" t="s">
         <v>766</v>
-      </c>
-      <c r="E4" t="s">
-        <v>767</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -11489,12 +11487,12 @@
         <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B5" t="s">
         <v>188</v>
@@ -11503,10 +11501,10 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
+        <v>769</v>
+      </c>
+      <c r="E5" t="s">
         <v>770</v>
-      </c>
-      <c r="E5" t="s">
-        <v>771</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -11520,7 +11518,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B6" t="s">
         <v>188</v>
@@ -11529,10 +11527,10 @@
         <v>184</v>
       </c>
       <c r="D6" t="s">
+        <v>772</v>
+      </c>
+      <c r="E6" t="s">
         <v>773</v>
-      </c>
-      <c r="E6" t="s">
-        <v>774</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -11541,12 +11539,12 @@
         <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B7" t="s">
         <v>188</v>
@@ -11555,10 +11553,10 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
+        <v>776</v>
+      </c>
+      <c r="E7" t="s">
         <v>777</v>
-      </c>
-      <c r="E7" t="s">
-        <v>778</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -11572,7 +11570,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B8" t="s">
         <v>188</v>
@@ -11581,10 +11579,10 @@
         <v>184</v>
       </c>
       <c r="D8" t="s">
+        <v>779</v>
+      </c>
+      <c r="E8" t="s">
         <v>780</v>
-      </c>
-      <c r="E8" t="s">
-        <v>781</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -11593,12 +11591,12 @@
         <v>176</v>
       </c>
       <c r="H8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B9" t="s">
         <v>188</v>
@@ -11607,10 +11605,10 @@
         <v>104</v>
       </c>
       <c r="D9" t="s">
+        <v>783</v>
+      </c>
+      <c r="E9" t="s">
         <v>784</v>
-      </c>
-      <c r="E9" t="s">
-        <v>785</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -11624,7 +11622,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B10" t="s">
         <v>188</v>
@@ -11633,10 +11631,10 @@
         <v>184</v>
       </c>
       <c r="D10" t="s">
+        <v>786</v>
+      </c>
+      <c r="E10" t="s">
         <v>787</v>
-      </c>
-      <c r="E10" t="s">
-        <v>788</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -11645,12 +11643,12 @@
         <v>176</v>
       </c>
       <c r="H10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B11" t="s">
         <v>188</v>
@@ -11659,10 +11657,10 @@
         <v>104</v>
       </c>
       <c r="D11" t="s">
+        <v>790</v>
+      </c>
+      <c r="E11" t="s">
         <v>791</v>
-      </c>
-      <c r="E11" t="s">
-        <v>792</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -11676,7 +11674,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B12" t="s">
         <v>188</v>
@@ -11685,10 +11683,10 @@
         <v>184</v>
       </c>
       <c r="D12" t="s">
+        <v>793</v>
+      </c>
+      <c r="E12" t="s">
         <v>794</v>
-      </c>
-      <c r="E12" t="s">
-        <v>795</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -11697,12 +11695,12 @@
         <v>176</v>
       </c>
       <c r="H12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B13" t="s">
         <v>188</v>
@@ -11711,10 +11709,10 @@
         <v>104</v>
       </c>
       <c r="D13" t="s">
+        <v>797</v>
+      </c>
+      <c r="E13" t="s">
         <v>798</v>
-      </c>
-      <c r="E13" t="s">
-        <v>799</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -11728,7 +11726,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B14" t="s">
         <v>188</v>
@@ -11737,10 +11735,10 @@
         <v>184</v>
       </c>
       <c r="D14" t="s">
+        <v>800</v>
+      </c>
+      <c r="E14" t="s">
         <v>801</v>
-      </c>
-      <c r="E14" t="s">
-        <v>802</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -11749,12 +11747,12 @@
         <v>176</v>
       </c>
       <c r="H14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B15" t="s">
         <v>188</v>
@@ -11763,10 +11761,10 @@
         <v>104</v>
       </c>
       <c r="D15" t="s">
+        <v>804</v>
+      </c>
+      <c r="E15" t="s">
         <v>805</v>
-      </c>
-      <c r="E15" t="s">
-        <v>806</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -11780,7 +11778,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B16" t="s">
         <v>188</v>
@@ -11789,10 +11787,10 @@
         <v>184</v>
       </c>
       <c r="D16" t="s">
+        <v>807</v>
+      </c>
+      <c r="E16" t="s">
         <v>808</v>
-      </c>
-      <c r="E16" t="s">
-        <v>809</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -11801,12 +11799,12 @@
         <v>176</v>
       </c>
       <c r="H16" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B17" t="s">
         <v>188</v>
@@ -11815,10 +11813,10 @@
         <v>104</v>
       </c>
       <c r="D17" t="s">
+        <v>811</v>
+      </c>
+      <c r="E17" t="s">
         <v>812</v>
-      </c>
-      <c r="E17" t="s">
-        <v>813</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -11846,7 +11844,7 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
@@ -11881,7 +11879,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -11890,10 +11888,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
         <v>500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>501</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -11907,7 +11905,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -11916,10 +11914,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -11933,7 +11931,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -11942,10 +11940,10 @@
         <v>178</v>
       </c>
       <c r="D4" t="s">
+        <v>814</v>
+      </c>
+      <c r="E4" t="s">
         <v>815</v>
-      </c>
-      <c r="E4" t="s">
-        <v>816</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -11959,7 +11957,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -11968,24 +11966,24 @@
         <v>173</v>
       </c>
       <c r="D5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E5" t="s">
         <v>818</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>819</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B6" t="s">
         <v>188</v>
@@ -11994,10 +11992,10 @@
         <v>173</v>
       </c>
       <c r="D6" t="s">
+        <v>821</v>
+      </c>
+      <c r="E6" t="s">
         <v>822</v>
-      </c>
-      <c r="E6" t="s">
-        <v>823</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -12006,12 +12004,12 @@
         <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B7" t="s">
         <v>188</v>
@@ -12020,10 +12018,10 @@
         <v>173</v>
       </c>
       <c r="D7" t="s">
+        <v>824</v>
+      </c>
+      <c r="E7" t="s">
         <v>825</v>
-      </c>
-      <c r="E7" t="s">
-        <v>826</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -12032,12 +12030,12 @@
         <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B8" t="s">
         <v>188</v>
@@ -12046,10 +12044,10 @@
         <v>173</v>
       </c>
       <c r="D8" t="s">
+        <v>828</v>
+      </c>
+      <c r="E8" t="s">
         <v>829</v>
-      </c>
-      <c r="E8" t="s">
-        <v>830</v>
       </c>
       <c r="F8" t="s">
         <v>176</v>
@@ -12058,12 +12056,12 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -12072,10 +12070,10 @@
         <v>104</v>
       </c>
       <c r="D9" t="s">
+        <v>832</v>
+      </c>
+      <c r="E9" t="s">
         <v>833</v>
-      </c>
-      <c r="E9" t="s">
-        <v>834</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -12089,7 +12087,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -12098,10 +12096,10 @@
         <v>104</v>
       </c>
       <c r="D10" t="s">
+        <v>835</v>
+      </c>
+      <c r="E10" t="s">
         <v>836</v>
-      </c>
-      <c r="E10" t="s">
-        <v>837</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -12115,7 +12113,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B11" t="s">
         <v>188</v>
@@ -12124,10 +12122,10 @@
         <v>181</v>
       </c>
       <c r="D11" t="s">
+        <v>838</v>
+      </c>
+      <c r="E11" t="s">
         <v>839</v>
-      </c>
-      <c r="E11" t="s">
-        <v>840</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -12141,7 +12139,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B12" t="s">
         <v>188</v>
@@ -12150,24 +12148,24 @@
         <v>173</v>
       </c>
       <c r="D12" t="s">
+        <v>841</v>
+      </c>
+      <c r="E12" t="s">
         <v>842</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>843</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B13" t="s">
         <v>99</v>
@@ -12176,10 +12174,10 @@
         <v>104</v>
       </c>
       <c r="D13" t="s">
+        <v>845</v>
+      </c>
+      <c r="E13" t="s">
         <v>846</v>
-      </c>
-      <c r="E13" t="s">
-        <v>847</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -12193,7 +12191,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -12202,10 +12200,10 @@
         <v>104</v>
       </c>
       <c r="D14" t="s">
+        <v>848</v>
+      </c>
+      <c r="E14" t="s">
         <v>849</v>
-      </c>
-      <c r="E14" t="s">
-        <v>850</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -12219,7 +12217,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
@@ -12228,24 +12226,24 @@
         <v>173</v>
       </c>
       <c r="D15" t="s">
+        <v>851</v>
+      </c>
+      <c r="E15" t="s">
         <v>852</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
         <v>853</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B16" t="s">
         <v>99</v>
@@ -12254,19 +12252,19 @@
         <v>173</v>
       </c>
       <c r="D16" t="s">
+        <v>855</v>
+      </c>
+      <c r="E16" t="s">
         <v>856</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
         <v>857</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -12285,7 +12283,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.109375" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
@@ -12321,7 +12319,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -12330,10 +12328,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
         <v>500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>501</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -12347,7 +12345,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -12356,10 +12354,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -12373,7 +12371,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -12382,10 +12380,10 @@
         <v>178</v>
       </c>
       <c r="D4" t="s">
+        <v>859</v>
+      </c>
+      <c r="E4" t="s">
         <v>860</v>
-      </c>
-      <c r="E4" t="s">
-        <v>861</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -12399,7 +12397,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -12408,11 +12406,11 @@
         <v>173</v>
       </c>
       <c r="D5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E5" t="s">
         <v>862</v>
       </c>
-      <c r="E5" t="s">
-        <v>863</v>
-      </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
@@ -12420,12 +12418,12 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>188</v>
@@ -12434,24 +12432,24 @@
         <v>173</v>
       </c>
       <c r="D6" s="26" t="s">
+        <v>863</v>
+      </c>
+      <c r="E6" t="s">
         <v>864</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>865</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B7" t="s">
         <v>99</v>
@@ -12460,10 +12458,10 @@
         <v>173</v>
       </c>
       <c r="D7" t="s">
+        <v>867</v>
+      </c>
+      <c r="E7" t="s">
         <v>868</v>
-      </c>
-      <c r="E7" t="s">
-        <v>869</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -12472,12 +12470,12 @@
         <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B8" t="s">
         <v>188</v>
@@ -12486,10 +12484,10 @@
         <v>178</v>
       </c>
       <c r="D8" t="s">
+        <v>871</v>
+      </c>
+      <c r="E8" t="s">
         <v>872</v>
-      </c>
-      <c r="E8" t="s">
-        <v>873</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -12503,7 +12501,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -12512,10 +12510,10 @@
         <v>173</v>
       </c>
       <c r="D9" t="s">
+        <v>874</v>
+      </c>
+      <c r="E9" t="s">
         <v>875</v>
-      </c>
-      <c r="E9" t="s">
-        <v>876</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -12524,12 +12522,12 @@
         <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -12538,10 +12536,10 @@
         <v>181</v>
       </c>
       <c r="D10" t="s">
+        <v>878</v>
+      </c>
+      <c r="E10" t="s">
         <v>879</v>
-      </c>
-      <c r="E10" t="s">
-        <v>880</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -12555,7 +12553,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B11" t="s">
         <v>188</v>
@@ -12564,10 +12562,10 @@
         <v>181</v>
       </c>
       <c r="D11" t="s">
+        <v>881</v>
+      </c>
+      <c r="E11" t="s">
         <v>882</v>
-      </c>
-      <c r="E11" t="s">
-        <v>883</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -12576,12 +12574,12 @@
         <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
@@ -12590,10 +12588,10 @@
         <v>181</v>
       </c>
       <c r="D12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E12" t="s">
         <v>886</v>
-      </c>
-      <c r="E12" t="s">
-        <v>887</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -12607,7 +12605,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B13" t="s">
         <v>188</v>
@@ -12616,10 +12614,10 @@
         <v>184</v>
       </c>
       <c r="D13" t="s">
+        <v>888</v>
+      </c>
+      <c r="E13" t="s">
         <v>889</v>
-      </c>
-      <c r="E13" t="s">
-        <v>890</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -12628,12 +12626,12 @@
         <v>176</v>
       </c>
       <c r="H13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B14" t="s">
         <v>188</v>
@@ -12642,10 +12640,10 @@
         <v>184</v>
       </c>
       <c r="D14" t="s">
+        <v>892</v>
+      </c>
+      <c r="E14" t="s">
         <v>893</v>
-      </c>
-      <c r="E14" t="s">
-        <v>894</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -12654,12 +12652,12 @@
         <v>176</v>
       </c>
       <c r="H14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B15" s="68" t="s">
         <v>188</v>
@@ -12668,10 +12666,10 @@
         <v>184</v>
       </c>
       <c r="D15" s="68" t="s">
+        <v>896</v>
+      </c>
+      <c r="E15" t="s">
         <v>897</v>
-      </c>
-      <c r="E15" t="s">
-        <v>898</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -12680,12 +12678,12 @@
         <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B16" s="68" t="s">
         <v>188</v>
@@ -12694,10 +12692,10 @@
         <v>173</v>
       </c>
       <c r="D16" s="68" t="s">
+        <v>900</v>
+      </c>
+      <c r="E16" t="s">
         <v>901</v>
-      </c>
-      <c r="E16" t="s">
-        <v>902</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -12706,12 +12704,12 @@
         <v>176</v>
       </c>
       <c r="H16" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
@@ -12720,10 +12718,10 @@
         <v>104</v>
       </c>
       <c r="D17" t="s">
+        <v>904</v>
+      </c>
+      <c r="E17" t="s">
         <v>905</v>
-      </c>
-      <c r="E17" t="s">
-        <v>906</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -12737,7 +12735,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B18" t="s">
         <v>99</v>
@@ -12746,10 +12744,10 @@
         <v>104</v>
       </c>
       <c r="D18" t="s">
+        <v>907</v>
+      </c>
+      <c r="E18" t="s">
         <v>908</v>
-      </c>
-      <c r="E18" t="s">
-        <v>909</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -12763,7 +12761,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>188</v>
@@ -12772,10 +12770,10 @@
         <v>184</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -12789,7 +12787,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>188</v>
@@ -12798,10 +12796,10 @@
         <v>184</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -12815,7 +12813,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
@@ -12824,10 +12822,10 @@
         <v>184</v>
       </c>
       <c r="D21" t="s">
+        <v>914</v>
+      </c>
+      <c r="E21" t="s">
         <v>915</v>
-      </c>
-      <c r="E21" t="s">
-        <v>916</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -12841,7 +12839,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B22" t="s">
         <v>99</v>
@@ -12850,10 +12848,10 @@
         <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E22" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -12867,7 +12865,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
@@ -12876,10 +12874,10 @@
         <v>184</v>
       </c>
       <c r="D23" t="s">
+        <v>919</v>
+      </c>
+      <c r="E23" t="s">
         <v>920</v>
-      </c>
-      <c r="E23" t="s">
-        <v>921</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -12888,12 +12886,12 @@
         <v>176</v>
       </c>
       <c r="H23" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B24" t="s">
         <v>188</v>
@@ -12902,10 +12900,10 @@
         <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E24" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -12914,12 +12912,12 @@
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B25" t="s">
         <v>188</v>
@@ -12928,24 +12926,24 @@
         <v>184</v>
       </c>
       <c r="D25" t="s">
+        <v>925</v>
+      </c>
+      <c r="E25" t="s">
+        <v>920</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
         <v>926</v>
-      </c>
-      <c r="E25" t="s">
-        <v>921</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B26" t="s">
         <v>188</v>
@@ -12954,10 +12952,10 @@
         <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E26" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -12966,12 +12964,12 @@
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B27" t="s">
         <v>188</v>
@@ -12980,10 +12978,10 @@
         <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E27" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -12992,12 +12990,12 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B28" t="s">
         <v>188</v>
@@ -13006,10 +13004,10 @@
         <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E28" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
@@ -13018,12 +13016,12 @@
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B29" t="s">
         <v>99</v>
@@ -13032,24 +13030,24 @@
         <v>173</v>
       </c>
       <c r="D29" t="s">
+        <v>934</v>
+      </c>
+      <c r="E29" t="s">
         <v>935</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
         <v>936</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B30" t="s">
         <v>99</v>
@@ -13058,10 +13056,10 @@
         <v>173</v>
       </c>
       <c r="D30" t="s">
+        <v>938</v>
+      </c>
+      <c r="E30" t="s">
         <v>939</v>
-      </c>
-      <c r="E30" t="s">
-        <v>940</v>
       </c>
       <c r="F30" t="s">
         <v>176</v>
@@ -13075,7 +13073,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B31" t="s">
         <v>188</v>
@@ -13084,10 +13082,10 @@
         <v>173</v>
       </c>
       <c r="D31" t="s">
+        <v>940</v>
+      </c>
+      <c r="E31" t="s">
         <v>941</v>
-      </c>
-      <c r="E31" t="s">
-        <v>942</v>
       </c>
       <c r="F31" t="s">
         <v>176</v>
@@ -13096,7 +13094,7 @@
         <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -13115,7 +13113,7 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -13149,7 +13147,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -13158,10 +13156,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
         <v>500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>501</v>
       </c>
       <c r="F2" t="s">
         <v>176</v>
@@ -13175,7 +13173,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -13184,10 +13182,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F3" t="s">
         <v>176</v>
@@ -13201,7 +13199,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -13210,10 +13208,10 @@
         <v>178</v>
       </c>
       <c r="D4" t="s">
+        <v>943</v>
+      </c>
+      <c r="E4" t="s">
         <v>944</v>
-      </c>
-      <c r="E4" t="s">
-        <v>945</v>
       </c>
       <c r="F4" t="s">
         <v>176</v>
@@ -13227,7 +13225,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -13236,10 +13234,10 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F5" t="s">
         <v>176</v>
@@ -13253,7 +13251,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
@@ -13262,10 +13260,10 @@
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F6" t="s">
         <v>176</v>
@@ -13279,7 +13277,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B7" t="s">
         <v>188</v>
@@ -13288,10 +13286,10 @@
         <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F7" t="s">
         <v>176</v>
@@ -13300,7 +13298,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -13319,7 +13317,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -13354,7 +13352,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -13363,10 +13361,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F2" t="s">
         <v>176</v>
@@ -13380,7 +13378,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -13389,10 +13387,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F3" t="s">
         <v>176</v>
@@ -13406,7 +13404,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -13415,10 +13413,10 @@
         <v>178</v>
       </c>
       <c r="D4" t="s">
+        <v>950</v>
+      </c>
+      <c r="E4" t="s">
         <v>951</v>
-      </c>
-      <c r="E4" t="s">
-        <v>952</v>
       </c>
       <c r="F4" t="s">
         <v>176</v>
@@ -13432,7 +13430,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -13441,10 +13439,10 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F5" t="s">
         <v>176</v>
@@ -13458,7 +13456,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B6" t="s">
         <v>99</v>
@@ -13467,10 +13465,10 @@
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F6" t="s">
         <v>176</v>
@@ -13484,7 +13482,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B7" t="s">
         <v>188</v>
@@ -13493,10 +13491,10 @@
         <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F7" t="s">
         <v>176</v>
@@ -13505,7 +13503,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -13524,7 +13522,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
@@ -13559,7 +13557,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -13568,10 +13566,10 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
+        <v>953</v>
+      </c>
+      <c r="E2" t="s">
         <v>954</v>
-      </c>
-      <c r="E2" t="s">
-        <v>955</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -13585,7 +13583,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -13594,10 +13592,10 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
+        <v>956</v>
+      </c>
+      <c r="E3" t="s">
         <v>957</v>
-      </c>
-      <c r="E3" t="s">
-        <v>958</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -13611,7 +13609,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -13620,10 +13618,10 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
+        <v>959</v>
+      </c>
+      <c r="E4" t="s">
         <v>960</v>
-      </c>
-      <c r="E4" t="s">
-        <v>961</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -13637,7 +13635,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -13646,19 +13644,19 @@
         <v>173</v>
       </c>
       <c r="D5" t="s">
+        <v>962</v>
+      </c>
+      <c r="E5" t="s">
         <v>963</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>964</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -13677,7 +13675,7 @@
       <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="65.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
@@ -13712,7 +13710,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -13721,10 +13719,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
         <v>500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>501</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -13738,7 +13736,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -13747,10 +13745,10 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E3" t="s">
         <v>763</v>
-      </c>
-      <c r="E3" t="s">
-        <v>764</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -13764,7 +13762,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -13773,24 +13771,24 @@
         <v>173</v>
       </c>
       <c r="D4" t="s">
+        <v>966</v>
+      </c>
+      <c r="E4" t="s">
         <v>967</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>968</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -13799,10 +13797,10 @@
         <v>178</v>
       </c>
       <c r="D5" t="s">
+        <v>970</v>
+      </c>
+      <c r="E5" t="s">
         <v>971</v>
-      </c>
-      <c r="E5" t="s">
-        <v>972</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -13830,7 +13828,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
@@ -13865,7 +13863,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -13874,10 +13872,10 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
+        <v>973</v>
+      </c>
+      <c r="E2" t="s">
         <v>974</v>
-      </c>
-      <c r="E2" t="s">
-        <v>975</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -13891,7 +13889,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -13900,10 +13898,10 @@
         <v>173</v>
       </c>
       <c r="D3" t="s">
+        <v>976</v>
+      </c>
+      <c r="E3" t="s">
         <v>977</v>
-      </c>
-      <c r="E3" t="s">
-        <v>978</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -13917,7 +13915,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -13926,10 +13924,10 @@
         <v>104</v>
       </c>
       <c r="D4" t="s">
+        <v>979</v>
+      </c>
+      <c r="E4" t="s">
         <v>980</v>
-      </c>
-      <c r="E4" t="s">
-        <v>981</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -13943,7 +13941,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -13952,10 +13950,10 @@
         <v>173</v>
       </c>
       <c r="D5" t="s">
+        <v>982</v>
+      </c>
+      <c r="E5" t="s">
         <v>983</v>
-      </c>
-      <c r="E5" t="s">
-        <v>984</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -13964,7 +13962,7 @@
         <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -13983,7 +13981,7 @@
       <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -14089,7 +14087,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="97.44140625" customWidth="1"/>
     <col min="2" max="2" width="90.5546875" customWidth="1"/>
@@ -14259,7 +14257,7 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71.6640625" customWidth="1"/>
     <col min="2" max="2" width="90.5546875" customWidth="1"/>
@@ -14370,7 +14368,7 @@
         <v>120</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -14420,7 +14418,7 @@
         <v>120</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -14470,7 +14468,7 @@
         <v>120</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -14546,7 +14544,7 @@
         <v>116</v>
       </c>
       <c r="H11" s="82" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -14596,7 +14594,7 @@
         <v>116</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -14622,7 +14620,7 @@
         <v>116</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -14648,7 +14646,7 @@
         <v>116</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -14674,7 +14672,7 @@
         <v>116</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -14700,7 +14698,7 @@
         <v>116</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -14726,7 +14724,7 @@
         <v>120</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -14751,7 +14749,7 @@
         <v>116</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -15083,7 +15081,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
@@ -15312,7 +15310,7 @@
         <v>173</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>192</v>
@@ -15338,7 +15336,7 @@
         <v>173</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>194</v>
@@ -15364,7 +15362,7 @@
         <v>173</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>196</v>
@@ -15390,7 +15388,7 @@
         <v>173</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>198</v>
@@ -15655,7 +15653,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71.6640625" style="76" customWidth="1"/>
     <col min="2" max="2" width="90.5546875" style="76" customWidth="1"/>
@@ -15927,11 +15925,11 @@
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.88671875" customWidth="1"/>
     <col min="2" max="2" width="76.109375" customWidth="1"/>
@@ -17151,9 +17149,7 @@
       <c r="G48" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="H48" s="37" t="s">
-        <v>259</v>
-      </c>
+      <c r="H48" s="84"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="str">
@@ -17161,7 +17157,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>SubjectI4rc!A49</f>
@@ -17256,7 +17252,7 @@
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" style="14" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" style="14" customWidth="1"/>
@@ -17297,7 +17293,7 @@
     </row>
     <row r="2" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>99</v>
@@ -17306,24 +17302,24 @@
         <v>173</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="138" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>99</v>
@@ -17332,36 +17328,36 @@
         <v>173</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>15</v>
@@ -17375,7 +17371,7 @@
     </row>
     <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>99</v>
@@ -17384,24 +17380,24 @@
         <v>173</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>99</v>
@@ -17410,36 +17406,36 @@
         <v>173</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>15</v>
@@ -17453,7 +17449,7 @@
     </row>
     <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>99</v>
@@ -17462,24 +17458,24 @@
         <v>173</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>188</v>
@@ -17488,10 +17484,10 @@
         <v>181</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>15</v>
@@ -17505,19 +17501,19 @@
     </row>
     <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>293</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>15</v>
@@ -17531,19 +17527,19 @@
     </row>
     <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>15</v>
@@ -17557,7 +17553,7 @@
     </row>
     <row r="12" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>188</v>
@@ -17566,10 +17562,10 @@
         <v>184</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>300</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>15</v>
@@ -17583,7 +17579,7 @@
     </row>
     <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>188</v>
@@ -17592,10 +17588,10 @@
         <v>184</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>15</v>
@@ -17609,7 +17605,7 @@
     </row>
     <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>188</v>
@@ -17618,10 +17614,10 @@
         <v>184</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>306</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>15</v>
@@ -17635,7 +17631,7 @@
     </row>
     <row r="15" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>188</v>
@@ -17644,10 +17640,10 @@
         <v>184</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>15</v>
@@ -17661,7 +17657,7 @@
     </row>
     <row r="16" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>188</v>
@@ -17670,10 +17666,10 @@
         <v>184</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>15</v>
@@ -17687,7 +17683,7 @@
     </row>
     <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>188</v>
@@ -17696,10 +17692,10 @@
         <v>184</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>15</v>
@@ -17713,7 +17709,7 @@
     </row>
     <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>188</v>
@@ -17722,10 +17718,10 @@
         <v>184</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>317</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>318</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>15</v>
@@ -17739,7 +17735,7 @@
     </row>
     <row r="19" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>188</v>
@@ -17748,10 +17744,10 @@
         <v>184</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>15</v>
@@ -17765,7 +17761,7 @@
     </row>
     <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>188</v>
@@ -17774,10 +17770,10 @@
         <v>184</v>
       </c>
       <c r="D20" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>323</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>324</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>15</v>
@@ -17791,7 +17787,7 @@
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>188</v>
@@ -17800,10 +17796,10 @@
         <v>184</v>
       </c>
       <c r="D21" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>327</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>15</v>
@@ -17817,7 +17813,7 @@
     </row>
     <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>188</v>
@@ -17826,10 +17822,10 @@
         <v>184</v>
       </c>
       <c r="D22" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>330</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>15</v>
@@ -17843,7 +17839,7 @@
     </row>
     <row r="23" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>188</v>
@@ -17852,10 +17848,10 @@
         <v>184</v>
       </c>
       <c r="D23" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>15</v>
@@ -17869,7 +17865,7 @@
     </row>
     <row r="24" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>188</v>
@@ -17878,10 +17874,10 @@
         <v>184</v>
       </c>
       <c r="D24" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>335</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>336</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>15</v>
@@ -17895,7 +17891,7 @@
     </row>
     <row r="25" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>188</v>
@@ -17904,10 +17900,10 @@
         <v>184</v>
       </c>
       <c r="D25" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>339</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>15</v>
@@ -17921,7 +17917,7 @@
     </row>
     <row r="26" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>188</v>
@@ -17930,10 +17926,10 @@
         <v>184</v>
       </c>
       <c r="D26" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>341</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>342</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>15</v>
@@ -17947,7 +17943,7 @@
     </row>
     <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>188</v>
@@ -17956,10 +17952,10 @@
         <v>184</v>
       </c>
       <c r="D27" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>345</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>15</v>
@@ -17973,7 +17969,7 @@
     </row>
     <row r="28" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>188</v>
@@ -17982,10 +17978,10 @@
         <v>184</v>
       </c>
       <c r="D28" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>347</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>348</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>15</v>
@@ -17999,7 +17995,7 @@
     </row>
     <row r="29" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>188</v>
@@ -18008,10 +18004,10 @@
         <v>184</v>
       </c>
       <c r="D29" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>351</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>15</v>
@@ -18025,7 +18021,7 @@
     </row>
     <row r="30" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>188</v>
@@ -18034,10 +18030,10 @@
         <v>184</v>
       </c>
       <c r="D30" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>354</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>15</v>
@@ -18051,7 +18047,7 @@
     </row>
     <row r="31" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>188</v>
@@ -18060,10 +18056,10 @@
         <v>184</v>
       </c>
       <c r="D31" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>356</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>357</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>15</v>
@@ -18077,19 +18073,19 @@
     </row>
     <row r="32" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D32" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>360</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>15</v>
@@ -18103,7 +18099,7 @@
     </row>
     <row r="33" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>188</v>
@@ -18112,10 +18108,10 @@
         <v>173</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>15</v>
@@ -18124,24 +18120,24 @@
         <v>176</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D34" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>365</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>366</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>15</v>
@@ -18155,7 +18151,7 @@
     </row>
     <row r="35" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>188</v>
@@ -18164,10 +18160,10 @@
         <v>173</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>15</v>
@@ -18176,12 +18172,12 @@
         <v>176</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>99</v>
@@ -18190,10 +18186,10 @@
         <v>184</v>
       </c>
       <c r="D36" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>371</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>372</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>176</v>
@@ -18202,12 +18198,12 @@
         <v>15</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>99</v>
@@ -18216,10 +18212,10 @@
         <v>184</v>
       </c>
       <c r="D37" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>376</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>176</v>
@@ -18228,12 +18224,12 @@
         <v>15</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>99</v>
@@ -18242,10 +18238,10 @@
         <v>184</v>
       </c>
       <c r="D38" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>380</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>176</v>
@@ -18254,12 +18250,12 @@
         <v>15</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>99</v>
@@ -18268,10 +18264,10 @@
         <v>184</v>
       </c>
       <c r="D39" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>384</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>176</v>
@@ -18280,12 +18276,12 @@
         <v>15</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>99</v>
@@ -18294,10 +18290,10 @@
         <v>184</v>
       </c>
       <c r="D40" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>388</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>176</v>
@@ -18306,12 +18302,12 @@
         <v>15</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>99</v>
@@ -18320,10 +18316,10 @@
         <v>184</v>
       </c>
       <c r="D41" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>391</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>392</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>176</v>
@@ -18332,12 +18328,12 @@
         <v>15</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>99</v>
@@ -18346,10 +18342,10 @@
         <v>184</v>
       </c>
       <c r="D42" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>395</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>396</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>176</v>
@@ -18358,12 +18354,12 @@
         <v>15</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>99</v>
@@ -18372,10 +18368,10 @@
         <v>184</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>399</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>400</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>176</v>
@@ -18384,12 +18380,12 @@
         <v>15</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>99</v>
@@ -18398,10 +18394,10 @@
         <v>184</v>
       </c>
       <c r="D44" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>404</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>176</v>
@@ -18410,12 +18406,12 @@
         <v>15</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>99</v>
@@ -18424,10 +18420,10 @@
         <v>184</v>
       </c>
       <c r="D45" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>407</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>408</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>176</v>
@@ -18436,12 +18432,12 @@
         <v>15</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>99</v>
@@ -18450,10 +18446,10 @@
         <v>184</v>
       </c>
       <c r="D46" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>412</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>176</v>
@@ -18462,12 +18458,12 @@
         <v>15</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>99</v>
@@ -18476,10 +18472,10 @@
         <v>173</v>
       </c>
       <c r="D47" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>415</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>416</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>176</v>
@@ -18488,12 +18484,12 @@
         <v>15</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B48" s="33" t="s">
         <v>188</v>
@@ -18502,24 +18498,24 @@
         <v>173</v>
       </c>
       <c r="D48" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="E48" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="F48" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="14" t="s">
         <v>420</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>188</v>
@@ -18528,10 +18524,10 @@
         <v>173</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>176</v>
@@ -18540,7 +18536,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roberta\HL7EU\IDEA4RC\idea4rc-master\idea4rc\src-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29551ABE-FB5B-4AA2-9431-36A43F3F9B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF4A304-96E8-4C25-A567-51195BD7041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3810" yWindow="5535" windowWidth="17280" windowHeight="8925" firstSheet="27" activeTab="29" xr2:uid="{DBDA221E-EFE5-4A34-8B86-7FDF16AB25A8}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" xr2:uid="{43738EE6-1F47-48FB-BC61-06D4EB0CC4BE}"/>
+    <workbookView minimized="1" xWindow="-3105" yWindow="4200" windowWidth="21600" windowHeight="11235" firstSheet="27" activeTab="28" xr2:uid="{DBDA221E-EFE5-4A34-8B86-7FDF16AB25A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="25" activeTab="29" xr2:uid="{43738EE6-1F47-48FB-BC61-06D4EB0CC4BE}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="15" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="1175">
   <si>
     <t>Instance</t>
   </si>
@@ -4585,6 +4585,18 @@
   </si>
   <si>
     <t>AdverseEvent.detected</t>
+  </si>
+  <si>
+    <t>otherTreatmentSite</t>
+  </si>
+  <si>
+    <t>Other Treatment Site (O)</t>
+  </si>
+  <si>
+    <t>Specific treatment side by code for Sarcoma</t>
+  </si>
+  <si>
+    <t>Any code either from ICDO Topography or CancerModifier Topography in Athena</t>
   </si>
 </sst>
 </file>
@@ -5608,7 +5620,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="1">
+    <sheetView topLeftCell="A7" workbookViewId="1">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -11424,11 +11436,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11438,7 +11450,7 @@
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -11464,7 +11476,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>417</v>
       </c>
@@ -11490,7 +11502,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>523</v>
       </c>
@@ -11516,307 +11528,307 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>526</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>659</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>258</v>
+      <c r="C4" t="s">
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>527</v>
+        <v>660</v>
       </c>
       <c r="E4" t="s">
-        <v>528</v>
+        <v>661</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>529</v>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>663</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E5" t="s">
+        <v>665</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>668</v>
+      </c>
+      <c r="E6" t="s">
+        <v>669</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
         <v>175</v>
       </c>
-      <c r="D5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E5" t="s">
-        <v>531</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" t="s">
-        <v>534</v>
-      </c>
-      <c r="E6" t="s">
-        <v>535</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s">
-        <v>538</v>
-      </c>
-      <c r="E7" t="s">
-        <v>539</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" t="s">
-        <v>167</v>
-      </c>
       <c r="D8" t="s">
-        <v>542</v>
+        <v>672</v>
       </c>
       <c r="E8" t="s">
-        <v>543</v>
+        <v>673</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>545</v>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>675</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>258</v>
+      <c r="C9" t="s">
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>546</v>
+        <v>676</v>
       </c>
       <c r="E9" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>548</v>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>600</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="E10" t="s">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>552</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>604</v>
       </c>
       <c r="B11" t="s">
         <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="E11" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>556</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>608</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="E12" t="s">
-        <v>558</v>
+        <v>610</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>560</v>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>612</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>561</v>
+        <v>613</v>
       </c>
       <c r="E13" t="s">
-        <v>562</v>
+        <v>614</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>564</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>616</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>258</v>
+      <c r="C14" t="s">
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="E14" t="s">
-        <v>566</v>
+        <v>618</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>567</v>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>620</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>568</v>
+        <v>621</v>
       </c>
       <c r="E15" t="s">
-        <v>569</v>
+        <v>622</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -11825,38 +11837,37 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="B16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" t="s">
-        <v>572</v>
-      </c>
-      <c r="E16" t="s">
-        <v>573</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>575</v>
+        <v>627</v>
       </c>
       <c r="B17" t="s">
         <v>178</v>
@@ -11865,10 +11876,10 @@
         <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>576</v>
+        <v>628</v>
       </c>
       <c r="E17" t="s">
-        <v>577</v>
+        <v>629</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -11877,24 +11888,24 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="B18" t="s">
         <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="E18" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -11903,603 +11914,214 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>659</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>633</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="E19" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>663</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>637</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="E20" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>667</v>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>640</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="E21" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>446</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>644</v>
       </c>
       <c r="E22" t="s">
-        <v>595</v>
+        <v>645</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>671</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
         <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="E23" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>675</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>650</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="E24" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>600</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>653</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>601</v>
+        <v>654</v>
       </c>
       <c r="E25" t="s">
-        <v>602</v>
+        <v>655</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>604</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>656</v>
       </c>
       <c r="B26" t="s">
         <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>605</v>
+        <v>657</v>
       </c>
       <c r="E26" t="s">
-        <v>606</v>
+        <v>658</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" t="s">
-        <v>609</v>
-      </c>
-      <c r="E27" t="s">
-        <v>610</v>
-      </c>
-      <c r="F27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>612</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" t="s">
-        <v>613</v>
-      </c>
-      <c r="E28" t="s">
-        <v>614</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>616</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" t="s">
-        <v>617</v>
-      </c>
-      <c r="E29" t="s">
-        <v>618</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>620</v>
-      </c>
-      <c r="B30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" t="s">
-        <v>621</v>
-      </c>
-      <c r="E30" t="s">
-        <v>622</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>625</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>626</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="B32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" t="s">
-        <v>628</v>
-      </c>
-      <c r="E32" t="s">
-        <v>629</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="B33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" t="s">
-        <v>631</v>
-      </c>
-      <c r="E33" t="s">
-        <v>632</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="B34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" t="s">
-        <v>634</v>
-      </c>
-      <c r="E34" t="s">
-        <v>678</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="B35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" t="s">
-        <v>638</v>
-      </c>
-      <c r="E35" t="s">
-        <v>639</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="B36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" t="s">
-        <v>641</v>
-      </c>
-      <c r="E36" t="s">
-        <v>642</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="B37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" t="s">
-        <v>644</v>
-      </c>
-      <c r="E37" t="s">
-        <v>645</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="B38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" t="s">
-        <v>647</v>
-      </c>
-      <c r="E38" t="s">
-        <v>648</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="B39" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" t="s">
-        <v>651</v>
-      </c>
-      <c r="E39" t="s">
-        <v>652</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="B40" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" t="s">
-        <v>654</v>
-      </c>
-      <c r="E40" t="s">
-        <v>655</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="B41" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" t="s">
-        <v>657</v>
-      </c>
-      <c r="E41" t="s">
-        <v>658</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s">
         <v>516</v>
       </c>
     </row>
@@ -12513,13 +12135,13 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView topLeftCell="B23" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
-    <sheetView topLeftCell="B25" workbookViewId="1">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="B6" workbookViewId="1">
+      <selection activeCell="B4" sqref="A4:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12616,152 +12238,211 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="83" t="str">
+      <c r="B4" s="57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C4" s="82" t="str">
         <f>PathologicalStageI4RC!A4</f>
-        <v>imagingForPrimarySite</v>
+        <v>pt</v>
       </c>
       <c r="D4" s="55" t="str">
         <f>PathologicalStageI4RC!D4</f>
-        <v>Imaging for primary site (M)</v>
-      </c>
-      <c r="E4" s="54"/>
+        <v>pT (M)</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1111</v>
+      </c>
       <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="G4" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>1076</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="83" t="str">
-        <f>PathologicalStageI4RC!A5</f>
-        <v>imagingForPrimarySite.ct</v>
+      <c r="B5" s="46" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C5" s="82" t="str">
+        <f>PathologicalStageI4RC!A4</f>
+        <v>pt</v>
       </c>
       <c r="D5" s="55" t="str">
-        <f>PathologicalStageI4RC!D5</f>
-        <v>CT for primary site (R)</v>
-      </c>
-      <c r="E5" s="54"/>
+        <f>PathologicalStageI4RC!D4</f>
+        <v>pT (M)</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1112</v>
+      </c>
       <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="83" t="str">
-        <f>PathologicalStageI4RC!A6</f>
-        <v>imagingForPrimarySite.mri</v>
+      <c r="B6" s="57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C6" s="82" t="str">
+        <f>PathologicalStageI4RC!A5</f>
+        <v>pn</v>
       </c>
       <c r="D6" s="55" t="str">
-        <f>PathologicalStageI4RC!D6</f>
-        <v>MRI for primary site (R)</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f>PathologicalStageI4RC!D5</f>
+        <v>pN (M)</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="83" t="str">
-        <f>PathologicalStageI4RC!A7</f>
-        <v>imagingForPrimarySite.us</v>
+      <c r="B7" s="46" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C7" s="82" t="str">
+        <f>PathologicalStageI4RC!A5</f>
+        <v>pn</v>
       </c>
       <c r="D7" s="55" t="str">
-        <f>PathologicalStageI4RC!D7</f>
-        <v>US for primary site (R)</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f>PathologicalStageI4RC!D5</f>
+        <v>pN (M)</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="83" t="str">
-        <f>PathologicalStageI4RC!A8</f>
-        <v>imagingForPrimarySite.other</v>
+      <c r="B8" s="57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C8" s="82" t="str">
+        <f>PathologicalStageI4RC!A6</f>
+        <v>pm</v>
       </c>
       <c r="D8" s="55" t="str">
-        <f>PathologicalStageI4RC!D8</f>
-        <v>Other imaging for primary site (R)</v>
-      </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+        <f>PathologicalStageI4RC!D6</f>
+        <v>pM (M)</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="83" t="str">
-        <f>PathologicalStageI4RC!A9</f>
-        <v>imagingForNeck</v>
+      <c r="B9" s="46" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C9" s="82" t="str">
+        <f>PathologicalStageI4RC!A6</f>
+        <v>pm</v>
       </c>
       <c r="D9" s="55" t="str">
-        <f>PathologicalStageI4RC!D9</f>
-        <v>Imaging for neck (M)</v>
-      </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
+        <f>PathologicalStageI4RC!D6</f>
+        <v>pM (M)</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="83" t="str">
-        <f>PathologicalStageI4RC!A10</f>
-        <v>imagingForNeck.ct</v>
+      <c r="B10" s="57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C10" s="82" t="str">
+        <f>PathologicalStageI4RC!A7</f>
+        <v>extraNodalExtension</v>
       </c>
       <c r="D10" s="55" t="str">
-        <f>PathologicalStageI4RC!D10</f>
-        <v>CT for neck (R)</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
+        <f>PathologicalStageI4RC!D7</f>
+        <v>Extra-nodal extension (rEne) (M)</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="83" t="str">
-        <f>PathologicalStageI4RC!A11</f>
-        <v>imagingForNeck.mri</v>
+      <c r="A11" s="57"/>
+      <c r="B11" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C11" s="82" t="str">
+        <f>PathologicalStageI4RC!A7</f>
+        <v>extraNodalExtension</v>
       </c>
       <c r="D11" s="55" t="str">
-        <f>PathologicalStageI4RC!D11</f>
-        <v>MRI for neck (R)</v>
-      </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
+        <f>PathologicalStageI4RC!D7</f>
+        <v>Extra-nodal extension (rEne) (M)</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="str">
@@ -12769,112 +12450,154 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B12" s="57"/>
-      <c r="C12" s="83" t="str">
-        <f>PathologicalStageI4RC!A12</f>
-        <v>imagingForNeck.us</v>
+      <c r="C12" s="108" t="str">
+        <f>PathologicalStageI4RC!A8</f>
+        <v>sentinelNode</v>
       </c>
       <c r="D12" s="55" t="str">
-        <f>PathologicalStageI4RC!D12</f>
-        <v>US for neck (R)</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
+        <f>PathologicalStageI4RC!D8</f>
+        <v>Sentinel node (M)</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="83" t="str">
-        <f>PathologicalStageI4RC!A13</f>
-        <v>imagingForNeck.other</v>
+      <c r="B13" s="57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C13" s="82" t="str">
+        <f>PathologicalStageI4RC!A9</f>
+        <v>pathologicalStaging</v>
       </c>
       <c r="D13" s="55" t="str">
-        <f>PathologicalStageI4RC!D13</f>
-        <v>Other imaging for neck (R)</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
+        <f>PathologicalStageI4RC!D9</f>
+        <v>Pathological staging (M)</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="83" t="str">
-        <f>PathologicalStageI4RC!A14</f>
-        <v>imagingForMetastasis</v>
+      <c r="B14" s="57" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C14" s="82" t="str">
+        <f>PathologicalStageI4RC!A10</f>
+        <v>localised</v>
       </c>
       <c r="D14" s="55" t="str">
-        <f>PathologicalStageI4RC!D14</f>
-        <v>Imaging for metastasis (M)</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f>PathologicalStageI4RC!D10</f>
+        <v>Localised (M)</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="83" t="str">
-        <f>PathologicalStageI4RC!A15</f>
-        <v>imagingForMetastasis.ct</v>
+      <c r="B15" s="57" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C15" s="82" t="str">
+        <f>PathologicalStageI4RC!A10</f>
+        <v>localised</v>
       </c>
       <c r="D15" s="55" t="str">
-        <f>PathologicalStageI4RC!D15</f>
-        <v>CT for metastasis (R)</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
+        <f>PathologicalStageI4RC!D10</f>
+        <v>Localised (M)</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="83" t="str">
-        <f>PathologicalStageI4RC!A16</f>
-        <v>imagingForMetastasis.mri</v>
+      <c r="B16" s="57" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C16" s="94" t="str">
+        <f>PathologicalStageI4RC!A11</f>
+        <v>numberOfTumorNodules</v>
       </c>
       <c r="D16" s="55" t="str">
-        <f>PathologicalStageI4RC!D16</f>
-        <v>MRI for metastasis (R)</v>
-      </c>
-      <c r="E16" s="66"/>
+        <f>PathologicalStageI4RC!D11</f>
+        <v>Number of tumor nodules (R)</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1116</v>
+      </c>
       <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
+      <c r="G16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="96" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="83" t="str">
-        <f>PathologicalStageI4RC!A17</f>
-        <v>imagingForMetastasis.us</v>
+      <c r="B17" s="97" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C17" s="94" t="str">
+        <f>PathologicalStageI4RC!A11</f>
+        <v>numberOfTumorNodules</v>
       </c>
       <c r="D17" s="55" t="str">
-        <f>PathologicalStageI4RC!D17</f>
-        <v>US for metastasis (R)</v>
-      </c>
-      <c r="E17" s="66"/>
+        <f>PathologicalStageI4RC!D11</f>
+        <v>Number of tumor nodules (R)</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>1112</v>
+      </c>
       <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="G17" s="67" t="s">
+        <v>114</v>
+      </c>
       <c r="H17" s="55"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -12883,71 +12606,56 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B18" s="57"/>
-      <c r="C18" s="83" t="str">
-        <f>PathologicalStageI4RC!A18</f>
-        <v>imagingForMetastasis.other</v>
+      <c r="C18" s="116" t="str">
+        <f>PathologicalStageI4RC!A12</f>
+        <v>locoRegional</v>
       </c>
       <c r="D18" s="55" t="str">
-        <f>PathologicalStageI4RC!D18</f>
-        <v>Other imaging for metastasis (R)</v>
-      </c>
-      <c r="E18" s="66"/>
+        <f>PathologicalStageI4RC!D12</f>
+        <v>Loco-regional (M)</v>
+      </c>
+      <c r="E18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="55"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C19" s="82" t="str">
-        <f>PathologicalStageI4RC!A19</f>
-        <v>pt</v>
+      <c r="B19" s="57"/>
+      <c r="C19" s="116" t="str">
+        <f>PathologicalStageI4RC!A13</f>
+        <v>isTransitMetastasisWithClinicalConfirmation</v>
       </c>
       <c r="D19" s="55" t="str">
-        <f>PathologicalStageI4RC!D19</f>
-        <v>pT (M)</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>1111</v>
-      </c>
+        <f>PathologicalStageI4RC!D13</f>
+        <v>Is Transit metastasis with clinical confirmation (M)</v>
+      </c>
+      <c r="E19" s="54"/>
       <c r="F19" s="54"/>
-      <c r="G19" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>1076</v>
-      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C20" s="82" t="str">
-        <f>PathologicalStageI4RC!A19</f>
-        <v>pt</v>
+      <c r="B20" s="57"/>
+      <c r="C20" s="116" t="str">
+        <f>PathologicalStageI4RC!A14</f>
+        <v>isMultifocalTumor</v>
       </c>
       <c r="D20" s="55" t="str">
-        <f>PathologicalStageI4RC!D19</f>
-        <v>pT (M)</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>1112</v>
-      </c>
+        <f>PathologicalStageI4RC!D14</f>
+        <v>Is Multifocal tumor (M)</v>
+      </c>
+      <c r="E20" s="54"/>
       <c r="F20" s="54"/>
-      <c r="G20" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>1078</v>
-      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="str">
@@ -12955,106 +12663,104 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C21" s="82" t="str">
-        <f>PathologicalStageI4RC!A20</f>
-        <v>pn</v>
+        <v>1090</v>
+      </c>
+      <c r="C21" s="95" t="str">
+        <f>PathologicalStageI4RC!A15</f>
+        <v>regionalNodalMetastases</v>
       </c>
       <c r="D21" s="55" t="str">
-        <f>PathologicalStageI4RC!D20</f>
-        <v>pN (M)</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>1113</v>
+        <f>PathologicalStageI4RC!D15</f>
+        <v>Regional nodal metastases (M)</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1117</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C22" s="82" t="str">
-        <f>PathologicalStageI4RC!A20</f>
-        <v>pn</v>
+      <c r="B22" s="57" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C22" s="95" t="str">
+        <f>PathologicalStageI4RC!A16</f>
+        <v>sites</v>
       </c>
       <c r="D22" s="55" t="str">
-        <f>PathologicalStageI4RC!D20</f>
-        <v>pN (M)</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>1112</v>
+        <f>PathologicalStageI4RC!D16</f>
+        <v>sites (R)</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>1117</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C23" s="82" t="str">
-        <f>PathologicalStageI4RC!A21</f>
-        <v>pm</v>
+        <v>1090</v>
+      </c>
+      <c r="C23" s="95" t="str">
+        <f>PathologicalStageI4RC!A17</f>
+        <v>sites.softTissue</v>
       </c>
       <c r="D23" s="55" t="str">
-        <f>PathologicalStageI4RC!D21</f>
-        <v>pM (M)</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>1114</v>
+        <f>PathologicalStageI4RC!D17</f>
+        <v>Soft tissue (R)</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>1117</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C24" s="82" t="str">
-        <f>PathologicalStageI4RC!A21</f>
-        <v>pm</v>
+      <c r="B24" s="57" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C24" s="95" t="str">
+        <f>PathologicalStageI4RC!A18</f>
+        <v>sites.distantLymphNode</v>
       </c>
       <c r="D24" s="55" t="str">
-        <f>PathologicalStageI4RC!D21</f>
-        <v>pM (M)</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>1112</v>
+        <f>PathologicalStageI4RC!D18</f>
+        <v>distant lymph node (R)</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>1117</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>1087</v>
+      <c r="G24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -13063,70 +12769,79 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C25" s="82" t="str">
-        <f>PathologicalStageI4RC!A22</f>
-        <v>extraNodalExtension</v>
+        <v>1090</v>
+      </c>
+      <c r="C25" s="95" t="str">
+        <f>PathologicalStageI4RC!A19</f>
+        <v>sites.lung</v>
       </c>
       <c r="D25" s="55" t="str">
-        <f>PathologicalStageI4RC!D22</f>
-        <v>Extra-nodal extension (rEne) (M)</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>1115</v>
+        <f>PathologicalStageI4RC!D19</f>
+        <v>lung (R)</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1117</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="46" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C26" s="82" t="str">
-        <f>PathologicalStageI4RC!A22</f>
-        <v>extraNodalExtension</v>
+      <c r="A26" s="57" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C26" s="95" t="str">
+        <f>PathologicalStageI4RC!A20</f>
+        <v>sites.metastasisatbone</v>
       </c>
       <c r="D26" s="55" t="str">
-        <f>PathologicalStageI4RC!D22</f>
-        <v>Extra-nodal extension (rEne) (M)</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>1112</v>
+        <f>PathologicalStageI4RC!D20</f>
+        <v>metastasisAtBone (R)</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1117</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="6"/>
+      <c r="G26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="108" t="str">
-        <f>PathologicalStageI4RC!A23</f>
-        <v>sentinelNode</v>
+      <c r="B27" s="57" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C27" s="95" t="str">
+        <f>PathologicalStageI4RC!A21</f>
+        <v>sites.liver</v>
       </c>
       <c r="D27" s="55" t="str">
-        <f>PathologicalStageI4RC!D23</f>
-        <v>Sentinel node (M)</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="67" t="s">
+        <f>PathologicalStageI4RC!D21</f>
+        <v>liver (R)</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="68" t="s">
-        <v>928</v>
+      <c r="H27" s="6" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -13135,25 +12850,25 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C28" s="82" t="str">
-        <f>PathologicalStageI4RC!A24</f>
-        <v>pathologicalStaging</v>
+        <v>1090</v>
+      </c>
+      <c r="C28" s="95" t="str">
+        <f>PathologicalStageI4RC!A22</f>
+        <v>sites.pleura</v>
       </c>
       <c r="D28" s="55" t="str">
-        <f>PathologicalStageI4RC!D24</f>
-        <v>Pathological staging (M)</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>1112</v>
+        <f>PathologicalStageI4RC!D22</f>
+        <v>pleura (R)</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1117</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>1104</v>
+      <c r="G28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -13162,52 +12877,52 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C29" s="82" t="str">
-        <f>PathologicalStageI4RC!A25</f>
-        <v>localised</v>
+        <v>1090</v>
+      </c>
+      <c r="C29" s="95" t="str">
+        <f>PathologicalStageI4RC!A23</f>
+        <v>sites.peritoneum</v>
       </c>
       <c r="D29" s="55" t="str">
-        <f>PathologicalStageI4RC!D25</f>
-        <v>Localised (M)</v>
+        <f>PathologicalStageI4RC!D23</f>
+        <v>peritoneum (R)</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C30" s="82" t="str">
-        <f>PathologicalStageI4RC!A25</f>
-        <v>localised</v>
+        <v>1090</v>
+      </c>
+      <c r="C30" s="95" t="str">
+        <f>PathologicalStageI4RC!A24</f>
+        <v>sites.brain</v>
       </c>
       <c r="D30" s="55" t="str">
-        <f>PathologicalStageI4RC!D25</f>
-        <v>Localised (M)</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>1112</v>
+        <f>PathologicalStageI4RC!D24</f>
+        <v>brain (R)</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1117</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -13216,25 +12931,25 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C31" s="94" t="str">
-        <f>PathologicalStageI4RC!A26</f>
-        <v>numberOfTumorNodules</v>
+        <v>1090</v>
+      </c>
+      <c r="C31" s="95" t="str">
+        <f>PathologicalStageI4RC!A25</f>
+        <v>sites.otherViscera</v>
       </c>
       <c r="D31" s="55" t="str">
-        <f>PathologicalStageI4RC!D26</f>
-        <v>Number of tumor nodules (R)</v>
+        <f>PathologicalStageI4RC!D25</f>
+        <v>other viscera (R)</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F31" s="54"/>
+        <v>1117</v>
+      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="96" t="s">
-        <v>1110</v>
+      <c r="H31" s="6" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -13242,409 +12957,32 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
-      <c r="B32" s="97" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C32" s="94" t="str">
+      <c r="B32" s="57" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C32" s="95" t="str">
         <f>PathologicalStageI4RC!A26</f>
-        <v>numberOfTumorNodules</v>
+        <v>sites.unknown</v>
       </c>
       <c r="D32" s="55" t="str">
         <f>PathologicalStageI4RC!D26</f>
-        <v>Number of tumor nodules (R)</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" s="55"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="116" t="str">
-        <f>PathologicalStageI4RC!A27</f>
-        <v>locoRegional</v>
-      </c>
-      <c r="D33" s="55" t="str">
-        <f>PathologicalStageI4RC!D27</f>
-        <v>Loco-regional (M)</v>
-      </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="116" t="str">
-        <f>PathologicalStageI4RC!A28</f>
-        <v>isTransitMetastasisWithClinicalConfirmation</v>
-      </c>
-      <c r="D34" s="55" t="str">
-        <f>PathologicalStageI4RC!D28</f>
-        <v>Is Transit metastasis with clinical confirmation (M)</v>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="55"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="116" t="str">
-        <f>PathologicalStageI4RC!A29</f>
-        <v>isMultifocalTumor</v>
-      </c>
-      <c r="D35" s="55" t="str">
-        <f>PathologicalStageI4RC!D29</f>
-        <v>Is Multifocal tumor (M)</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C36" s="95" t="str">
-        <f>PathologicalStageI4RC!A30</f>
-        <v>regionalNodalMetastases</v>
-      </c>
-      <c r="D36" s="55" t="str">
-        <f>PathologicalStageI4RC!D30</f>
-        <v>Regional nodal metastases (M)</v>
-      </c>
-      <c r="E36" s="5" t="s">
+        <v>unknown (R)</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C37" s="95" t="str">
-        <f>PathologicalStageI4RC!A31</f>
-        <v>sites</v>
-      </c>
-      <c r="D37" s="55" t="str">
-        <f>PathologicalStageI4RC!D31</f>
-        <v>sites (R)</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C38" s="95" t="str">
-        <f>PathologicalStageI4RC!A32</f>
-        <v>sites.softTissue</v>
-      </c>
-      <c r="D38" s="55" t="str">
-        <f>PathologicalStageI4RC!D32</f>
-        <v>Soft tissue (R)</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C39" s="95" t="str">
-        <f>PathologicalStageI4RC!A33</f>
-        <v>sites.distantLymphNode</v>
-      </c>
-      <c r="D39" s="55" t="str">
-        <f>PathologicalStageI4RC!D33</f>
-        <v>distant lymph node (R)</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B40" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C40" s="95" t="str">
-        <f>PathologicalStageI4RC!A34</f>
-        <v>sites.lung</v>
-      </c>
-      <c r="D40" s="55" t="str">
-        <f>PathologicalStageI4RC!D34</f>
-        <v>lung (R)</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C41" s="95" t="str">
-        <f>PathologicalStageI4RC!A35</f>
-        <v>sites.metastasisatbone</v>
-      </c>
-      <c r="D41" s="55" t="str">
-        <f>PathologicalStageI4RC!D35</f>
-        <v>metastasisAtBone (R)</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C42" s="95" t="str">
-        <f>PathologicalStageI4RC!A36</f>
-        <v>sites.liver</v>
-      </c>
-      <c r="D42" s="55" t="str">
-        <f>PathologicalStageI4RC!D36</f>
-        <v>liver (R)</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C43" s="95" t="str">
-        <f>PathologicalStageI4RC!A37</f>
-        <v>sites.pleura</v>
-      </c>
-      <c r="D43" s="55" t="str">
-        <f>PathologicalStageI4RC!D37</f>
-        <v>pleura (R)</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B44" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C44" s="95" t="str">
-        <f>PathologicalStageI4RC!A38</f>
-        <v>sites.peritoneum</v>
-      </c>
-      <c r="D44" s="55" t="str">
-        <f>PathologicalStageI4RC!D38</f>
-        <v>peritoneum (R)</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C45" s="95" t="str">
-        <f>PathologicalStageI4RC!A39</f>
-        <v>sites.brain</v>
-      </c>
-      <c r="D45" s="55" t="str">
-        <f>PathologicalStageI4RC!D39</f>
-        <v>brain (R)</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B46" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C46" s="95" t="str">
-        <f>PathologicalStageI4RC!A40</f>
-        <v>sites.otherViscera</v>
-      </c>
-      <c r="D46" s="55" t="str">
-        <f>PathologicalStageI4RC!D40</f>
-        <v>other viscera (R)</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="str">
-        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
-        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
-      </c>
-      <c r="B47" s="57" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C47" s="95" t="str">
-        <f>PathologicalStageI4RC!A41</f>
-        <v>sites.unknown</v>
-      </c>
-      <c r="D47" s="55" t="str">
-        <f>PathologicalStageI4RC!D41</f>
-        <v>unknown (R)</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H47" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>1101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{B28D8A92-45E2-494A-A8C1-B5B65482074E}"/>
-    <hyperlink ref="A3:A7" r:id="rId2" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{F007AF85-60B0-4C6C-9D5E-D658301B7827}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{F007AF85-60B0-4C6C-9D5E-D658301B7827}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -14426,12 +13764,14 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15041,34 +14381,34 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>826</v>
+      <c r="A24" s="87" t="s">
+        <v>1171</v>
       </c>
       <c r="B24" t="s">
         <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>827</v>
+        <v>1172</v>
       </c>
       <c r="E24" t="s">
-        <v>824</v>
+        <v>1173</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>636</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B25" t="s">
         <v>178</v>
@@ -15077,7 +14417,7 @@
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E25" t="s">
         <v>824</v>
@@ -15089,12 +14429,12 @@
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>830</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B26" t="s">
         <v>178</v>
@@ -15103,7 +14443,7 @@
         <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E26" t="s">
         <v>824</v>
@@ -15115,12 +14455,12 @@
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>492</v>
+        <v>830</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B27" t="s">
         <v>178</v>
@@ -15129,7 +14469,7 @@
         <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E27" t="s">
         <v>824</v>
@@ -15141,12 +14481,12 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B28" t="s">
         <v>178</v>
@@ -15155,7 +14495,7 @@
         <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E28" t="s">
         <v>824</v>
@@ -15167,38 +14507,38 @@
         <v>15</v>
       </c>
       <c r="H28" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>835</v>
+      </c>
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" t="s">
+        <v>836</v>
+      </c>
+      <c r="E29" t="s">
+        <v>824</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>837</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" t="s">
-        <v>838</v>
-      </c>
-      <c r="E29" t="s">
-        <v>839</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>841</v>
       </c>
       <c r="B30" t="s">
         <v>99</v>
@@ -15207,36 +14547,36 @@
         <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E30" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>759</v>
+        <v>841</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
         <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E31" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -15245,6 +14585,32 @@
         <v>15</v>
       </c>
       <c r="H31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>759</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>844</v>
+      </c>
+      <c r="E32" t="s">
+        <v>845</v>
+      </c>
+      <c r="F32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
         <v>761</v>
       </c>
     </row>
@@ -15413,13 +14779,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
-    <sheetView topLeftCell="B14" workbookViewId="1">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="1">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16037,22 +15403,20 @@
       </c>
       <c r="C24" s="101" t="str">
         <f>RadiotherapyI4RC!A24</f>
-        <v>metastaticTreatmentSiteLung</v>
+        <v>otherTreatmentSite</v>
       </c>
       <c r="D24" s="55" t="str">
         <f>RadiotherapyI4RC!D24</f>
-        <v>Metastatic treatment site lung (R)</v>
+        <v>Other Treatment Site (O)</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>1133</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>1139</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="str">
@@ -16064,11 +15428,11 @@
       </c>
       <c r="C25" s="101" t="str">
         <f>RadiotherapyI4RC!A25</f>
-        <v>metastaticTreatmentSiteMediastinum</v>
+        <v>metastaticTreatmentSiteLung</v>
       </c>
       <c r="D25" s="55" t="str">
         <f>RadiotherapyI4RC!D25</f>
-        <v>Metastatic treatment site mediastinum (R)</v>
+        <v>Metastatic treatment site lung (R)</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>1133</v>
@@ -16078,7 +15442,7 @@
         <v>118</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -16091,11 +15455,11 @@
       </c>
       <c r="C26" s="101" t="str">
         <f>RadiotherapyI4RC!A26</f>
-        <v>metastaticTreatmentSiteBone</v>
+        <v>metastaticTreatmentSiteMediastinum</v>
       </c>
       <c r="D26" s="55" t="str">
         <f>RadiotherapyI4RC!D26</f>
-        <v>Metastatic treatment site bone (R)</v>
+        <v>Metastatic treatment site mediastinum (R)</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>1133</v>
@@ -16105,7 +15469,7 @@
         <v>118</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -16118,11 +15482,11 @@
       </c>
       <c r="C27" s="101" t="str">
         <f>RadiotherapyI4RC!A27</f>
-        <v>metastaticTreatmentSiteSoftTissue</v>
+        <v>metastaticTreatmentSiteBone</v>
       </c>
       <c r="D27" s="55" t="str">
         <f>RadiotherapyI4RC!D27</f>
-        <v>Metastatic treatment site soft tissue (R)</v>
+        <v>Metastatic treatment site bone (R)</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>1133</v>
@@ -16132,7 +15496,7 @@
         <v>118</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -16145,11 +15509,11 @@
       </c>
       <c r="C28" s="101" t="str">
         <f>RadiotherapyI4RC!A28</f>
-        <v>metastaticTreatmentSiteLiver</v>
+        <v>metastaticTreatmentSiteSoftTissue</v>
       </c>
       <c r="D28" s="55" t="str">
         <f>RadiotherapyI4RC!D28</f>
-        <v>Metastatic treatment site liver (R)</v>
+        <v>Metastatic treatment site soft tissue (R)</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>1133</v>
@@ -16159,7 +15523,7 @@
         <v>118</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -16170,83 +15534,109 @@
       <c r="B29" s="57" t="s">
         <v>929</v>
       </c>
-      <c r="C29" s="82" t="str">
+      <c r="C29" s="101" t="str">
         <f>RadiotherapyI4RC!A29</f>
-        <v>rtTreatmentCompletedAsPlanned</v>
+        <v>metastaticTreatmentSiteLiver</v>
       </c>
       <c r="D29" s="55" t="str">
         <f>RadiotherapyI4RC!D29</f>
-        <v>RT Treatment Completed as Planned? (M)</v>
+        <v>Metastatic treatment site liver (R)</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>1133</v>
+      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="67" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C30" s="116" t="str">
+        <v>929</v>
+      </c>
+      <c r="C30" s="82" t="str">
         <f>RadiotherapyI4RC!A30</f>
-        <v>regionalDeepHyperthemia</v>
+        <v>rtTreatmentCompletedAsPlanned</v>
       </c>
       <c r="D30" s="55" t="str">
         <f>RadiotherapyI4RC!D30</f>
-        <v>Regional deep hyperthemia (M)</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F30" s="54"/>
+        <v>RT Treatment Completed as Planned? (M)</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F30" s="5"/>
       <c r="G30" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="85" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$14</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>929</v>
-      </c>
-      <c r="C31" s="101" t="str">
+        <v>1045</v>
+      </c>
+      <c r="C31" s="116" t="str">
         <f>RadiotherapyI4RC!A31</f>
-        <v>treatmentResponse</v>
+        <v>regionalDeepHyperthemia</v>
       </c>
       <c r="D31" s="55" t="str">
         <f>RadiotherapyI4RC!D31</f>
+        <v>Regional deep hyperthemia (M)</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F31" s="54"/>
+      <c r="G31" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="85" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="str">
+        <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$14</f>
+        <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>929</v>
+      </c>
+      <c r="C32" s="101" t="str">
+        <f>RadiotherapyI4RC!A32</f>
+        <v>treatmentResponse</v>
+      </c>
+      <c r="D32" s="55" t="str">
+        <f>RadiotherapyI4RC!D32</f>
         <v>Treatment response (R)</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E32" s="54" t="s">
         <v>1049</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="55"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{0EFE3AB5-650A-4074-97AF-3E49F7F99882}"/>
     <hyperlink ref="A3:A5" r:id="rId2" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{629334E2-D8DA-4E2A-86AF-20E7F5E42966}"/>
-    <hyperlink ref="A6:A31" r:id="rId3" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{EEE7FCF6-8CF5-45F2-B121-511BCCA4D95B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roberta\HL7EU\IDEA4RC\idea4rc-master\idea4rc\src-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wylem\workspace\hl7\wylem\idea4rc\src-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CAB878-72AE-4D7A-BAB2-8E74B975B298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D050B16-CBE2-4790-8000-62F8401DE5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="32" activeTab="37" xr2:uid="{DBDA221E-EFE5-4A34-8B86-7FDF16AB25A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DBDA221E-EFE5-4A34-8B86-7FDF16AB25A8}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="15" r:id="rId1"/>
@@ -86,10 +86,10 @@
   <commentList>
     <comment ref="A48" authorId="0" shapeId="0" xr:uid="{7F78229B-0024-4E7E-B76B-4A79CA7364DD}">
       <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-Check if only the site is captured or also the kind of cancer</t>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Check if only the site is captured or also the kind of cancer</t>
       </text>
     </comment>
   </commentList>
@@ -104,10 +104,10 @@
   <commentList>
     <comment ref="B48" authorId="0" shapeId="0" xr:uid="{BCDCC929-C1AA-46D9-A1CE-2F2A9F418401}">
       <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-Check if this profile fits for purpose</t>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Check if this profile fits for purpose</t>
       </text>
     </comment>
   </commentList>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="1220">
   <si>
     <t>Instance</t>
   </si>
@@ -3638,9 +3638,6 @@
 </t>
   </si>
   <si>
-    <t>treatmentReference</t>
-  </si>
-  <si>
     <t>Treatment reference (M)</t>
   </si>
   <si>
@@ -4727,6 +4724,12 @@
   </si>
   <si>
     <t>If it is present a procedure with code 4263386 "Sentinel lymph node biopsy" related to the observation, it is 'true'</t>
+  </si>
+  <si>
+    <t>treatmentReference[x]</t>
+  </si>
+  <si>
+    <t>SystemicTreatment or Radiotherapy or Surgery</t>
   </si>
 </sst>
 </file>
@@ -5074,7 +5077,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5305,19 +5308,11 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Collegamento ipertestuale 2" xfId="3" xr:uid="{89608739-F8AF-4CD6-B282-118C4E57D255}"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="2" xr:uid="{CFD04C6F-70BE-4734-8E9F-B4BC2A2491AF}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5738,7 +5733,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
@@ -5938,20 +5933,20 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="117" t="s">
+        <v>897</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>898</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>899</v>
       </c>
       <c r="C7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/episodeEvent2FHIR</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>900</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>901</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
@@ -5969,20 +5964,20 @@
     </row>
     <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="106" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/surgery2FHIR</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
@@ -6000,20 +5995,20 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="117" t="s">
+        <v>903</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>904</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>905</v>
       </c>
       <c r="C9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/clinicalStage2FHIR</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>13</v>
@@ -6031,20 +6026,20 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="117" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/adverseEvent2FHIR</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>911</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>912</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>13</v>
@@ -6062,20 +6057,20 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="117" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/diseaseExtent2FHIR</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>916</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>917</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
@@ -6093,20 +6088,20 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="103" t="s">
+        <v>918</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="C12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/geneticTestExpression2FHIR</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>921</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>922</v>
       </c>
       <c r="F12" s="65" t="s">
         <v>13</v>
@@ -6124,20 +6119,20 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="116" t="s">
+        <v>923</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="C13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/pathologicalStage2FHIR</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>926</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>927</v>
       </c>
       <c r="F13" s="65" t="s">
         <v>13</v>
@@ -6155,20 +6150,20 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="111" t="s">
+        <v>927</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>929</v>
       </c>
       <c r="C14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/overallTreatmentResponse2FHIR</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>930</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>931</v>
       </c>
       <c r="F14" s="65" t="s">
         <v>13</v>
@@ -6186,20 +6181,20 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
+        <v>932</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>934</v>
       </c>
       <c r="C15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/radiotherapy2FHIR</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>935</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>936</v>
       </c>
       <c r="F15" s="65" t="s">
         <v>13</v>
@@ -6217,20 +6212,20 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="111" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/regionalDeepHyperthemia2FHIR</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F16" s="65" t="s">
         <v>13</v>
@@ -6248,20 +6243,20 @@
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="111" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/systemicTreatment2FHIR</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>944</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>945</v>
       </c>
       <c r="F17" s="65" t="s">
         <v>13</v>
@@ -6279,20 +6274,20 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
+        <v>945</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>947</v>
       </c>
       <c r="C18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/drugsForTreatments2FHIR</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>948</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>949</v>
       </c>
       <c r="F18" s="65" t="s">
         <v>13</v>
@@ -6313,17 +6308,17 @@
         <v>855</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/isolatedLimbPerfusion</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>951</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>952</v>
       </c>
       <c r="F19" s="65" t="s">
         <v>13</v>
@@ -6429,7 +6424,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" customWidth="1"/>
@@ -6540,7 +6535,7 @@
         <v>118</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6590,7 +6585,7 @@
         <v>118</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6640,7 +6635,7 @@
         <v>118</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6716,7 +6711,7 @@
         <v>114</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6766,7 +6761,7 @@
         <v>114</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6792,7 +6787,7 @@
         <v>114</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6818,7 +6813,7 @@
         <v>114</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6844,7 +6839,7 @@
         <v>114</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6870,7 +6865,7 @@
         <v>114</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6896,7 +6891,7 @@
         <v>118</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6921,7 +6916,7 @@
         <v>114</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7251,7 +7246,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -7742,7 +7737,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.140625" customWidth="1"/>
     <col min="2" max="2" width="72.28515625" customWidth="1"/>
@@ -7786,7 +7781,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C2" s="71" t="str">
         <f>DiseaseExtentI4RC!A2</f>
@@ -7797,7 +7792,7 @@
         <v>Episode Event Reference (M)</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -7811,7 +7806,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C3" s="71" t="str">
         <f>DiseaseExtentI4RC!A3</f>
@@ -7822,20 +7817,20 @@
         <v>Localised (M)</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="57" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C4" s="71" t="str">
         <f>DiseaseExtentI4RC!A3</f>
@@ -7846,14 +7841,14 @@
         <v>Localised (M)</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7862,7 +7857,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C5" s="71" t="str">
         <f>DiseaseExtentI4RC!A4</f>
@@ -7873,20 +7868,20 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
       <c r="B6" s="93" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C6" s="71" t="str">
         <f>DiseaseExtentI4RC!A4</f>
@@ -7897,7 +7892,7 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="67" t="s">
@@ -7911,7 +7906,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B7" s="115" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C7" s="118" t="str">
         <f>DiseaseExtentI4RC!A5</f>
@@ -7922,14 +7917,14 @@
         <v>Loco-regional (M)</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7938,7 +7933,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C8" s="117" t="str">
         <f>DiseaseExtentI4RC!A6</f>
@@ -7949,14 +7944,14 @@
         <v>Is Transit metastasis with clinical confirmation (M)</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="54" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7965,7 +7960,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B9" s="115" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C9" s="117" t="str">
         <f>DiseaseExtentI4RC!A7</f>
@@ -7976,14 +7971,14 @@
         <v>Is Multifocal tumor (M)</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="54" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7992,7 +7987,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C10" s="71" t="str">
         <f>DiseaseExtentI4RC!A8</f>
@@ -8003,14 +7998,14 @@
         <v>Regional nodal metastases (M)</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8019,7 +8014,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C11" s="71" t="str">
         <f>DiseaseExtentI4RC!A10</f>
@@ -8030,14 +8025,14 @@
         <v>Soft tissue (R)</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8046,7 +8041,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C12" s="71" t="str">
         <f>DiseaseExtentI4RC!A11</f>
@@ -8057,14 +8052,14 @@
         <v>distant lymph node (R)</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8073,7 +8068,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C13" s="71" t="str">
         <f>DiseaseExtentI4RC!A12</f>
@@ -8084,14 +8079,14 @@
         <v>lung (R)</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8100,7 +8095,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C14" s="71" t="str">
         <f>DiseaseExtentI4RC!A13</f>
@@ -8111,14 +8106,14 @@
         <v>metastasisAtBone (R)</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8127,7 +8122,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C15" s="71" t="str">
         <f>DiseaseExtentI4RC!A14</f>
@@ -8138,14 +8133,14 @@
         <v>liver (R)</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8154,7 +8149,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C16" s="71" t="str">
         <f>DiseaseExtentI4RC!A15</f>
@@ -8165,14 +8160,14 @@
         <v>pleura (R)</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8181,7 +8176,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C17" s="71" t="str">
         <f>DiseaseExtentI4RC!A16</f>
@@ -8192,14 +8187,14 @@
         <v>peritoneum (R)</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8208,7 +8203,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C18" s="71" t="str">
         <f>DiseaseExtentI4RC!A17</f>
@@ -8219,14 +8214,14 @@
         <v>brain (R)</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8235,7 +8230,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C19" s="71" t="str">
         <f>DiseaseExtentI4RC!A18</f>
@@ -8246,14 +8241,14 @@
         <v>other viscera (R)</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
   </sheetData>
@@ -8278,7 +8273,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -8314,7 +8309,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -8340,7 +8335,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -8366,7 +8361,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -8432,7 +8427,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.140625" customWidth="1"/>
     <col min="2" max="2" width="72.28515625" customWidth="1"/>
@@ -8476,7 +8471,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DrugsForTreatments</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>DrugsForTreatmentsI4RC!A2</f>
@@ -8487,7 +8482,7 @@
         <v>SystemicTreatment reference (M)</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="54" t="s">
@@ -8501,7 +8496,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DrugsForTreatments</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>DrugsForTreatmentsI4RC!A3</f>
@@ -8512,7 +8507,7 @@
         <v>RegionalDeepHyperthemia (M)</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="54" t="s">
@@ -8526,7 +8521,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DrugsForTreatments</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>DrugsForTreatmentsI4RC!A4</f>
@@ -8537,7 +8532,7 @@
         <v>IsolatedLimbPerfusion reference (M)</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="54" t="s">
@@ -8551,7 +8546,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DrugsForTreatments</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C5" s="105" t="str">
         <f>DrugsForTreatmentsI4RC!A5</f>
@@ -8562,14 +8557,14 @@
         <v>Drug (M)</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="88" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8578,7 +8573,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DrugsForTreatments</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>858</v>
@@ -8587,7 +8582,7 @@
         <v>859</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="54" t="s">
@@ -8597,7 +8592,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -8622,7 +8617,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
@@ -8684,7 +8679,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -9088,11 +9083,11 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
     <col min="2" max="2" width="82.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" style="121" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" customWidth="1"/>
     <col min="4" max="4" width="44" style="4" customWidth="1"/>
     <col min="5" max="5" width="73.85546875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -9107,7 +9102,7 @@
       <c r="B1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -9134,7 +9129,7 @@
       <c r="B2" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="120" t="str">
+      <c r="C2" s="5" t="str">
         <f>GeneticTestExpressionI4RC!A2</f>
         <v>diagnosisReference</v>
       </c>
@@ -9157,7 +9152,7 @@
       <c r="B3" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="120" t="str">
+      <c r="C3" s="5" t="str">
         <f>GeneticTestExpressionI4RC!A3</f>
         <v>episodeEventReference</v>
       </c>
@@ -9189,14 +9184,14 @@
         <v>Gene expression analysis performed (R)</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H4" s="40" t="s">
         <v>1177</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9207,7 +9202,7 @@
       <c r="B5" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="120" t="str">
+      <c r="C5" s="5" t="str">
         <f>GeneticTestExpressionI4RC!A5</f>
         <v>dateOfGeneExpression</v>
       </c>
@@ -9216,14 +9211,14 @@
         <v>Date of Gene expression (O)</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="39" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9243,14 +9238,14 @@
         <v>Gene mutation analysis performed (R)</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9261,7 +9256,7 @@
       <c r="B7" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="120" t="str">
+      <c r="C7" s="5" t="str">
         <f>GeneticTestExpressionI4RC!A7</f>
         <v>dateOfGeneMutation</v>
       </c>
@@ -9270,14 +9265,14 @@
         <v>Date of Gene mutation (O)</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9297,14 +9292,14 @@
         <v>Tests for chromosome translocations performed (R)</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9315,7 +9310,7 @@
       <c r="B9" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="120" t="str">
+      <c r="C9" s="5" t="str">
         <f>GeneticTestExpressionI4RC!A9</f>
         <v>dateOfTraslocation</v>
       </c>
@@ -9324,14 +9319,14 @@
         <v>Date of traslocation (O)</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9351,14 +9346,14 @@
         <v>Next generation sequencing (NGS)  performed (R)</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9369,7 +9364,7 @@
       <c r="B11" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="120" t="str">
+      <c r="C11" s="5" t="str">
         <f>GeneticTestExpressionI4RC!A11</f>
         <v>dateOfNgs</v>
       </c>
@@ -9378,14 +9373,14 @@
         <v>Date of NGS (O)</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
         <v>114</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9405,14 +9400,14 @@
         <v>Polymerase chain reaction (PCR) test performed (R)</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9423,7 +9418,7 @@
       <c r="B13" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="120" t="str">
+      <c r="C13" s="5" t="str">
         <f>GeneticTestExpressionI4RC!A13</f>
         <v>dateOfPcr</v>
       </c>
@@ -9432,14 +9427,14 @@
         <v>Date of PCR (O)</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9459,14 +9454,14 @@
         <v>Immunohistochemistry  performed (R)</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9477,7 +9472,7 @@
       <c r="B15" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="120" t="str">
+      <c r="C15" s="5" t="str">
         <f>GeneticTestExpressionI4RC!A15</f>
         <v>dateOfImmunohistochemistry</v>
       </c>
@@ -9486,14 +9481,14 @@
         <v>Date of immunohistochemistry (O)</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9513,14 +9508,14 @@
         <v>Circulating Tumour DNA (ctDNA) performed (R)</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="39" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9531,7 +9526,7 @@
       <c r="B17" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="120" t="str">
+      <c r="C17" s="5" t="str">
         <f>GeneticTestExpressionI4RC!A17</f>
         <v>dateOfCtdna</v>
       </c>
@@ -9540,14 +9535,14 @@
         <v>Date of ctDNA (O)</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
         <v>114</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -9570,7 +9565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
@@ -9607,7 +9602,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>99</v>
@@ -9619,7 +9614,7 @@
         <v>400</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>15</v>
@@ -9645,7 +9640,7 @@
         <v>401</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>15</v>
@@ -9671,7 +9666,7 @@
         <v>403</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>15</v>
@@ -9697,7 +9692,7 @@
         <v>404</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>15</v>
@@ -9725,7 +9720,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" style="56" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" style="56" customWidth="1"/>
@@ -9773,7 +9768,7 @@
         <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D2" s="55" t="str">
         <f>EpisodeEventI4RC!D2</f>
@@ -9799,7 +9794,7 @@
         <v>112</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D3" s="55" t="str">
         <f>EpisodeEventI4RC!D2</f>
@@ -9839,7 +9834,7 @@
         <v>114</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9858,7 +9853,7 @@
         <v>Defined At (O)</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54" t="s">
@@ -9884,7 +9879,7 @@
         <v>Date of episode (M)</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="54" t="s">
@@ -10003,7 +9998,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59" style="14" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="14" customWidth="1"/>
@@ -10056,7 +10051,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>15</v>
@@ -10082,7 +10077,7 @@
         <v>395</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>15</v>
@@ -10108,7 +10103,7 @@
         <v>397</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>15</v>
@@ -10134,7 +10129,7 @@
         <v>399</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>15</v>
@@ -10160,7 +10155,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -10494,7 +10489,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.140625" customWidth="1"/>
     <col min="2" max="2" width="67.85546875" style="4" customWidth="1"/>
@@ -10653,7 +10648,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -10714,7 +10709,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -10801,7 +10796,7 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E6" t="s">
         <v>845</v>
@@ -10858,7 +10853,7 @@
       <selection activeCell="E4" sqref="E4:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" style="56" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" style="56" customWidth="1"/>
@@ -10903,7 +10898,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C2" s="54" t="str">
         <f>IsolatedLimbPerfusionI4RC!A2</f>
@@ -10921,7 +10916,7 @@
         <v>118</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -10930,7 +10925,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C3" s="54" t="str">
         <f>IsolatedLimbPerfusionI4RC!A3</f>
@@ -10955,7 +10950,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C4" s="54" t="str">
         <f>IsolatedLimbPerfusionI4RC!A4</f>
@@ -10973,7 +10968,7 @@
         <v>118</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -10982,7 +10977,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C5" s="54" t="str">
         <f>IsolatedLimbPerfusionI4RC!A4</f>
@@ -10993,7 +10988,7 @@
         <v>Isolated Limb perfusion Hospital (M)</v>
       </c>
       <c r="E5" s="109" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54" t="s">
@@ -11009,7 +11004,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C6" s="54" t="str">
         <f>IsolatedLimbPerfusionI4RC!A5</f>
@@ -11020,7 +11015,7 @@
         <v>Start date (M)</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="54" t="s">
@@ -11034,7 +11029,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C7" s="54" t="str">
         <f>IsolatedLimbPerfusionI4RC!A6</f>
@@ -11045,7 +11040,7 @@
         <v>End date (M)</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54" t="s">
@@ -11059,7 +11054,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C8" s="54" t="str">
         <f>IsolatedLimbPerfusionI4RC!A7</f>
@@ -11070,7 +11065,7 @@
         <v>Treatment response (R)</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="16" t="s">
@@ -11183,7 +11178,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
@@ -11336,7 +11331,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79.42578125" style="56" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" style="56" customWidth="1"/>
@@ -11381,7 +11376,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C2" s="54" t="str">
         <f>OverallTreatmentResponseI4RC!A2</f>
@@ -11392,7 +11387,7 @@
         <v>Diagnosis reference (M)</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="54" t="s">
@@ -11406,7 +11401,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C3" s="54" t="str">
         <f>OverallTreatmentResponseI4RC!A3</f>
@@ -11417,7 +11412,7 @@
         <v>Episode Event Reference (M)</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F3" s="54"/>
       <c r="G3" s="54" t="s">
@@ -11431,7 +11426,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C4" s="69" t="str">
         <f>OverallTreatmentResponseI4RC!A4</f>
@@ -11442,7 +11437,7 @@
         <v>Overall Treatment response (based on imaging alone; no recist or other criteria) (M)</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="16" t="s">
@@ -11456,7 +11451,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C5" s="82" t="str">
         <f>OverallTreatmentResponseI4RC!A5</f>
@@ -11474,7 +11469,7 @@
         <v>118</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11483,7 +11478,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C6" s="82" t="str">
         <f>OverallTreatmentResponseI4RC!A5</f>
@@ -11494,7 +11489,7 @@
         <v>Overall Treatment response defined/done (M)</v>
       </c>
       <c r="E6" s="109" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="54" t="s">
@@ -11613,7 +11608,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
@@ -12311,7 +12306,7 @@
       <selection activeCell="H18" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" style="56" customWidth="1"/>
     <col min="2" max="2" width="78.140625" style="56" customWidth="1"/>
@@ -12367,7 +12362,7 @@
         <v>Diagnosis Reference (M)</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -12381,7 +12376,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C3" s="81" t="str">
         <f>PathologicalStageI4RC!A3</f>
@@ -12392,7 +12387,7 @@
         <v>Staging procedures done by (M)</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -12406,7 +12401,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C4" s="81" t="str">
         <f>PathologicalStageI4RC!A4</f>
@@ -12417,14 +12412,14 @@
         <v>pT (M)</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="54" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12433,7 +12428,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C5" s="81" t="str">
         <f>PathologicalStageI4RC!A4</f>
@@ -12444,14 +12439,14 @@
         <v>pT (M)</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12460,7 +12455,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C6" s="81" t="str">
         <f>PathologicalStageI4RC!A5</f>
@@ -12471,23 +12466,23 @@
         <v>pN (M)</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$8</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C7" s="81" t="str">
         <f>PathologicalStageI4RC!A5</f>
@@ -12498,14 +12493,14 @@
         <v>pN (M)</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12514,7 +12509,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C8" s="81" t="str">
         <f>PathologicalStageI4RC!A6</f>
@@ -12525,14 +12520,14 @@
         <v>pM (M)</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -12541,7 +12536,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C9" s="81" t="str">
         <f>PathologicalStageI4RC!A6</f>
@@ -12552,14 +12547,14 @@
         <v>pM (M)</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -12568,7 +12563,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C10" s="81" t="str">
         <f>PathologicalStageI4RC!A7</f>
@@ -12579,14 +12574,14 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12595,7 +12590,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C11" s="81" t="str">
         <f>PathologicalStageI4RC!A7</f>
@@ -12606,7 +12601,7 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="67" t="s">
@@ -12620,7 +12615,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C12" s="97" t="str">
         <f>PathologicalStageI4RC!A8</f>
@@ -12631,14 +12626,14 @@
         <v>Sentinel node (M)</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12647,7 +12642,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C13" s="81" t="str">
         <f>PathologicalStageI4RC!A9</f>
@@ -12658,14 +12653,14 @@
         <v>Pathological staging (M)</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12674,7 +12669,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C14" s="81" t="str">
         <f>PathologicalStageI4RC!A10</f>
@@ -12685,14 +12680,14 @@
         <v>Localised (M)</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12701,7 +12696,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C15" s="81" t="str">
         <f>PathologicalStageI4RC!A10</f>
@@ -12712,14 +12707,14 @@
         <v>Localised (M)</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12728,7 +12723,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C16" s="54" t="str">
         <f>PathologicalStageI4RC!A11</f>
@@ -12739,14 +12734,14 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12755,7 +12750,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C17" s="90" t="str">
         <f>PathologicalStageI4RC!A11</f>
@@ -12766,7 +12761,7 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="67" t="s">
@@ -12780,7 +12775,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B18" s="115" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C18" s="110" t="str">
         <f>PathologicalStageI4RC!A12</f>
@@ -12791,14 +12786,14 @@
         <v>Loco-regional (M)</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="54" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12807,7 +12802,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B19" s="115" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C19" s="110" t="str">
         <f>PathologicalStageI4RC!A13</f>
@@ -12818,14 +12813,14 @@
         <v>Is Transit metastasis with clinical confirmation (M)</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F19" s="54"/>
       <c r="G19" s="54" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12834,7 +12829,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B20" s="115" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C20" s="110" t="str">
         <f>PathologicalStageI4RC!A14</f>
@@ -12845,14 +12840,14 @@
         <v>Is Multifocal tumor (M)</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="54" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12861,7 +12856,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C21" s="91" t="str">
         <f>PathologicalStageI4RC!A15</f>
@@ -12872,14 +12867,14 @@
         <v>Regional nodal metastases (M)</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12888,7 +12883,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C22" s="91" t="str">
         <f>PathologicalStageI4RC!A16</f>
@@ -12899,7 +12894,7 @@
         <v>sites (R)</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
@@ -12913,7 +12908,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C23" s="91" t="str">
         <f>PathologicalStageI4RC!A17</f>
@@ -12924,14 +12919,14 @@
         <v>Soft tissue (R)</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12940,7 +12935,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C24" s="91" t="str">
         <f>PathologicalStageI4RC!A18</f>
@@ -12951,14 +12946,14 @@
         <v>distant lymph node (R)</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -12967,7 +12962,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C25" s="91" t="str">
         <f>PathologicalStageI4RC!A19</f>
@@ -12978,14 +12973,14 @@
         <v>lung (R)</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -12994,7 +12989,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C26" s="91" t="str">
         <f>PathologicalStageI4RC!A20</f>
@@ -13005,14 +13000,14 @@
         <v>metastasisAtBone (R)</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -13021,7 +13016,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C27" s="91" t="str">
         <f>PathologicalStageI4RC!A21</f>
@@ -13032,14 +13027,14 @@
         <v>liver (R)</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -13048,7 +13043,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C28" s="91" t="str">
         <f>PathologicalStageI4RC!A22</f>
@@ -13059,14 +13054,14 @@
         <v>pleura (R)</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -13075,7 +13070,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C29" s="91" t="str">
         <f>PathologicalStageI4RC!A23</f>
@@ -13086,14 +13081,14 @@
         <v>peritoneum (R)</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -13102,7 +13097,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C30" s="91" t="str">
         <f>PathologicalStageI4RC!A24</f>
@@ -13113,14 +13108,14 @@
         <v>brain (R)</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -13129,7 +13124,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C31" s="91" t="str">
         <f>PathologicalStageI4RC!A25</f>
@@ -13140,14 +13135,14 @@
         <v>other viscera (R)</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -13156,7 +13151,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C32" s="91" t="str">
         <f>PathologicalStageI4RC!A26</f>
@@ -13167,14 +13162,14 @@
         <v>unknown (R)</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -13198,7 +13193,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59" style="14" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="14" customWidth="1"/>
@@ -13467,7 +13462,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.7109375" customWidth="1"/>
     <col min="2" max="2" width="59" style="4" customWidth="1"/>
@@ -13554,7 +13549,7 @@
         <v>114</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13606,7 +13601,7 @@
         <v>118</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13795,7 +13790,7 @@
         <v>114</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13822,7 +13817,7 @@
         <v>114</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13962,7 +13957,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
@@ -14025,7 +14020,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -14571,7 +14566,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B24" t="s">
         <v>178</v>
@@ -14580,10 +14575,10 @@
         <v>167</v>
       </c>
       <c r="D24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E24" t="s">
         <v>1144</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1145</v>
       </c>
       <c r="F24" t="s">
         <v>169</v>
@@ -14592,7 +14587,7 @@
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -14815,14 +14810,14 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" style="4" customWidth="1"/>
   </cols>
@@ -14855,19 +14850,19 @@
     </row>
     <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>869</v>
+        <v>1218</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>70</v>
+        <v>1219</v>
       </c>
       <c r="D2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>870</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>871</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -14881,7 +14876,7 @@
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -14890,10 +14885,10 @@
         <v>167</v>
       </c>
       <c r="D3" t="s">
+        <v>872</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>873</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>874</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -14907,7 +14902,7 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -14916,10 +14911,10 @@
         <v>103</v>
       </c>
       <c r="D4" t="s">
+        <v>875</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>876</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>877</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -14933,7 +14928,7 @@
     </row>
     <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -14942,10 +14937,10 @@
         <v>167</v>
       </c>
       <c r="D5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>879</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>880</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -14954,7 +14949,7 @@
         <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -14973,7 +14968,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79.42578125" style="56" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" style="56" customWidth="1"/>
@@ -15018,7 +15013,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C2" s="81" t="str">
         <f>RadiotherapyI4RC!A2</f>
@@ -15043,7 +15038,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C3" s="81" t="str">
         <f>RadiotherapyI4RC!A3</f>
@@ -15068,7 +15063,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C4" s="110" t="str">
         <f>RadiotherapyI4RC!A4</f>
@@ -15086,7 +15081,7 @@
         <v>118</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -15095,7 +15090,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C5" s="110" t="str">
         <f>RadiotherapyI4RC!A4</f>
@@ -15106,7 +15101,7 @@
         <v>Radiotherapy Hospital (M)</v>
       </c>
       <c r="E5" s="109" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54" t="s">
@@ -15122,7 +15117,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C6" s="81" t="str">
         <f>RadiotherapyI4RC!A5</f>
@@ -15133,14 +15128,14 @@
         <v>Intent (M)</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15149,7 +15144,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C7" s="90" t="str">
         <f>RadiotherapyI4RC!A6</f>
@@ -15160,7 +15155,7 @@
         <v>Setting (M (only if Intent is Curative OR Unknown))</v>
       </c>
       <c r="E7" s="92" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="67" t="s">
@@ -15174,7 +15169,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C8" s="96" t="str">
         <f>RadiotherapyI4RC!A7</f>
@@ -15185,14 +15180,14 @@
         <v>Beam quality (M)</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15201,7 +15196,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C9" s="96" t="str">
         <f>RadiotherapyI4RC!A8</f>
@@ -15212,7 +15207,7 @@
         <v>Other; specify (O)</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="67" t="s">
@@ -15226,7 +15221,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C10" s="96" t="str">
         <f>RadiotherapyI4RC!A9</f>
@@ -15237,14 +15232,14 @@
         <v>Treatment technique (M)</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15253,7 +15248,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C11" s="96" t="str">
         <f>RadiotherapyI4RC!A10</f>
@@ -15264,7 +15259,7 @@
         <v>Total Dose (TD) Gy (M)</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="67" t="s">
@@ -15278,7 +15273,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C12" s="83" t="str">
         <f>RadiotherapyI4RC!A11</f>
@@ -15289,7 +15284,7 @@
         <v>Total High Dose (Gy) (R)</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
@@ -15301,7 +15296,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C13" s="96" t="str">
         <f>RadiotherapyI4RC!A12</f>
@@ -15312,7 +15307,7 @@
         <v>Number of fractions (M)</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="67" t="s">
@@ -15326,7 +15321,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C14" s="102" t="str">
         <f>RadiotherapyI4RC!A13</f>
@@ -15349,7 +15344,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C15" s="81" t="str">
         <f>RadiotherapyI4RC!A14</f>
@@ -15360,14 +15355,14 @@
         <v>IGRT  (image guide radiotherapy) (O)</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15376,7 +15371,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C16" s="81" t="str">
         <f>RadiotherapyI4RC!A15</f>
@@ -15387,12 +15382,12 @@
         <v>Reirradiation (local or regional) (O)</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="55" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15401,7 +15396,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C17" s="97" t="str">
         <f>RadiotherapyI4RC!A16</f>
@@ -15412,14 +15407,14 @@
         <v>Field of Re-irradiation (O)</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -15428,7 +15423,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C18" s="81" t="str">
         <f>RadiotherapyI4RC!A17</f>
@@ -15439,7 +15434,7 @@
         <v>Start date (M)</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="67" t="s">
@@ -15453,7 +15448,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C19" s="81" t="str">
         <f>RadiotherapyI4RC!A18</f>
@@ -15464,7 +15459,7 @@
         <v>End  date (M)</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="67" t="s">
@@ -15478,7 +15473,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C20" s="97" t="str">
         <f>RadiotherapyI4RC!A19</f>
@@ -15489,14 +15484,14 @@
         <v>Treatment site primary only (M (suggest to modify the label into Primary only))</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15505,7 +15500,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C21" s="97" t="str">
         <f>RadiotherapyI4RC!A20</f>
@@ -15516,14 +15511,14 @@
         <v>Treatment site neck only (M (suggest to modify the label into Neck only))</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15532,7 +15527,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C22" s="97" t="str">
         <f>RadiotherapyI4RC!A21</f>
@@ -15543,14 +15538,14 @@
         <v>Treatment site primary and ipsilateral neck (M)</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15559,7 +15554,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C23" s="97" t="str">
         <f>RadiotherapyI4RC!A22</f>
@@ -15570,14 +15565,14 @@
         <v>Treatment site primary and bilateral neck (M)</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -15586,7 +15581,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C24" s="97" t="str">
         <f>RadiotherapyI4RC!A23</f>
@@ -15597,14 +15592,14 @@
         <v>Treatment site distant metastasis (M)</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -15613,7 +15608,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C25" s="97" t="str">
         <f>RadiotherapyI4RC!A24</f>
@@ -15624,7 +15619,7 @@
         <v>Other Treatment Site (O)</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="67" t="s">
@@ -15638,7 +15633,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C26" s="97" t="str">
         <f>RadiotherapyI4RC!A25</f>
@@ -15649,14 +15644,14 @@
         <v>Metastatic treatment site lung (R)</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -15665,7 +15660,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C27" s="97" t="str">
         <f>RadiotherapyI4RC!A26</f>
@@ -15676,14 +15671,14 @@
         <v>Metastatic treatment site mediastinum (R)</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -15692,7 +15687,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C28" s="97" t="str">
         <f>RadiotherapyI4RC!A27</f>
@@ -15703,14 +15698,14 @@
         <v>Metastatic treatment site bone (R)</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -15719,7 +15714,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C29" s="97" t="str">
         <f>RadiotherapyI4RC!A28</f>
@@ -15730,14 +15725,14 @@
         <v>Metastatic treatment site soft tissue (R)</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -15746,7 +15741,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C30" s="97" t="str">
         <f>RadiotherapyI4RC!A29</f>
@@ -15757,14 +15752,14 @@
         <v>Metastatic treatment site liver (R)</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -15773,7 +15768,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C31" s="81" t="str">
         <f>RadiotherapyI4RC!A30</f>
@@ -15784,14 +15779,14 @@
         <v>RT Treatment Completed as Planned? (M)</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -15800,7 +15795,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C32" s="97" t="str">
         <f>RadiotherapyI4RC!A31</f>
@@ -15811,7 +15806,7 @@
         <v>Regional deep hyperthemia (M)</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="67" t="s">
@@ -15825,7 +15820,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C33" s="97" t="str">
         <f>RadiotherapyI4RC!A32</f>
@@ -15836,7 +15831,7 @@
         <v>Treatment response (R)</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
@@ -15862,7 +15857,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -15922,7 +15917,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -16066,7 +16061,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.85546875" style="56" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" style="56" customWidth="1"/>
@@ -16111,7 +16106,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C2" s="54" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A2</f>
@@ -16129,7 +16124,7 @@
         <v>118</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -16138,7 +16133,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C3" s="54" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A3</f>
@@ -16157,13 +16152,13 @@
       </c>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$15</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C4" s="54" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A4</f>
@@ -16173,7 +16168,7 @@
         <f>RegionalDeepHyperthemiaI4RC!D4</f>
         <v>RegionalDeepHyperthemia done atHospital (M)</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="54" t="s">
         <v>408</v>
       </c>
       <c r="F4" s="54"/>
@@ -16181,16 +16176,16 @@
         <v>118</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$15</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C5" s="54" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A4</f>
@@ -16200,8 +16195,8 @@
         <f>RegionalDeepHyperthemiaI4RC!D4</f>
         <v>RegionalDeepHyperthemia done atHospital (M)</v>
       </c>
-      <c r="E5" s="123" t="s">
-        <v>1147</v>
+      <c r="E5" s="54" t="s">
+        <v>1146</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54" t="s">
@@ -16217,7 +16212,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C6" s="54" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A5</f>
@@ -16228,7 +16223,7 @@
         <v>Start date (M)</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="54" t="s">
@@ -16242,7 +16237,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C7" s="54" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A6</f>
@@ -16253,7 +16248,7 @@
         <v>End  date (M)</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54" t="s">
@@ -16267,7 +16262,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C8" s="54" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A7</f>
@@ -16278,7 +16273,7 @@
         <v>Treatment response (R)</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="16" t="s">
@@ -16390,7 +16385,7 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59" style="14" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="14" customWidth="1"/>
@@ -16443,7 +16438,7 @@
         <v>232</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>15</v>
@@ -16469,7 +16464,7 @@
         <v>235</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>15</v>
@@ -16495,7 +16490,7 @@
         <v>239</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>15</v>
@@ -16521,7 +16516,7 @@
         <v>241</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>15</v>
@@ -16547,7 +16542,7 @@
         <v>244</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>15</v>
@@ -16573,7 +16568,7 @@
         <v>247</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>15</v>
@@ -16599,7 +16594,7 @@
         <v>249</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>15</v>
@@ -16625,7 +16620,7 @@
         <v>252</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>15</v>
@@ -16651,7 +16646,7 @@
         <v>254</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>15</v>
@@ -16677,7 +16672,7 @@
         <v>257</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>15</v>
@@ -16703,7 +16698,7 @@
         <v>259</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>15</v>
@@ -17242,7 +17237,7 @@
         <v>299</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>15</v>
@@ -17268,7 +17263,7 @@
         <v>301</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>15</v>
@@ -17294,7 +17289,7 @@
         <v>304</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>15</v>
@@ -17320,7 +17315,7 @@
         <v>306</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>15</v>
@@ -17346,7 +17341,7 @@
         <v>309</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>169</v>
@@ -17372,7 +17367,7 @@
         <v>312</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>169</v>
@@ -17398,7 +17393,7 @@
         <v>315</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>169</v>
@@ -17424,7 +17419,7 @@
         <v>318</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>169</v>
@@ -17450,7 +17445,7 @@
         <v>321</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>169</v>
@@ -17476,7 +17471,7 @@
         <v>324</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>169</v>
@@ -17502,7 +17497,7 @@
         <v>327</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>169</v>
@@ -17528,7 +17523,7 @@
         <v>330</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>169</v>
@@ -17554,7 +17549,7 @@
         <v>333</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>169</v>
@@ -17580,7 +17575,7 @@
         <v>336</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>169</v>
@@ -17606,7 +17601,7 @@
         <v>339</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>169</v>
@@ -17632,7 +17627,7 @@
         <v>342</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>169</v>
@@ -17658,7 +17653,7 @@
         <v>345</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>15</v>
@@ -17681,10 +17676,10 @@
         <v>167</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>169</v>
@@ -17711,7 +17706,7 @@
   <sheetViews>
     <sheetView topLeftCell="B21" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.85546875" customWidth="1"/>
     <col min="2" max="2" width="76.140625" customWidth="1"/>
@@ -19032,7 +19027,7 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
@@ -19094,7 +19089,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>99</v>
@@ -19132,7 +19127,7 @@
         <v>419</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F4" s="41" t="s">
         <v>169</v>
@@ -19184,7 +19179,7 @@
         <v>425</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F6" s="41" t="s">
         <v>15</v>
@@ -19245,7 +19240,7 @@
         <v>169</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -19545,10 +19540,10 @@
         <v>256</v>
       </c>
       <c r="D20" s="28" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E20" s="101" t="s">
         <v>1133</v>
-      </c>
-      <c r="E20" s="101" t="s">
-        <v>1134</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>15</v>
@@ -19860,7 +19855,7 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.140625" style="56" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" style="56" customWidth="1"/>
@@ -19963,7 +19958,7 @@
         <v>Surgery type (M)</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="54" t="s">
@@ -19994,7 +19989,7 @@
         <v>118</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -20011,7 +20006,7 @@
         <v>Surgery Hospital (M)</v>
       </c>
       <c r="E6" s="109" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="5" t="s">
@@ -20085,7 +20080,7 @@
         <v>Type of surgical approach on Tumour (M)</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="54" t="s">
@@ -20109,7 +20104,7 @@
         <v>Margins after surgery (M)</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="54" t="s">
@@ -20133,14 +20128,14 @@
         <v>Tumor rupture (M)</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -20148,7 +20143,7 @@
         <v>405</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C12" s="100" t="str">
         <f>SurgeryI4RC!A11</f>
@@ -20159,7 +20154,7 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="67" t="s">
@@ -20172,7 +20167,7 @@
         <v>405</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C13" s="100" t="str">
         <f>SurgeryI4RC!A12</f>
@@ -20183,14 +20178,14 @@
         <v>Surgical specimen Mitotic count (M)</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -20235,8 +20230,8 @@
       <c r="E15" s="66"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
-      <c r="H15" s="122" t="s">
-        <v>1192</v>
+      <c r="H15" s="55" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20246,7 +20241,7 @@
       <c r="B16" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C16" s="120" t="str">
+      <c r="C16" s="5" t="str">
         <f>SurgeryI4RC!A15</f>
         <v>neckSurgery</v>
       </c>
@@ -20255,14 +20250,14 @@
         <v>Neck surgery (M)</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20272,7 +20267,7 @@
       <c r="B17" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="120" t="str">
+      <c r="C17" s="5" t="str">
         <f>SurgeryI4RC!A16</f>
         <v>dateOfNeckSurgery</v>
       </c>
@@ -20288,7 +20283,7 @@
         <v>118</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20298,7 +20293,7 @@
       <c r="B18" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C18" s="120" t="str">
+      <c r="C18" s="5" t="str">
         <f>SurgeryI4RC!A17</f>
         <v>lateralityOfTheDissection</v>
       </c>
@@ -20307,14 +20302,14 @@
         <v>Laterality of the dissection (M)</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -20324,7 +20319,7 @@
       <c r="B19" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C19" s="120" t="str">
+      <c r="C19" s="5" t="str">
         <f>SurgeryI4RC!A18</f>
         <v>surgeryOnM</v>
       </c>
@@ -20338,7 +20333,7 @@
         <v>118</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -20348,7 +20343,7 @@
       <c r="B20" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C20" s="120" t="str">
+      <c r="C20" s="5" t="str">
         <f>SurgeryI4RC!A19</f>
         <v>dateOfSurgeryOnM</v>
       </c>
@@ -20364,7 +20359,7 @@
         <v>118</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -20374,7 +20369,7 @@
       <c r="B21" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C21" s="120" t="str">
+      <c r="C21" s="5" t="str">
         <f>SurgeryI4RC!A20</f>
         <v>siteOfSurgeryOnMetastasis</v>
       </c>
@@ -20383,7 +20378,7 @@
         <v>Site of surgery on metastasis</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="5" t="s">
@@ -20397,7 +20392,7 @@
       <c r="B22" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C22" s="120" t="str">
+      <c r="C22" s="5" t="str">
         <f>SurgeryI4RC!A21</f>
         <v>siteOfSurgeryOnMetastasis.softTissue</v>
       </c>
@@ -20406,14 +20401,14 @@
         <v>Site of surgery on metastasis_soft tissue (O)</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20423,7 +20418,7 @@
       <c r="B23" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C23" s="120" t="str">
+      <c r="C23" s="5" t="str">
         <f>SurgeryI4RC!A22</f>
         <v>siteOfSurgeryOnMetastasis.distantLymphNodes</v>
       </c>
@@ -20432,14 +20427,14 @@
         <v>Site of surgery on metastasis_distant lymph nodes (O)</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20449,7 +20444,7 @@
       <c r="B24" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C24" s="120" t="str">
+      <c r="C24" s="5" t="str">
         <f>SurgeryI4RC!A23</f>
         <v>siteOfSurgeryOnMetastasis.lung</v>
       </c>
@@ -20458,14 +20453,14 @@
         <v>Site of surgery on metastasis_lung (O)</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20475,7 +20470,7 @@
       <c r="B25" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C25" s="120" t="str">
+      <c r="C25" s="5" t="str">
         <f>SurgeryI4RC!A24</f>
         <v>siteOfSurgeryOnMetastasis.bone</v>
       </c>
@@ -20484,14 +20479,14 @@
         <v>Site of surgery on metastasis_bone (O)</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20501,7 +20496,7 @@
       <c r="B26" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C26" s="120" t="str">
+      <c r="C26" s="5" t="str">
         <f>SurgeryI4RC!A25</f>
         <v>siteOfSurgeryOnMetastasis.liver</v>
       </c>
@@ -20510,14 +20505,14 @@
         <v>Site of surgery on metastasis_liver (O)</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20527,7 +20522,7 @@
       <c r="B27" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C27" s="120" t="str">
+      <c r="C27" s="5" t="str">
         <f>SurgeryI4RC!A26</f>
         <v>siteOfSurgeryOnMetastasis.pleura</v>
       </c>
@@ -20536,14 +20531,14 @@
         <v>Site of surgery on metastasis_pleura (O)</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20553,7 +20548,7 @@
       <c r="B28" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="120" t="str">
+      <c r="C28" s="5" t="str">
         <f>SurgeryI4RC!A27</f>
         <v>siteOfSurgeryOnMetastasis.peritoneum</v>
       </c>
@@ -20562,14 +20557,14 @@
         <v>Site of surgery on metastasis_peritoneum (O)</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F28" s="54"/>
       <c r="G28" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20579,7 +20574,7 @@
       <c r="B29" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C29" s="120" t="str">
+      <c r="C29" s="5" t="str">
         <f>SurgeryI4RC!A28</f>
         <v>siteOfSurgeryOnMetastasis.brain</v>
       </c>
@@ -20588,14 +20583,14 @@
         <v>Site of surgery on metastasis_brain (O)</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20605,7 +20600,7 @@
       <c r="B30" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C30" s="120" t="str">
+      <c r="C30" s="5" t="str">
         <f>SurgeryI4RC!A29</f>
         <v>siteOfSurgeryOnMetastasis.otherViscera</v>
       </c>
@@ -20614,14 +20609,14 @@
         <v>Site of surgery on metastasis_other viscera (O)</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20631,7 +20626,7 @@
       <c r="B31" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C31" s="120" t="str">
+      <c r="C31" s="5" t="str">
         <f>SurgeryI4RC!A30</f>
         <v>siteOfSurgeryOnMetastasis.unknown</v>
       </c>
@@ -20640,14 +20635,14 @@
         <v>Site of surgery on metastasis_unknown (O)</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -20657,7 +20652,7 @@
       <c r="B32" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="C32" s="120" t="str">
+      <c r="C32" s="5" t="str">
         <f>SurgeryI4RC!A31</f>
         <v>surgicalComplications</v>
       </c>
@@ -20666,7 +20661,7 @@
         <v>Surgical complications (Clavien-Dindo Classification) (M)</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="67" t="s">
@@ -20717,7 +20712,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -20764,7 +20759,7 @@
         <v>413</v>
       </c>
       <c r="E2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -20790,7 +20785,7 @@
         <v>416</v>
       </c>
       <c r="E3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -20816,7 +20811,7 @@
         <v>726</v>
       </c>
       <c r="E4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -20842,7 +20837,7 @@
         <v>728</v>
       </c>
       <c r="E5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -20868,7 +20863,7 @@
         <v>731</v>
       </c>
       <c r="E6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -20894,7 +20889,7 @@
         <v>733</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -20920,7 +20915,7 @@
         <v>736</v>
       </c>
       <c r="E8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F8" t="s">
         <v>169</v>
@@ -20946,7 +20941,7 @@
         <v>739</v>
       </c>
       <c r="E9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -20972,7 +20967,7 @@
         <v>741</v>
       </c>
       <c r="E10" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -20998,7 +20993,7 @@
         <v>743</v>
       </c>
       <c r="E11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -21024,7 +21019,7 @@
         <v>745</v>
       </c>
       <c r="E12" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -21050,7 +21045,7 @@
         <v>748</v>
       </c>
       <c r="E13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -21076,7 +21071,7 @@
         <v>750</v>
       </c>
       <c r="E14" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -21102,7 +21097,7 @@
         <v>752</v>
       </c>
       <c r="E15" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -21128,7 +21123,7 @@
         <v>755</v>
       </c>
       <c r="E16" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -21152,11 +21147,11 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" style="56" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" style="56" customWidth="1"/>
@@ -21201,7 +21196,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C2" s="54" t="str">
         <f>SystemicTreatmentI4RC!A2</f>
@@ -21212,7 +21207,7 @@
         <v>Diagnosis reference (M)</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="67" t="s">
@@ -21226,7 +21221,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C3" s="54" t="str">
         <f>SystemicTreatmentI4RC!A3</f>
@@ -21237,7 +21232,7 @@
         <v>Episode Event reference (M)</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="67" t="s">
@@ -21251,7 +21246,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C4" s="54" t="str">
         <f>SystemicTreatmentI4RC!A4</f>
@@ -21262,7 +21257,7 @@
         <v>SystemicTreatment Hospital (M)</v>
       </c>
       <c r="E4" s="109" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
@@ -21274,7 +21269,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C5" s="54" t="str">
         <f>SystemicTreatmentI4RC!A4</f>
@@ -21285,7 +21280,7 @@
         <v>SystemicTreatment Hospital (M)</v>
       </c>
       <c r="E5" s="109" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="54"/>
@@ -21297,7 +21292,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C6" s="109" t="str">
         <f>SystemicTreatmentI4RC!A5</f>
@@ -21308,14 +21303,14 @@
         <v>type of systemic treatment (M)</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21324,7 +21319,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C7" s="109" t="str">
         <f>SystemicTreatmentI4RC!A6</f>
@@ -21335,7 +21330,7 @@
         <v>Intent (O)</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="67" t="s">
@@ -21349,7 +21344,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C8" s="109" t="str">
         <f>SystemicTreatmentI4RC!A7</f>
@@ -21360,14 +21355,14 @@
         <v>Setting (O)</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21376,7 +21371,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C9" s="109" t="str">
         <f>SystemicTreatmentI4RC!A8</f>
@@ -21387,14 +21382,14 @@
         <v>Chemotherapy info (O)</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -21403,7 +21398,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C10" s="54" t="str">
         <f>SystemicTreatmentI4RC!A9</f>
@@ -21414,7 +21409,7 @@
         <v>Start date systemic treatment (M)</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="67" t="s">
@@ -21428,7 +21423,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C11" s="54" t="str">
         <f>SystemicTreatmentI4RC!A10</f>
@@ -21439,7 +21434,7 @@
         <v>End date systemic treatment (M)</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="67" t="s">
@@ -21453,7 +21448,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C12" s="110" t="str">
         <f>SystemicTreatmentI4RC!A11</f>
@@ -21464,7 +21459,7 @@
         <v>Number of cycles/ administrations (O)</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="67" t="s">
@@ -21478,7 +21473,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C13" s="54" t="str">
         <f>SystemicTreatmentI4RC!A12</f>
@@ -21489,14 +21484,14 @@
         <v>Regimen (O)</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="88" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21505,7 +21500,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C14" s="54" t="str">
         <f>SystemicTreatmentI4RC!A13</f>
@@ -21516,14 +21511,14 @@
         <v>Start date regimen changed (M)</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21532,7 +21527,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C15" s="54" t="str">
         <f>SystemicTreatmentI4RC!A14</f>
@@ -21543,14 +21538,14 @@
         <v>End date regimen changed (M)</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="67" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -21559,7 +21554,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C16" s="83" t="str">
         <f>SystemicTreatmentI4RC!A15</f>
@@ -21570,14 +21565,14 @@
         <v>Reason for end of treatment (M)</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21586,7 +21581,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C17" s="54" t="str">
         <f>SystemicTreatmentI4RC!A16</f>
@@ -21597,7 +21592,7 @@
         <v>Treatment response (based on imaging alone; no recist or other criteria) (M)</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="67" t="s">
@@ -21672,7 +21667,7 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.140625" customWidth="1"/>
     <col min="2" max="2" width="72.28515625" customWidth="1"/>
@@ -21716,18 +21711,18 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>AdverseEventI4RC!A2</f>
-        <v>treatmentReference</v>
+        <v>treatmentReference[x]</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>AdverseEventI4RC!D2</f>
         <v>Treatment reference (M)</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="39" t="s">
@@ -21741,7 +21736,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>AdverseEventI4RC!A3</f>
@@ -21752,7 +21747,7 @@
         <v>Adverse event type (CTCAE Term) (M)</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39" t="s">
@@ -21766,7 +21761,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C4" s="87" t="str">
         <f>AdverseEventI4RC!A4</f>
@@ -21777,7 +21772,7 @@
         <v>Adverse event starting date (M)</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39" t="s">
@@ -21791,7 +21786,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C5" s="87" t="str">
         <f>AdverseEventI4RC!A5</f>
@@ -21802,14 +21797,14 @@
         <v>Adverse event duration (M)</v>
       </c>
       <c r="E5" s="113" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -21842,7 +21837,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -21894,7 +21889,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -21920,7 +21915,7 @@
         <v>104</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -21948,7 +21943,7 @@
       <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="97.42578125" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" customWidth="1"/>
@@ -22118,7 +22113,7 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -23311,7 +23306,7 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" customWidth="1"/>
     <col min="2" max="2" width="90.5703125" customWidth="1"/>
@@ -23366,7 +23361,7 @@
         <v>Diagnosis Reference (M)</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -23380,7 +23375,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C3" s="37" t="str">
         <f>ClinicalStageI4RC!A3</f>
@@ -23391,7 +23386,7 @@
         <v>Staging procedures done by (M)</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -23414,14 +23409,14 @@
         <v>Imaging for primary site (M)</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23439,14 +23434,14 @@
         <v>CT for primary site (R)</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23464,14 +23459,14 @@
         <v>MRI for primary site (R)</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23489,14 +23484,14 @@
         <v>US for primary site (R)</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23514,14 +23509,14 @@
         <v>Other imaging for primary site (R)</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23539,14 +23534,14 @@
         <v>Imaging for neck (M)</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23564,14 +23559,14 @@
         <v>CT for neck (R)</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23589,14 +23584,14 @@
         <v>MRI for neck (R)</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23614,14 +23609,14 @@
         <v>US for neck (R)</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -23639,14 +23634,14 @@
         <v>Other imaging for neck (R)</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23664,14 +23659,14 @@
         <v>Imaging for metastasis (M)</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -23689,14 +23684,14 @@
         <v>CT for metastasis (R)</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -23714,14 +23709,14 @@
         <v>MRI for metastasis (R)</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23739,14 +23734,14 @@
         <v>US for metastasis (R)</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -23764,14 +23759,14 @@
         <v>Other imaging for metastasis (R)</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -23780,7 +23775,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C19" s="37" t="str">
         <f>ClinicalStageI4RC!A19</f>
@@ -23791,14 +23786,14 @@
         <v>cT (M)</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -23807,7 +23802,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C20" s="37" t="str">
         <f>ClinicalStageI4RC!A19</f>
@@ -23818,14 +23813,14 @@
         <v>cT (M)</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23834,7 +23829,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C21" s="37" t="str">
         <f>ClinicalStageI4RC!A20</f>
@@ -23845,14 +23840,14 @@
         <v>cN (M)</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23861,7 +23856,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C22" s="37" t="str">
         <f>ClinicalStageI4RC!A20</f>
@@ -23872,14 +23867,14 @@
         <v>cN (M)</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23888,7 +23883,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C23" s="37" t="str">
         <f>ClinicalStageI4RC!A21</f>
@@ -23899,14 +23894,14 @@
         <v>cM (M)</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23915,7 +23910,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C24" s="37" t="str">
         <f>ClinicalStageI4RC!A21</f>
@@ -23926,14 +23921,14 @@
         <v>cM (M)</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23942,7 +23937,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C25" s="37" t="str">
         <f>ClinicalStageI4RC!A22</f>
@@ -23953,14 +23948,14 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23969,7 +23964,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C26" s="37" t="str">
         <f>ClinicalStageI4RC!A22</f>
@@ -23980,7 +23975,7 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="67" t="s">
@@ -23994,7 +23989,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C27" s="37" t="str">
         <f>ClinicalStageI4RC!A23</f>
@@ -24005,14 +24000,14 @@
         <v>Clinical Staging (M)</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="67" t="s">
         <v>114</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -24021,7 +24016,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C28" s="37" t="str">
         <f>ClinicalStageI4RC!A24</f>
@@ -24032,20 +24027,20 @@
         <v>Localised (M)</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" s="46" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C29" s="37" t="str">
         <f>ClinicalStageI4RC!A24</f>
@@ -24056,14 +24051,14 @@
         <v>Localised (M)</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -24072,7 +24067,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C30" s="75" t="str">
         <f>ClinicalStageI4RC!A25</f>
@@ -24083,20 +24078,20 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" s="93" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C31" s="75" t="str">
         <f>ClinicalStageI4RC!A25</f>
@@ -24107,7 +24102,7 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="67" t="s">
@@ -24121,7 +24116,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C32" s="117" t="str">
         <f>ClinicalStageI4RC!A26</f>
@@ -24132,14 +24127,14 @@
         <v>Loco-regional (M)</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="54" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H32" s="55" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24148,7 +24143,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C33" s="117" t="str">
         <f>ClinicalStageI4RC!A27</f>
@@ -24159,14 +24154,14 @@
         <v>Is Transit metastasis with clinical confirmation (M)</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="54" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24175,7 +24170,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B34" s="117" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C34" s="117" t="str">
         <f>ClinicalStageI4RC!A28</f>
@@ -24186,14 +24181,14 @@
         <v>Is Multifocal tumor (M)</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="54" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H34" s="55" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24202,7 +24197,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C35" s="74" t="str">
         <f>ClinicalStageI4RC!A29</f>
@@ -24213,14 +24208,14 @@
         <v>Regional nodal metastases (M)</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -24229,7 +24224,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C36" s="74" t="str">
         <f>ClinicalStageI4RC!A30</f>
@@ -24240,7 +24235,7 @@
         <v>sites (R)</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
@@ -24254,7 +24249,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C37" s="74" t="str">
         <f>ClinicalStageI4RC!A31</f>
@@ -24265,14 +24260,14 @@
         <v>Soft tissue (R)</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24281,7 +24276,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C38" s="74" t="str">
         <f>ClinicalStageI4RC!A32</f>
@@ -24292,14 +24287,14 @@
         <v>distant lymph node (R)</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -24308,7 +24303,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C39" s="74" t="str">
         <f>ClinicalStageI4RC!A33</f>
@@ -24319,14 +24314,14 @@
         <v>lung (R)</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -24335,7 +24330,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C40" s="74" t="str">
         <f>ClinicalStageI4RC!A34</f>
@@ -24346,14 +24341,14 @@
         <v>metastasisAtBone (R)</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -24362,7 +24357,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C41" s="74" t="str">
         <f>ClinicalStageI4RC!A35</f>
@@ -24373,14 +24368,14 @@
         <v>liver (R)</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -24389,7 +24384,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C42" s="74" t="str">
         <f>ClinicalStageI4RC!A36</f>
@@ -24400,14 +24395,14 @@
         <v>pleura (R)</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -24416,7 +24411,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C43" s="74" t="str">
         <f>ClinicalStageI4RC!A37</f>
@@ -24427,14 +24422,14 @@
         <v>peritoneum (R)</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -24443,7 +24438,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C44" s="74" t="str">
         <f>ClinicalStageI4RC!A38</f>
@@ -24454,14 +24449,14 @@
         <v>brain (R)</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -24470,7 +24465,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C45" s="74" t="str">
         <f>ClinicalStageI4RC!A39</f>
@@ -24481,14 +24476,14 @@
         <v>other viscera (R)</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -24497,7 +24492,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C46" s="74" t="str">
         <f>ClinicalStageI4RC!A40</f>
@@ -24508,14 +24503,14 @@
         <v>unknown (R)</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -24544,7 +24539,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -24594,7 +24589,7 @@
         <v>165</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -24620,7 +24615,7 @@
         <v>166</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
@@ -24646,7 +24641,7 @@
         <v>168</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>169</v>
@@ -24672,7 +24667,7 @@
         <v>172</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>15</v>
@@ -24698,7 +24693,7 @@
         <v>174</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>15</v>
@@ -24724,7 +24719,7 @@
         <v>176</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>169</v>
@@ -24750,7 +24745,7 @@
         <v>179</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>15</v>
@@ -24773,10 +24768,10 @@
         <v>167</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>15</v>
@@ -24799,10 +24794,10 @@
         <v>167</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>15</v>
@@ -24825,10 +24820,10 @@
         <v>167</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>15</v>
@@ -24851,10 +24846,10 @@
         <v>167</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -24880,7 +24875,7 @@
         <v>185</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>15</v>
@@ -24906,7 +24901,7 @@
         <v>187</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>169</v>
@@ -24932,7 +24927,7 @@
         <v>188</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>169</v>
@@ -24958,7 +24953,7 @@
         <v>189</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>169</v>
@@ -24984,7 +24979,7 @@
         <v>190</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>169</v>
@@ -25010,7 +25005,7 @@
         <v>191</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>169</v>
@@ -25036,7 +25031,7 @@
         <v>193</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>15</v>
@@ -25062,7 +25057,7 @@
         <v>195</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>15</v>
@@ -25088,7 +25083,7 @@
         <v>196</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>15</v>

--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roberta\HL7EU\IDEA4RC\idea4rc2025\idea4rc\src-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3135830E-704D-444D-B516-C46457A22B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF14DADD-26D1-4E2E-9296-2BBBE4B2D1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBDA221E-EFE5-4A34-8B86-7FDF16AB25A8}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="25" xr2:uid="{DBDA221E-EFE5-4A34-8B86-7FDF16AB25A8}"/>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="32" activeTab="35" xr2:uid="{5AC1C6E0-0B35-4ABC-AFF0-9D917C4380C0}"/>
   </bookViews>
   <sheets>
@@ -3782,9 +3782,6 @@
     <t>It shows how the ClinicalStage model is mapped into this guide</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent-eu-i4rc</t>
-  </si>
-  <si>
     <t>adverseEvent2FHIR</t>
   </si>
   <si>
@@ -4517,9 +4514,6 @@
     <t>AdverseEvent.extension:OccurrenceR5</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/sarcoma-locoRegional-category</t>
-  </si>
-  <si>
     <t>Condition.onset</t>
   </si>
   <si>
@@ -4722,6 +4716,12 @@
   </si>
   <si>
     <t>isolatedLimbPerfusion2FHIR</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/adverseEvent-eu-i4rc</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/locoRegional-category</t>
   </si>
 </sst>
 </file>
@@ -5499,7 +5499,7 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
     <sheetView topLeftCell="A5" workbookViewId="1">
@@ -5740,7 +5740,7 @@
         <v>900</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5799,20 +5799,20 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/adverseEvent2FHIR</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>909</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>910</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
@@ -5830,20 +5830,20 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/diseaseExtent2FHIR</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>914</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>915</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
@@ -5861,20 +5861,20 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
+        <v>916</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>917</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>918</v>
       </c>
       <c r="C12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/geneticTestExpression2FHIR</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>919</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>920</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>13</v>
@@ -5892,20 +5892,20 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
+        <v>921</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>922</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>923</v>
       </c>
       <c r="C13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/pathologicalStage2FHIR</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>924</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>925</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>13</v>
@@ -5923,20 +5923,20 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
+        <v>925</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>926</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>927</v>
       </c>
       <c r="C14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/overallTreatmentResponse2FHIR</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>928</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>929</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>13</v>
@@ -5954,20 +5954,20 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
+        <v>930</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>931</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>932</v>
       </c>
       <c r="C15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/radiotherapy2FHIR</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>934</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>13</v>
@@ -5985,20 +5985,20 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/regionalDeepHyperthemia2FHIR</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F16" s="45" t="s">
         <v>13</v>
@@ -6016,20 +6016,20 @@
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/systemicTreatment2FHIR</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>942</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>943</v>
       </c>
       <c r="F17" s="45" t="s">
         <v>13</v>
@@ -6047,20 +6047,20 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
+        <v>943</v>
+      </c>
+      <c r="B18" s="44" t="s">
         <v>944</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>945</v>
       </c>
       <c r="C18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/drugsForTreatments2FHIR</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>946</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>947</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>13</v>
@@ -6078,20 +6078,20 @@
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/isolatedLimbPerfusion2FHIR</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>949</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>950</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>13</v>
@@ -7510,8 +7510,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
     <sheetView topLeftCell="C1" workbookViewId="1">
       <selection activeCell="G7" sqref="G7"/>
@@ -7561,7 +7561,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>DiseaseExtentI4RC!A2</f>
@@ -7572,7 +7572,7 @@
         <v>Episode Event Reference (M)</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -7586,7 +7586,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>DiseaseExtentI4RC!A3</f>
@@ -7597,20 +7597,20 @@
         <v>Localised (M)</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="17" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>DiseaseExtentI4RC!A3</f>
@@ -7621,14 +7621,14 @@
         <v>Localised (M)</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7637,7 +7637,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>DiseaseExtentI4RC!A4</f>
@@ -7648,20 +7648,20 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="17" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>DiseaseExtentI4RC!A4</f>
@@ -7672,7 +7672,7 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="24" t="s">
@@ -7685,8 +7685,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>1148</v>
+      <c r="B7" s="17" t="s">
+        <v>1216</v>
       </c>
       <c r="C7" s="64" t="str">
         <f>DiseaseExtentI4RC!A5</f>
@@ -7697,14 +7697,14 @@
         <v>Loco-regional (M)</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7712,8 +7712,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>1148</v>
+      <c r="B8" s="17" t="s">
+        <v>1216</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>DiseaseExtentI4RC!A6</f>
@@ -7724,14 +7724,14 @@
         <v>Is Transit metastasis with clinical confirmation (M)</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7739,8 +7739,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>1148</v>
+      <c r="B9" s="17" t="s">
+        <v>1216</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>DiseaseExtentI4RC!A7</f>
@@ -7751,14 +7751,14 @@
         <v>Is Multifocal tumor (M)</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7767,7 +7767,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>DiseaseExtentI4RC!A8</f>
@@ -7778,14 +7778,14 @@
         <v>Regional nodal metastases (M)</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7794,7 +7794,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>DiseaseExtentI4RC!A10</f>
@@ -7805,14 +7805,14 @@
         <v>Soft tissue (R)</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7821,7 +7821,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>DiseaseExtentI4RC!A11</f>
@@ -7832,14 +7832,14 @@
         <v>distant lymph node (R)</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7848,7 +7848,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>DiseaseExtentI4RC!A12</f>
@@ -7859,14 +7859,14 @@
         <v>lung (R)</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7875,7 +7875,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>DiseaseExtentI4RC!A13</f>
@@ -7886,14 +7886,14 @@
         <v>metastasisAtBone (R)</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7902,7 +7902,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>DiseaseExtentI4RC!A14</f>
@@ -7913,14 +7913,14 @@
         <v>liver (R)</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7929,7 +7929,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>DiseaseExtentI4RC!A15</f>
@@ -7940,14 +7940,14 @@
         <v>pleura (R)</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7956,7 +7956,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>DiseaseExtentI4RC!A16</f>
@@ -7967,14 +7967,14 @@
         <v>peritoneum (R)</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -7983,7 +7983,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>DiseaseExtentI4RC!A17</f>
@@ -7994,14 +7994,14 @@
         <v>brain (R)</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8010,7 +8010,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C19" s="2" t="str">
         <f>DiseaseExtentI4RC!A18</f>
@@ -8021,14 +8021,14 @@
         <v>other viscera (R)</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>
@@ -8255,7 +8255,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DrugsForTreatments</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>DrugsForTreatmentsI4RC!A2</f>
@@ -8266,7 +8266,7 @@
         <v>SystemicTreatment reference (M)</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="14" t="s">
@@ -8280,7 +8280,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DrugsForTreatments</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>DrugsForTreatmentsI4RC!A3</f>
@@ -8291,7 +8291,7 @@
         <v>RegionalDeepHyperthemia (M)</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="14" t="s">
@@ -8305,7 +8305,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DrugsForTreatments</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>DrugsForTreatmentsI4RC!A4</f>
@@ -8316,7 +8316,7 @@
         <v>IsolatedLimbPerfusion reference (M)</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="14" t="s">
@@ -8330,7 +8330,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DrugsForTreatments</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>DrugsForTreatmentsI4RC!A5</f>
@@ -8341,14 +8341,14 @@
         <v>Drug (M)</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8357,7 +8357,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DrugsForTreatments</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>857</v>
@@ -8366,7 +8366,7 @@
         <v>858</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="14" t="s">
@@ -8376,7 +8376,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -8976,14 +8976,14 @@
         <v>Gene expression analysis performed (R)</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9003,14 +9003,14 @@
         <v>Date of Gene expression (O)</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="8" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9030,14 +9030,14 @@
         <v>Gene mutation analysis performed (R)</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9057,14 +9057,14 @@
         <v>Date of Gene mutation (O)</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9084,14 +9084,14 @@
         <v>Tests for chromosome translocations performed (R)</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9111,14 +9111,14 @@
         <v>Date of traslocation (O)</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9138,14 +9138,14 @@
         <v>Next generation sequencing (NGS)  performed (R)</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9165,14 +9165,14 @@
         <v>Date of NGS (O)</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9192,14 +9192,14 @@
         <v>Polymerase chain reaction (PCR) test performed (R)</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9219,14 +9219,14 @@
         <v>Date of PCR (O)</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9246,14 +9246,14 @@
         <v>Immunohistochemistry  performed (R)</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9273,14 +9273,14 @@
         <v>Date of immunohistochemistry (O)</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9300,14 +9300,14 @@
         <v>Circulating Tumour DNA (ctDNA) performed (R)</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9327,14 +9327,14 @@
         <v>Date of ctDNA (O)</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>99</v>
@@ -9409,7 +9409,7 @@
         <v>400</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -9435,7 +9435,7 @@
         <v>401</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -9461,7 +9461,7 @@
         <v>403</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -9487,7 +9487,7 @@
         <v>404</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -9564,7 +9564,7 @@
         <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>EpisodeEventI4RC!D2</f>
@@ -9590,7 +9590,7 @@
         <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D3" s="15" t="str">
         <f>EpisodeEventI4RC!D2</f>
@@ -9630,7 +9630,7 @@
         <v>114</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9649,7 +9649,7 @@
         <v>Defined At (O)</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
@@ -9675,7 +9675,7 @@
         <v>Date of episode (M)</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
@@ -9850,7 +9850,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>15</v>
@@ -9876,7 +9876,7 @@
         <v>395</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F3" s="49" t="s">
         <v>15</v>
@@ -9902,7 +9902,7 @@
         <v>397</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>15</v>
@@ -9928,7 +9928,7 @@
         <v>399</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F5" s="49" t="s">
         <v>15</v>
@@ -10515,7 +10515,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -10602,7 +10602,7 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E6" t="s">
         <v>845</v>
@@ -10705,7 +10705,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>IsolatedLimbPerfusionI4RC!A2</f>
@@ -10723,7 +10723,7 @@
         <v>118</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -10732,7 +10732,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>IsolatedLimbPerfusionI4RC!A3</f>
@@ -10757,7 +10757,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>IsolatedLimbPerfusionI4RC!A4</f>
@@ -10775,7 +10775,7 @@
         <v>118</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -10784,7 +10784,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>IsolatedLimbPerfusionI4RC!A4</f>
@@ -10795,7 +10795,7 @@
         <v>Isolated Limb perfusion Hospital (M)</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
@@ -10811,7 +10811,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C6" s="14" t="str">
         <f>IsolatedLimbPerfusionI4RC!A5</f>
@@ -10822,7 +10822,7 @@
         <v>Start date (M)</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
@@ -10836,7 +10836,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="14" t="str">
         <f>IsolatedLimbPerfusionI4RC!A6</f>
@@ -10847,7 +10847,7 @@
         <v>End date (M)</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
@@ -10861,7 +10861,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/IsolatedLimbPerfusion</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C8" s="14" t="str">
         <f>IsolatedLimbPerfusionI4RC!A7</f>
@@ -10872,7 +10872,7 @@
         <v>Treatment response (R)</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="5" t="s">
@@ -11187,7 +11187,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>OverallTreatmentResponseI4RC!A2</f>
@@ -11198,7 +11198,7 @@
         <v>Diagnosis reference (M)</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14" t="s">
@@ -11212,7 +11212,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>OverallTreatmentResponseI4RC!A3</f>
@@ -11223,7 +11223,7 @@
         <v>Episode Event Reference (M)</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
@@ -11237,7 +11237,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C4" s="58" t="str">
         <f>OverallTreatmentResponseI4RC!A4</f>
@@ -11248,7 +11248,7 @@
         <v>Overall Treatment response (based on imaging alone; no recist or other criteria) (M)</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="5" t="s">
@@ -11262,7 +11262,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>OverallTreatmentResponseI4RC!A5</f>
@@ -11280,7 +11280,7 @@
         <v>118</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11289,7 +11289,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C6" s="14" t="str">
         <f>OverallTreatmentResponseI4RC!A5</f>
@@ -11300,7 +11300,7 @@
         <v>Overall Treatment response defined/done (M)</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
@@ -12111,8 +12111,8 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
     <sheetView topLeftCell="B12" workbookViewId="1">
       <selection activeCell="H12" sqref="H12"/>
@@ -12174,7 +12174,7 @@
         <v>Diagnosis Reference (M)</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -12188,7 +12188,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>PathologicalStageI4RC!A3</f>
@@ -12199,7 +12199,7 @@
         <v>Staging procedures done by (M)</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
@@ -12213,7 +12213,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>PathologicalStageI4RC!A4</f>
@@ -12224,14 +12224,14 @@
         <v>pT (M)</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12240,7 +12240,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>PathologicalStageI4RC!A4</f>
@@ -12251,14 +12251,14 @@
         <v>pT (M)</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12267,7 +12267,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C6" s="14" t="str">
         <f>PathologicalStageI4RC!A5</f>
@@ -12278,14 +12278,14 @@
         <v>pN (M)</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12294,7 +12294,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C7" s="14" t="str">
         <f>PathologicalStageI4RC!A5</f>
@@ -12305,14 +12305,14 @@
         <v>pN (M)</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12321,7 +12321,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C8" s="14" t="str">
         <f>PathologicalStageI4RC!A6</f>
@@ -12332,14 +12332,14 @@
         <v>pM (M)</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -12348,7 +12348,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C9" s="14" t="str">
         <f>PathologicalStageI4RC!A6</f>
@@ -12359,14 +12359,14 @@
         <v>pM (M)</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -12375,7 +12375,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C10" s="14" t="str">
         <f>PathologicalStageI4RC!A7</f>
@@ -12386,14 +12386,14 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12402,7 +12402,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C11" s="14" t="str">
         <f>PathologicalStageI4RC!A7</f>
@@ -12413,7 +12413,7 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="24" t="s">
@@ -12427,7 +12427,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C12" s="14" t="str">
         <f>PathologicalStageI4RC!A8</f>
@@ -12438,14 +12438,14 @@
         <v>Sentinel node (M)</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12454,7 +12454,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C13" s="14" t="str">
         <f>PathologicalStageI4RC!A9</f>
@@ -12465,14 +12465,14 @@
         <v>Pathological staging (M)</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12481,7 +12481,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>PathologicalStageI4RC!A10</f>
@@ -12492,14 +12492,14 @@
         <v>Localised (M)</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12508,7 +12508,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C15" s="14" t="str">
         <f>PathologicalStageI4RC!A10</f>
@@ -12519,14 +12519,14 @@
         <v>Localised (M)</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12535,7 +12535,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>PathologicalStageI4RC!A11</f>
@@ -12546,14 +12546,14 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12562,7 +12562,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C17" s="14" t="str">
         <f>PathologicalStageI4RC!A11</f>
@@ -12573,7 +12573,7 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="24" t="s">
@@ -12587,7 +12587,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1148</v>
+        <v>1216</v>
       </c>
       <c r="C18" s="14" t="str">
         <f>PathologicalStageI4RC!A12</f>
@@ -12598,14 +12598,14 @@
         <v>Loco-regional (M)</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12614,7 +12614,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1148</v>
+        <v>1216</v>
       </c>
       <c r="C19" s="14" t="str">
         <f>PathologicalStageI4RC!A13</f>
@@ -12625,14 +12625,14 @@
         <v>Is Transit metastasis with clinical confirmation (M)</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12641,7 +12641,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1148</v>
+        <v>1216</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>PathologicalStageI4RC!A14</f>
@@ -12652,14 +12652,14 @@
         <v>Is Multifocal tumor (M)</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12668,7 +12668,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C21" s="14" t="str">
         <f>PathologicalStageI4RC!A15</f>
@@ -12679,14 +12679,14 @@
         <v>Regional nodal metastases (M)</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12695,7 +12695,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C22" s="14" t="str">
         <f>PathologicalStageI4RC!A16</f>
@@ -12706,7 +12706,7 @@
         <v>sites (R)</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
@@ -12720,7 +12720,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C23" s="14" t="str">
         <f>PathologicalStageI4RC!A17</f>
@@ -12731,14 +12731,14 @@
         <v>Soft tissue (R)</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12747,7 +12747,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C24" s="14" t="str">
         <f>PathologicalStageI4RC!A18</f>
@@ -12758,14 +12758,14 @@
         <v>distant lymph node (R)</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -12774,7 +12774,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C25" s="14" t="str">
         <f>PathologicalStageI4RC!A19</f>
@@ -12785,14 +12785,14 @@
         <v>lung (R)</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -12801,7 +12801,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C26" s="14" t="str">
         <f>PathologicalStageI4RC!A20</f>
@@ -12812,14 +12812,14 @@
         <v>metastasisAtBone (R)</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -12828,7 +12828,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C27" s="14" t="str">
         <f>PathologicalStageI4RC!A21</f>
@@ -12839,14 +12839,14 @@
         <v>liver (R)</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -12855,7 +12855,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C28" s="14" t="str">
         <f>PathologicalStageI4RC!A22</f>
@@ -12866,14 +12866,14 @@
         <v>pleura (R)</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12882,7 +12882,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C29" s="14" t="str">
         <f>PathologicalStageI4RC!A23</f>
@@ -12893,14 +12893,14 @@
         <v>peritoneum (R)</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -12909,7 +12909,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C30" s="14" t="str">
         <f>PathologicalStageI4RC!A24</f>
@@ -12920,14 +12920,14 @@
         <v>brain (R)</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -12936,7 +12936,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C31" s="14" t="str">
         <f>PathologicalStageI4RC!A25</f>
@@ -12947,14 +12947,14 @@
         <v>other viscera (R)</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -12963,7 +12963,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C32" s="14" t="str">
         <f>PathologicalStageI4RC!A26</f>
@@ -12974,14 +12974,14 @@
         <v>unknown (R)</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
   </sheetData>
@@ -13363,7 +13363,7 @@
         <v>114</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13415,7 +13415,7 @@
         <v>118</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13604,7 +13604,7 @@
         <v>114</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13631,7 +13631,7 @@
         <v>114</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13835,7 +13835,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -14381,7 +14381,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B24" t="s">
         <v>178</v>
@@ -14390,10 +14390,10 @@
         <v>167</v>
       </c>
       <c r="D24" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E24" t="s">
         <v>1138</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1139</v>
       </c>
       <c r="F24" t="s">
         <v>169</v>
@@ -14402,7 +14402,7 @@
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -14666,13 +14666,13 @@
     </row>
     <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D2" t="s">
         <v>868</v>
@@ -14832,7 +14832,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>RadiotherapyI4RC!A2</f>
@@ -14857,7 +14857,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>RadiotherapyI4RC!A3</f>
@@ -14882,7 +14882,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>RadiotherapyI4RC!A4</f>
@@ -14900,7 +14900,7 @@
         <v>118</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -14909,7 +14909,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>RadiotherapyI4RC!A4</f>
@@ -14920,7 +14920,7 @@
         <v>Radiotherapy Hospital (M)</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
@@ -14936,7 +14936,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C6" s="14" t="str">
         <f>RadiotherapyI4RC!A5</f>
@@ -14947,14 +14947,14 @@
         <v>Intent (M)</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14963,7 +14963,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C7" s="14" t="str">
         <f>RadiotherapyI4RC!A6</f>
@@ -14974,7 +14974,7 @@
         <v>Setting (M (only if Intent is Curative OR Unknown))</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="24" t="s">
@@ -14988,7 +14988,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C8" s="14" t="str">
         <f>RadiotherapyI4RC!A7</f>
@@ -14999,14 +14999,14 @@
         <v>Beam quality (M)</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15015,7 +15015,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C9" s="14" t="str">
         <f>RadiotherapyI4RC!A8</f>
@@ -15026,7 +15026,7 @@
         <v>Other; specify (O)</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="24" t="s">
@@ -15040,7 +15040,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C10" s="14" t="str">
         <f>RadiotherapyI4RC!A9</f>
@@ -15051,14 +15051,14 @@
         <v>Treatment technique (M)</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15067,7 +15067,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C11" s="14" t="str">
         <f>RadiotherapyI4RC!A10</f>
@@ -15078,7 +15078,7 @@
         <v>Total Dose (TD) Gy (M)</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="24" t="s">
@@ -15092,7 +15092,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C12" s="14" t="str">
         <f>RadiotherapyI4RC!A11</f>
@@ -15103,7 +15103,7 @@
         <v>Total High Dose (Gy) (R)</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="24" t="s">
@@ -15117,7 +15117,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C13" s="14" t="str">
         <f>RadiotherapyI4RC!A12</f>
@@ -15128,7 +15128,7 @@
         <v>Number of fractions (M)</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="24" t="s">
@@ -15142,7 +15142,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>RadiotherapyI4RC!A13</f>
@@ -15153,7 +15153,7 @@
         <v>Adaptive RT (O)</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="24" t="s">
@@ -15167,7 +15167,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C15" s="14" t="str">
         <f>RadiotherapyI4RC!A14</f>
@@ -15178,14 +15178,14 @@
         <v>IGRT  (image guide radiotherapy) (O)</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15194,7 +15194,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>RadiotherapyI4RC!A15</f>
@@ -15205,14 +15205,14 @@
         <v>Reirradiation (local or regional) (O)</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15221,7 +15221,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C17" s="14" t="str">
         <f>RadiotherapyI4RC!A16</f>
@@ -15232,14 +15232,14 @@
         <v>Field of Re-irradiation (O)</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -15248,7 +15248,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C18" s="14" t="str">
         <f>RadiotherapyI4RC!A17</f>
@@ -15259,7 +15259,7 @@
         <v>Start date (M)</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="24" t="s">
@@ -15273,7 +15273,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C19" s="14" t="str">
         <f>RadiotherapyI4RC!A18</f>
@@ -15284,7 +15284,7 @@
         <v>End  date (M)</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="24" t="s">
@@ -15298,7 +15298,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>RadiotherapyI4RC!A19</f>
@@ -15309,14 +15309,14 @@
         <v>Treatment site primary only (M (suggest to modify the label into Primary only))</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15325,7 +15325,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C21" s="14" t="str">
         <f>RadiotherapyI4RC!A20</f>
@@ -15336,14 +15336,14 @@
         <v>Treatment site neck only (M (suggest to modify the label into Neck only))</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15352,7 +15352,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C22" s="14" t="str">
         <f>RadiotherapyI4RC!A21</f>
@@ -15363,14 +15363,14 @@
         <v>Treatment site primary and ipsilateral neck (M)</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15379,7 +15379,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C23" s="14" t="str">
         <f>RadiotherapyI4RC!A22</f>
@@ -15390,14 +15390,14 @@
         <v>Treatment site primary and bilateral neck (M)</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -15406,7 +15406,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C24" s="14" t="str">
         <f>RadiotherapyI4RC!A23</f>
@@ -15417,14 +15417,14 @@
         <v>Treatment site distant metastasis (M)</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -15433,7 +15433,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C25" s="14" t="str">
         <f>RadiotherapyI4RC!A24</f>
@@ -15444,7 +15444,7 @@
         <v>Other Treatment Site (O)</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="24" t="s">
@@ -15458,7 +15458,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C26" s="14" t="str">
         <f>RadiotherapyI4RC!A25</f>
@@ -15469,14 +15469,14 @@
         <v>Metastatic treatment site lung (R)</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -15485,7 +15485,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C27" s="14" t="str">
         <f>RadiotherapyI4RC!A26</f>
@@ -15496,14 +15496,14 @@
         <v>Metastatic treatment site mediastinum (R)</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -15512,7 +15512,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C28" s="14" t="str">
         <f>RadiotherapyI4RC!A27</f>
@@ -15523,14 +15523,14 @@
         <v>Metastatic treatment site bone (R)</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -15539,7 +15539,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C29" s="14" t="str">
         <f>RadiotherapyI4RC!A28</f>
@@ -15550,14 +15550,14 @@
         <v>Metastatic treatment site soft tissue (R)</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -15566,7 +15566,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C30" s="14" t="str">
         <f>RadiotherapyI4RC!A29</f>
@@ -15577,14 +15577,14 @@
         <v>Metastatic treatment site liver (R)</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -15593,7 +15593,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C31" s="14" t="str">
         <f>RadiotherapyI4RC!A30</f>
@@ -15604,14 +15604,14 @@
         <v>RT Treatment Completed as Planned? (M)</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -15620,7 +15620,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C32" s="14" t="str">
         <f>RadiotherapyI4RC!A31</f>
@@ -15631,7 +15631,7 @@
         <v>Regional deep hyperthemia (M)</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="24" t="s">
@@ -15645,7 +15645,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Radiotherapy</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C33" s="14" t="str">
         <f>RadiotherapyI4RC!A32</f>
@@ -15656,7 +15656,7 @@
         <v>Treatment response (R)</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="24" t="s">
@@ -15747,7 +15747,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -15937,7 +15937,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A2</f>
@@ -15955,7 +15955,7 @@
         <v>118</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -15964,7 +15964,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A3</f>
@@ -15989,7 +15989,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A4</f>
@@ -16007,7 +16007,7 @@
         <v>118</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16016,7 +16016,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A4</f>
@@ -16027,7 +16027,7 @@
         <v>RegionalDeepHyperthemia done atHospital (M)</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
@@ -16043,7 +16043,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C6" s="14" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A5</f>
@@ -16054,7 +16054,7 @@
         <v>Start date (M)</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
@@ -16068,7 +16068,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="14" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A6</f>
@@ -16079,7 +16079,7 @@
         <v>End  date (M)</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
@@ -16093,7 +16093,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/RegionalDeepHyperthemia</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C8" s="14" t="str">
         <f>RegionalDeepHyperthemiaI4RC!A7</f>
@@ -16104,7 +16104,7 @@
         <v>Treatment response (R)</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="5" t="s">
@@ -16272,7 +16272,7 @@
         <v>232</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>15</v>
@@ -16298,7 +16298,7 @@
         <v>235</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F3" s="49" t="s">
         <v>15</v>
@@ -16324,7 +16324,7 @@
         <v>239</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>15</v>
@@ -16350,7 +16350,7 @@
         <v>241</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F5" s="49" t="s">
         <v>15</v>
@@ -16376,7 +16376,7 @@
         <v>244</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F6" s="49" t="s">
         <v>15</v>
@@ -16402,7 +16402,7 @@
         <v>247</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F7" s="49" t="s">
         <v>15</v>
@@ -16428,7 +16428,7 @@
         <v>249</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F8" s="49" t="s">
         <v>15</v>
@@ -16454,7 +16454,7 @@
         <v>252</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F9" s="49" t="s">
         <v>15</v>
@@ -16480,7 +16480,7 @@
         <v>254</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>15</v>
@@ -16506,7 +16506,7 @@
         <v>257</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F11" s="49" t="s">
         <v>15</v>
@@ -16532,7 +16532,7 @@
         <v>259</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>15</v>
@@ -17071,7 +17071,7 @@
         <v>299</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F32" s="49" t="s">
         <v>15</v>
@@ -17097,7 +17097,7 @@
         <v>301</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F33" s="49" t="s">
         <v>15</v>
@@ -17123,7 +17123,7 @@
         <v>304</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F34" s="49" t="s">
         <v>15</v>
@@ -17149,7 +17149,7 @@
         <v>306</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F35" s="49" t="s">
         <v>15</v>
@@ -17175,7 +17175,7 @@
         <v>309</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F36" s="49" t="s">
         <v>169</v>
@@ -17201,7 +17201,7 @@
         <v>312</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F37" s="49" t="s">
         <v>169</v>
@@ -17227,7 +17227,7 @@
         <v>315</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F38" s="49" t="s">
         <v>169</v>
@@ -17253,7 +17253,7 @@
         <v>318</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F39" s="49" t="s">
         <v>169</v>
@@ -17279,7 +17279,7 @@
         <v>321</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F40" s="49" t="s">
         <v>169</v>
@@ -17305,7 +17305,7 @@
         <v>324</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F41" s="49" t="s">
         <v>169</v>
@@ -17331,7 +17331,7 @@
         <v>327</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F42" s="49" t="s">
         <v>169</v>
@@ -17357,7 +17357,7 @@
         <v>330</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F43" s="49" t="s">
         <v>169</v>
@@ -17383,7 +17383,7 @@
         <v>333</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F44" s="49" t="s">
         <v>169</v>
@@ -17409,7 +17409,7 @@
         <v>336</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F45" s="49" t="s">
         <v>169</v>
@@ -17435,7 +17435,7 @@
         <v>339</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F46" s="49" t="s">
         <v>169</v>
@@ -17461,7 +17461,7 @@
         <v>342</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F47" s="49" t="s">
         <v>169</v>
@@ -17487,7 +17487,7 @@
         <v>345</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F48" s="49" t="s">
         <v>15</v>
@@ -17513,7 +17513,7 @@
         <v>891</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F49" s="49" t="s">
         <v>169</v>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -19366,10 +19366,10 @@
         <v>256</v>
       </c>
       <c r="D20" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1128</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -19786,7 +19786,7 @@
         <v>Surgery type (M)</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
@@ -19817,7 +19817,7 @@
         <v>118</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -19834,7 +19834,7 @@
         <v>Surgery Hospital (M)</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="2" t="s">
@@ -19908,7 +19908,7 @@
         <v>Type of surgical approach on Tumour (M)</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
@@ -19932,7 +19932,7 @@
         <v>Margins after surgery (M)</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
@@ -19956,14 +19956,14 @@
         <v>Tumor rupture (M)</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -19971,7 +19971,7 @@
         <v>405</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>SurgeryI4RC!A11</f>
@@ -19982,7 +19982,7 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="24" t="s">
@@ -19995,7 +19995,7 @@
         <v>405</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>SurgeryI4RC!A12</f>
@@ -20006,14 +20006,14 @@
         <v>Surgical specimen Mitotic count (M)</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -20056,14 +20056,14 @@
         <v>Reconstruction (M)</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20082,14 +20082,14 @@
         <v>Neck surgery (M)</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20115,7 +20115,7 @@
         <v>118</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20134,14 +20134,14 @@
         <v>Laterality of the dissection (M)</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -20160,14 +20160,14 @@
         <v>Surgery on M (M)</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -20193,7 +20193,7 @@
         <v>118</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -20212,7 +20212,7 @@
         <v>Site of surgery on metastasis</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="2" t="s">
@@ -20235,14 +20235,14 @@
         <v>Site of surgery on metastasis_soft tissue (O)</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20261,14 +20261,14 @@
         <v>Site of surgery on metastasis_distant lymph nodes (O)</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20287,14 +20287,14 @@
         <v>Site of surgery on metastasis_lung (O)</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20313,14 +20313,14 @@
         <v>Site of surgery on metastasis_bone (O)</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20339,14 +20339,14 @@
         <v>Site of surgery on metastasis_liver (O)</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20365,14 +20365,14 @@
         <v>Site of surgery on metastasis_pleura (O)</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20391,14 +20391,14 @@
         <v>Site of surgery on metastasis_peritoneum (O)</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20417,14 +20417,14 @@
         <v>Site of surgery on metastasis_brain (O)</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20443,14 +20443,14 @@
         <v>Site of surgery on metastasis_other viscera (O)</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20469,14 +20469,14 @@
         <v>Site of surgery on metastasis_unknown (O)</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -20495,7 +20495,7 @@
         <v>Surgical complications (Clavien-Dindo Classification) (M)</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="24" t="s">
@@ -20596,7 +20596,7 @@
         <v>413</v>
       </c>
       <c r="E2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -20622,7 +20622,7 @@
         <v>416</v>
       </c>
       <c r="E3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -20648,7 +20648,7 @@
         <v>726</v>
       </c>
       <c r="E4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -20674,7 +20674,7 @@
         <v>728</v>
       </c>
       <c r="E5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -20700,7 +20700,7 @@
         <v>731</v>
       </c>
       <c r="E6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -20726,7 +20726,7 @@
         <v>733</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -20752,7 +20752,7 @@
         <v>736</v>
       </c>
       <c r="E8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F8" t="s">
         <v>169</v>
@@ -20778,7 +20778,7 @@
         <v>739</v>
       </c>
       <c r="E9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -20804,7 +20804,7 @@
         <v>741</v>
       </c>
       <c r="E10" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -20830,7 +20830,7 @@
         <v>743</v>
       </c>
       <c r="E11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -20856,7 +20856,7 @@
         <v>745</v>
       </c>
       <c r="E12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -20882,7 +20882,7 @@
         <v>748</v>
       </c>
       <c r="E13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -20908,7 +20908,7 @@
         <v>750</v>
       </c>
       <c r="E14" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -20934,7 +20934,7 @@
         <v>752</v>
       </c>
       <c r="E15" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -20960,7 +20960,7 @@
         <v>755</v>
       </c>
       <c r="E16" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -21036,7 +21036,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>SystemicTreatmentI4RC!A2</f>
@@ -21047,7 +21047,7 @@
         <v>Diagnosis reference (M)</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="24" t="s">
@@ -21061,7 +21061,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>SystemicTreatmentI4RC!A3</f>
@@ -21072,7 +21072,7 @@
         <v>Episode Event reference (M)</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="24" t="s">
@@ -21086,7 +21086,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>SystemicTreatmentI4RC!A4</f>
@@ -21097,7 +21097,7 @@
         <v>SystemicTreatment Hospital (M)</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="24" t="s">
@@ -21111,7 +21111,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>SystemicTreatmentI4RC!A4</f>
@@ -21122,7 +21122,7 @@
         <v>SystemicTreatment Hospital (M)</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="24" t="s">
@@ -21136,7 +21136,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C6" s="14" t="str">
         <f>SystemicTreatmentI4RC!A5</f>
@@ -21147,14 +21147,14 @@
         <v>type of systemic treatment (M)</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21163,7 +21163,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C7" s="14" t="str">
         <f>SystemicTreatmentI4RC!A6</f>
@@ -21174,7 +21174,7 @@
         <v>Intent (O)</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="24" t="s">
@@ -21188,7 +21188,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C8" s="14" t="str">
         <f>SystemicTreatmentI4RC!A7</f>
@@ -21199,14 +21199,14 @@
         <v>Setting (O)</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21215,7 +21215,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C9" s="14" t="str">
         <f>SystemicTreatmentI4RC!A8</f>
@@ -21226,14 +21226,14 @@
         <v>Chemotherapy info (O)</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -21242,7 +21242,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C10" s="14" t="str">
         <f>SystemicTreatmentI4RC!A9</f>
@@ -21253,7 +21253,7 @@
         <v>Start date systemic treatment (M)</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="24" t="s">
@@ -21267,7 +21267,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C11" s="14" t="str">
         <f>SystemicTreatmentI4RC!A10</f>
@@ -21278,7 +21278,7 @@
         <v>End date systemic treatment (M)</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="24" t="s">
@@ -21292,7 +21292,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C12" s="14" t="str">
         <f>SystemicTreatmentI4RC!A11</f>
@@ -21303,7 +21303,7 @@
         <v>Number of cycles/ administrations (O)</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="24" t="s">
@@ -21317,7 +21317,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C13" s="14" t="str">
         <f>SystemicTreatmentI4RC!A12</f>
@@ -21328,14 +21328,14 @@
         <v>Regimen (O)</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21344,7 +21344,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>SystemicTreatmentI4RC!A13</f>
@@ -21355,14 +21355,14 @@
         <v>Start date regimen changed (M)</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21371,7 +21371,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C15" s="14" t="str">
         <f>SystemicTreatmentI4RC!A14</f>
@@ -21382,14 +21382,14 @@
         <v>End date regimen changed (M)</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -21398,7 +21398,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>SystemicTreatmentI4RC!A15</f>
@@ -21409,14 +21409,14 @@
         <v>Reason for end of treatment (M)</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -21425,7 +21425,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/SystemicTreatment</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C17" s="14" t="str">
         <f>SystemicTreatmentI4RC!A16</f>
@@ -21436,7 +21436,7 @@
         <v>Treatment response (based on imaging alone; no recist or other criteria) (M)</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="24" t="s">
@@ -21507,8 +21507,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
     <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
@@ -21556,7 +21556,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>907</v>
+        <v>1215</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>AdverseEventI4RC!A2</f>
@@ -21567,7 +21567,7 @@
         <v>Treatment reference (M)</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="8" t="s">
@@ -21581,7 +21581,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>907</v>
+        <v>1215</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>AdverseEventI4RC!A3</f>
@@ -21592,7 +21592,7 @@
         <v>Adverse event type (CTCAE Term) (M)</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
@@ -21606,7 +21606,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>907</v>
+        <v>1215</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>AdverseEventI4RC!A4</f>
@@ -21617,7 +21617,7 @@
         <v>Adverse event starting date (M)</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
@@ -21631,7 +21631,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>907</v>
+        <v>1215</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>AdverseEventI4RC!A5</f>
@@ -21642,14 +21642,14 @@
         <v>Adverse event duration (M)</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -21665,8 +21665,8 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{F0765931-8736-4740-8DB6-DF1295AE6A41}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{BEBA1B77-9D4F-45AC-BE80-371313DC8EF3}"/>
-    <hyperlink ref="B3:B5" r:id="rId3" display="http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent-eu-i4rc" xr:uid="{5E41E9C3-5524-4D8E-9CDB-4B1B99A99292}"/>
-    <hyperlink ref="A3:A5" r:id="rId4" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{52459153-6409-49E7-A9F6-06FCA66B8F0D}"/>
+    <hyperlink ref="A3:A5" r:id="rId3" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{52459153-6409-49E7-A9F6-06FCA66B8F0D}"/>
+    <hyperlink ref="B3:B5" r:id="rId4" display="http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/adverseEvent-eu-i4rc" xr:uid="{EF2863A9-26D6-40BA-A2B8-6B018A7648ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -21735,7 +21735,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -21761,7 +21761,7 @@
         <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -23150,8 +23150,8 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="H30" sqref="B30:H31"/>
+    <sheetView topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
     <sheetView topLeftCell="C1" workbookViewId="1">
       <selection activeCell="G34" sqref="G34"/>
@@ -23212,7 +23212,7 @@
         <v>Diagnosis Reference (M)</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -23226,7 +23226,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>ClinicalStageI4RC!A3</f>
@@ -23237,7 +23237,7 @@
         <v>Staging procedures done by (M)</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
@@ -23251,7 +23251,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>ClinicalStageI4RC!A4</f>
@@ -23262,14 +23262,14 @@
         <v>Imaging for primary site (M)</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23278,7 +23278,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>ClinicalStageI4RC!A5</f>
@@ -23289,14 +23289,14 @@
         <v>CT for primary site (R)</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23305,7 +23305,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>ClinicalStageI4RC!A6</f>
@@ -23316,14 +23316,14 @@
         <v>MRI for primary site (R)</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23332,7 +23332,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>ClinicalStageI4RC!A7</f>
@@ -23343,14 +23343,14 @@
         <v>US for primary site (R)</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23359,7 +23359,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>ClinicalStageI4RC!A8</f>
@@ -23370,14 +23370,14 @@
         <v>Other imaging for primary site (R)</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23386,7 +23386,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>ClinicalStageI4RC!A9</f>
@@ -23397,14 +23397,14 @@
         <v>Imaging for neck (M)</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23413,7 +23413,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>ClinicalStageI4RC!A10</f>
@@ -23424,14 +23424,14 @@
         <v>CT for neck (R)</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23440,7 +23440,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>ClinicalStageI4RC!A11</f>
@@ -23451,14 +23451,14 @@
         <v>MRI for neck (R)</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23467,7 +23467,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>ClinicalStageI4RC!A12</f>
@@ -23478,14 +23478,14 @@
         <v>US for neck (R)</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -23494,7 +23494,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>ClinicalStageI4RC!A13</f>
@@ -23505,14 +23505,14 @@
         <v>Other imaging for neck (R)</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23521,7 +23521,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>ClinicalStageI4RC!A14</f>
@@ -23532,14 +23532,14 @@
         <v>Imaging for metastasis (M)</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -23548,7 +23548,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>ClinicalStageI4RC!A15</f>
@@ -23559,14 +23559,14 @@
         <v>CT for metastasis (R)</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -23575,7 +23575,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>ClinicalStageI4RC!A16</f>
@@ -23586,14 +23586,14 @@
         <v>MRI for metastasis (R)</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23602,7 +23602,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>ClinicalStageI4RC!A17</f>
@@ -23613,14 +23613,14 @@
         <v>US for metastasis (R)</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -23629,7 +23629,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>ClinicalStageI4RC!A18</f>
@@ -23640,14 +23640,14 @@
         <v>Other imaging for metastasis (R)</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -23656,7 +23656,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C19" s="2" t="str">
         <f>ClinicalStageI4RC!A19</f>
@@ -23667,14 +23667,14 @@
         <v>cT (M)</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -23683,7 +23683,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C20" s="2" t="str">
         <f>ClinicalStageI4RC!A19</f>
@@ -23694,14 +23694,14 @@
         <v>cT (M)</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23710,7 +23710,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C21" s="2" t="str">
         <f>ClinicalStageI4RC!A20</f>
@@ -23721,14 +23721,14 @@
         <v>cN (M)</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -23737,7 +23737,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C22" s="2" t="str">
         <f>ClinicalStageI4RC!A20</f>
@@ -23748,14 +23748,14 @@
         <v>cN (M)</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23764,7 +23764,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>ClinicalStageI4RC!A21</f>
@@ -23775,14 +23775,14 @@
         <v>cM (M)</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -23791,7 +23791,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C24" s="2" t="str">
         <f>ClinicalStageI4RC!A21</f>
@@ -23802,14 +23802,14 @@
         <v>cM (M)</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -23818,7 +23818,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C25" s="2" t="str">
         <f>ClinicalStageI4RC!A22</f>
@@ -23829,14 +23829,14 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -23845,7 +23845,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C26" s="2" t="str">
         <f>ClinicalStageI4RC!A22</f>
@@ -23856,7 +23856,7 @@
         <v>Extra-nodal extension (rEne) (M)</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="24" t="s">
@@ -23870,7 +23870,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C27" s="2" t="str">
         <f>ClinicalStageI4RC!A23</f>
@@ -23881,14 +23881,14 @@
         <v>Clinical Staging (M)</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -23897,7 +23897,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C28" s="2" t="str">
         <f>ClinicalStageI4RC!A24</f>
@@ -23908,14 +23908,14 @@
         <v>Localised (M)</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23924,7 +23924,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C29" s="2" t="str">
         <f>ClinicalStageI4RC!A24</f>
@@ -23935,14 +23935,14 @@
         <v>Localised (M)</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23951,7 +23951,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C30" s="2" t="str">
         <f>ClinicalStageI4RC!A25</f>
@@ -23962,14 +23962,14 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -23978,7 +23978,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C31" s="2" t="str">
         <f>ClinicalStageI4RC!A25</f>
@@ -23989,7 +23989,7 @@
         <v>Number of tumor nodules (R)</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="24" t="s">
@@ -24003,7 +24003,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1148</v>
+        <v>1216</v>
       </c>
       <c r="C32" s="2" t="str">
         <f>ClinicalStageI4RC!A26</f>
@@ -24014,14 +24014,14 @@
         <v>Loco-regional (M)</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24030,7 +24030,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1148</v>
+        <v>1216</v>
       </c>
       <c r="C33" s="2" t="str">
         <f>ClinicalStageI4RC!A27</f>
@@ -24041,14 +24041,14 @@
         <v>Is Transit metastasis with clinical confirmation (M)</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24057,7 +24057,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1148</v>
+        <v>1216</v>
       </c>
       <c r="C34" s="2" t="str">
         <f>ClinicalStageI4RC!A28</f>
@@ -24068,14 +24068,14 @@
         <v>Is Multifocal tumor (M)</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14" t="s">
         <v>118</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24084,7 +24084,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C35" s="2" t="str">
         <f>ClinicalStageI4RC!A29</f>
@@ -24095,14 +24095,14 @@
         <v>Regional nodal metastases (M)</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -24111,7 +24111,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C36" s="2" t="str">
         <f>ClinicalStageI4RC!A30</f>
@@ -24122,7 +24122,7 @@
         <v>sites (R)</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
@@ -24136,7 +24136,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C37" s="2" t="str">
         <f>ClinicalStageI4RC!A31</f>
@@ -24147,14 +24147,14 @@
         <v>Soft tissue (R)</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24163,7 +24163,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C38" s="2" t="str">
         <f>ClinicalStageI4RC!A32</f>
@@ -24174,14 +24174,14 @@
         <v>distant lymph node (R)</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -24190,7 +24190,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C39" s="2" t="str">
         <f>ClinicalStageI4RC!A33</f>
@@ -24201,14 +24201,14 @@
         <v>lung (R)</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -24217,7 +24217,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C40" s="2" t="str">
         <f>ClinicalStageI4RC!A34</f>
@@ -24228,14 +24228,14 @@
         <v>metastasisAtBone (R)</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -24244,7 +24244,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C41" s="2" t="str">
         <f>ClinicalStageI4RC!A35</f>
@@ -24255,14 +24255,14 @@
         <v>liver (R)</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -24271,7 +24271,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C42" s="2" t="str">
         <f>ClinicalStageI4RC!A36</f>
@@ -24282,14 +24282,14 @@
         <v>pleura (R)</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -24298,7 +24298,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C43" s="2" t="str">
         <f>ClinicalStageI4RC!A37</f>
@@ -24309,14 +24309,14 @@
         <v>peritoneum (R)</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -24325,7 +24325,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C44" s="2" t="str">
         <f>ClinicalStageI4RC!A38</f>
@@ -24336,14 +24336,14 @@
         <v>brain (R)</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -24352,7 +24352,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C45" s="2" t="str">
         <f>ClinicalStageI4RC!A39</f>
@@ -24363,14 +24363,14 @@
         <v>other viscera (R)</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -24379,7 +24379,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C46" s="2" t="str">
         <f>ClinicalStageI4RC!A40</f>
@@ -24390,14 +24390,14 @@
         <v>unknown (R)</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -24477,7 +24477,7 @@
         <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
@@ -24503,7 +24503,7 @@
         <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -24529,7 +24529,7 @@
         <v>168</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>169</v>
@@ -24555,7 +24555,7 @@
         <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -24581,7 +24581,7 @@
         <v>174</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>15</v>
@@ -24607,7 +24607,7 @@
         <v>176</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>169</v>
@@ -24633,7 +24633,7 @@
         <v>179</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -24659,7 +24659,7 @@
         <v>883</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -24685,7 +24685,7 @@
         <v>884</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -24711,7 +24711,7 @@
         <v>885</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
@@ -24737,7 +24737,7 @@
         <v>886</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
@@ -24763,7 +24763,7 @@
         <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
@@ -24789,7 +24789,7 @@
         <v>187</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>169</v>
@@ -24815,7 +24815,7 @@
         <v>188</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>169</v>
@@ -24841,7 +24841,7 @@
         <v>189</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>169</v>
@@ -24867,7 +24867,7 @@
         <v>190</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>169</v>
@@ -24893,7 +24893,7 @@
         <v>191</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>169</v>
@@ -24919,7 +24919,7 @@
         <v>193</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
@@ -24945,7 +24945,7 @@
         <v>195</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
@@ -24971,7 +24971,7 @@
         <v>196</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>

--- a/src-models/idea4rc-models-and-maps.xlsx
+++ b/src-models/idea4rc-models-and-maps.xlsx
@@ -5,13 +5,12 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roberta\HL7EU\IDEA4RC\idea4rc2025\idea4rc\src-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roberta\HL7EU\ScriptPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF14DADD-26D1-4E2E-9296-2BBBE4B2D1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5A4ECD-A152-4E40-A1E1-64BA38D7EB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="25" xr2:uid="{DBDA221E-EFE5-4A34-8B86-7FDF16AB25A8}"/>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="32" activeTab="35" xr2:uid="{5AC1C6E0-0B35-4ABC-AFF0-9D917C4380C0}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="33" activeTab="37" xr2:uid="{DBDA221E-EFE5-4A34-8B86-7FDF16AB25A8}"/>
   </bookViews>
   <sheets>
     <sheet name="ConceptMaps" sheetId="15" r:id="rId1"/>
@@ -4511,9 +4510,6 @@
     <t>It must be calculated from the update of the same MedicationAdministration</t>
   </si>
   <si>
-    <t>AdverseEvent.extension:OccurrenceR5</t>
-  </si>
-  <si>
     <t>Condition.onset</t>
   </si>
   <si>
@@ -4691,9 +4687,6 @@
     <t>Observation.extension:sameHospital</t>
   </si>
   <si>
-    <t>MedicationAdministration.dosage.extension:timing.repeat.count</t>
-  </si>
-  <si>
     <t xml:space="preserve">Applicable only if Code is in ValueSet: Drugs for Treatments </t>
   </si>
   <si>
@@ -4706,22 +4699,28 @@
     <t>See group for Observation: Number of tumor nodules</t>
   </si>
   <si>
-    <t>Procedure.extension:adaptive</t>
-  </si>
-  <si>
-    <t>If it is present an observation with value = 36769249 'Transit Metastasis with Clinical Confirmation', it is ''true'', else 'false'</t>
+    <t>AdverseEvent.extension:occurrence</t>
+  </si>
+  <si>
+    <t>Procedure.extension:adaptive.value</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/adverseEvent-eu-i4rc</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/locoRegional-category</t>
+  </si>
+  <si>
+    <t>isolatedLimbPerfusion2FHIR</t>
   </si>
   <si>
     <t>If it is present a procedure with code 4263386 'Sentinel lymph node biopsy' related to the observation, it is 'true'</t>
   </si>
   <si>
-    <t>isolatedLimbPerfusion2FHIR</t>
-  </si>
-  <si>
-    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/adverseEvent-eu-i4rc</t>
-  </si>
-  <si>
-    <t>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/locoRegional-category</t>
+    <t>If it is present an observation with value = 32943 'Invasive Disease', it is ''true'', else 'false'</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.extension:chemotherapyTiming.value.repeat.count</t>
   </si>
 </sst>
 </file>
@@ -4809,18 +4808,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4948,7 +4941,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5003,24 +4996,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5054,7 +5046,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5070,9 +5062,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5499,11 +5488,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-    <sheetView topLeftCell="A5" workbookViewId="1">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5520,31 +5506,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5552,10 +5538,10 @@
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="39" t="str">
+      <c r="C2" s="38" t="str">
         <f t="shared" ref="C2:C19" si="0">"http://hl7.eu/fhir/ig/idea4rc/ConceptMap/"&amp;A2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/subject2FHIR</v>
       </c>
@@ -5568,11 +5554,11 @@
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="39" t="str">
+      <c r="G2" s="38" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!A2</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Subject</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -5583,10 +5569,10 @@
       <c r="A3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="39" t="str">
+      <c r="C3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/followup2FHIR</v>
       </c>
@@ -5599,11 +5585,11 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="39" t="str">
+      <c r="G3" s="38" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!A3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -5614,10 +5600,10 @@
       <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="39" t="str">
+      <c r="C4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/hospitalPatientRecords2FHIR</v>
       </c>
@@ -5630,26 +5616,26 @@
       <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="39" t="str">
+      <c r="G4" s="38" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!A4</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/HospitalPatientRecords</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="39" t="str">
+      <c r="C5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/diagnosis2FHIR</v>
       </c>
@@ -5662,11 +5648,11 @@
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="39" t="str">
+      <c r="G5" s="38" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!A6</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/Diagnosis</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -5677,30 +5663,30 @@
       <c r="A6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="41" t="str">
+      <c r="C6" s="40" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.eu/fhir/ig/idea4rc/ConceptMap/cancerEpisode2FHIR</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="41" t="str">
+      <c r="G6" s="40" t="str">
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!A5</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/CancerEpisode</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="41" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5860,10 +5846,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>916</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>917</v>
       </c>
       <c r="C12" s="13" t="str">
@@ -5876,7 +5862,7 @@
       <c r="E12" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="13" t="str">
@@ -5891,10 +5877,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="52" t="s">
         <v>921</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>922</v>
       </c>
       <c r="C13" s="13" t="str">
@@ -5907,7 +5893,7 @@
       <c r="E13" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="13" t="str">
@@ -5922,10 +5908,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>925</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>926</v>
       </c>
       <c r="C14" s="13" t="str">
@@ -5938,7 +5924,7 @@
       <c r="E14" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="13" t="str">
@@ -5956,7 +5942,7 @@
       <c r="A15" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>931</v>
       </c>
       <c r="C15" s="13" t="str">
@@ -5969,7 +5955,7 @@
       <c r="E15" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="13" t="str">
@@ -5984,10 +5970,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>939</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>934</v>
       </c>
       <c r="C16" s="13" t="str">
@@ -6000,7 +5986,7 @@
       <c r="E16" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="13" t="str">
@@ -6018,7 +6004,7 @@
       <c r="A17" s="34" t="s">
         <v>940</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>938</v>
       </c>
       <c r="C17" s="13" t="str">
@@ -6031,7 +6017,7 @@
       <c r="E17" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="13" t="str">
@@ -6046,10 +6032,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="52" t="s">
         <v>943</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>944</v>
       </c>
       <c r="C18" s="13" t="str">
@@ -6062,7 +6048,7 @@
       <c r="E18" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="13" t="str">
@@ -6077,10 +6063,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="52" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>947</v>
       </c>
       <c r="C19" s="13" t="str">
@@ -6093,7 +6079,7 @@
       <c r="E19" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="13" t="str">
@@ -6196,7 +6182,6 @@
     <sheetView topLeftCell="B18" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7021,7 +7006,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7511,10 +7495,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
-    </sheetView>
-    <sheetView topLeftCell="C1" workbookViewId="1">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7655,13 +7636,13 @@
         <v>118</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="17" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>DiseaseExtentI4RC!A4</f>
@@ -7685,10 +7666,10 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C7" s="64" t="str">
+      <c r="B7" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C7" s="62" t="str">
         <f>DiseaseExtentI4RC!A5</f>
         <v>locoRegional</v>
       </c>
@@ -7700,11 +7681,11 @@
         <v>1087</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>1200</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7712,8 +7693,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>1216</v>
+      <c r="B8" s="2" t="s">
+        <v>1212</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>DiseaseExtentI4RC!A6</f>
@@ -7727,11 +7708,11 @@
         <v>1087</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>1212</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7739,8 +7720,8 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$10</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/DiseaseExtent</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>1216</v>
+      <c r="B9" s="2" t="s">
+        <v>1212</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>DiseaseExtentI4RC!A7</f>
@@ -7754,11 +7735,11 @@
         <v>1087</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8052,7 +8033,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8206,9 +8186,6 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-    <sheetView topLeftCell="C1" workbookViewId="1">
-      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8348,7 +8325,7 @@
         <v>114</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8400,7 +8377,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8866,9 +8842,6 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A6" sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView topLeftCell="C12" workbookViewId="1">
-      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8976,14 +8949,14 @@
         <v>Gene expression analysis performed (R)</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9002,15 +8975,15 @@
         <f>GeneticTestExpressionI4RC!D5</f>
         <v>Date of Gene expression (O)</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>1024</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="8" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9030,14 +9003,14 @@
         <v>Gene mutation analysis performed (R)</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9064,7 +9037,7 @@
         <v>114</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9084,14 +9057,14 @@
         <v>Tests for chromosome translocations performed (R)</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9118,7 +9091,7 @@
         <v>114</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9138,14 +9111,14 @@
         <v>Next generation sequencing (NGS)  performed (R)</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9172,7 +9145,7 @@
         <v>114</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9192,14 +9165,14 @@
         <v>Polymerase chain reaction (PCR) test performed (R)</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9226,7 +9199,7 @@
         <v>114</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9246,14 +9219,14 @@
         <v>Immunohistochemistry  performed (R)</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9280,7 +9253,7 @@
         <v>114</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9300,14 +9273,14 @@
         <v>Circulating Tumour DNA (ctDNA) performed (R)</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9334,7 +9307,7 @@
         <v>114</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -9358,7 +9331,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9514,7 +9486,6 @@
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9638,7 +9609,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$9</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/EpisodeEvent</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C5" s="33" t="s">
@@ -9649,7 +9620,7 @@
         <v>Defined At (O)</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
@@ -9675,7 +9646,7 @@
         <v>Date of episode (M)</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
@@ -9795,148 +9766,147 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59" style="49" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="49"/>
-    <col min="8" max="8" width="15.85546875" style="49" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="49"/>
+    <col min="1" max="1" width="59" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="48"/>
+    <col min="8" max="8" width="15.85546875" style="48" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="51" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>950</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="48" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>1014</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="48" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>1016</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="49" t="s">
+      <c r="F4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>1015</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="49" t="s">
+      <c r="F5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="48" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9953,9 +9923,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
-    <sheetView topLeftCell="A9" workbookViewId="1">
-      <selection activeCell="A14" sqref="A1:D19"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9966,16 +9933,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10290,7 +10257,6 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
-    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10452,7 +10418,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10655,10 +10620,9 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10986,7 +10950,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11140,7 +11103,6 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11187,7 +11149,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>OverallTreatmentResponseI4RC!A2</f>
@@ -11212,7 +11174,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>OverallTreatmentResponseI4RC!A3</f>
@@ -11237,13 +11199,13 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C4" s="58" t="str">
+        <v>1203</v>
+      </c>
+      <c r="C4" s="57" t="str">
         <f>OverallTreatmentResponseI4RC!A4</f>
         <v>overallTreatmentResponse</v>
       </c>
-      <c r="D4" s="59" t="str">
+      <c r="D4" s="58" t="str">
         <f>OverallTreatmentResponseI4RC!D4</f>
         <v>Overall Treatment response (based on imaging alone; no recist or other criteria) (M)</v>
       </c>
@@ -11254,7 +11216,7 @@
       <c r="G4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="58"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="str">
@@ -11262,7 +11224,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>OverallTreatmentResponseI4RC!A5</f>
@@ -11289,7 +11251,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/OverallTreatmentResponse</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C6" s="14" t="str">
         <f>OverallTreatmentResponseI4RC!A5</f>
@@ -11300,7 +11262,7 @@
         <v>Overall Treatment response defined/done (M)</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
@@ -11415,7 +11377,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12111,11 +12072,8 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-    <sheetView topLeftCell="B12" workbookViewId="1">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12445,7 +12403,7 @@
         <v>118</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12526,7 +12484,7 @@
         <v>118</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12553,7 +12511,7 @@
         <v>118</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12562,7 +12520,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C17" s="14" t="str">
         <f>PathologicalStageI4RC!A11</f>
@@ -12587,7 +12545,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C18" s="14" t="str">
         <f>PathologicalStageI4RC!A12</f>
@@ -12601,11 +12559,11 @@
         <v>1087</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12614,7 +12572,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C19" s="14" t="str">
         <f>PathologicalStageI4RC!A13</f>
@@ -12628,11 +12586,11 @@
         <v>1087</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12641,7 +12599,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PathologicalStage</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>PathologicalStageI4RC!A14</f>
@@ -12655,11 +12613,11 @@
         <v>1087</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13004,252 +12962,251 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59" style="49" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="66" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="49"/>
-    <col min="8" max="8" width="15.42578125" style="49" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="49"/>
+    <col min="1" max="1" width="59" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="66" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="48"/>
+    <col min="8" max="8" width="15.42578125" style="48" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="54" t="s">
+      <c r="F2" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="53" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="53" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>371</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>372</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="54" t="s">
+      <c r="F5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>375</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="54" t="s">
+      <c r="F6" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="53" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>379</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="F7" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="53" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="F8" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="54" t="s">
+      <c r="F8" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="53" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="54" t="s">
+      <c r="G9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="53" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13257,7 +13214,7 @@
       <c r="C11" s="3"/>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="54"/>
+      <c r="C24" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13271,10 +13228,9 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13319,7 +13275,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>349</v>
       </c>
       <c r="C2" s="2" t="str">
@@ -13344,7 +13300,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>349</v>
       </c>
       <c r="C3" s="2" t="str">
@@ -13362,7 +13318,7 @@
       <c r="G3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="56" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -13371,7 +13327,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>349</v>
       </c>
       <c r="C4" s="2" t="str">
@@ -13396,7 +13352,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>349</v>
       </c>
       <c r="C5" s="2" t="str">
@@ -13414,7 +13370,7 @@
       <c r="G5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -13423,7 +13379,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>349</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -13450,7 +13406,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>349</v>
       </c>
       <c r="C7" s="2" t="str">
@@ -13504,7 +13460,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>112</v>
       </c>
       <c r="C9" s="5" t="str">
@@ -13531,7 +13487,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>112</v>
       </c>
       <c r="C10" s="5" t="str">
@@ -13558,7 +13514,7 @@
         <f>"http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/"&amp;LogicalModels!$A$3</f>
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/PatientFollowUp</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="5" t="str">
@@ -13770,7 +13726,6 @@
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14628,7 +14583,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14666,13 +14620,13 @@
     </row>
     <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D2" t="s">
         <v>868</v>
@@ -14782,9 +14736,6 @@
   <sheetViews>
     <sheetView topLeftCell="B10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-    <sheetView topLeftCell="B11" workbookViewId="1">
-      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14842,7 +14793,7 @@
         <f>RadiotherapyI4RC!D2</f>
         <v>Diagnosis reference (M)</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="63" t="s">
         <v>407</v>
       </c>
       <c r="F2" s="14"/>
@@ -14867,7 +14818,7 @@
         <f>RadiotherapyI4RC!D3</f>
         <v>Episode Event reference (M)</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="64" t="s">
         <v>407</v>
       </c>
       <c r="F3" s="3"/>
@@ -15153,7 +15104,7 @@
         <v>Adaptive RT (O)</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="24" t="s">
@@ -15685,7 +15636,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15890,7 +15840,6 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16215,1313 +16164,1310 @@
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A17" sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView topLeftCell="B13" workbookViewId="1">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59" style="49" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="66" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="49"/>
-    <col min="8" max="8" width="80.7109375" style="49" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="49"/>
+    <col min="1" max="1" width="59" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="66" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="48"/>
+    <col min="8" max="8" width="80.7109375" style="48" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>972</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="49" t="s">
+      <c r="F2" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="48" t="s">
         <v>973</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="49" t="s">
+      <c r="F3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="48" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>974</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="49" t="s">
+      <c r="F4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="48" t="s">
         <v>975</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="48" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="48" t="s">
         <v>976</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="49" t="s">
+      <c r="F6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="48" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="48" t="s">
         <v>977</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="49" t="s">
+      <c r="F7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="48" t="s">
         <v>978</v>
       </c>
-      <c r="F8" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="49" t="s">
+      <c r="F8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="48" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>178</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="48" t="s">
         <v>979</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="48" t="s">
         <v>980</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="49" t="s">
+      <c r="F10" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="48" t="s">
         <v>981</v>
       </c>
-      <c r="F11" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="49" t="s">
+      <c r="F11" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="48" t="s">
         <v>982</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="49" t="str">
+      <c r="E13" s="48" t="str">
         <f t="array" ref="E13">"Previous cancer comorbidity related to "&amp;D13</f>
         <v>Previous cancer comorbidity related to Congestive heart failure (O)</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="49" t="s">
+      <c r="F13" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="E14" s="49" t="str">
+      <c r="E14" s="48" t="str">
         <f t="array" ref="E14">"Previous cancer comorbidity related to "&amp;D14</f>
         <v>Previous cancer comorbidity related to Peripheral vascular disease (O)</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="49" t="str">
+      <c r="E15" s="48" t="str">
         <f t="array" ref="E15">"Previous cancer comorbidity related to "&amp;D15</f>
         <v>Previous cancer comorbidity related to Cerebrovascular accident  (except hemiplegia) (O)</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="49" t="s">
+      <c r="F15" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="49" t="str">
+      <c r="E16" s="48" t="str">
         <f t="array" ref="E16">"Previous cancer comorbidity related to "&amp;D16</f>
         <v>Previous cancer comorbidity related to Dementia (O)</v>
       </c>
-      <c r="F16" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="49" t="s">
+      <c r="F16" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="E17" s="49" t="str">
+      <c r="E17" s="48" t="str">
         <f t="array" ref="E17">"Previous cancer comorbidity related to "&amp;D17</f>
         <v>Previous cancer comorbidity related to Chronic pulmonary disease (O)</v>
       </c>
-      <c r="F17" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="49" t="s">
+      <c r="F17" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="E18" s="49" t="str">
+      <c r="E18" s="48" t="str">
         <f t="array" ref="E18">"Previous cancer comorbidity related to "&amp;D18</f>
         <v>Previous cancer comorbidity related to Connective tissue disease (O)</v>
       </c>
-      <c r="F18" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="49" t="s">
+      <c r="F18" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="E19" s="49" t="str">
+      <c r="E19" s="48" t="str">
         <f t="array" ref="E19">"Previous cancer comorbidity related to "&amp;D19</f>
         <v>Previous cancer comorbidity related to Ulcer (O)</v>
       </c>
-      <c r="F19" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="49" t="s">
+      <c r="F19" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="E20" s="49" t="str">
+      <c r="E20" s="48" t="str">
         <f t="array" ref="E20">"Previous cancer comorbidity related to "&amp;D20</f>
         <v>Previous cancer comorbidity related to Mild liver disease (O)</v>
       </c>
-      <c r="F20" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="49" t="s">
+      <c r="F20" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="E21" s="49" t="str">
+      <c r="E21" s="48" t="str">
         <f t="array" ref="E21">"Previous cancer comorbidity related to "&amp;D21</f>
         <v>Previous cancer comorbidity related to Moderate to severe liver disease (O)</v>
       </c>
-      <c r="F21" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="49" t="s">
+      <c r="F21" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="49" t="str">
+      <c r="E22" s="48" t="str">
         <f t="array" ref="E22">"Previous cancer comorbidity related to "&amp;D22</f>
         <v>Previous cancer comorbidity related to Diabetes (without complications) (O)</v>
       </c>
-      <c r="F22" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="49" t="s">
+      <c r="F22" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="49" t="str">
+      <c r="E23" s="48" t="str">
         <f t="array" ref="E23">"Previous cancer comorbidity related to "&amp;D23</f>
         <v>Previous cancer comorbidity related to Diabetes with end organ damage (O)</v>
       </c>
-      <c r="F23" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="49" t="s">
+      <c r="F23" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="E24" s="49" t="str">
+      <c r="E24" s="48" t="str">
         <f t="array" ref="E24">"Previous cancer comorbidity related to "&amp;D24</f>
         <v>Previous cancer comorbidity related to Hemiplegia (O)</v>
       </c>
-      <c r="F24" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="49" t="s">
+      <c r="F24" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="49" t="str">
+      <c r="E25" s="48" t="str">
         <f t="array" ref="E25">"Previous cancer comorbidity related to "&amp;D25</f>
         <v>Previous cancer comorbidity related to Moderate to severe renal disease (O)</v>
       </c>
-      <c r="F25" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="49" t="s">
+      <c r="F25" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="49" t="str">
+      <c r="E26" s="48" t="str">
         <f t="array" ref="E26">"Previous cancer comorbidity related to "&amp;D26</f>
         <v>Previous cancer comorbidity related to Solid tumor (non metastatic) (O)</v>
       </c>
-      <c r="F26" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="49" t="s">
+      <c r="F26" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="E27" s="49" t="str">
+      <c r="E27" s="48" t="str">
         <f t="array" ref="E27">"Previous cancer comorbidity related to "&amp;D27</f>
         <v>Previous cancer comorbidity related to Metastatic solid tumor (O)</v>
       </c>
-      <c r="F27" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="49" t="s">
+      <c r="F27" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="49" t="str">
+      <c r="E28" s="48" t="str">
         <f t="array" ref="E28">"Previous cancer comorbidity related to "&amp;D28</f>
         <v>Previous cancer comorbidity related to Leukemia (O)</v>
       </c>
-      <c r="F28" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="49" t="s">
+      <c r="F28" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="E29" s="49" t="str">
+      <c r="E29" s="48" t="str">
         <f t="array" ref="E29">"Previous cancer comorbidity related to "&amp;D29</f>
         <v>Previous cancer comorbidity related to Lymphoma (O)</v>
       </c>
-      <c r="F29" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="49" t="s">
+      <c r="F29" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="E30" s="49" t="str">
+      <c r="E30" s="48" t="str">
         <f t="array" ref="E30">"Previous cancer comorbidity related to "&amp;D30</f>
         <v>Previous cancer comorbidity related to Multiple myeloma (O)</v>
       </c>
-      <c r="F30" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="49" t="s">
+      <c r="F30" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="E31" s="49" t="str">
+      <c r="E31" s="48" t="str">
         <f t="array" ref="E31">"Previous cancer comorbidity related to "&amp;D31</f>
         <v>Previous cancer comorbidity related to AIDS (O)</v>
       </c>
-      <c r="F31" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="49" t="s">
+      <c r="F31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="48" t="s">
         <v>983</v>
       </c>
-      <c r="F32" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="49" t="s">
+      <c r="F32" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="48" t="s">
         <v>983</v>
       </c>
-      <c r="F33" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="49" t="s">
+      <c r="F33" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="48" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="48" t="s">
         <v>984</v>
       </c>
-      <c r="F34" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="49" t="s">
+      <c r="F34" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="48" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="48" t="s">
         <v>984</v>
       </c>
-      <c r="F35" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="49" t="s">
+      <c r="F35" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H35" s="49" t="s">
+      <c r="H35" s="48" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="48" t="s">
         <v>985</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G36" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="49" t="s">
+      <c r="G36" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="48" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="48" t="s">
         <v>986</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="49" t="s">
+      <c r="G37" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="48" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="48" t="s">
         <v>989</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G38" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="49" t="s">
+      <c r="G38" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="48" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="48" t="s">
         <v>990</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="49" t="s">
+      <c r="G39" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="48" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="48" t="s">
         <v>991</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="49" t="s">
+      <c r="G40" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="48" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="48" t="s">
         <v>992</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="49" t="s">
+      <c r="G41" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="48" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="48" t="s">
         <v>993</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G42" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="49" t="s">
+      <c r="G42" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="48" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="48" t="s">
         <v>994</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G43" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="49" t="s">
+      <c r="G43" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="48" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="48" t="s">
         <v>995</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="49" t="s">
+      <c r="G44" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="48" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="48" t="s">
         <v>996</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="49" t="s">
+      <c r="G45" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="48" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="48" t="s">
         <v>997</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G46" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="49" t="s">
+      <c r="G46" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="48" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="48" t="s">
         <v>998</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G47" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="49" t="s">
+      <c r="G47" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="48" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="48" t="s">
         <v>987</v>
       </c>
-      <c r="F48" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="49" t="s">
+      <c r="F48" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="48" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="48" t="s">
         <v>891</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="48" t="s">
         <v>988</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="49" t="s">
+      <c r="G49" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="48" t="s">
         <v>348</v>
       </c>
     </row>
@@ -17538,10 +17484,9 @@
   </sheetPr>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A50" sqref="A50:XFD51"/>
     </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18851,7 +18796,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19676,11 +19620,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C15"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="1">
-      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19786,7 +19727,7 @@
         <v>Surgery type (M)</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
@@ -19956,14 +19897,14 @@
         <v>Tumor rupture (M)</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -20063,7 +20004,7 @@
         <v>118</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20089,7 +20030,7 @@
         <v>118</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20115,7 +20056,7 @@
         <v>118</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20141,7 +20082,7 @@
         <v>114</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -20167,7 +20108,7 @@
         <v>118</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -20193,7 +20134,7 @@
         <v>118</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -20242,7 +20183,7 @@
         <v>118</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20268,7 +20209,7 @@
         <v>118</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20294,7 +20235,7 @@
         <v>118</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20320,7 +20261,7 @@
         <v>118</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20346,7 +20287,7 @@
         <v>118</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20372,7 +20313,7 @@
         <v>118</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20398,7 +20339,7 @@
         <v>118</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20424,7 +20365,7 @@
         <v>118</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20450,7 +20391,7 @@
         <v>118</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -20476,7 +20417,7 @@
         <v>118</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -20547,7 +20488,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20980,15 +20920,12 @@
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D113B-68AE-4993-B10D-204275957080}">
   <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21100,7 +21037,7 @@
         <v>1142</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="14"/>
@@ -21125,7 +21062,7 @@
         <v>1143</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="14"/>
@@ -21302,8 +21239,8 @@
         <f>SystemicTreatmentI4RC!D11</f>
         <v>Number of cycles/ administrations (O)</v>
       </c>
-      <c r="E12" s="60" t="s">
-        <v>1206</v>
+      <c r="E12" s="3" t="s">
+        <v>1216</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="24" t="s">
@@ -21503,14 +21440,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12E22AA-E82A-4575-B56A-44D33559CD2C}">
   <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21556,7 +21492,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>AdverseEventI4RC!A2</f>
@@ -21581,7 +21517,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>AdverseEventI4RC!A3</f>
@@ -21606,7 +21542,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>AdverseEventI4RC!A4</f>
@@ -21631,7 +21567,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/AdverseEvent</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>AdverseEventI4RC!A5</f>
@@ -21641,15 +21577,15 @@
         <f>AdverseEventI4RC!D5</f>
         <v>Adverse event duration (M)</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>1146</v>
+      <c r="E5" s="8" t="s">
+        <v>1209</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -21659,17 +21595,19 @@
       <c r="D7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" s="36"/>
+      <c r="H13" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{F0765931-8736-4740-8DB6-DF1295AE6A41}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{BEBA1B77-9D4F-45AC-BE80-371313DC8EF3}"/>
     <hyperlink ref="A3:A5" r:id="rId3" display="http://hl7.eu/fhir/eps/StructureDefinition/Alerts" xr:uid="{52459153-6409-49E7-A9F6-06FCA66B8F0D}"/>
-    <hyperlink ref="B3:B5" r:id="rId4" display="http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/adverseEvent-eu-i4rc" xr:uid="{EF2863A9-26D6-40BA-A2B8-6B018A7648ED}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{C781A928-F285-404C-B249-093180E7974F}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{B505E530-BAB7-497E-ABC2-48520923F2CA}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{32231032-4E9B-4A60-B38D-04FBD7D69CFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -21681,7 +21619,6 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21788,7 +21725,6 @@
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
-    <sheetView topLeftCell="B1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21959,7 +21895,6 @@
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A13" sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView topLeftCell="D1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21972,7 +21907,7 @@
     <col min="8" max="8" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
@@ -21997,7 +21932,7 @@
       <c r="H1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="61"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22033,7 +21968,7 @@
       <c r="B3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="61" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -23150,11 +23085,8 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-    <sheetView topLeftCell="C1" workbookViewId="1">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H30" sqref="B30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23251,7 +23183,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>ClinicalStageI4RC!A4</f>
@@ -23262,14 +23194,14 @@
         <v>Imaging for primary site (M)</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23278,7 +23210,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>ClinicalStageI4RC!A5</f>
@@ -23289,14 +23221,14 @@
         <v>CT for primary site (R)</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23305,7 +23237,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>ClinicalStageI4RC!A6</f>
@@ -23316,14 +23248,14 @@
         <v>MRI for primary site (R)</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23332,7 +23264,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>ClinicalStageI4RC!A7</f>
@@ -23343,14 +23275,14 @@
         <v>US for primary site (R)</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23359,7 +23291,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>ClinicalStageI4RC!A8</f>
@@ -23370,14 +23302,14 @@
         <v>Other imaging for primary site (R)</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23386,7 +23318,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>ClinicalStageI4RC!A9</f>
@@ -23397,14 +23329,14 @@
         <v>Imaging for neck (M)</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23413,7 +23345,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>ClinicalStageI4RC!A10</f>
@@ -23424,14 +23356,14 @@
         <v>CT for neck (R)</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23440,7 +23372,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>ClinicalStageI4RC!A11</f>
@@ -23451,14 +23383,14 @@
         <v>MRI for neck (R)</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23467,7 +23399,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>ClinicalStageI4RC!A12</f>
@@ -23478,14 +23410,14 @@
         <v>US for neck (R)</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -23494,7 +23426,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>ClinicalStageI4RC!A13</f>
@@ -23505,14 +23437,14 @@
         <v>Other imaging for neck (R)</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -23521,7 +23453,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>ClinicalStageI4RC!A14</f>
@@ -23532,14 +23464,14 @@
         <v>Imaging for metastasis (M)</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -23548,7 +23480,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>ClinicalStageI4RC!A15</f>
@@ -23559,14 +23491,14 @@
         <v>CT for metastasis (R)</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -23575,7 +23507,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>ClinicalStageI4RC!A16</f>
@@ -23586,14 +23518,14 @@
         <v>MRI for metastasis (R)</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23602,7 +23534,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>ClinicalStageI4RC!A17</f>
@@ -23613,14 +23545,14 @@
         <v>US for metastasis (R)</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -23629,7 +23561,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>ClinicalStageI4RC!A18</f>
@@ -23640,14 +23572,14 @@
         <v>Other imaging for metastasis (R)</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -23942,7 +23874,7 @@
         <v>118</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -23969,7 +23901,7 @@
         <v>118</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -23978,7 +23910,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C31" s="2" t="str">
         <f>ClinicalStageI4RC!A25</f>
@@ -24003,7 +23935,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C32" s="2" t="str">
         <f>ClinicalStageI4RC!A26</f>
@@ -24017,11 +23949,11 @@
         <v>1087</v>
       </c>
       <c r="F32" s="14"/>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24030,7 +23962,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C33" s="2" t="str">
         <f>ClinicalStageI4RC!A27</f>
@@ -24044,11 +23976,11 @@
         <v>1087</v>
       </c>
       <c r="F33" s="14"/>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24057,7 +23989,7 @@
         <v>http://hl7.eu/fhir/ig/idea4rc/StructureDefinition/ClinicalStage</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C34" s="2" t="str">
         <f>ClinicalStageI4RC!A28</f>
@@ -24071,11 +24003,11 @@
         <v>1087</v>
       </c>
       <c r="F34" s="14"/>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -24422,10 +24354,9 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
